--- a/orcamentos/ldo_2.xlsx
+++ b/orcamentos/ldo_2.xlsx
@@ -367,10 +367,10 @@
     <t>PROGRAMA: 5200 - SÃO PAULO INTERNACIONAL</t>
   </si>
   <si>
-    <t>FUNCIONÁRIOS PARTICIPANTESDE CAPACITAÇÃO EDESENVOLVIMENTO HUMANO</t>
-  </si>
-  <si>
-    <t>HORAS PRODUZIDAS ETRANSMITIDAS PELA TV ALESP</t>
+    <t>FUNCIONÁRIOS PARTICIPANTES DE CAPACITAÇÃO E DESENVOLVIMENTO HUMANO</t>
+  </si>
+  <si>
+    <t>HORAS PRODUZIDAS E TRANSMITIDAS PELA TV ALESP</t>
   </si>
   <si>
     <t>EVENTOS REALIZADOS</t>
@@ -379,16 +379,16 @@
     <t>SESSÕES LEGISLATIVAS</t>
   </si>
   <si>
-    <t>OBRAS, ADAPTAÇÕES E/OUREFORMAS NO PALÁCIO 9 DEJULHO</t>
+    <t>OBRAS, ADAPTAÇÕES E/OU REFORMAS NO PALÁCIO 9 DE JULHO</t>
   </si>
   <si>
     <t>PROCESSOS INFORMATIZADOS</t>
   </si>
   <si>
-    <t>EQUIPAMENTOS EM REDE ESISTEMAS</t>
-  </si>
-  <si>
-    <t>DIVULGAÇÃO DE AÇÕES DEPUBLICIDADE INSTITUCIONAL</t>
+    <t>EQUIPAMENTOS EM REDE E SISTEMAS</t>
+  </si>
+  <si>
+    <t>DIVULGAÇÃO DE AÇÕES DE PUBLICIDADE INSTITUCIONAL</t>
   </si>
   <si>
     <t>MELHORIAS E AMPLIAÇÕES</t>
@@ -400,136 +400,136 @@
     <t>CAPACITAÇÃO DE SERVIDORES</t>
   </si>
   <si>
-    <t>CONSTRUÇÃO, REFORMAS EAQUISIÇÃO DE IMÓVEIS</t>
-  </si>
-  <si>
-    <t>TRANSPORTE DOS OFICIAIS DEJUSTIÇA EM DILIGÊNCIASJUDICIAIS</t>
-  </si>
-  <si>
-    <t>CURSOS, TREINAMENTOS EPALESTRAS</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE PRESTAÇÃOJURISDICIONAL NO PRIMEIRO ENOSEGUNDO GRAU</t>
+    <t>CONSTRUÇÃO, REFORMAS E AQUISIÇÃO DE IMÓVEIS</t>
+  </si>
+  <si>
+    <t>TRANSPORTE DOS OFICIAIS DE JUSTIÇA EM DILIGÊNCIAS JUDICIAIS</t>
+  </si>
+  <si>
+    <t>CURSOS, TREINAMENTOS E PALESTRAS</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE PRESTAÇÃO JURISDICIONAL NO PRIMEIRO E NO SEGUNDO GRAU</t>
   </si>
   <si>
     <t>PROCESSOS DIGITAIS</t>
   </si>
   <si>
-    <t>MATÉRIAS GERADAS PARATRANSPARÊNCIA DAS AÇÕESDA INSTITUIÇÃO</t>
-  </si>
-  <si>
-    <t>DESENVOLVIMENTO DEATIVIDADES CORREICIONAIS</t>
+    <t>MATÉRIAS GERADAS PARA TRANSPARÊNCIA DAS AÇÕES DA INSTITUIÇÃO</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO DE ATIVIDADES CORREICIONAIS</t>
   </si>
   <si>
     <t>AÇÕES JULGADAS</t>
   </si>
   <si>
-    <t>EDUCAÇÃO INTEGRALOFERECIDA AOS ALUNOS</t>
-  </si>
-  <si>
-    <t>MATERIAIS E RECURSOSDIDÁTICO-PEDAGÓGICOSOFERTADOS AOS ALUNOS EPROFISSIONAIS</t>
-  </si>
-  <si>
-    <t>ATIVIDADESCOMPLEMENTARES AOCURRÍCULO E CONEXÃO COM ACOMUNIDADE ESCOLAR</t>
+    <t>EDUCAÇÃO INTEGRAL OFERECIDA AOS ALUNOS</t>
+  </si>
+  <si>
+    <t>MATERIAIS E RECURSOS DIDÁTICO-PEDAGÓGICOS OFERTADOS AOS ALUNOS E PROFISSIONAIS</t>
+  </si>
+  <si>
+    <t>ATIVIDADES COMPLEMENTARES AO CURRÍCULO E CONEXÃO COM A COMUNIDADE ESCOLAR</t>
   </si>
   <si>
     <t>EDUCAÇÃO ESPECIAL</t>
   </si>
   <si>
-    <t>EDUCAÇÃO DE JOVENS EADULTOS EATENDIMENTO ESCOLAR PARAPÚBLICOS ESPECÍFICOS</t>
-  </si>
-  <si>
-    <t>DESENVOLVIMENTO EAPERFEIÇOAMENTO DOSPROFISSIONAIS DA EDUCAÇÃO(REDES PÚBLICAS)</t>
-  </si>
-  <si>
-    <t>GESTÃO DA APRENDIZAGEM:FORMAÇÃO, ENSINO,MONITORAMENTO E AVALIAÇÃO</t>
-  </si>
-  <si>
-    <t>OPÇÕES DE ITINERÁRIOSFORMATIVOS OFERECIDOS AOSALUNOS DO ENSINO MÉDIO</t>
-  </si>
-  <si>
-    <t>ATENDIMENTO NA EDUCAÇÃOBÁSICA</t>
-  </si>
-  <si>
-    <t>ALIMENTAÇÃO ESCOLAROFERECIDA AOS ALUNOS DAREDE ESTADUAL</t>
-  </si>
-  <si>
-    <t>TRANSPORTE ESCOLARREGULAR E ESPECIALIZADOGARANTIDO</t>
-  </si>
-  <si>
-    <t>REDE FÍSICA ESCOLARADEQUADA PARA AAPRENDIZAGEM A PARTIR DOCURRÍCULO PAULISTA</t>
-  </si>
-  <si>
-    <t>EQUIPAMENTOS,MOBILIÁRIO,SUPRIMENTO,SERVIÇOS E KIT ESCOLAR PARA ONOVO CURRÍCULO</t>
-  </si>
-  <si>
-    <t>PROFISSIONALIZAÇÃO EGESTÃO DE PESSOAS COMFOCO NA APRENDIZAGEM</t>
-  </si>
-  <si>
-    <t>PARCERIAS ESTADO-MUNICÍPIOS PARACONSTRUÇÕES ESCOLARES</t>
-  </si>
-  <si>
-    <t>INOVAÇÃO E MELHORIA NOSPROCESSOS DE GESTÃO DASECRETARIA DE EDUCAÇÃO</t>
-  </si>
-  <si>
-    <t>ATENDIMENTOS DE SAÚDE DEALTA E MÉDIA COMPLEXIDADEDE OUTROS HOSP ADM INDIR</t>
-  </si>
-  <si>
-    <t>ATENDIMENTOS DE SAÚDE DEALTA E MÉDIA COMPLEXIDADEDA ADM. DIRETA E INDIRETA</t>
-  </si>
-  <si>
-    <t>APOIO TÉCNICO E/OUFINANCEIRO AOS MUNICÍPIOSPARA A ATENÇÃO BÁSICA</t>
-  </si>
-  <si>
-    <t>ATENDIMENTOS DEREABILITAÇÃO REALIZADOSPELA REDE LUCY MONTORO</t>
-  </si>
-  <si>
-    <t>APOIO FINANCEIRO PARAATENDIMENTO DE ATENÇÃOBÁSICA DA POPULAÇÃOPRISIONAL</t>
-  </si>
-  <si>
-    <t>ACESSO AOS MEDICAMENTOSPELA POPULAÇÃO, COM APROMOÇÃO DE SEU USORACIONAL</t>
-  </si>
-  <si>
-    <t>ATENDIMENTOS DE SAÚDE DEALTA E MÉDIA COMPLEXIDADEDAS UNIDADES GER. PELASOSS</t>
-  </si>
-  <si>
-    <t>ATEND. SAÚDE ALTA E MÉDIACOMPLEXIDADE  SERV.CONTRAT/CONV. SOB GESTÃOESTADUAL</t>
-  </si>
-  <si>
-    <t>APOIO FINANCEIRO AMUNICÍPIO E ENTIDADEFILANTRÓPICA P/MÉDIA E ALTACOMPLEXIDADE</t>
-  </si>
-  <si>
-    <t>PROVIMENTO DEINFRAESTRUTURA PARAFUNCIONAMENTO DEHOSPITAIS CONSTRUÍDOS PORPPP</t>
-  </si>
-  <si>
-    <t>IMUNIZAÇÃO CONTRADOENÇAS IMUNOPREVENÍVEIS</t>
-  </si>
-  <si>
-    <t>VIGILÂNCIA SANITÁRIA DEPROD., SERV. MEIO AMB. ESAÚDE DO TRABALHADOR</t>
-  </si>
-  <si>
-    <t>VIGILÂNCIA AMBIENTAL DAQUALIDADE DA ÁGUA, ÁREASCONTAMINADAS E FATORES DERISCO</t>
-  </si>
-  <si>
-    <t>EXAMES LABORATORIAIS DEINTERESSE EM SAÚDE PÚBLICAREALIZADOS</t>
-  </si>
-  <si>
-    <t>AÇÕES DE VIGILÂNCIAEPIDEMIOLÓGICA DE DOENÇAS/AGRAVOS TRANSMISSÍVEISREALIZADAS</t>
-  </si>
-  <si>
-    <t>AÇÕES DE CONTROLE DOSVETORES E HOSPED.INTERMEDIÁRIOS DE DOENÇAS</t>
-  </si>
-  <si>
-    <t>MAPEAMENTO DO PERFILEPIDEM. DO CÂNCER NA REDEDE ONCOLOGIA DO ESTADO</t>
-  </si>
-  <si>
-    <t>MORBI-MORTALIDADE PORDOENÇAS CRÔNICAS NÃOTRANSMISSÍVEIS</t>
-  </si>
-  <si>
-    <t>PESQUISAS CIENTÍFICAS EMSAÚDE DESENVOLVIDAS PELASUCEN, FOSP E CCD.</t>
-  </si>
-  <si>
-    <t>PESQUISAS DE INOVAÇÃOTECNOLÓGICA EM SAÚDEDESENVOLVIDAS</t>
+    <t>EDUCAÇÃO DE JOVENS E ADULTOS E ATENDIMENTO ESCOLAR PARA PÚBLICOS ESPECÍFICOS</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO E APERFEIÇOAMENTO DOS PROFISSIONAIS DA EDUCAÇÃO (REDES PÚBLICAS)</t>
+  </si>
+  <si>
+    <t>GESTÃO DA APRENDIZAGEM: FORMAÇÃO, ENSINO, MONITORAMENTO E AVALIAÇÃO</t>
+  </si>
+  <si>
+    <t>OPÇÕES DE ITINERÁRIOS FORMATIVOS OFERECIDOS AOS ALUNOS DO ENSINO MÉDIO</t>
+  </si>
+  <si>
+    <t>ATENDIMENTO NA EDUCAÇÃO BÁSICA</t>
+  </si>
+  <si>
+    <t>ALIMENTAÇÃO ESCOLAR OFERECIDA AOS ALUNOS DA REDE ESTADUAL</t>
+  </si>
+  <si>
+    <t>TRANSPORTE ESCOLAR REGULAR E ESPECIALIZADO GARANTIDO</t>
+  </si>
+  <si>
+    <t>REDE FÍSICA ESCOLAR ADEQUADA PARA A APRENDIZAGEM A PARTIR DO CURRÍCULO PAULISTA</t>
+  </si>
+  <si>
+    <t>EQUIPAMENTOS, MOBILIÁRIO,SUPRIMENTO,SERV IÇOS E KIT ESCOLAR PARA O NOVO CURRÍCULO</t>
+  </si>
+  <si>
+    <t>PROFISSIONALIZAÇÃO E GESTÃO DE PESSOAS COM FOCO NA APRENDIZAGEM</t>
+  </si>
+  <si>
+    <t>PARCERIAS ESTADO- MUNICÍPIOS PARA CONSTRUÇÕES ESCOLARES</t>
+  </si>
+  <si>
+    <t>INOVAÇÃO E MELHORIA NOS PROCESSOS DE GESTÃO DA SECRETARIA DE EDUCAÇÃO</t>
+  </si>
+  <si>
+    <t>ATENDIMENTOS DE SAÚDE DE ALTA E MÉDIA COMPLEXIDADE DE OUTROS HOSP ADM INDIR</t>
+  </si>
+  <si>
+    <t>ATENDIMENTOS DE SAÚDE DE ALTA E MÉDIA COMPLEXIDADE DA ADM. DIRETA E INDIRETA</t>
+  </si>
+  <si>
+    <t>APOIO TÉCNICO E/OU FINANCEIRO AOS MUNICÍPIOS PARA A ATENÇÃO BÁSICA</t>
+  </si>
+  <si>
+    <t>ATENDIMENTOS DE REABILITAÇÃO REALIZADOS PELA REDE LUCY MONTORO</t>
+  </si>
+  <si>
+    <t>APOIO FINANCEIRO PARA ATENDIMENTO DE ATENÇÃO BÁSICA DA POPULAÇÃO PRISIONAL</t>
+  </si>
+  <si>
+    <t>ACESSO AOS MEDICAMENTOS PELA POPULAÇÃO, COM A PROMOÇÃO DE SEU USO RACIONAL</t>
+  </si>
+  <si>
+    <t>ATENDIMENTOS DE SAÚDE DE ALTA E MÉDIA COMPLEXIDADE DAS UNIDADES GER. PELAS OSS</t>
+  </si>
+  <si>
+    <t>ATEND. SAÚDE ALTA E MÉDIA COMPLEXIDADE  SERV. CONTRAT/CONV. SOB GESTÃO ESTADUAL</t>
+  </si>
+  <si>
+    <t>APOIO FINANCEIRO A MUNICÍPIO E ENTIDADE FILANTRÓPICA P/MÉDIA E ALTA COMPLEXIDADE</t>
+  </si>
+  <si>
+    <t>PROVIMENTO DE INFRAESTRUTURA PARA FUNCIONAMENTO DE HOSPITAIS CONSTRUÍDOS POR PPP</t>
+  </si>
+  <si>
+    <t>IMUNIZAÇÃO CONTRA DOENÇAS IMUNOPREVENÍVEIS</t>
+  </si>
+  <si>
+    <t>VIGILÂNCIA SANITÁRIA DE PROD., SERV. MEIO AMB. E SAÚDE DO TRABALHADOR</t>
+  </si>
+  <si>
+    <t>VIGILÂNCIA AMBIENTAL DA QUALIDADE DA ÁGUA, ÁREAS CONTAMINADAS E FATORES DE RISCO</t>
+  </si>
+  <si>
+    <t>EXAMES LABORATORIAIS DE INTERESSE EM SAÚDE PÚBLICA REALIZADOS</t>
+  </si>
+  <si>
+    <t>AÇÕES DE VIGILÂNCIA EPIDEMIOLÓGICA DE DOENÇAS/ AGRAVOS TRANSMISSÍVEIS REALIZADAS</t>
+  </si>
+  <si>
+    <t>AÇÕES DE CONTROLE DOS VETORES E HOSPED. INTERMEDIÁRIOS DE DOENÇAS</t>
+  </si>
+  <si>
+    <t>MAPEAMENTO DO PERFIL EPIDEM. DO CÂNCER NA REDE DE ONCOLOGIA DO ESTADO</t>
+  </si>
+  <si>
+    <t>MORBI-MORTALIDADE POR DOENÇAS CRÔNICAS NÃO TRANSMISSÍVEIS</t>
+  </si>
+  <si>
+    <t>PESQUISAS CIENTÍFICAS EM SAÚDE DESENVOLVIDAS PELA SUCEN, FOSP E CCD.</t>
+  </si>
+  <si>
+    <t>PESQUISAS DE INOVAÇÃO TECNOLÓGICA EM SAÚDE DESENVOLVIDAS</t>
   </si>
   <si>
     <t>HORA MARCADA</t>
@@ -541,130 +541,130 @@
     <t>HISTÓRIA CLÍNICO DIGITAL</t>
   </si>
   <si>
-    <t>BOLSAS DEHEMOCOMPONENTESPROCESSADAS PELASUNIDADES DA SECRETARIA DESAÚDE/SP.</t>
-  </si>
-  <si>
-    <t>DOSES DE VACINASENTREGUES</t>
+    <t>BOLSAS DE HEMOCOMPONENTES PROCESSADAS PELAS UNIDADES DA SECRETARIA DE SAÚDE/SP.</t>
+  </si>
+  <si>
+    <t>DOSES DE VACINAS ENTREGUES</t>
   </si>
   <si>
     <t>FRASCOS AMPOLA ENTREGUES</t>
   </si>
   <si>
-    <t>UNIDADES FARMACOTÉCNICASENTREGUES PELA FURP</t>
-  </si>
-  <si>
-    <t>CÉLULAS MESENQUIMAISPRODUZIDAS</t>
-  </si>
-  <si>
-    <t>UNIDADES FARMACOTÉCNICASENTREGUES PELA IF AMERICOBRASILIENSE.</t>
-  </si>
-  <si>
-    <t>ATIVIDADES OBRIGATÓRIAS DOCONSELHO ESTADUAL DESAÚDE</t>
-  </si>
-  <si>
-    <t>MODELO DE GESTÃO DE SAÚDEINTEGRADA DO SUSIMPLANTADO EM 5 REGIÕESPRIORIZADAS</t>
+    <t>UNIDADES FARMACOTÉCNICAS ENTREGUES PELA FURP</t>
+  </si>
+  <si>
+    <t>CÉLULAS MESENQUIMAIS PRODUZIDAS</t>
+  </si>
+  <si>
+    <t>UNIDADES FARMACOTÉCNICAS ENTREGUES PELA IF AMERICO BRASILIENSE.</t>
+  </si>
+  <si>
+    <t>ATIVIDADES OBRIGATÓRIAS DO CONSELHO ESTADUAL DE SAÚDE</t>
+  </si>
+  <si>
+    <t>MODELO DE GESTÃO DE SAÚDE INTEGRADA DO SUS IMPLANTADO EM 5 REGIÕES PRIORIZADAS</t>
   </si>
   <si>
     <t>SALA DE SITUAÇÃO DA SAÚDE</t>
   </si>
   <si>
-    <t>OBRAS DE REFORMA EAMPLIAÇÃO NAS UNIDADES DESAÚDE</t>
-  </si>
-  <si>
-    <t>AQUISIÇÃO DE MÓVEIS EEQUIPAMENTOS MÉDICO-HOSP.PARA AS UNID. DA ADM DIR. EIND.</t>
-  </si>
-  <si>
-    <t>HOSPITAIS CONSTRUÍDOS PORMEIO DE PARCERIA PÚBLICO-PRIVADA</t>
-  </si>
-  <si>
-    <t>PROFISSIONAIS FORMADOSESPECIALIZAÇÃO "LATO SENSU"P/ ATENDER A DEMANDA DOSUS</t>
-  </si>
-  <si>
-    <t>MÉDICOS ESPECIALISTASFORMADOS POR MEIO DOPROGRAMA DE RESIDÊNCIAMÉDICA</t>
-  </si>
-  <si>
-    <t>TRABALHADORES DO SISTEMAÚNICO DE SAÚDE (SUS)CAPACITADOS</t>
-  </si>
-  <si>
-    <t>PROFISSIONAIS ATUALIZADOSEM CONHECIMENTO TÉCNICO-CIENTÍFICOS EM SAÚDE</t>
-  </si>
-  <si>
-    <t>CUIDADO INTEGRAL DA SAÚDEDE USUÁRIOS DE SUBSTÂNCIAPSICOATIVAS NA REDE DO SUS</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE ACOLHIMENTOINSTITUCIONAL PARA PESSOASCOM DEPENDÊNCIA</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE ACOLHIMENTOINSTITUCIONAL PARAAUTONOMIA E REINTEGRAÇÃOSOCIAL</t>
-  </si>
-  <si>
-    <t>PREVENÇÃO AO USO E ABUSODE DROGAS NOSEQUIPAMENTOSSOCIOASSISTENCIAIS</t>
-  </si>
-  <si>
-    <t>APOIO AOS ECOSSISTEMAS DEINOVAÇÃO DO ESTADO DE SP</t>
-  </si>
-  <si>
-    <t>POLÍTICA ESTADUAL DEARTESANATO - SUTACO</t>
-  </si>
-  <si>
-    <t>POLÍTICA PARA AUMENTO DAPRODUTIVIDADE EDESENVOLVIMENTOECONÔMICO SUSTENTÁVEL</t>
-  </si>
-  <si>
-    <t>VIABILIZAÇÃO DE  SOLUÇÕESINOVADORAS PARA GOVERNOE APOIO A NEGÓCIOS DEIMPACTO</t>
-  </si>
-  <si>
-    <t>APOIO AO DESENVOLVIMENTOE ADOÇÃO DE TECNOLOGIASESTRATÉGICAS</t>
-  </si>
-  <si>
-    <t>IMPLANTAÇÃO DA AGENDA DEMELHORIAS DACOMPETITIVIDADE DOCOMÉRCIO EXTERIOR</t>
-  </si>
-  <si>
-    <t>ATRAÇÃO DE INVESTIMENTOS EAUMENTO DECOMPETITIVIDADE</t>
-  </si>
-  <si>
-    <t>FOMENTO À ATIVIDADEEMPREENDEDORA -EMPREENDA SP</t>
-  </si>
-  <si>
-    <t>FOMENTO AO MICROCRÉDITOPRODUTIVO - BANCO DO POVOPAULISTA</t>
-  </si>
-  <si>
-    <t>PLANEJAMENTO DO CITI -CENTRO INTERNACIONAL DETECNOLOGIA E INOVAÇÃO</t>
-  </si>
-  <si>
-    <t>FINANCIAMENTO DE PROJETOSDE CIÊNCIA, TECNOLOGIA EINOVAÇÃO PELO FUNCET</t>
-  </si>
-  <si>
-    <t>SERVIÇOS E PESQUISATECNOLÓGICAS EM APOIO AODESENVOLVIMENTO EINOVAÇÃO</t>
-  </si>
-  <si>
-    <t>MODERNIZAÇÃO DEINFRAESTRUTURA E DELABORATÓRIOSTECNOLÓGICOS</t>
-  </si>
-  <si>
-    <t>ENSINO MÉDIO OFERECIDOPELO CENTRO PAULA SOUZA</t>
-  </si>
-  <si>
-    <t>ENSINO TÉCNICO OFERECIDOPELO GOVERNO DO ESTADO DESÃO PAULO</t>
-  </si>
-  <si>
-    <t>ENSINO SUPERIORTECNOLÓGICO OFERECIDOPELO CENTRO PAULA SOUZA</t>
-  </si>
-  <si>
-    <t>DESENVOLVIMENTO EAPERFEIÇOAMENTO DEDOCENTES E TÉCNICOSADMINISTRATIVOS</t>
-  </si>
-  <si>
-    <t>NOVOTEC INTEGRADOOFERECIDO PELO GOVERNODO ESTADO DE SÃO PAULO</t>
-  </si>
-  <si>
-    <t>FORMAÇÃO INICIAL EEDUCAÇÃO CONTINUADAOFERECIDA PELO CENTROPAULA SOUZA</t>
-  </si>
-  <si>
-    <t>INTEGRAÇÃO DO VIA RÁPIDAEMPRESA NA REDESIM</t>
-  </si>
-  <si>
-    <t>INSTALAÇÕES CONSTRUÍDAS EADEQUADAS</t>
-  </si>
-  <si>
-    <t>MUSEUS E MOSTRAS DEACERVO</t>
+    <t>OBRAS DE REFORMA E AMPLIAÇÃO NAS UNIDADES DE SAÚDE</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE MÓVEIS E EQUIPAMENTOS MÉDICO-HOSP. PARA AS UNID. DA ADM DIR. E IND.</t>
+  </si>
+  <si>
+    <t>HOSPITAIS CONSTRUÍDOS POR MEIO DE PARCERIA PÚBLICO- PRIVADA</t>
+  </si>
+  <si>
+    <t>PROFISSIONAIS FORMADOS ESPECIALIZAÇÃO "LATO SENSU" P/ ATENDER A DEMANDA DO SUS</t>
+  </si>
+  <si>
+    <t>MÉDICOS ESPECIALISTAS FORMADOS POR MEIO DO PROGRAMA DE RESIDÊNCIA MÉDICA</t>
+  </si>
+  <si>
+    <t>TRABALHADORES DO SISTEMA ÚNICO DE SAÚDE (SUS) CAPACITADOS</t>
+  </si>
+  <si>
+    <t>PROFISSIONAIS ATUALIZADOS EM CONHECIMENTO TÉCNICO- CIENTÍFICOS EM SAÚDE</t>
+  </si>
+  <si>
+    <t>CUIDADO INTEGRAL DA SAÚDE DE USUÁRIOS DE SUBSTÂNCIA PSICOATIVAS NA REDE DO SUS</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE ACOLHIMENTO INSTITUCIONAL PARA PESSOAS COM DEPENDÊNCIA</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE ACOLHIMENTO INSTITUCIONAL PARA AUTONOMIA E REINTEGRAÇÃO SOCIAL</t>
+  </si>
+  <si>
+    <t>PREVENÇÃO AO USO E ABUSO DE DROGAS NOS EQUIPAMENTOS SOCIOASSISTENCIAIS</t>
+  </si>
+  <si>
+    <t>APOIO AOS ECOSSISTEMAS DE INOVAÇÃO DO ESTADO DE SP</t>
+  </si>
+  <si>
+    <t>POLÍTICA ESTADUAL DE ARTESANATO - SUTACO</t>
+  </si>
+  <si>
+    <t>POLÍTICA PARA AUMENTO DA PRODUTIVIDADE E DESENVOLVIMENTO ECONÔMICO SUSTENTÁVEL</t>
+  </si>
+  <si>
+    <t>VIABILIZAÇÃO DE  SOLUÇÕES INOVADORAS PARA GOVERNO E APOIO A NEGÓCIOS DE IMPACTO</t>
+  </si>
+  <si>
+    <t>APOIO AO DESENVOLVIMENTO E ADOÇÃO DE TECNOLOGIAS ESTRATÉGICAS</t>
+  </si>
+  <si>
+    <t>IMPLANTAÇÃO DA AGENDA DE MELHORIAS DA COMPETITIVIDADE DO COMÉRCIO EXTERIOR</t>
+  </si>
+  <si>
+    <t>ATRAÇÃO DE INVESTIMENTOS E AUMENTO DE COMPETITIVIDADE</t>
+  </si>
+  <si>
+    <t>FOMENTO À ATIVIDADE EMPREENDEDORA - EMPREENDA SP</t>
+  </si>
+  <si>
+    <t>FOMENTO AO MICROCRÉDITO PRODUTIVO - BANCO DO POVO PAULISTA</t>
+  </si>
+  <si>
+    <t>PLANEJAMENTO DO CITI - CENTRO INTERNACIONAL DE TECNOLOGIA E INOVAÇÃO</t>
+  </si>
+  <si>
+    <t>FINANCIAMENTO DE PROJETOS DE CIÊNCIA, TECNOLOGIA E INOVAÇÃO PELO FUNCET</t>
+  </si>
+  <si>
+    <t>SERVIÇOS E PESQUISA TECNOLÓGICAS EM APOIO AO DESENVOLVIMENTO E INOVAÇÃO</t>
+  </si>
+  <si>
+    <t>MODERNIZAÇÃO DE INFRAESTRUTURA E DE LABORATÓRIOS TECNOLÓGICOS</t>
+  </si>
+  <si>
+    <t>ENSINO MÉDIO OFERECIDO PELO CENTRO PAULA SOUZA</t>
+  </si>
+  <si>
+    <t>ENSINO TÉCNICO OFERECIDO PELO GOVERNO DO ESTADO DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>ENSINO SUPERIOR TECNOLÓGICO OFERECIDO PELO CENTRO PAULA SOUZA</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO E APERFEIÇOAMENTO DE DOCENTES E TÉCNICOS ADMINISTRATIVOS</t>
+  </si>
+  <si>
+    <t>NOVOTEC INTEGRADO OFERECIDO PELO GOVERNO DO ESTADO DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>FORMAÇÃO INICIAL E EDUCAÇÃO CONTINUADA OFERECIDA PELO CENTRO PAULA SOUZA</t>
+  </si>
+  <si>
+    <t>INTEGRAÇÃO DO VIA RÁPIDA EMPRESA NA REDESIM</t>
+  </si>
+  <si>
+    <t>INSTALAÇÕES CONSTRUÍDAS E ADEQUADAS</t>
+  </si>
+  <si>
+    <t>MUSEUS E MOSTRAS DE ACERVO</t>
   </si>
   <si>
     <t>ENSINO DE GRADUAÇÃO</t>
@@ -682,136 +682,136 @@
     <t>PERMANÊNCIA ESTUDANTIL</t>
   </si>
   <si>
-    <t>PESQUISA, DESENVOLVIMENTOE INOVAÇÃO</t>
-  </si>
-  <si>
-    <t>BOLSAS DE ESTUDOS PARAPESQUISA EDESENVOLVIMENTO</t>
-  </si>
-  <si>
-    <t>ATRAÇÃO E ESTÍMULO DEGRANDES TALENTOS NOENSINO PÚBLICO SUPERIOR DOESP</t>
-  </si>
-  <si>
-    <t>ENSINO A DISTÂNCIA ESEMIPRESENCIAL</t>
-  </si>
-  <si>
-    <t>DIFUSÃO DE INFORMAÇÕESCIENTÍFICAS E TECNOLÓGICAS</t>
-  </si>
-  <si>
-    <t>AUXÍLIOS À PESQUISA PARA OAVANÇO DO CONHECIMENTO</t>
-  </si>
-  <si>
-    <t>PROJETOS DE INOVAÇÃO EMPARCERIA COM EMPRESAS</t>
-  </si>
-  <si>
-    <t>FORMAÇÃO DE RECURSOSHUMANOS</t>
-  </si>
-  <si>
-    <t>APOIO À PESQUISA EM TEMASESTRATÉGICOS</t>
-  </si>
-  <si>
-    <t>INFRAESTRUTURA DEPESQUISA</t>
-  </si>
-  <si>
-    <t>ORIENTAÇÃO,ENCAMINHAMENTO EINTERMEDIAÇÃO DE MÃO DEOBRA AO MERCADO DETRABALHO</t>
+    <t>PESQUISA, DESENVOLVIMENTO E INOVAÇÃO</t>
+  </si>
+  <si>
+    <t>BOLSAS DE ESTUDOS PARA PESQUISA E DESENVOLVIMENTO</t>
+  </si>
+  <si>
+    <t>ATRAÇÃO E ESTÍMULO DE GRANDES TALENTOS NO ENSINO PÚBLICO SUPERIOR DO ESP</t>
+  </si>
+  <si>
+    <t>ENSINO A DISTÂNCIA E SEMIPRESENCIAL</t>
+  </si>
+  <si>
+    <t>DIFUSÃO DE INFORMAÇÕES CIENTÍFICAS E TECNOLÓGICAS</t>
+  </si>
+  <si>
+    <t>AUXÍLIOS À PESQUISA PARA O AVANÇO DO CONHECIMENTO</t>
+  </si>
+  <si>
+    <t>PROJETOS DE INOVAÇÃO EM PARCERIA COM EMPRESAS</t>
+  </si>
+  <si>
+    <t>FORMAÇÃO DE RECURSOS HUMANOS</t>
+  </si>
+  <si>
+    <t>APOIO À PESQUISA EM TEMAS ESTRATÉGICOS</t>
+  </si>
+  <si>
+    <t>INFRAESTRUTURA DE PESQUISA</t>
+  </si>
+  <si>
+    <t>ORIENTAÇÃO, ENCAMINHAMENTO E INTERMEDIAÇÃO DE MÃO DE OBRA AO MERCADO DE TRABALHO</t>
   </si>
   <si>
     <t>QUALIFICAÇÃO PROFISSIONAL</t>
   </si>
   <si>
-    <t>BOLSAS PAGAS AOPARTICIPANTE DO PROGRAMAEMERGENCIAL DE AUXÍLIO AODESEMPREGADO</t>
-  </si>
-  <si>
-    <t>CERTIFICAÇÃO DE EMPRESASVISANDO A INCLUSÃO</t>
-  </si>
-  <si>
-    <t>NOVOTEC NAS MODALIDADESEXPRESSO, VIRTUAL, MÓVEL EINTEGRADO (PARCIAL)</t>
-  </si>
-  <si>
-    <t>ATIVIDADES REALIZADASPELOS CORPOS ESTÁVEIS EEQUIPAMENTOS CULTURAIS</t>
-  </si>
-  <si>
-    <t>PROGRAMAS DE FORMAÇÃOCONTINUADA, A DISTÂNCIA OUPRESENCIAL EM DIVCONTEÚDOS</t>
-  </si>
-  <si>
-    <t>ATIVIDADES VOLTADAS AO DESSETORIAL E ESTÍMULO AINOVAÇÃO E INSERÇÃO EMMERCADOS</t>
-  </si>
-  <si>
-    <t>ATIVIDADES DE DIFUSÃO EFRUIÇÃO REALIZADAS</t>
-  </si>
-  <si>
-    <t>SERVIÇO DE TRANSMISSÃO DERÁDIO E TV</t>
-  </si>
-  <si>
-    <t>INFRAESTRUTURA DOSEQUIPAMENTOS CULTURAIS</t>
-  </si>
-  <si>
-    <t>ADMINISTRAÇÃO EFORTALECIMENTOINSTITUCIONAL DA SECRETARIA</t>
-  </si>
-  <si>
-    <t>MONITORAMENTO E AVALIAÇÃODE CONTRATOS DE GESTÃO</t>
-  </si>
-  <si>
-    <t>GESTÃO DOS MUSEUS DOESTADO DE SÃO PAULO</t>
-  </si>
-  <si>
-    <t>PRESERVAÇÃO DOPATRIMÔNIO CULTURAL</t>
-  </si>
-  <si>
-    <t>DIFUSÃO E ARTICULAÇÃO DOPATRIMÔNIO CULTURAL</t>
+    <t>BOLSAS PAGAS AO PARTICIPANTE DO PROGRAMA EMERGENCIAL DE AUXÍLIO AO DESEMPREGADO</t>
+  </si>
+  <si>
+    <t>CERTIFICAÇÃO DE EMPRESAS VISANDO A INCLUSÃO</t>
+  </si>
+  <si>
+    <t>NOVOTEC NAS MODALIDADES EXPRESSO, VIRTUAL, MÓVEL E INTEGRADO (PARCIAL)</t>
+  </si>
+  <si>
+    <t>ATIVIDADES REALIZADAS PELOS CORPOS ESTÁVEIS E EQUIPAMENTOS CULTURAIS</t>
+  </si>
+  <si>
+    <t>PROGRAMAS DE FORMAÇÃO CONTINUADA, A DISTÂNCIA OU PRESENCIAL EM DIV CONTEÚDOS</t>
+  </si>
+  <si>
+    <t>ATIVIDADES VOLTADAS AO DES SETORIAL E ESTÍMULO A INOVAÇÃO E INSERÇÃO EM MERCADOS</t>
+  </si>
+  <si>
+    <t>ATIVIDADES DE DIFUSÃO E FRUIÇÃO REALIZADAS</t>
+  </si>
+  <si>
+    <t>SERVIÇO DE TRANSMISSÃO DE RÁDIO E TV</t>
+  </si>
+  <si>
+    <t>INFRAESTRUTURA DOS EQUIPAMENTOS CULTURAIS</t>
+  </si>
+  <si>
+    <t>ADMINISTRAÇÃO E FORTALECIMENTO INSTITUCIONAL DA SECRETARIA</t>
+  </si>
+  <si>
+    <t>MONITORAMENTO E AVALIAÇÃO DE CONTRATOS DE GESTÃO</t>
+  </si>
+  <si>
+    <t>GESTÃO DOS MUSEUS DO ESTADO DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>PRESERVAÇÃO DO PATRIMÔNIO CULTURAL</t>
+  </si>
+  <si>
+    <t>DIFUSÃO E ARTICULAÇÃO DO PATRIMÔNIO CULTURAL</t>
   </si>
   <si>
     <t>FOMENTO DIRETO</t>
   </si>
   <si>
-    <t>PROMOÇÃO DE ATIVIDADESCULTURAIS RELATIVAS ÀAMÉRICA LATINA</t>
+    <t>PROMOÇÃO DE ATIVIDADES CULTURAIS RELATIVAS À AMÉRICA LATINA</t>
   </si>
   <si>
     <t>PESQUISA E DOCÊNCIA</t>
   </si>
   <si>
-    <t>CENTRO BRASILEIRO DEESTUDOS DA AMÉRICA LATINA</t>
-  </si>
-  <si>
-    <t>PRESERVAÇÃO DOPATRIMONIO CULTURALLATINO-AMERICANO.</t>
-  </si>
-  <si>
-    <t>PROPRIEDADES AVALIADASQUANTO AO RISCO SANITÁRIO</t>
+    <t>CENTRO BRASILEIRO DE ESTUDOS DA AMÉRICA LATINA</t>
+  </si>
+  <si>
+    <t>PRESERVAÇÃO DO PATRIMONIO CULTURAL LATINO-AMERICANO.</t>
+  </si>
+  <si>
+    <t>PROPRIEDADES AVALIADAS QUANTO AO RISCO SANITÁRIO</t>
   </si>
   <si>
     <t>FISCALIZAÇÃO SANITÁRIA</t>
   </si>
   <si>
-    <t>VIGILÂNCIA ATIVA PARA FEBREAFTOSA</t>
-  </si>
-  <si>
-    <t>PROMOÇÃO DE ALIMENTOSSAUDÁVEIS E SEGUROS</t>
-  </si>
-  <si>
-    <t>PROMOÇÃO DA SEGURANÇA EEDUCAÇÃO ALIMENTAR</t>
+    <t>VIGILÂNCIA ATIVA PARA FEBRE AFTOSA</t>
+  </si>
+  <si>
+    <t>PROMOÇÃO DE ALIMENTOS SAUDÁVEIS E SEGUROS</t>
+  </si>
+  <si>
+    <t>PROMOÇÃO DA SEGURANÇA E EDUCAÇÃO ALIMENTAR</t>
   </si>
   <si>
     <t>SELO AGROSP</t>
   </si>
   <si>
-    <t>MODERNIZAÇÃO DOS SISTEMASDE ABASTECIMENTO ECOMERCIALIZAÇÃO</t>
-  </si>
-  <si>
-    <t>SISTEMA ESTADUAL DEDESENVOLVIMENTO RURALSUSTENTÁVEL</t>
-  </si>
-  <si>
-    <t>NOVOS CONHECIMENTOS ETECNOLOGIAS PARA INOVAÇÃONO AGRONEGÓCIO</t>
-  </si>
-  <si>
-    <t>MAPEAMENTO DE ESTRADASRURAIS</t>
-  </si>
-  <si>
-    <t>CRÉDITO PARA ODESENVOLVIMENTO DOAGRONEGÓCIO PAULISTA</t>
-  </si>
-  <si>
-    <t>SUBVENÇÃO ECONÔMICA PARAO DESENVOLVIMENTO DOAGRONEGÓCIO PAULISTA</t>
-  </si>
-  <si>
-    <t>TRANSFERÊNCIA DECONHECIMENTO ETECNOLOGIAS PARA INOVAÇÃONO AGRONEGÓCIO</t>
+    <t>MODERNIZAÇÃO DOS SISTEMAS DE ABASTECIMENTO E COMERCIALIZAÇÃO</t>
+  </si>
+  <si>
+    <t>SISTEMA ESTADUAL DE DESENVOLVIMENTO RURAL SUSTENTÁVEL</t>
+  </si>
+  <si>
+    <t>NOVOS CONHECIMENTOS E TECNOLOGIAS PARA INOVAÇÃO NO AGRONEGÓCIO</t>
+  </si>
+  <si>
+    <t>MAPEAMENTO DE ESTRADAS RURAIS</t>
+  </si>
+  <si>
+    <t>CRÉDITO PARA O DESENVOLVIMENTO DO AGRONEGÓCIO PAULISTA</t>
+  </si>
+  <si>
+    <t>SUBVENÇÃO ECONÔMICA PARA O DESENVOLVIMENTO DO AGRONEGÓCIO PAULISTA</t>
+  </si>
+  <si>
+    <t>TRANSFERÊNCIA DE CONHECIMENTO E TECNOLOGIAS PARA INOVAÇÃO NO AGRONEGÓCIO</t>
   </si>
   <si>
     <t>ANÁLISES LABORATORIAIS</t>
@@ -826,250 +826,250 @@
     <t>MOBILIDADE RURAL</t>
   </si>
   <si>
-    <t>ASSISTÊNCIA TÉCNICA EEXTENSÃO RURAL E APOIO AORGANIZAÇÕES RURAIS</t>
-  </si>
-  <si>
-    <t>IMPLANTAÇÃO DEPROTOCOLOS DE BOASPRÁTICAS AGROPECUÁRIAS -PBPA</t>
-  </si>
-  <si>
-    <t>CONSOLIDAÇÃO DAS CADEIASPRODUTIVAS</t>
-  </si>
-  <si>
-    <t>TRANSIÇÃO PARA AAGROECOLOGIA E PRODUÇÃOORGÂNICA</t>
-  </si>
-  <si>
-    <t>PRÁTICAS DE MANEJO P/CONSERVAÇÃO DE SOLO, ÁGUAE BIODIVERSIDADE</t>
-  </si>
-  <si>
-    <t>ESTUDOS PARADESESTATIZAÇÃO DOSAEROPORTOS</t>
-  </si>
-  <si>
-    <t>ESTUDOS PARADESESTATIZAÇÃO DASTRAVESSIAS LITORÂNEAS</t>
-  </si>
-  <si>
-    <t>MODERNIZAÇÃO E AMPLIAÇÃODO PORTO DE SÃO SEBASTIÃO</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE APOIO ÀSEGURANÇA E CONTROLEOPERACIONAL NA MALHAHIDROVIÁRIA</t>
-  </si>
-  <si>
-    <t>OBRAS DE AMPLIAÇÃO EMELHORIAS NA HIDROVIATIETÊ-PARANÁ</t>
-  </si>
-  <si>
-    <t>MOVIMENTAÇÃO DE CARGASNO PORTO DE SÃO SEBASTIÃO</t>
-  </si>
-  <si>
-    <t>EQUIPAMENTOS DE CONTAGEME MONITORAMENTOINSTALADOS NAS RODOVIAS</t>
-  </si>
-  <si>
-    <t>OPERAÇÃO DA MALHARODOVIÁRIA ADMINISTRADAPELO DER</t>
-  </si>
-  <si>
-    <t>APOIO À SEGURANÇA DAMALHA RODOVIÁRIA</t>
-  </si>
-  <si>
-    <t>AUTORIZAÇÃO ESPECIAL DETRÁFEGO</t>
-  </si>
-  <si>
-    <t>CONSERVAÇÃO DA MALHARODOVIÁRIA</t>
-  </si>
-  <si>
-    <t>RECUPERAÇÃO DA MALHARODOVIÁRIA ADMINISTRADAPELO DER</t>
-  </si>
-  <si>
-    <t>ESTRADAS VICINAISPAVIMENTADAS ERECUPERADAS</t>
-  </si>
-  <si>
-    <t>RODOVIAS ESTADUAISAMPLIADAS, RECUPERADAS EPAVIMENTADAS</t>
-  </si>
-  <si>
-    <t>OBRAS COMPLEMENTARES ECOMPENSAÇÕES AMBIENTAISEXECUTADAS</t>
-  </si>
-  <si>
-    <t>TERMINAIS RODOVIÁRIOSREFORMADOS/CONSTRUÍDOS</t>
-  </si>
-  <si>
-    <t>OBRAS DA NOVA TAMOIOS -CONTORNOS NORTE E SUL DECARAGUATATUBA E SÃOSEBASTIÃO</t>
-  </si>
-  <si>
-    <t>CONTRATO DE PPP - TAMOIOSTRECHO SERRA</t>
-  </si>
-  <si>
-    <t>AEROPORTOS OPERADOS EMANTIDOS PELO DAESP</t>
-  </si>
-  <si>
-    <t>AEROPORTOS REFORMADOS EAMPLIADOS</t>
-  </si>
-  <si>
-    <t>INSTALAÇÕES EEMBARCAÇÕES DASTRAVESSIAS LITORÂNEASMODERNIZADAS</t>
-  </si>
-  <si>
-    <t>OBRAS DO RODOANEL -TRECHO NORTE</t>
-  </si>
-  <si>
-    <t>REGIONALIZAÇÃO DAPROTEÇÃO E DEFESA DOCONSUMIDOR</t>
-  </si>
-  <si>
-    <t>APOIO À MUNICIPALIZAÇÃODOS SERVIÇOS DE PROTEÇÃOE DEFESA DO CONSUMIDOR</t>
-  </si>
-  <si>
-    <t>ATENDIMENTO E ORIENTAÇÃOAO CONSUMIDOR</t>
-  </si>
-  <si>
-    <t>FISCALIZAÇÃO DO MERCADODE CONSUMO</t>
-  </si>
-  <si>
-    <t>EDUCAÇÃO PARA O CONSUMODIRIGIDA À SOCIEDADE</t>
-  </si>
-  <si>
-    <t>LAUDO PERICIAL DE MEDICINALEGAL</t>
+    <t>ASSISTÊNCIA TÉCNICA E EXTENSÃO RURAL E APOIO A ORGANIZAÇÕES RURAIS</t>
+  </si>
+  <si>
+    <t>IMPLANTAÇÃO DE PROTOCOLOS DE BOAS PRÁTICAS AGROPECUÁRIAS - PBPA</t>
+  </si>
+  <si>
+    <t>CONSOLIDAÇÃO DAS CADEIAS PRODUTIVAS</t>
+  </si>
+  <si>
+    <t>TRANSIÇÃO PARA A AGROECOLOGIA E PRODUÇÃO ORGÂNICA</t>
+  </si>
+  <si>
+    <t>PRÁTICAS DE MANEJO P/ CONSERVAÇÃO DE SOLO, ÁGUA E BIODIVERSIDADE</t>
+  </si>
+  <si>
+    <t>ESTUDOS PARA DESESTATIZAÇÃO DOS AEROPORTOS</t>
+  </si>
+  <si>
+    <t>ESTUDOS PARA DESESTATIZAÇÃO DAS TRAVESSIAS LITORÂNEAS</t>
+  </si>
+  <si>
+    <t>MODERNIZAÇÃO E AMPLIAÇÃO DO PORTO DE SÃO SEBASTIÃO</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE APOIO À SEGURANÇA E CONTROLE OPERACIONAL NA MALHA HIDROVIÁRIA</t>
+  </si>
+  <si>
+    <t>OBRAS DE AMPLIAÇÃO E MELHORIAS NA HIDROVIA TIETÊ-PARANÁ</t>
+  </si>
+  <si>
+    <t>MOVIMENTAÇÃO DE CARGAS NO PORTO DE SÃO SEBASTIÃO</t>
+  </si>
+  <si>
+    <t>EQUIPAMENTOS DE CONTAGEM E MONITORAMENTO INSTALADOS NAS RODOVIAS</t>
+  </si>
+  <si>
+    <t>OPERAÇÃO DA MALHA RODOVIÁRIA ADMINISTRADA PELO DER</t>
+  </si>
+  <si>
+    <t>APOIO À SEGURANÇA DA MALHA RODOVIÁRIA</t>
+  </si>
+  <si>
+    <t>AUTORIZAÇÃO ESPECIAL DE TRÁFEGO</t>
+  </si>
+  <si>
+    <t>CONSERVAÇÃO DA MALHA RODOVIÁRIA</t>
+  </si>
+  <si>
+    <t>RECUPERAÇÃO DA MALHA RODOVIÁRIA ADMINISTRADA PELO DER</t>
+  </si>
+  <si>
+    <t>ESTRADAS VICINAIS PAVIMENTADAS E RECUPERADAS</t>
+  </si>
+  <si>
+    <t>RODOVIAS ESTADUAIS AMPLIADAS, RECUPERADAS E PAVIMENTADAS</t>
+  </si>
+  <si>
+    <t>OBRAS COMPLEMENTARES E COMPENSAÇÕES AMBIENTAIS EXECUTADAS</t>
+  </si>
+  <si>
+    <t>TERMINAIS RODOVIÁRIOS REFORMADOS/CONSTRUÍDOS</t>
+  </si>
+  <si>
+    <t>OBRAS DA NOVA TAMOIOS - CONTORNOS NORTE E SUL DE CARAGUATATUBA E SÃO SEBASTIÃO</t>
+  </si>
+  <si>
+    <t>CONTRATO DE PPP - TAMOIOS TRECHO SERRA</t>
+  </si>
+  <si>
+    <t>AEROPORTOS OPERADOS E MANTIDOS PELO DAESP</t>
+  </si>
+  <si>
+    <t>AEROPORTOS REFORMADOS E AMPLIADOS</t>
+  </si>
+  <si>
+    <t>INSTALAÇÕES E EMBARCAÇÕES DAS TRAVESSIAS LITORÂNEAS MODERNIZADAS</t>
+  </si>
+  <si>
+    <t>OBRAS DO RODOANEL - TRECHO NORTE</t>
+  </si>
+  <si>
+    <t>REGIONALIZAÇÃO DA PROTEÇÃO E DEFESA DO CONSUMIDOR</t>
+  </si>
+  <si>
+    <t>APOIO À MUNICIPALIZAÇÃO DOS SERVIÇOS DE PROTEÇÃO E DEFESA DO CONSUMIDOR</t>
+  </si>
+  <si>
+    <t>ATENDIMENTO E ORIENTAÇÃO AO CONSUMIDOR</t>
+  </si>
+  <si>
+    <t>FISCALIZAÇÃO DO MERCADO DE CONSUMO</t>
+  </si>
+  <si>
+    <t>EDUCAÇÃO PARA O CONSUMO DIRIGIDA À SOCIEDADE</t>
+  </si>
+  <si>
+    <t>LAUDO PERICIAL DE MEDICINA LEGAL</t>
   </si>
   <si>
     <t>LAUDO PERICIAL DE DNA</t>
   </si>
   <si>
-    <t>AÇÕES DE EDUCAÇÃOCONTINUADA PARASERVIDORES E PERITOS</t>
-  </si>
-  <si>
-    <t>VERIFICAÇÃO DEINSTRUMENTOS DE PESAR EMEDIR</t>
-  </si>
-  <si>
-    <t>FISCALIZAÇÃO EM PRODUTOSPRÉ-EMBALADOS</t>
-  </si>
-  <si>
-    <t>APOIO SOCIOEDUCATIVO AOSADOLESCENTES/JOVENS EMCUMPRIMENTO DE MEDIDASJUDICIAIS</t>
-  </si>
-  <si>
-    <t>ATENDIMENTOS EM ATENÇÃOBÁSICA À SAÚDE</t>
-  </si>
-  <si>
-    <t>ATENDIMENTOS EM ATENÇÃOINTEGRAL À EDUCAÇÃO</t>
-  </si>
-  <si>
-    <t>ADEQUAÇÃO E OBRAS DEINFRAESTRUTURA PREDIAL</t>
-  </si>
-  <si>
-    <t>REFORMAS E CONSERVAÇÃODE BENS IMÓVEIS</t>
-  </si>
-  <si>
-    <t>CONSTRUÇÃO E GESTÃO DECENTROS DE ATENDIMENTOSPOR MEIO DE PPP</t>
-  </si>
-  <si>
-    <t>ATENDIMENTO PÓS MEDIDASOCIOEDUCATIVA</t>
-  </si>
-  <si>
-    <t>PROMOÇÃO DA PARTICIPAÇÃOSOCIAL</t>
-  </si>
-  <si>
-    <t>PRODUÇÃO E DISSEMINAÇÃODE CONHECIMENTO EMDIREITOS HUMANOS ECIDADANIA</t>
-  </si>
-  <si>
-    <t>FOMENTO DE PROJETOS DEDEFESA DOS INTERESSESDIFUSOS</t>
-  </si>
-  <si>
-    <t>APOIO A VÍTIMAS DE VIOLÊNCIANO CENTRO DE REFERÊNCIA EAPOIO À VÍTIMA (CRAVI)</t>
-  </si>
-  <si>
-    <t>CRIANÇAS E ADOLESCENTESPROTEGIDOS DA AMEAÇA DEMORTE- PPCAAM</t>
-  </si>
-  <si>
-    <t>PROTEÇÃO A VÍTIMAS ETESTEMUNHAS  AMEAÇADAS-PROVITA</t>
-  </si>
-  <si>
-    <t>INTEGRAÇÃO DE SERVIÇOS EPROMOÇÃO DOS DIREITOSHUMANOS E CIDADANIA</t>
-  </si>
-  <si>
-    <t>CONSTRUÇÃO, AMPLIAÇÃO EREFORMA DOS FÓRUNS DOESTADO</t>
-  </si>
-  <si>
-    <t>REPARAÇÃO A PESSOASCOMPROVADAMENTEPERSEGUIDAS DURANTE ADITADURA MILITAR</t>
-  </si>
-  <si>
-    <t>PROTEÇÃO POLICIAL A VÍTIMASE TESTEMUNHAS</t>
-  </si>
-  <si>
-    <t>DESENVOLVIMENTOECONÔMICO E SOCIAL DOPONTAL DO PARANAPANEMA</t>
-  </si>
-  <si>
-    <t>PAGAMENTO DE LAUDOSPERICIAIS DE NATUREZA CÍVEL</t>
-  </si>
-  <si>
-    <t>AMPLIAÇÃO DO ACESSO ÀJUSTIÇA POR MEIO DE NOVOSEQUIPAMENTOS E SERVIÇOS</t>
-  </si>
-  <si>
-    <t>REGULARIZAÇÃO FUNDIÁRIAURBANA E RURAL</t>
-  </si>
-  <si>
-    <t>ASSISTÊNCIA REALIZADAS ÀSFAMÍLIAS EM ASSENTAMENTOSE QUILOMBOS</t>
-  </si>
-  <si>
-    <t>EXPANSÃO E ADEQUAÇÃO DAINFRAESTRUTURA</t>
-  </si>
-  <si>
-    <t>EMISSÃO DE DOCUMENTOS AOCIDADÃO</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE CUSTÓDIA DEPRESOS</t>
-  </si>
-  <si>
-    <t>REGISTROS DIGITAIS DEOCORRÊNCIA</t>
-  </si>
-  <si>
-    <t>FORMAÇÃO E CAPACITAÇÃO DEPROFISSIONAIS</t>
-  </si>
-  <si>
-    <t>EXPANSÃO DO SERVIÇO DEBOMBEIROS</t>
-  </si>
-  <si>
-    <t>PRONTO ATENDIMENTO AEMERGÊNCIAS</t>
-  </si>
-  <si>
-    <t>PREVENÇÃO E EDUCAÇÃOPÚBLICA</t>
-  </si>
-  <si>
-    <t>PERÍCIAS CRIMINALÍSTICAS EMÉDICO-LEGAIS</t>
-  </si>
-  <si>
-    <t>ASSISTÊNCIA AMBULATORIAL EHOSPITALAR COM OBSTETRÍCIA</t>
-  </si>
-  <si>
-    <t>DEFESA FUNCIONAL DOSPOLICIAIS MILITARES</t>
-  </si>
-  <si>
-    <t>IMPLEMENTAÇÃO DO SISTEMADE RADIOCOMUNICAÇÃODIGITAL</t>
-  </si>
-  <si>
-    <t>IMPLANTAÇÃO E MANUTENÇÃODE SISTEMAS DEVIDEOMONITORIZAÇÃO</t>
-  </si>
-  <si>
-    <t>AQUISIÇÃO DE MATERIALESTRATÉGICO PARA A POLÍCIACIVIL</t>
-  </si>
-  <si>
-    <t>RENOVAÇÃO DEEQUIPAMENTOS DE APOIO ADM.E OPERACIONAL DO CORPO DEBOMBEIROS</t>
-  </si>
-  <si>
-    <t>AQUISIÇÃO DE EQUIPAMENTOSPARA AS ATIVIDADES DAPOLÍCIA TÉCNICO-CIENTÍFICA</t>
-  </si>
-  <si>
-    <t>AQUISIÇÃO DE VIATURAS,ARMAMENTOS EEQUIPAMENTOS PARAATIVIDADE POLICIAL - PMESP</t>
-  </si>
-  <si>
-    <t>GERENCIAMENTO INTEGRADODE OPERAÇÕES</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE SEGURANÇAPÚBLICA POR MEIO DOPOLICIAMENTO OSTENSIVO EPREVENTIVO</t>
-  </si>
-  <si>
-    <t>POLICIAIS MILITARES APTOSPARA AS ATIVIDADES DEPOLICIAMENTO OSTENSIVO</t>
-  </si>
-  <si>
-    <t>INFORMAÇÕES DE INTERESSEPÚBLICO RELACIONADOS ÀÁREA DE SEGURANÇA PÚBLICA</t>
-  </si>
-  <si>
-    <t>ARRECADAÇÃO DE IMPOSTOSESTADUAIS</t>
-  </si>
-  <si>
-    <t>FORTALECIMENTO DO SISTEMADE CONTROLE INTERNO</t>
+    <t>AÇÕES DE EDUCAÇÃO CONTINUADA PARA SERVIDORES E PERITOS</t>
+  </si>
+  <si>
+    <t>VERIFICAÇÃO DE INSTRUMENTOS DE PESAR E MEDIR</t>
+  </si>
+  <si>
+    <t>FISCALIZAÇÃO EM PRODUTOS PRÉ-EMBALADOS</t>
+  </si>
+  <si>
+    <t>APOIO SOCIOEDUCATIVO AOS ADOLESCENTES/JOVENS EM CUMPRIMENTO DE MEDIDAS JUDICIAIS</t>
+  </si>
+  <si>
+    <t>ATENDIMENTOS EM ATENÇÃO BÁSICA À SAÚDE</t>
+  </si>
+  <si>
+    <t>ATENDIMENTOS EM ATENÇÃO INTEGRAL À EDUCAÇÃO</t>
+  </si>
+  <si>
+    <t>ADEQUAÇÃO E OBRAS DE INFRAESTRUTURA PREDIAL</t>
+  </si>
+  <si>
+    <t>REFORMAS E CONSERVAÇÃO DE BENS IMÓVEIS</t>
+  </si>
+  <si>
+    <t>CONSTRUÇÃO E GESTÃO DE CENTROS DE ATENDIMENTOS POR MEIO DE PPP</t>
+  </si>
+  <si>
+    <t>ATENDIMENTO PÓS MEDIDA SOCIOEDUCATIVA</t>
+  </si>
+  <si>
+    <t>PROMOÇÃO DA PARTICIPAÇÃO SOCIAL</t>
+  </si>
+  <si>
+    <t>PRODUÇÃO E DISSEMINAÇÃO DE CONHECIMENTO EM DIREITOS HUMANOS E CIDADANIA</t>
+  </si>
+  <si>
+    <t>FOMENTO DE PROJETOS DE DEFESA DOS INTERESSES DIFUSOS</t>
+  </si>
+  <si>
+    <t>APOIO A VÍTIMAS DE VIOLÊNCIA NO CENTRO DE REFERÊNCIA E APOIO À VÍTIMA (CRAVI)</t>
+  </si>
+  <si>
+    <t>CRIANÇAS E ADOLESCENTES PROTEGIDOS DA AMEAÇA DE MORTE- PPCAAM</t>
+  </si>
+  <si>
+    <t>PROTEÇÃO A VÍTIMAS E TESTEMUNHAS  AMEAÇADAS- PROVITA</t>
+  </si>
+  <si>
+    <t>INTEGRAÇÃO DE SERVIÇOS E PROMOÇÃO DOS DIREITOS HUMANOS E CIDADANIA</t>
+  </si>
+  <si>
+    <t>CONSTRUÇÃO, AMPLIAÇÃO E REFORMA DOS FÓRUNS DO ESTADO</t>
+  </si>
+  <si>
+    <t>REPARAÇÃO A PESSOAS COMPROVADAMENTE PERSEGUIDAS DURANTE A DITADURA MILITAR</t>
+  </si>
+  <si>
+    <t>PROTEÇÃO POLICIAL A VÍTIMAS E TESTEMUNHAS</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO ECONÔMICO E SOCIAL DO PONTAL DO PARANAPANEMA</t>
+  </si>
+  <si>
+    <t>PAGAMENTO DE LAUDOS PERICIAIS DE NATUREZA CÍVEL</t>
+  </si>
+  <si>
+    <t>AMPLIAÇÃO DO ACESSO À JUSTIÇA POR MEIO DE NOVOS EQUIPAMENTOS E SERVIÇOS</t>
+  </si>
+  <si>
+    <t>REGULARIZAÇÃO FUNDIÁRIA URBANA E RURAL</t>
+  </si>
+  <si>
+    <t>ASSISTÊNCIA REALIZADAS ÀS FAMÍLIAS EM ASSENTAMENTOS E QUILOMBOS</t>
+  </si>
+  <si>
+    <t>EXPANSÃO E ADEQUAÇÃO DA INFRAESTRUTURA</t>
+  </si>
+  <si>
+    <t>EMISSÃO DE DOCUMENTOS AO CIDADÃO</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE CUSTÓDIA DE PRESOS</t>
+  </si>
+  <si>
+    <t>REGISTROS DIGITAIS DE OCORRÊNCIA</t>
+  </si>
+  <si>
+    <t>FORMAÇÃO E CAPACITAÇÃO DE PROFISSIONAIS</t>
+  </si>
+  <si>
+    <t>EXPANSÃO DO SERVIÇO DE BOMBEIROS</t>
+  </si>
+  <si>
+    <t>PRONTO ATENDIMENTO A EMERGÊNCIAS</t>
+  </si>
+  <si>
+    <t>PREVENÇÃO E EDUCAÇÃO PÚBLICA</t>
+  </si>
+  <si>
+    <t>PERÍCIAS CRIMINALÍSTICAS E MÉDICO-LEGAIS</t>
+  </si>
+  <si>
+    <t>ASSISTÊNCIA AMBULATORIAL E HOSPITALAR COM OBSTETRÍCIA</t>
+  </si>
+  <si>
+    <t>DEFESA FUNCIONAL DOS POLICIAIS MILITARES</t>
+  </si>
+  <si>
+    <t>IMPLEMENTAÇÃO DO SISTEMA DE RADIOCOMUNICAÇÃO DIGITAL</t>
+  </si>
+  <si>
+    <t>IMPLANTAÇÃO E MANUTENÇÃO DE SISTEMAS DE VIDEOMONITORIZAÇÃO</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE MATERIAL ESTRATÉGICO PARA A POLÍCIA CIVIL</t>
+  </si>
+  <si>
+    <t>RENOVAÇÃO DE EQUIPAMENTOS DE APOIO ADM. E OPERACIONAL DO CORPO DE BOMBEIROS</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE EQUIPAMENTOS PARA AS ATIVIDADES DA POLÍCIA TÉCNICO-CIENTÍFICA</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE VIATURAS, ARMAMENTOS E EQUIPAMENTOS PARA ATIVIDADE POLICIAL - PMESP</t>
+  </si>
+  <si>
+    <t>GERENCIAMENTO INTEGRADO DE OPERAÇÕES</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE SEGURANÇA PÚBLICA POR MEIO DO POLICIAMENTO OSTENSIVO E PREVENTIVO</t>
+  </si>
+  <si>
+    <t>POLICIAIS MILITARES APTOS PARA AS ATIVIDADES DE POLICIAMENTO OSTENSIVO</t>
+  </si>
+  <si>
+    <t>INFORMAÇÕES DE INTERESSE PÚBLICO RELACIONADOS À ÁREA DE SEGURANÇA PÚBLICA</t>
+  </si>
+  <si>
+    <t>ARRECADAÇÃO DE IMPOSTOS ESTADUAIS</t>
+  </si>
+  <si>
+    <t>FORTALECIMENTO DO SISTEMA DE CONTROLE INTERNO</t>
   </si>
   <si>
     <t>RESULTADOS FINANCEIROS</t>
@@ -1081,595 +1081,595 @@
     <t>OPERAÇÃO DE SECURITIZAÇÃO</t>
   </si>
   <si>
-    <t>CRÉDITO A MUNICIPIOSPAULISTAS</t>
-  </si>
-  <si>
-    <t>CRÉDITO PARA MICRO EPEQUENAS EMPRESAS PARAACESSO A MERCADO</t>
-  </si>
-  <si>
-    <t>CRÉDITO PARA INOVAÇÃO AEMPRESAS</t>
-  </si>
-  <si>
-    <t>CONCESSÃO E PAGAMENTO DEBENEFÍCIOS</t>
-  </si>
-  <si>
-    <t>RH-FOLHA – SISTEMAINTEGRADO DE RECURSOSHUMANOS E FOLHA DEPAGAMENTO</t>
-  </si>
-  <si>
-    <t>AVALIAÇÃO DE COMPETÊNCIASADICIONAIS</t>
-  </si>
-  <si>
-    <t>PERÍCIAS, LAUDOS EPARECERES MÉDICOS</t>
+    <t>CRÉDITO A MUNICIPIOS PAULISTAS</t>
+  </si>
+  <si>
+    <t>CRÉDITO PARA MICRO E PEQUENAS EMPRESAS PARA ACESSO A MERCADO</t>
+  </si>
+  <si>
+    <t>CRÉDITO PARA INOVAÇÃO A EMPRESAS</t>
+  </si>
+  <si>
+    <t>CONCESSÃO E PAGAMENTO DE BENEFÍCIOS</t>
+  </si>
+  <si>
+    <t>RH-FOLHA – SISTEMA INTEGRADO DE RECURSOS HUMANOS E FOLHA DE PAGAMENTO</t>
+  </si>
+  <si>
+    <t>AVALIAÇÃO DE COMPETÊNCIAS ADICIONAIS</t>
+  </si>
+  <si>
+    <t>PERÍCIAS, LAUDOS E PARECERES MÉDICOS</t>
   </si>
   <si>
     <t>ITENS NEGOCIADOS NA BEC/SP</t>
   </si>
   <si>
-    <t>PROJETOS DE PARCERIAPÚBLICA ANALISADOS</t>
-  </si>
-  <si>
-    <t>CAPACITAÇÃO DE SERVIDORESEM GESTÃO DE RH, RECURSOSPÚBLICOS E POL. PÚBLICAS</t>
-  </si>
-  <si>
-    <t>APOIO À GESTÃOGOVERNAMENTAL E DEPOLÍTICAS PÚBLICAS JUNTO AÓRGÃOS E ENTIDADES</t>
-  </si>
-  <si>
-    <t>PROGRAMA DE EDUCAÇÃOFISCAL PARA A CIDADANIA</t>
+    <t>PROJETOS DE PARCERIA PÚBLICA ANALISADOS</t>
+  </si>
+  <si>
+    <t>CAPACITAÇÃO DE SERVIDORES EM GESTÃO DE RH, RECURSOS PÚBLICOS E POL. PÚBLICAS</t>
+  </si>
+  <si>
+    <t>APOIO À GESTÃO GOVERNAMENTAL E DE POLÍTICAS PÚBLICAS JUNTO A ÓRGÃOS E ENTIDADES</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE EDUCAÇÃO FISCAL PARA A CIDADANIA</t>
   </si>
   <si>
     <t>FISCO MODERNIZADO</t>
   </si>
   <si>
-    <t>ESTUDOS DE PROJETOS DEDESESTATIZAÇÃO</t>
-  </si>
-  <si>
-    <t>PLANO PLURIANUALELABORADO, MONITORADO EREVISTO</t>
-  </si>
-  <si>
-    <t>ORÇAMENTOS ANUAISELABORADOS EACOMPANHADOS</t>
-  </si>
-  <si>
-    <t>AVALIAÇÕES DE PROGRAMASGOVERNAMENTAIS</t>
-  </si>
-  <si>
-    <t>ESTUDOS SOBRE A SITUAÇÃODO ESTADO DO SÃO PAULO EDE SUAS POLÍTICAS PÚBLICAS</t>
-  </si>
-  <si>
-    <t>AUDIÊNCIAS PÚBLICAS EMPROCESSOS DEPLANEJAMENTO E ORÇAMENTO</t>
-  </si>
-  <si>
-    <t>CONCESSÃO DE SUBSÍDIOSHABITACIONAIS</t>
-  </si>
-  <si>
-    <t>CONCESSÃO DE BENEFÍCIOSHABITACIONAIS</t>
-  </si>
-  <si>
-    <t>DOMICÍLIOS BENEFICIADOSPOR APOIO À REGULARIZAÇÃOFUNDIÁRIA</t>
-  </si>
-  <si>
-    <t>DOMICÍLIOS BENEFICIADOSPOR REGULARIZAÇÃO EMCONJUNTOS E NÚCLEOS DACDHU</t>
-  </si>
-  <si>
-    <t>UNIDADES HABITACIONAISPRODUZIDAS OU ADQUIRIDAS</t>
-  </si>
-  <si>
-    <t>DOMICÍLIOS BENEFICIADOSPOR URBANIZAÇÃO</t>
-  </si>
-  <si>
-    <t>UNIDADES HABITACIONAIS ECARTAS DE CRÉDITO PARAREASSENTAMENTOHABITACIONAL</t>
-  </si>
-  <si>
-    <t>DOMICÍLIOS BENEFICIADOSPOR MELHORIASHABITACIONAIS E URBANAS</t>
-  </si>
-  <si>
-    <t>DOMICÍLIOS BENEFICIADOSPOR URBANIZAÇÃO EREASSENTAMENTO NO LITORALPAULISTA</t>
-  </si>
-  <si>
-    <t>MONITORAMENTO DAQUALIDADE AMBIENTAL</t>
-  </si>
-  <si>
-    <t>LICENÇAS DEEMPREENDIMENTOS EATIVIDADES SEM AVALIAÇÃODE IMPACTO AMBIENTAL</t>
-  </si>
-  <si>
-    <t>FINANCIAMENTO DE PROJETOSAMBIENTAIS PELO FECOP</t>
-  </si>
-  <si>
-    <t>FINANCIAMENTO DE PROJETOSEM ÁREAS CONTAMINADASPELO FEPRAC</t>
-  </si>
-  <si>
-    <t>LICENÇAS DEEMPREENDIMENTOS EATIVIDADES COM AVALIAÇÃODE IMPACTO AMBIENTAL</t>
-  </si>
-  <si>
-    <t>AÇÕES EM EMERGÊNCIASQUÍMICAS DECORRENTES DERISCOS TECNOLÓGICOS</t>
-  </si>
-  <si>
-    <t>APRIMORAMENTO DAS AÇÕESDE MONITORAMENTO,FISCALIZAÇÃO E MELHORIAAMBIENTAL</t>
-  </si>
-  <si>
-    <t>CONTROLE DA EMISSÃOVEICULAR</t>
-  </si>
-  <si>
-    <t>CAPACITAÇÃO E DIFUSÃO DOCONHECIMENTO AMBIENTAL –ESCOLA SUPERIOR DA CETESB</t>
-  </si>
-  <si>
-    <t>PARQUES URBANOSCONSERVADOS E COMATIVIDADES AOS VISITANTES</t>
-  </si>
-  <si>
-    <t>AÇÕES EDUCATIVAS PARA ODESENV. DE POLÍTICASPÚBLICAS E NA GESTÃOAMBIENTAL</t>
-  </si>
-  <si>
-    <t>APOIO AOS MUNICÍPIOS EOSCIPS EM AÇÕES DE DEFESADOS ANIMAIS  DOMÉSTICOS</t>
-  </si>
-  <si>
-    <t>PARQUES MANTIDOS ECONSERVADOS EM ÁREAS DEVÁRZEAS</t>
-  </si>
-  <si>
-    <t>PREVENÇÃO, FISCALIZAÇÃO EMONITORAMENTO AMBIENTAL</t>
-  </si>
-  <si>
-    <t>CONSERVAÇÃO INTEGRADA EREDUÇÃO DAS PRESSÕESSOBRE A FAUNA SILVESTRE.</t>
-  </si>
-  <si>
-    <t>FORTALECIMENTO DA GESTÃOAMBIENTAL</t>
-  </si>
-  <si>
-    <t>INCENTIVO A PROTEÇÃO ERECUPERAÇÃO DA COBERTURAVEGETAL E DABIODIVERSIDADE</t>
-  </si>
-  <si>
-    <t>REDE DE OPERAÇÕESAMBIENTAIS</t>
-  </si>
-  <si>
-    <t>GESTÃO DOS AUTOS DEINFRAÇÃO AMBIENTAL EREPARAÇÃO DE DANOS AOMEIO AMBIENTE</t>
-  </si>
-  <si>
-    <t>INSTRUMENTOS DE POLÍTICASPÚBLICAS DESENVOLVIDOS</t>
-  </si>
-  <si>
-    <t>PLATAFORMA DE GESTÃO EINTEGRAÇÃO DEINFORMAÇÕES TERRITORIAIS -DATAGEO</t>
-  </si>
-  <si>
-    <t>MELHORIA NA INTEGRAÇÃO DAGESTÃO AMBIENTAL E GESTÃODE RISCOS - BIRD</t>
-  </si>
-  <si>
-    <t>AVALIAÇÕES PARA REDUÇÃODE RISCO DE DESASTRESGEODINÂMICOS</t>
-  </si>
-  <si>
-    <t>DIRETRIZES DE PLANEJAMENTOPARA PROTEÇÃO E USOSUSTENTÁVEL DA ÁGUASUBTERRÂNEA</t>
-  </si>
-  <si>
-    <t>AÇÕES EM INFRAESTRUTURA EMEIO AMBIENTE FINANCIADASPELO FEHIDRO NA SIMA</t>
-  </si>
-  <si>
-    <t>CRIAÇÃO E FORTALECIMENTODAS ESTRUTURAS AMBIENTAISDOS MUNICÍPIOS</t>
-  </si>
-  <si>
-    <t>SOLUÇÕES REGIONAIS PARA AGESTÃO E GERENCIAMENTO DERESÍDUOS SÓLIDOS</t>
-  </si>
-  <si>
-    <t>PLANO ESTADUAL DERESÍDUOS SÓLIDOS REVISADOE IMPLEMENTADO</t>
-  </si>
-  <si>
-    <t>FISC. E ORIENTAÇÃO AOSMUNICÍPIOS VISANDO ÀELIMINAÇÃO DOS ATERROSINADEQUADOS</t>
-  </si>
-  <si>
-    <t>CONSERV, PROTEÇÃO EATENDIMENTO AO PÚBLICO DOJARDIM BOTÂNICO E ÁREASPROTEGIDAS</t>
-  </si>
-  <si>
-    <t>PROJETOS ESTRATÉGICOSPARA AS UNIDADES DECONSERVAÇÃO</t>
-  </si>
-  <si>
-    <t>PROTEÇÃO E MANUTENÇÃO DEUNIDADES DE CONSERVAÇÃO</t>
-  </si>
-  <si>
-    <t>PESQUISA E INOVAÇÃO EMMEIO AMBIENTE, COLEÇÕES EACERVOS PROTEGIDOS</t>
-  </si>
-  <si>
-    <t>RECUPERAÇÃO FLORESTAL DASERRA DO MAR E MOSAICOSDA MATA ATLÂNTICA</t>
-  </si>
-  <si>
-    <t>CONSERVAÇÃO EMANUTENÇÃO DAS ESPÉCIES EPROJETOS DE EDUC.AMBIENTAL DO ZOOLÓGICO</t>
+    <t>ESTUDOS DE PROJETOS DE DESESTATIZAÇÃO</t>
+  </si>
+  <si>
+    <t>PLANO PLURIANUAL ELABORADO, MONITORADO E REVISTO</t>
+  </si>
+  <si>
+    <t>ORÇAMENTOS ANUAIS ELABORADOS E ACOMPANHADOS</t>
+  </si>
+  <si>
+    <t>AVALIAÇÕES DE PROGRAMAS GOVERNAMENTAIS</t>
+  </si>
+  <si>
+    <t>ESTUDOS SOBRE A SITUAÇÃO DO ESTADO DO SÃO PAULO E DE SUAS POLÍTICAS PÚBLICAS</t>
+  </si>
+  <si>
+    <t>AUDIÊNCIAS PÚBLICAS EM PROCESSOS DE PLANEJAMENTO E ORÇAMENTO</t>
+  </si>
+  <si>
+    <t>CONCESSÃO DE SUBSÍDIOS HABITACIONAIS</t>
+  </si>
+  <si>
+    <t>CONCESSÃO DE BENEFÍCIOS HABITACIONAIS</t>
+  </si>
+  <si>
+    <t>DOMICÍLIOS BENEFICIADOS POR APOIO À REGULARIZAÇÃO FUNDIÁRIA</t>
+  </si>
+  <si>
+    <t>DOMICÍLIOS BENEFICIADOS POR REGULARIZAÇÃO EM CONJUNTOS E NÚCLEOS DA CDHU</t>
+  </si>
+  <si>
+    <t>UNIDADES HABITACIONAIS PRODUZIDAS OU ADQUIRIDAS</t>
+  </si>
+  <si>
+    <t>DOMICÍLIOS BENEFICIADOS POR URBANIZAÇÃO</t>
+  </si>
+  <si>
+    <t>UNIDADES HABITACIONAIS E CARTAS DE CRÉDITO PARA REASSENTAMENTO HABITACIONAL</t>
+  </si>
+  <si>
+    <t>DOMICÍLIOS BENEFICIADOS POR MELHORIAS HABITACIONAIS E URBANAS</t>
+  </si>
+  <si>
+    <t>DOMICÍLIOS BENEFICIADOS POR URBANIZAÇÃO E REASSENTAMENTO NO LITORAL PAULISTA</t>
+  </si>
+  <si>
+    <t>MONITORAMENTO DA QUALIDADE AMBIENTAL</t>
+  </si>
+  <si>
+    <t>LICENÇAS DE EMPREENDIMENTOS E ATIVIDADES SEM AVALIAÇÃO DE IMPACTO AMBIENTAL</t>
+  </si>
+  <si>
+    <t>FINANCIAMENTO DE PROJETOS AMBIENTAIS PELO FECOP</t>
+  </si>
+  <si>
+    <t>FINANCIAMENTO DE PROJETOS EM ÁREAS CONTAMINADAS PELO FEPRAC</t>
+  </si>
+  <si>
+    <t>LICENÇAS DE EMPREENDIMENTOS E ATIVIDADES COM AVALIAÇÃO DE IMPACTO AMBIENTAL</t>
+  </si>
+  <si>
+    <t>AÇÕES EM EMERGÊNCIAS QUÍMICAS DECORRENTES DE RISCOS TECNOLÓGICOS</t>
+  </si>
+  <si>
+    <t>APRIMORAMENTO DAS AÇÕES DE MONITORAMENTO, FISCALIZAÇÃO E MELHORIA AMBIENTAL</t>
+  </si>
+  <si>
+    <t>CONTROLE DA EMISSÃO VEICULAR</t>
+  </si>
+  <si>
+    <t>CAPACITAÇÃO E DIFUSÃO DO CONHECIMENTO AMBIENTAL – ESCOLA SUPERIOR DA CETESB</t>
+  </si>
+  <si>
+    <t>PARQUES URBANOS CONSERVADOS E COM ATIVIDADES AOS VISITANTES</t>
+  </si>
+  <si>
+    <t>AÇÕES EDUCATIVAS PARA O DESENV. DE POLÍTICAS PÚBLICAS E NA GESTÃO AMBIENTAL</t>
+  </si>
+  <si>
+    <t>APOIO AOS MUNICÍPIOS E OSCIPS EM AÇÕES DE DEFESA DOS ANIMAIS  DOMÉSTICOS</t>
+  </si>
+  <si>
+    <t>PARQUES MANTIDOS E CONSERVADOS EM ÁREAS DE VÁRZEAS</t>
+  </si>
+  <si>
+    <t>PREVENÇÃO, FISCALIZAÇÃO E MONITORAMENTO AMBIENTAL</t>
+  </si>
+  <si>
+    <t>CONSERVAÇÃO INTEGRADA E REDUÇÃO DAS PRESSÕES SOBRE A FAUNA SILVESTRE.</t>
+  </si>
+  <si>
+    <t>FORTALECIMENTO DA GESTÃO AMBIENTAL</t>
+  </si>
+  <si>
+    <t>INCENTIVO A PROTEÇÃO E RECUPERAÇÃO DA COBERTURA VEGETAL E DA BIODIVERSIDADE</t>
+  </si>
+  <si>
+    <t>REDE DE OPERAÇÕES AMBIENTAIS</t>
+  </si>
+  <si>
+    <t>GESTÃO DOS AUTOS DE INFRAÇÃO AMBIENTAL E REPARAÇÃO DE DANOS AO MEIO AMBIENTE</t>
+  </si>
+  <si>
+    <t>INSTRUMENTOS DE POLÍTICAS PÚBLICAS DESENVOLVIDOS</t>
+  </si>
+  <si>
+    <t>PLATAFORMA DE GESTÃO E INTEGRAÇÃO DE INFORMAÇÕES TERRITORIAIS - DATAGEO</t>
+  </si>
+  <si>
+    <t>MELHORIA NA INTEGRAÇÃO DA GESTÃO AMBIENTAL E GESTÃO DE RISCOS - BIRD</t>
+  </si>
+  <si>
+    <t>AVALIAÇÕES PARA REDUÇÃO DE RISCO DE DESASTRES GEODINÂMICOS</t>
+  </si>
+  <si>
+    <t>DIRETRIZES DE PLANEJAMENTO PARA PROTEÇÃO E USO SUSTENTÁVEL DA ÁGUA SUBTERRÂNEA</t>
+  </si>
+  <si>
+    <t>AÇÕES EM INFRAESTRUTURA E MEIO AMBIENTE FINANCIADAS PELO FEHIDRO NA SIMA</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO E FORTALECIMENTO DAS ESTRUTURAS AMBIENTAIS DOS MUNICÍPIOS</t>
+  </si>
+  <si>
+    <t>SOLUÇÕES REGIONAIS PARA A GESTÃO E GERENCIAMENTO DE RESÍDUOS SÓLIDOS</t>
+  </si>
+  <si>
+    <t>PLANO ESTADUAL DE RESÍDUOS SÓLIDOS REVISADO E IMPLEMENTADO</t>
+  </si>
+  <si>
+    <t>FISC. E ORIENTAÇÃO AOS MUNICÍPIOS VISANDO À ELIMINAÇÃO DOS ATERROS INADEQUADOS</t>
+  </si>
+  <si>
+    <t>CONSERV, PROTEÇÃO E ATENDIMENTO AO PÚBLICO DO JARDIM BOTÂNICO E ÁREAS PROTEGIDAS</t>
+  </si>
+  <si>
+    <t>PROJETOS ESTRATÉGICOS PARA AS UNIDADES DE CONSERVAÇÃO</t>
+  </si>
+  <si>
+    <t>PROTEÇÃO E MANUTENÇÃO DE UNIDADES DE CONSERVAÇÃO</t>
+  </si>
+  <si>
+    <t>PESQUISA E INOVAÇÃO EM MEIO AMBIENTE, COLEÇÕES E ACERVOS PROTEGIDOS</t>
+  </si>
+  <si>
+    <t>RECUPERAÇÃO FLORESTAL DA SERRA DO MAR E MOSAICOS DA MATA ATLÂNTICA</t>
+  </si>
+  <si>
+    <t>CONSERVAÇÃO E MANUTENÇÃO DAS ESPÉCIES E PROJETOS DE EDUC. AMBIENTAL DO ZOOLÓGICO</t>
   </si>
   <si>
     <t>NOVO RIO PINHEIROS</t>
   </si>
   <si>
-    <t>AMPLIAÇÃO DA CAPACIDADE DERESERVAÇÃO DO SISTEMA DEDRENAGEM</t>
-  </si>
-  <si>
-    <t>ATENDIMENTO A MUNICÍPIOSNAS AÇÕES DE COMBATE AEVENTOS HIDROLÓGICOSCRÍTICOS</t>
-  </si>
-  <si>
-    <t>RECUPERAÇÃO DE ÁREA DEVÁRZEA</t>
-  </si>
-  <si>
-    <t>OPERAÇÃO E MANUTENÇÃO DEESTRUTURAS HÍDRICAS</t>
-  </si>
-  <si>
-    <t>RECUPERAÇÃO EMANUTENÇÃO DA CALHA DOTIETÊ</t>
-  </si>
-  <si>
-    <t>AMPLIAÇÃO DA OFERTAHÍDRICA PARA A BACIA DO PCJ</t>
-  </si>
-  <si>
-    <t>INSTRUMENTOS DE GESTÃO EDE POLÍTICA DE SANEAMENTONO ESTADO DE SÃO PAULO</t>
-  </si>
-  <si>
-    <t>FOMENTO AO FINANC ATRAVÉSDA EQUALIZAÇÃO DOS JUROSP/ MELHORIAS DO ESGOT SANIT</t>
-  </si>
-  <si>
-    <t>LIGAÇÕES INTRADOMICILIARESDE ESGOTO À REDE PÚBLICADE ESGOTO DA SABESP</t>
-  </si>
-  <si>
-    <t>INFRAESTRUTURA DESANEAMENTO BÁSICO NOESTADO DE SÃO PAULO</t>
-  </si>
-  <si>
-    <t>IMPLEMENTAÇÃO DO FUNDOESTADUAL DE SANEAMENTO-FESAN</t>
-  </si>
-  <si>
-    <t>IMPLANTAÇÃO DE AÇÕESSUSTENTÁVEIS EM SERVIÇOSDE SANEAMENTO</t>
+    <t>AMPLIAÇÃO DA CAPACIDADE DE RESERVAÇÃO DO SISTEMA DE DRENAGEM</t>
+  </si>
+  <si>
+    <t>ATENDIMENTO A MUNICÍPIOS NAS AÇÕES DE COMBATE A EVENTOS HIDROLÓGICOS CRÍTICOS</t>
+  </si>
+  <si>
+    <t>RECUPERAÇÃO DE ÁREA DE VÁRZEA</t>
+  </si>
+  <si>
+    <t>OPERAÇÃO E MANUTENÇÃO DE ESTRUTURAS HÍDRICAS</t>
+  </si>
+  <si>
+    <t>RECUPERAÇÃO E MANUTENÇÃO DA CALHA DO TIETÊ</t>
+  </si>
+  <si>
+    <t>AMPLIAÇÃO DA OFERTA HÍDRICA PARA A BACIA DO PCJ</t>
+  </si>
+  <si>
+    <t>INSTRUMENTOS DE GESTÃO E DE POLÍTICA DE SANEAMENTO NO ESTADO DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>FOMENTO AO FINANC ATRAVÉS DA EQUALIZAÇÃO DOS JUROS P/ MELHORIAS DO ESGOT SANIT</t>
+  </si>
+  <si>
+    <t>LIGAÇÕES INTRADOMICILIARES DE ESGOTO À REDE PÚBLICA DE ESGOTO DA SABESP</t>
+  </si>
+  <si>
+    <t>INFRAESTRUTURA DE SANEAMENTO BÁSICO NO ESTADO DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>IMPLEMENTAÇÃO DO FUNDO ESTADUAL DE SANEAMENTO- FESAN</t>
+  </si>
+  <si>
+    <t>IMPLANTAÇÃO DE AÇÕES SUSTENTÁVEIS EM SERVIÇOS DE SANEAMENTO</t>
   </si>
   <si>
     <t>LIGAÇÕES ADICIONAIS DE ÁGUA</t>
   </si>
   <si>
-    <t>LIGAÇÕES ADICIONAIS DEESGOTO</t>
-  </si>
-  <si>
-    <t>TRATAMENTO DE ESGOTOCOLETADO</t>
-  </si>
-  <si>
-    <t>PUBLICAÇÕES ECAPACITAÇÕES RELATIVASAOS INSTRUMENTOS DERECURSOS HÍDRICOS</t>
-  </si>
-  <si>
-    <t>EMPREENDIMENTOSFINANCIADOS PELO FEHIDRO</t>
-  </si>
-  <si>
-    <t>EFICIÊNCIA NA EMISSÃO DEOUTORGAS</t>
-  </si>
-  <si>
-    <t>MEDIÇÕES DE DADOSHIDROMETEREOLÓGICOS</t>
-  </si>
-  <si>
-    <t>FOMENTO À SEGURANÇAENERGÉTICA POR MEIO DEFONTES LIMPAS E RENOVÁVEISNO ESTADO</t>
-  </si>
-  <si>
-    <t>FORMULAÇÃO E DISSEMINAÇÃODE POLÍTICAS DE PETRÓLEO EGÁS</t>
-  </si>
-  <si>
-    <t>PROMOÇÃO E DIFUSÃO DEPOLÍTICAS MINERAIS</t>
+    <t>LIGAÇÕES ADICIONAIS DE ESGOTO</t>
+  </si>
+  <si>
+    <t>TRATAMENTO DE ESGOTO COLETADO</t>
+  </si>
+  <si>
+    <t>PUBLICAÇÕES E CAPACITAÇÕES RELATIVAS AOS INSTRUMENTOS DE RECURSOS HÍDRICOS</t>
+  </si>
+  <si>
+    <t>EMPREENDIMENTOS FINANCIADOS PELO FEHIDRO</t>
+  </si>
+  <si>
+    <t>EFICIÊNCIA NA EMISSÃO DE OUTORGAS</t>
+  </si>
+  <si>
+    <t>MEDIÇÕES DE DADOS HIDROMETEREOLÓGICOS</t>
+  </si>
+  <si>
+    <t>FOMENTO À SEGURANÇA ENERGÉTICA POR MEIO DE FONTES LIMPAS E RENOVÁVEIS NO ESTADO</t>
+  </si>
+  <si>
+    <t>FORMULAÇÃO E DISSEMINAÇÃO DE POLÍTICAS DE PETRÓLEO E GÁS</t>
+  </si>
+  <si>
+    <t>PROMOÇÃO E DIFUSÃO DE POLÍTICAS MINERAIS</t>
   </si>
   <si>
     <t>OFERTA DE ENERGIA FIRME</t>
   </si>
   <si>
-    <t>UNIDADES DA INSTITUIÇÃOADEQUADAMENTE INSTALADAS</t>
-  </si>
-  <si>
-    <t>SUPORTE E MANUTENÇÃO DETECNOLOGIA REALIZADOS</t>
-  </si>
-  <si>
-    <t>RECURSOS TECNOLÓGICOSDISPONIBILIZADOS</t>
-  </si>
-  <si>
-    <t>INTERESSES SOCIAISDEFENDIDOS</t>
-  </si>
-  <si>
-    <t>INGRESSO DE NOVOSMEMBROS NO MP</t>
-  </si>
-  <si>
-    <t>DIFUSÃO DE CONHECIMENTOPARA MEMBROS, SERVIDORESE SOCIEDADE</t>
-  </si>
-  <si>
-    <t>ATIVIDADES DO MPMODERNIZADAS EAPERFEIÇOADAS</t>
-  </si>
-  <si>
-    <t>APOIO AOS MUNICÍPIOS NAMELHORIA DAINFRAESTRUTURA URBANA</t>
-  </si>
-  <si>
-    <t>GESTÃO E MODERNIZAÇÃODOS SISTEMAS DA SECRETARIADE DESENVOLVIMENTOREGIONAL</t>
-  </si>
-  <si>
-    <t>INCENTIVO À RENOVAÇÃO DEFROTA PARA OS MUNICÍPIOSDO ESTADO DE SÃO PAULO</t>
-  </si>
-  <si>
-    <t>IMPLANTAÇÃO DE UNIDADESREGIONAIS INTEGRADAS</t>
-  </si>
-  <si>
-    <t>PROJETOS  DEDESENVOLVIMENTOMETROPOLITANOIMPLEMENTADOS</t>
-  </si>
-  <si>
-    <t>APOIO ESTRATÉGICO EARTICULAÇÃO REGIONAL</t>
-  </si>
-  <si>
-    <t>APOIO AOS MUNICÍPIOS EENTIDADES</t>
-  </si>
-  <si>
-    <t>ANÁLISES E INFORMAÇÕESTÉCNICAS DODESENVOLVIMENTO SOCIAL</t>
-  </si>
-  <si>
-    <t>PARCERIAS COM MUNICÍPIOSPARA EXECUÇÃO DAPROTEÇÃO SOCIAL BÁSICA</t>
-  </si>
-  <si>
-    <t>PARCERIAS COM MUNICÍPIOSPARA PROTEÇÃO SOCIALESPECIAL MÉDIACOMPLEXIDADE</t>
-  </si>
-  <si>
-    <t>PROMOÇÃO DE MOBILIDADESOCIAL</t>
-  </si>
-  <si>
-    <t>PROMOÇÃO DODESENVOLVIMENTO HUMANO</t>
-  </si>
-  <si>
-    <t>PARCERIAS COM MUNICÍPIOSPARA PROTEÇÃO SOCIALESPECIAL DE ALTACOMPLEXIDADE</t>
-  </si>
-  <si>
-    <t>REFEIÇÕES OFERECIDAS AOSCIDADÃOS EM SITUAÇÃO DEVULNERABILIDADE SOCIAL</t>
-  </si>
-  <si>
-    <t>DISTRIBUIÇÃO DE ALIMENTOSÀS PESSOAS EM INSEGURANÇAALIMENTAR</t>
-  </si>
-  <si>
-    <t>QUALIFICAÇÃO DO APOIO AOMUNICÍPIO</t>
-  </si>
-  <si>
-    <t>CAPACITAÇÃO EMDESENVOLVIMENTO SOCIAL</t>
-  </si>
-  <si>
-    <t>AQUISIÇÃO DE EQUIPAMENTOSEM APOIO À OPERAÇÃO DALINHA 9-ESMERALDA DA CPTM</t>
-  </si>
-  <si>
-    <t>TRENS ENTREGUES PARASISTEMAS METROFERROVIÁRIOE SOBRE TRILHOS</t>
-  </si>
-  <si>
-    <t>ESTUDOS TÉCNICOS PARAGESTÃO INTEGRADA DOSISTEMA DE TRANSPORTE</t>
-  </si>
-  <si>
-    <t>AQUISIÇÃO DE EQUIPAMENTOSEM APOIO À OPERAÇÃO DALINHA 11 - CORAL DA CPTM</t>
-  </si>
-  <si>
-    <t>AQUISIÇÃO DE EQUIPAMENTOS-APOIO À OPERAÇÃO DASLINHAS 7,12 CPTM E 1,2,3METRÔ</t>
-  </si>
-  <si>
-    <t>ESTUDOS TÉCNICOS SOBRECUSTOS DO SERVIÇO DETRANSPORTE METROPOLITANO</t>
-  </si>
-  <si>
-    <t>PROJETOS E AÇÕES DECOMUNICAÇÃO SOCIAL ERELAÇÕES INSTITUCIONAIS</t>
-  </si>
-  <si>
-    <t>ESTRUTURAÇÃO DA REDE DETRANSPORTE METROPOLITANONAS RM'S</t>
-  </si>
-  <si>
-    <t>ESTUDOS E PROJETOS EMAPOIO AO SISTEMA DETRANSPORTE DE BAIXA/MÉDIACAPACIDADE</t>
-  </si>
-  <si>
-    <t>TRANSPORTE METROPOLITANOGRATUITO AOS PASSAGEIROSIDOSOS 60-64 ANOS</t>
-  </si>
-  <si>
-    <t>TRANSPORTE METROPOLITANOGRATUITO AOS PASSAGEIROSESTUDANTES DE BAIXA RENDA</t>
-  </si>
-  <si>
-    <t>ESTUDOS, PROJETOS EPESQUISAS REALIZADOS</t>
-  </si>
-  <si>
-    <t>LINHA 9 - ESMERALDAESTENDIDA</t>
+    <t>UNIDADES DA INSTITUIÇÃO ADEQUADAMENTE INSTALADAS</t>
+  </si>
+  <si>
+    <t>SUPORTE E MANUTENÇÃO DE TECNOLOGIA REALIZADOS</t>
+  </si>
+  <si>
+    <t>RECURSOS TECNOLÓGICOS DISPONIBILIZADOS</t>
+  </si>
+  <si>
+    <t>INTERESSES SOCIAIS DEFENDIDOS</t>
+  </si>
+  <si>
+    <t>INGRESSO DE NOVOS MEMBROS NO MP</t>
+  </si>
+  <si>
+    <t>DIFUSÃO DE CONHECIMENTO PARA MEMBROS, SERVIDORES E SOCIEDADE</t>
+  </si>
+  <si>
+    <t>ATIVIDADES DO MP MODERNIZADAS E APERFEIÇOADAS</t>
+  </si>
+  <si>
+    <t>APOIO AOS MUNICÍPIOS NA MELHORIA DA INFRAESTRUTURA URBANA</t>
+  </si>
+  <si>
+    <t>GESTÃO E MODERNIZAÇÃO DOS SISTEMAS DA SECRETARIA DE DESENVOLVIMENTO REGIONAL</t>
+  </si>
+  <si>
+    <t>INCENTIVO À RENOVAÇÃO DE FROTA PARA OS MUNICÍPIOS DO ESTADO DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>IMPLANTAÇÃO DE UNIDADES REGIONAIS INTEGRADAS</t>
+  </si>
+  <si>
+    <t>PROJETOS  DE DESENVOLVIMENTO METROPOLITANO IMPLEMENTADOS</t>
+  </si>
+  <si>
+    <t>APOIO ESTRATÉGICO E ARTICULAÇÃO REGIONAL</t>
+  </si>
+  <si>
+    <t>APOIO AOS MUNICÍPIOS E ENTIDADES</t>
+  </si>
+  <si>
+    <t>ANÁLISES E INFORMAÇÕES TÉCNICAS DO DESENVOLVIMENTO SOCIAL</t>
+  </si>
+  <si>
+    <t>PARCERIAS COM MUNICÍPIOS PARA EXECUÇÃO DA PROTEÇÃO SOCIAL BÁSICA</t>
+  </si>
+  <si>
+    <t>PARCERIAS COM MUNICÍPIOS PARA PROTEÇÃO SOCIAL ESPECIAL MÉDIA COMPLEXIDADE</t>
+  </si>
+  <si>
+    <t>PROMOÇÃO DE MOBILIDADE SOCIAL</t>
+  </si>
+  <si>
+    <t>PROMOÇÃO DO DESENVOLVIMENTO HUMANO</t>
+  </si>
+  <si>
+    <t>PARCERIAS COM MUNICÍPIOS PARA PROTEÇÃO SOCIAL ESPECIAL DE ALTA COMPLEXIDADE</t>
+  </si>
+  <si>
+    <t>REFEIÇÕES OFERECIDAS AOS CIDADÃOS EM SITUAÇÃO DE VULNERABILIDADE SOCIAL</t>
+  </si>
+  <si>
+    <t>DISTRIBUIÇÃO DE ALIMENTOS ÀS PESSOAS EM INSEGURANÇA ALIMENTAR</t>
+  </si>
+  <si>
+    <t>QUALIFICAÇÃO DO APOIO AO MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>CAPACITAÇÃO EM DESENVOLVIMENTO SOCIAL</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE EQUIPAMENTOS EM APOIO À OPERAÇÃO DA LINHA 9-ESMERALDA DA CPTM</t>
+  </si>
+  <si>
+    <t>TRENS ENTREGUES PARA SISTEMAS METROFERROVIÁRIO E SOBRE TRILHOS</t>
+  </si>
+  <si>
+    <t>ESTUDOS TÉCNICOS PARA GESTÃO INTEGRADA DO SISTEMA DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE EQUIPAMENTOS EM APOIO À OPERAÇÃO DA LINHA 11 - CORAL DA CPTM</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE EQUIPAMENTOS- APOIO À OPERAÇÃO DAS LINHAS 7,12 CPTM E 1,2,3 METRÔ</t>
+  </si>
+  <si>
+    <t>ESTUDOS TÉCNICOS SOBRE CUSTOS DO SERVIÇO DE TRANSPORTE METROPOLITANO</t>
+  </si>
+  <si>
+    <t>PROJETOS E AÇÕES DE COMUNICAÇÃO SOCIAL E RELAÇÕES INSTITUCIONAIS</t>
+  </si>
+  <si>
+    <t>ESTRUTURAÇÃO DA REDE DE TRANSPORTE METROPOLITANO NAS RM'S</t>
+  </si>
+  <si>
+    <t>ESTUDOS E PROJETOS EM APOIO AO SISTEMA DE TRANSPORTE DE BAIXA/MÉDIA CAPACIDADE</t>
+  </si>
+  <si>
+    <t>TRANSPORTE METROPOLITANO GRATUITO AOS PASSAGEIROS IDOSOS 60-64 ANOS</t>
+  </si>
+  <si>
+    <t>TRANSPORTE METROPOLITANO GRATUITO AOS PASSAGEIROS ESTUDANTES DE BAIXA RENDA</t>
+  </si>
+  <si>
+    <t>ESTUDOS, PROJETOS E PESQUISAS REALIZADOS</t>
+  </si>
+  <si>
+    <t>LINHA 9 - ESMERALDA ESTENDIDA</t>
   </si>
   <si>
     <t>LINHA 13 - JADE IMPLANTADA</t>
   </si>
   <si>
-    <t>LINHAS 7, 8, 9, 10, 11 E 12 DETRENS METROPOLITANOSMODERNIZADAS</t>
-  </si>
-  <si>
-    <t>TRANSPORTE DEPASSAGEIROS POR TRENSMETROPOLITANOS</t>
-  </si>
-  <si>
-    <t>TRANSPORTE GRATUITO AOSPASSAGEIROS IDOSOS EOUTROS</t>
-  </si>
-  <si>
-    <t>TRANSPORTE SUBSIDIADO AOSPASSAGEIROS ESTUDANTES</t>
+    <t>LINHAS 7, 8, 9, 10, 11 E 12 DE TRENS METROPOLITANOS MODERNIZADAS</t>
+  </si>
+  <si>
+    <t>TRANSPORTE DE PASSAGEIROS POR TRENS METROPOLITANOS</t>
+  </si>
+  <si>
+    <t>TRANSPORTE GRATUITO AOS PASSAGEIROS IDOSOS E OUTROS</t>
+  </si>
+  <si>
+    <t>TRANSPORTE SUBSIDIADO AOS PASSAGEIROS ESTUDANTES</t>
   </si>
   <si>
     <t>LINHA 13 - JADE ESTENDIDA</t>
   </si>
   <si>
-    <t>OBRAS E SISTEMAS DA LINHA 5-LILAS IMPLANTADOS</t>
-  </si>
-  <si>
-    <t>ESTUDOS E PROJETOS PARAEXPANSÃO DA REDEMETROVIÁRIA</t>
-  </si>
-  <si>
-    <t>LINHA 1-AZUL EM OPERAÇÃOMODERNIZADA</t>
-  </si>
-  <si>
-    <t>LINHA 2-VERDE EM OPERAÇAOMODERNIZADA</t>
-  </si>
-  <si>
-    <t>TRANSPORTE DEPASSAGEIROS NAS LINHAS SOBGESTÃO DO METRÔ</t>
-  </si>
-  <si>
-    <t>OBRAS E SISTEMAS DA LINHA 4-AMARELA IMPLANTADOS (FASEII)</t>
-  </si>
-  <si>
-    <t>OBRAS E SISTEMAS DA LINHA17-OURO IMPLANTADOS</t>
-  </si>
-  <si>
-    <t>OBRAS E SISTEMAS DA LINHA 2-VERDE IMPLANTADOS</t>
-  </si>
-  <si>
-    <t>LINHA 3-VERMELHAMODERNIZADA</t>
-  </si>
-  <si>
-    <t>OBRAS E SISTEMAS DA LINHA15-PRATA IMPLANTADOS</t>
-  </si>
-  <si>
-    <t>OBRAS E SISTEMAS DA LINHA19 - CELESTE IMPLANTADOS</t>
-  </si>
-  <si>
-    <t>ESTRADA DE FERRO CAMPOSDO JORDÃO EMFUNCIONAMENTO</t>
-  </si>
-  <si>
-    <t>MODERNIZAÇÃO E EXPANSÃODO COMPLEXO TURÍSTICO DAEFCJ</t>
-  </si>
-  <si>
-    <t>PASSAGEIROSTRANSPORTADOS COMQUALIDADE NA LINHACONCEDIDA - LINHA 4 AMARELA</t>
-  </si>
-  <si>
-    <t>IMPLANTAÇÃO DA LINHA 6-LARANJA</t>
-  </si>
-  <si>
-    <t>TRANSPORTE DEPASSAGEIROS NO SIM BAIXADASANTISTA</t>
-  </si>
-  <si>
-    <t>PASSAGEIROSTRANSPORTADOS COMQUALIDADE NA LINHACONCEDIDA - LINHA 5 LILÁS</t>
-  </si>
-  <si>
-    <t>PASSAGEIROSTRANSPORTADOS COMQUALIDADE NA LINHACONCEDIDA - LINHA 15 PRATA</t>
-  </si>
-  <si>
-    <t>PASSAGEIROSTRANSPORTADOS COMQUALIDADE NAS LINHASCONCEDIDAS - LINHAS 8 E 9</t>
-  </si>
-  <si>
-    <t>TREM INTERCIDADES - TIC (SÃOPAULO - CAMPINAS)IMPLANTADO</t>
-  </si>
-  <si>
-    <t>MODERNIZAÇÃO DE PARQUETURÍSTICO</t>
-  </si>
-  <si>
-    <t>ESTAÇÕES DA LINHA 7 - RUBIMODERNIZADAS</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE CUSTÓDIAPRESTADOS DE FORMAHUMANA E SEGURA</t>
+    <t>OBRAS E SISTEMAS DA LINHA 5- LILAS IMPLANTADOS</t>
+  </si>
+  <si>
+    <t>ESTUDOS E PROJETOS PARA EXPANSÃO DA REDE METROVIÁRIA</t>
+  </si>
+  <si>
+    <t>LINHA 1-AZUL EM OPERAÇÃO MODERNIZADA</t>
+  </si>
+  <si>
+    <t>LINHA 2-VERDE EM OPERAÇAO MODERNIZADA</t>
+  </si>
+  <si>
+    <t>TRANSPORTE DE PASSAGEIROS NAS LINHAS SOB GESTÃO DO METRÔ</t>
+  </si>
+  <si>
+    <t>OBRAS E SISTEMAS DA LINHA 4- AMARELA IMPLANTADOS (FASE II)</t>
+  </si>
+  <si>
+    <t>OBRAS E SISTEMAS DA LINHA 17-OURO IMPLANTADOS</t>
+  </si>
+  <si>
+    <t>OBRAS E SISTEMAS DA LINHA 2- VERDE IMPLANTADOS</t>
+  </si>
+  <si>
+    <t>LINHA 3-VERMELHA MODERNIZADA</t>
+  </si>
+  <si>
+    <t>OBRAS E SISTEMAS DA LINHA 15-PRATA IMPLANTADOS</t>
+  </si>
+  <si>
+    <t>OBRAS E SISTEMAS DA LINHA 19 - CELESTE IMPLANTADOS</t>
+  </si>
+  <si>
+    <t>ESTRADA DE FERRO CAMPOS DO JORDÃO EM FUNCIONAMENTO</t>
+  </si>
+  <si>
+    <t>MODERNIZAÇÃO E EXPANSÃO DO COMPLEXO TURÍSTICO DA EFCJ</t>
+  </si>
+  <si>
+    <t>PASSAGEIROS TRANSPORTADOS COM QUALIDADE NA LINHA CONCEDIDA - LINHA 4 AMARELA</t>
+  </si>
+  <si>
+    <t>IMPLANTAÇÃO DA LINHA 6- LARANJA</t>
+  </si>
+  <si>
+    <t>TRANSPORTE DE PASSAGEIROS NO SIM BAIXADA SANTISTA</t>
+  </si>
+  <si>
+    <t>PASSAGEIROS TRANSPORTADOS COM QUALIDADE NA LINHA CONCEDIDA - LINHA 5 LILÁS</t>
+  </si>
+  <si>
+    <t>PASSAGEIROS TRANSPORTADOS COM QUALIDADE NA LINHA CONCEDIDA - LINHA 15 PRATA</t>
+  </si>
+  <si>
+    <t>PASSAGEIROS TRANSPORTADOS COM QUALIDADE NAS LINHAS CONCEDIDAS - LINHAS 8 E 9</t>
+  </si>
+  <si>
+    <t>TREM INTERCIDADES - TIC (SÃO PAULO - CAMPINAS) IMPLANTADO</t>
+  </si>
+  <si>
+    <t>MODERNIZAÇÃO DE PARQUE TURÍSTICO</t>
+  </si>
+  <si>
+    <t>ESTAÇÕES DA LINHA 7 - RUBI MODERNIZADAS</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE CUSTÓDIA PRESTADOS DE FORMA HUMANA E SEGURA</t>
   </si>
   <si>
     <t>VAGAS DE CUSTÓDIA</t>
   </si>
   <si>
-    <t>SERVIÇOS DE NECESSIDADESMATERIAIS BÁSICAS EM APOIOÀ CUSTÓDIA REALIZADOS</t>
-  </si>
-  <si>
-    <t>SERVIÇOS HOSPITALARES E DEASSISTÊNCIA À SAÚDE EMGERAL</t>
-  </si>
-  <si>
-    <t>SERVIÇOS ADMINISTRATIVOS EDE FORMAÇÃO AO SERVIDORPARA APOIAR A CUSTÓDIA</t>
-  </si>
-  <si>
-    <t>OBRAS DEREFORMAS,MODERNIZAÇÃO  EADEQUAÇÕES PREDIAIS DOSISTEMA PRISIONAL</t>
-  </si>
-  <si>
-    <t>GESTÃO COMPARTILHADA DAOPERAÇÃO DAS UNIDADESPENITENCIÁRIAS DE REGIMEFECHADO</t>
-  </si>
-  <si>
-    <t>POSTOS DE TRABALHOOFERECIDOS</t>
-  </si>
-  <si>
-    <t>EDUCAÇAO E CURSOS DEQUALIFICAÇÃO OFERECIDOSPARA O MERCADO DETRABALHO</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE REINT. SOCIAL  EASSISTÊNCIA PRESTADOS AOSEGRESSOS E SUAS FAMILIAS</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE REINT. SOCIAL  EASSISTÊNCIA PRESTADOS AOSCUSTODIADOS E SUA FAMILIA</t>
-  </si>
-  <si>
-    <t>PROVISÂO DE CONDIÇÕESPARA ASSISTÊNCIA LEGAL</t>
-  </si>
-  <si>
-    <t>GESTAO DE PENAS E MEDIDASALTERNATIVAS</t>
-  </si>
-  <si>
-    <t>CURSOS DE QUALIFICAÇÃOOFERTADOS A PRESOS DOREGIME SEMIABERTO</t>
-  </si>
-  <si>
-    <t>REPRESENTAÇÃO JUDICIAL DOESTADO E AUTARQUIAS</t>
-  </si>
-  <si>
-    <t>IDENTIFICAÇÃO DE ÁREAS DEINTERESSE DO ESTADO</t>
-  </si>
-  <si>
-    <t>ARRECADAÇÃO DA DÍVIDAATIVA</t>
-  </si>
-  <si>
-    <t>PARECERES JURÍDICOS EPROCEDIMENTOSDISCIPLINARES</t>
-  </si>
-  <si>
-    <t>MODERNIZAÇÃO DATECNOLOGIA DA INFORMAÇÃOE COMUNICAÇÃO</t>
-  </si>
-  <si>
-    <t>CURSOS, TREINAMENTOS EPUBLICAÇÕES OFERTADASPELO CE E ESPGE</t>
-  </si>
-  <si>
-    <t>REALIZAÇÃO E APOIO DEEVENTOS DE CARÁTERCOMPETITIVO</t>
-  </si>
-  <si>
-    <t>INICIAÇÃO E TREINAMENTOESPORTIVO EM DIVERSASMODALIDADES</t>
-  </si>
-  <si>
-    <t>PARTICIPAÇÃO DE PESSOAS EMEVENTOS DE LAZER</t>
-  </si>
-  <si>
-    <t>CONCESSÃO DE BOLSASTALENTO ESPORTIVO</t>
-  </si>
-  <si>
-    <t>APOIO A EVENTOS DECONSCIENTIZAÇÃO EENGAJAMENTO DO PÚBLICO DE15 A 29 ANOS</t>
-  </si>
-  <si>
-    <t>ENCONTROS PRESENCIAISPARA DISCUSSÃO DEPOLÍTICAS PARA A JUVENTUDE</t>
-  </si>
-  <si>
-    <t>REFORMAS E OBRASREALIZADAS NOSEQUIPAMENTOS ESPORTIVOSPRÓPRIOS DA SECRETARIA</t>
-  </si>
-  <si>
-    <t>APOIO AOS MUNICÍPIOS NAREALIZAÇÃO DE OBRAS OUREFORMAS</t>
-  </si>
-  <si>
-    <t>KITS DE ACADEMIA AO AR LIVREDISTRIBUÍDOS</t>
-  </si>
-  <si>
-    <t>MATERIAIS ESPORTIVOSDISTRIBUÍDOS</t>
-  </si>
-  <si>
-    <t>ATENDIMENTO DIRETO,INTEGRAL E MULTIDISCIPLINARDE ASSISTÊNCIA JURÍDICA</t>
-  </si>
-  <si>
-    <t>ATENDIMENTO SUPLEMENTARDE ASSISTÊNCIA JURÍDICA</t>
-  </si>
-  <si>
-    <t>DIVULGAÇÃO DE SERVIÇOS EINFORMAÇÕES DA DEFENSORIAPÚBLICA</t>
-  </si>
-  <si>
-    <t>APERFEIÇOAMENTO DOSRECURSOS HUMANOS</t>
-  </si>
-  <si>
-    <t>MODERNIZAÇÃO DOSRECURSOS DE TECNOLOGIA DAINFORMAÇÃO E COMUNICAÇÃO</t>
+    <t>SERVIÇOS DE NECESSIDADES MATERIAIS BÁSICAS EM APOIO À CUSTÓDIA REALIZADOS</t>
+  </si>
+  <si>
+    <t>SERVIÇOS HOSPITALARES E DE ASSISTÊNCIA À SAÚDE EM GERAL</t>
+  </si>
+  <si>
+    <t>SERVIÇOS ADMINISTRATIVOS E DE FORMAÇÃO AO SERVIDOR PARA APOIAR A CUSTÓDIA</t>
+  </si>
+  <si>
+    <t>OBRAS DE REFORMAS,MODERNIZAÇÃO  E ADEQUAÇÕES PREDIAIS DO SISTEMA PRISIONAL</t>
+  </si>
+  <si>
+    <t>GESTÃO COMPARTILHADA DA OPERAÇÃO DAS UNIDADES PENITENCIÁRIAS DE REGIME FECHADO</t>
+  </si>
+  <si>
+    <t>POSTOS DE TRABALHO OFERECIDOS</t>
+  </si>
+  <si>
+    <t>EDUCAÇAO E CURSOS DE QUALIFICAÇÃO OFERECIDOS PARA O MERCADO DE TRABALHO</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE REINT. SOCIAL  E ASSISTÊNCIA PRESTADOS AOS EGRESSOS E SUAS FAMILIAS</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE REINT. SOCIAL  E ASSISTÊNCIA PRESTADOS AOS CUSTODIADOS E SUA FAMILIA</t>
+  </si>
+  <si>
+    <t>PROVISÂO DE CONDIÇÕES PARA ASSISTÊNCIA LEGAL</t>
+  </si>
+  <si>
+    <t>GESTAO DE PENAS E MEDIDAS ALTERNATIVAS</t>
+  </si>
+  <si>
+    <t>CURSOS DE QUALIFICAÇÃO OFERTADOS A PRESOS DO REGIME SEMIABERTO</t>
+  </si>
+  <si>
+    <t>REPRESENTAÇÃO JUDICIAL DO ESTADO E AUTARQUIAS</t>
+  </si>
+  <si>
+    <t>IDENTIFICAÇÃO DE ÁREAS DE INTERESSE DO ESTADO</t>
+  </si>
+  <si>
+    <t>ARRECADAÇÃO DA DÍVIDA ATIVA</t>
+  </si>
+  <si>
+    <t>PARECERES JURÍDICOS E PROCEDIMENTOS DISCIPLINARES</t>
+  </si>
+  <si>
+    <t>MODERNIZAÇÃO DA TECNOLOGIA DA INFORMAÇÃO E COMUNICAÇÃO</t>
+  </si>
+  <si>
+    <t>CURSOS, TREINAMENTOS E PUBLICAÇÕES OFERTADAS PELO CE E ESPGE</t>
+  </si>
+  <si>
+    <t>REALIZAÇÃO E APOIO DE EVENTOS DE CARÁTER COMPETITIVO</t>
+  </si>
+  <si>
+    <t>INICIAÇÃO E TREINAMENTO ESPORTIVO EM DIVERSAS MODALIDADES</t>
+  </si>
+  <si>
+    <t>PARTICIPAÇÃO DE PESSOAS EM EVENTOS DE LAZER</t>
+  </si>
+  <si>
+    <t>CONCESSÃO DE BOLSAS TALENTO ESPORTIVO</t>
+  </si>
+  <si>
+    <t>APOIO A EVENTOS DE CONSCIENTIZAÇÃO E ENGAJAMENTO DO PÚBLICO DE 15 A 29 ANOS</t>
+  </si>
+  <si>
+    <t>ENCONTROS PRESENCIAIS PARA DISCUSSÃO DE POLÍTICAS PARA A JUVENTUDE</t>
+  </si>
+  <si>
+    <t>REFORMAS E OBRAS REALIZADAS NOS EQUIPAMENTOS ESPORTIVOS PRÓPRIOS DA SECRETARIA</t>
+  </si>
+  <si>
+    <t>APOIO AOS MUNICÍPIOS NA REALIZAÇÃO DE OBRAS OU REFORMAS</t>
+  </si>
+  <si>
+    <t>KITS DE ACADEMIA AO AR LIVRE DISTRIBUÍDOS</t>
+  </si>
+  <si>
+    <t>MATERIAIS ESPORTIVOS DISTRIBUÍDOS</t>
+  </si>
+  <si>
+    <t>ATENDIMENTO DIRETO, INTEGRAL E MULTIDISCIPLINAR DE ASSISTÊNCIA JURÍDICA</t>
+  </si>
+  <si>
+    <t>ATENDIMENTO SUPLEMENTAR DE ASSISTÊNCIA JURÍDICA</t>
+  </si>
+  <si>
+    <t>DIVULGAÇÃO DE SERVIÇOS E INFORMAÇÕES DA DEFENSORIA PÚBLICA</t>
+  </si>
+  <si>
+    <t>APERFEIÇOAMENTO DOS RECURSOS HUMANOS</t>
+  </si>
+  <si>
+    <t>MODERNIZAÇÃO DOS RECURSOS DE TECNOLOGIA DA INFORMAÇÃO E COMUNICAÇÃO</t>
   </si>
   <si>
     <t>EDUCAÇÃO EM DIREITOS</t>
   </si>
   <si>
-    <t>SERVIÇO DE INFORMAÇÃO EORIENTAÇÃO REMOTA</t>
-  </si>
-  <si>
-    <t>PARCERIAS QUE PROMOVAM +INCLUSÃO E QUALIDADE DEVIDA ÀS  PESSOA COMDEFICIÊNCIA</t>
-  </si>
-  <si>
-    <t>BOLSA ATLETA: TIME SÃOPAULO PARAOLÍMPICO(TIME SPPARAOLÍMPICO)</t>
-  </si>
-  <si>
-    <t>GESTÃO DO CENTRO DETREINAMENTO PARAOLÍMPICOBRASILEIRO - CTPB</t>
-  </si>
-  <si>
-    <t>PROMOÇÃO AO EXERCÍCIO DACIDADANIA ÀS PESSOAS COMDEFICIÊNCIA E SEUSFAMILIARES</t>
-  </si>
-  <si>
-    <t>MUSEU MEMORIAL DAINCLUSÃO</t>
+    <t>SERVIÇO DE INFORMAÇÃO E ORIENTAÇÃO REMOTA</t>
+  </si>
+  <si>
+    <t>PARCERIAS QUE PROMOVAM + INCLUSÃO E QUALIDADE DE VIDA ÀS  PESSOA COM DEFICIÊNCIA</t>
+  </si>
+  <si>
+    <t>BOLSA ATLETA: TIME SÃO PAULO PARAOLÍMPICO(TIME SP PARAOLÍMPICO)</t>
+  </si>
+  <si>
+    <t>GESTÃO DO CENTRO DE TREINAMENTO PARAOLÍMPICO BRASILEIRO - CTPB</t>
+  </si>
+  <si>
+    <t>PROMOÇÃO AO EXERCÍCIO DA CIDADANIA ÀS PESSOAS COM DEFICIÊNCIA E SEUS FAMILIARES</t>
+  </si>
+  <si>
+    <t>MUSEU MEMORIAL DA INCLUSÃO</t>
   </si>
   <si>
     <t>PLANEJAMENTO DO TURISMO</t>
   </si>
   <si>
-    <t>APRIMORAMENTO DA GESTÃOINTERNA DO TURISMO</t>
-  </si>
-  <si>
-    <t>DESENVOLVIMENTO DOSDESTINOS TURÍSTICOSPAULISTAS</t>
+    <t>APRIMORAMENTO DA GESTÃO INTERNA DO TURISMO</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO DOS DESTINOS TURÍSTICOS PAULISTAS</t>
   </si>
   <si>
     <t>PROMOÇÃO DO TURISMO</t>
@@ -1678,1990 +1678,1990 @@
     <t>APOIO A ESTÂNCIAS E MIT'S</t>
   </si>
   <si>
-    <t>GESTÃO DO PATRIMÔNIOIMOBILIÁRIO DO GOVERNO DESÃO PAULO</t>
-  </si>
-  <si>
-    <t>CAPACITAÇÃO DE AGENTESPÚBLICOS, COMUNIDADES EVOLUNTÁRIOS</t>
-  </si>
-  <si>
-    <t>ASSISTÊNCIA ÀS VÍTIMAS DEDESASTRES</t>
-  </si>
-  <si>
-    <t>APOIO AOS MUNICÍPIOS NAGESTÃO DE DEFESA CIVIL</t>
+    <t>GESTÃO DO PATRIMÔNIO IMOBILIÁRIO DO GOVERNO DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>CAPACITAÇÃO DE AGENTES PÚBLICOS, COMUNIDADES E VOLUNTÁRIOS</t>
+  </si>
+  <si>
+    <t>ASSISTÊNCIA ÀS VÍTIMAS DE DESASTRES</t>
+  </si>
+  <si>
+    <t>APOIO AOS MUNICÍPIOS NA GESTÃO DE DEFESA CIVIL</t>
   </si>
   <si>
     <t>COMUNICAÇÃO DE RISCO</t>
   </si>
   <si>
-    <t>REALIZAÇÃO DE PROJETOS EAÇÕES SOCIAIS ESUSTENTÁVEIS</t>
+    <t>REALIZAÇÃO DE PROJETOS E AÇÕES SOCIAIS E SUSTENTÁVEIS</t>
   </si>
   <si>
     <t>DOAÇÕES DE BENS SERVÍVEIS</t>
   </si>
   <si>
-    <t>"ESCOLAS DE QUALIFICAÇÃOPROFISSIONAL" DO FUNDOSOCIAL DE SÃO PAULO - FUSSP</t>
+    <t>"ESCOLAS DE QUALIFICAÇÃO PROFISSIONAL" DO FUNDO SOCIAL DE SÃO PAULO - FUSSP</t>
   </si>
   <si>
     <t>PRAÇA DA CIDADANIA</t>
   </si>
   <si>
-    <t>OBSERVATÓRIO SOCIAL DOFUSSP</t>
-  </si>
-  <si>
-    <t>CORREIÇÃO DOSPROCEDIMENTOS</t>
-  </si>
-  <si>
-    <t>COORDENAÇÃO DA POLÍTICADE GESTÃO DOCUMENTAL,PRESERVAÇÃO E ACESSO ÀINFORMAÇÃO</t>
-  </si>
-  <si>
-    <t>ACERVO CUSTODIADO,TRATADO, PRESERVADO EDISPONIBILIZADO</t>
-  </si>
-  <si>
-    <t>TECNOLOGIAS DA INFORMAÇÃOAPLICADAS À GESTÃODOCUMENTAL</t>
-  </si>
-  <si>
-    <t>SERVIÇO DE TRANSPORTECOLETIVO DE PASSAGEIROSREGULADOS E FISCALIZADOS</t>
-  </si>
-  <si>
-    <t>CONCESSÕES RODOVIÁRIASREGULADAS E FISCALIZADAS</t>
-  </si>
-  <si>
-    <t>CONCESSÕES DEAEROPORTOS REGULADAS EFISCALIZADAS</t>
-  </si>
-  <si>
-    <t>CONCESSÕES DE NOVOSMODAIS DE TRANSPORTE</t>
-  </si>
-  <si>
-    <t>FISCALIZAÇÕES DE ENERGIAELÉTRICA REALIZADAS NOÂMBITO DO CONVÊNIO COM AANEEL</t>
-  </si>
-  <si>
-    <t>REGULAÇÃO E FISCALIZAÇÃODOS SERVIÇOS DESANEAMENTO BÁSICO</t>
-  </si>
-  <si>
-    <t>REGULAÇÃO E FISCALIZAÇÃODOS SERVIÇOS DEDISTRIBUIÇÃO DE GÁSCANALIZADO</t>
-  </si>
-  <si>
-    <t>REGULAÇÃO E FISCALIZAÇÃOECONÔMICO FINANCEIRAS</t>
-  </si>
-  <si>
-    <t>ESTUDOS TÉCNICOS DEMODELAGEM DE PPP, DECONCESSÃO E DE PARCERIAS</t>
-  </si>
-  <si>
-    <t>PORTAL DE PARCERIAS COM O3o SETOR DISPONIBILIZADO</t>
-  </si>
-  <si>
-    <t>DISPONIBILIZAÇÃO DEINFORMAÇÕES DE ÓBITOSDECORRENTES DE ACIDENTESDE TRÂNSITO</t>
-  </si>
-  <si>
-    <t>PARCERIAS COM MUNICÍPIOSPARA AÇÕES DE SEGURANÇAVIÁRIA</t>
-  </si>
-  <si>
-    <t>DESENVOLVIMENTO DEPLANOS DE INVEST. DESEGURANÇA RODOVIÁRIA PISR</t>
+    <t>OBSERVATÓRIO SOCIAL DO FUSSP</t>
+  </si>
+  <si>
+    <t>CORREIÇÃO DOS PROCEDIMENTOS</t>
+  </si>
+  <si>
+    <t>COORDENAÇÃO DA POLÍTICA DE GESTÃO DOCUMENTAL, PRESERVAÇÃO E ACESSO À INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>ACERVO CUSTODIADO, TRATADO, PRESERVADO E DISPONIBILIZADO</t>
+  </si>
+  <si>
+    <t>TECNOLOGIAS DA INFORMAÇÃO APLICADAS À GESTÃO DOCUMENTAL</t>
+  </si>
+  <si>
+    <t>SERVIÇO DE TRANSPORTE COLETIVO DE PASSAGEIROS REGULADOS E FISCALIZADOS</t>
+  </si>
+  <si>
+    <t>CONCESSÕES RODOVIÁRIAS REGULADAS E FISCALIZADAS</t>
+  </si>
+  <si>
+    <t>CONCESSÕES DE AEROPORTOS REGULADAS E FISCALIZADAS</t>
+  </si>
+  <si>
+    <t>CONCESSÕES DE NOVOS MODAIS DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t>FISCALIZAÇÕES DE ENERGIA ELÉTRICA REALIZADAS NO ÂMBITO DO CONVÊNIO COM A ANEEL</t>
+  </si>
+  <si>
+    <t>REGULAÇÃO E FISCALIZAÇÃO DOS SERVIÇOS DE SANEAMENTO BÁSICO</t>
+  </si>
+  <si>
+    <t>REGULAÇÃO E FISCALIZAÇÃO DOS SERVIÇOS DE DISTRIBUIÇÃO DE GÁS CANALIZADO</t>
+  </si>
+  <si>
+    <t>REGULAÇÃO E FISCALIZAÇÃO ECONÔMICO FINANCEIRAS</t>
+  </si>
+  <si>
+    <t>ESTUDOS TÉCNICOS DE MODELAGEM DE PPP, DE CONCESSÃO E DE PARCERIAS</t>
+  </si>
+  <si>
+    <t>PORTAL DE PARCERIAS COM O 3o SETOR DISPONIBILIZADO</t>
+  </si>
+  <si>
+    <t>DISPONIBILIZAÇÃO DE INFORMAÇÕES DE ÓBITOS DECORRENTES DE ACIDENTES DE TRÂNSITO</t>
+  </si>
+  <si>
+    <t>PARCERIAS COM MUNICÍPIOS PARA AÇÕES DE SEGURANÇA VIÁRIA</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO DE PLANOS DE INVEST. DE SEGURANÇA RODOVIÁRIA PISR</t>
   </si>
   <si>
     <t>EDUCAÇÃO PARA O TRÂNSITO</t>
   </si>
   <si>
-    <t>INFRAESTRUTURATECNOLÓGICA VOLTADA AOSPROJETOS E INICIATIVAS DETIC DO ESTADO</t>
-  </si>
-  <si>
-    <t>POUPATEMPO - SERVIÇOSPÚBLICOS DIGITAIS EPRESENCIAIS MAIS PRÓXIMOSAO CIDADÃO</t>
-  </si>
-  <si>
-    <t>TECNOLOGIAS E SISTEMASINOVADORES PARA GOVERNOE CIDADÃO</t>
-  </si>
-  <si>
-    <t>ACESSA SP - INCLUSÃO DIGITALDE CIDADÃOS DE BAIXA RENDA</t>
+    <t>INFRAESTRUTURA TECNOLÓGICA VOLTADA AOS PROJETOS E INICIATIVAS DE TIC DO ESTADO</t>
+  </si>
+  <si>
+    <t>POUPATEMPO - SERVIÇOS PÚBLICOS DIGITAIS E PRESENCIAIS MAIS PRÓXIMOS AO CIDADÃO</t>
+  </si>
+  <si>
+    <t>TECNOLOGIAS E SISTEMAS INOVADORES PARA GOVERNO E CIDADÃO</t>
+  </si>
+  <si>
+    <t>ACESSA SP - INCLUSÃO DIGITAL DE CIDADÃOS DE BAIXA RENDA</t>
   </si>
   <si>
     <t>SEM PAPEL</t>
   </si>
   <si>
-    <t>SISTEMAS DE INDICADORESGERADOS PELA FUNDAÇÃOSEADE</t>
-  </si>
-  <si>
-    <t>ESTUDOS E ANÁLISES SOBREPOLÍTICAS PÚBLICASELABORADOS</t>
-  </si>
-  <si>
-    <t>MAPEAMENTO TOPOGRÁFICONAS ESCALAS 1:5.000, 1:10.000 EOUTRAS</t>
-  </si>
-  <si>
-    <t>INFORMAÇÕES TÉCNICASTERRITORIAIS E DE DRENAGEM</t>
-  </si>
-  <si>
-    <t>GESTÃO DE DOCUMENTOSGEOGRÁFICOS ECARTOGRÁFICOS</t>
-  </si>
-  <si>
-    <t>INFORMAÇÕES E ESTUDOSSOBRE PLANEJAMENTOMACROMETROPOLITANO</t>
-  </si>
-  <si>
-    <t>APOIO À FORMULAÇÃO,EXECUÇÃO E AVALIAÇÃO DEPROGRAMAS E SERVIÇOSPÚBLICOS</t>
-  </si>
-  <si>
-    <t>ASSISTÊNCIA À SAÚDEOFERECIDA AOSBENEFICIÁRIOS DO IAMSPE NOHSPE</t>
-  </si>
-  <si>
-    <t>ASSISTÊNCIA À SAÚDEOFERECIDA AOSBENEFICIÁRIOS DO IAMSPE NAREDE CONTRATADA</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE PROTEÇÃO EPROMOÇÃO DE SAÚDE EPREVENÇÃO DE DOENÇAS</t>
-  </si>
-  <si>
-    <t>ENSINO E FORMAÇÃOOFERECIDOS À PROFISSIONALDE SAÚDE E PESQUISAAPLICADA À SAÚDE</t>
+    <t>SISTEMAS DE INDICADORES GERADOS PELA FUNDAÇÃO SEADE</t>
+  </si>
+  <si>
+    <t>ESTUDOS E ANÁLISES SOBRE POLÍTICAS PÚBLICAS ELABORADOS</t>
+  </si>
+  <si>
+    <t>MAPEAMENTO TOPOGRÁFICO NAS ESCALAS 1:5.000, 1:10.000 E OUTRAS</t>
+  </si>
+  <si>
+    <t>INFORMAÇÕES TÉCNICAS TERRITORIAIS E DE DRENAGEM</t>
+  </si>
+  <si>
+    <t>GESTÃO DE DOCUMENTOS GEOGRÁFICOS E CARTOGRÁFICOS</t>
+  </si>
+  <si>
+    <t>INFORMAÇÕES E ESTUDOS SOBRE PLANEJAMENTO MACROMETROPOLITANO</t>
+  </si>
+  <si>
+    <t>APOIO À FORMULAÇÃO, EXECUÇÃO E AVALIAÇÃO DE PROGRAMAS E SERVIÇOS PÚBLICOS</t>
+  </si>
+  <si>
+    <t>ASSISTÊNCIA À SAÚDE OFERECIDA AOS BENEFICIÁRIOS DO IAMSPE NO HSPE</t>
+  </si>
+  <si>
+    <t>ASSISTÊNCIA À SAÚDE OFERECIDA AOS BENEFICIÁRIOS DO IAMSPE NA REDE CONTRATADA</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE PROTEÇÃO E PROMOÇÃO DE SAÚDE E PREVENÇÃO DE DOENÇAS</t>
+  </si>
+  <si>
+    <t>ENSINO E FORMAÇÃO OFERECIDOS À PROFISSIONAL DE SAÚDE E PESQUISA APLICADA À SAÚDE</t>
   </si>
   <si>
     <t>SERVIÇOS DE TRÂNSITO</t>
   </si>
   <si>
-    <t>SERVIÇOS DE PÁTIOS ELEILÕES</t>
-  </si>
-  <si>
-    <t>AÇÕES DE EDUCAÇÃO EFISCALIZAÇÃO PARA OTRANSITO</t>
-  </si>
-  <si>
-    <t>DIVULGAÇÃO DE AÇÕES DEUTILIDADE PÚBLICA</t>
-  </si>
-  <si>
-    <t>PARCERIAS INTERNACIONAISARTICULADAS</t>
-  </si>
-  <si>
-    <t>funcionários participantes(unidade)</t>
-  </si>
-  <si>
-    <t>horas de produção etransmissão da tv alesp(unidade)</t>
-  </si>
-  <si>
-    <t>eventos realizados(unidade)</t>
-  </si>
-  <si>
-    <t>sessões legislativasrealizadas(unidade)</t>
-  </si>
-  <si>
-    <t>obras e/ou adaptaçõesrealizadas(unidade)</t>
-  </si>
-  <si>
-    <t>processos informatizados(unidade)</t>
-  </si>
-  <si>
-    <t>equipamentos em rede esistemas(unidade)</t>
-  </si>
-  <si>
-    <t>número de ações decomunicação institucionalrealizadas(unidade)</t>
-  </si>
-  <si>
-    <t>extensão dosinvestimentos emampliações e instalações(unidade)</t>
-  </si>
-  <si>
-    <t>fiscalizações ordináriasrealizadas(unidade)</t>
-  </si>
-  <si>
-    <t>carga horária decapacitação de servidor(h/aula)</t>
-  </si>
-  <si>
-    <t>construção, reformas eaquisição de imóveis(unidade)</t>
-  </si>
-  <si>
-    <t>diligências realizadas(unidade)</t>
-  </si>
-  <si>
-    <t>certificados emitidos(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de açõesjulgadas(%)</t>
-  </si>
-  <si>
-    <t>percentual de processosdigitais em andamento(%)</t>
-  </si>
-  <si>
-    <t>matérias veiculadas(unidade)</t>
-  </si>
-  <si>
-    <t>unidades jurisdicionaiscorreicionadas(unidade)</t>
+    <t>SERVIÇOS DE PÁTIOS E LEILÕES</t>
+  </si>
+  <si>
+    <t>AÇÕES DE EDUCAÇÃO E FISCALIZAÇÃO PARA O TRANSITO</t>
+  </si>
+  <si>
+    <t>DIVULGAÇÃO DE AÇÕES DE UTILIDADE PÚBLICA</t>
+  </si>
+  <si>
+    <t>PARCERIAS INTERNACIONAIS ARTICULADAS</t>
+  </si>
+  <si>
+    <t>funcionários participantes (unidade)</t>
+  </si>
+  <si>
+    <t>horas de produção e transmissão da tv alesp (unidade)</t>
+  </si>
+  <si>
+    <t>eventos realizados (unidade)</t>
+  </si>
+  <si>
+    <t>sessões legislativas realizadas(unidade)</t>
+  </si>
+  <si>
+    <t>obras e/ou adaptações realizadas(unidade)</t>
+  </si>
+  <si>
+    <t>processos informatizados (unidade)</t>
+  </si>
+  <si>
+    <t>equipamentos em rede e sistemas(unidade)</t>
+  </si>
+  <si>
+    <t>número de ações de comunicação institucional realizadas(unidade)</t>
+  </si>
+  <si>
+    <t>extensão dos investimentos em ampliações e instalações (unidade)</t>
+  </si>
+  <si>
+    <t>fiscalizações ordinárias realizadas(unidade)</t>
+  </si>
+  <si>
+    <t>carga horária de capacitação de servidor (h/aula)</t>
+  </si>
+  <si>
+    <t>construção, reformas e aquisição de imóveis (unidade)</t>
+  </si>
+  <si>
+    <t>diligências realizadas (unidade)</t>
+  </si>
+  <si>
+    <t>certificados emitidos (unidade)</t>
+  </si>
+  <si>
+    <t>percentual de ações julgadas(%)</t>
+  </si>
+  <si>
+    <t>percentual de processos digitais em andamento(%)</t>
+  </si>
+  <si>
+    <t>matérias veiculadas (unidade)</t>
+  </si>
+  <si>
+    <t>unidades jurisdicionais correicionadas(unidade)</t>
   </si>
   <si>
     <t>ações julgadas(unidade)</t>
   </si>
   <si>
-    <t>no de alunos com jornadaescolar de 7 horas oumais(unidade)</t>
-  </si>
-  <si>
-    <t>número de alunos quereceberam os materiaisimpressos ou digitais deapoio à implementaçãodo currículo(unidade)</t>
-  </si>
-  <si>
-    <t>número de alunosparticipantes em projetosde enriquecimentocurricular(unidade)</t>
-  </si>
-  <si>
-    <t>número de alunospúblico-alvo da educaçãoespecial incluidos na rederegular(unidade)</t>
-  </si>
-  <si>
-    <t>matrículas de educaçãode jovens e adultos epúblicos específicos(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de vagasofertadas paracapacitação da redeestadual(%)</t>
-  </si>
-  <si>
-    <t>percentual de alunos querealizaram a avaliação desistema no total dasséries em que serealizaram as provas narede estadual(%)</t>
-  </si>
-  <si>
-    <t>número de matrículas emensino técnico e/ouprofissionalizante(unidade)</t>
-  </si>
-  <si>
-    <t>matrículas no ensinofundamental e médio darede estadual(unidade)</t>
-  </si>
-  <si>
-    <t>número de alunosatendidos pelo serviço dealimentação escolar(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de alunos darede estadualtransportados(%)</t>
-  </si>
-  <si>
-    <t>número de intervençõesde infraestrutura físicanos prédios da redeestadual de ensino(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de escolasatendidas com reposiçãode material permanente epara consumo para apoioà aprendizagem(%)</t>
-  </si>
-  <si>
-    <t>percentual de professoresque cumprem toda a suajornada em uma mesmaescola estadual(%)</t>
-  </si>
-  <si>
-    <t>número de obrasconveniadas emandamento(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de processospriorizados e mapeados(%)</t>
-  </si>
-  <si>
-    <t>número de atendimentosambulatoriais ehospitalares  realizadospelos outros hospitais  daadm indir(unidade)</t>
-  </si>
-  <si>
-    <t>número de atendimentosambulatoriais ehospitalares  realizadospela administração diretae indireta(unidade)</t>
-  </si>
-  <si>
-    <t>número de municípiosbeneficiados com apoiotécnico e financeiro paraatenção básica(unidade)</t>
-  </si>
-  <si>
-    <t>número de atendimentosrealizados pela rede lucymontoro(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de municípiossede de unidade prisionalcom equipe completa desaúde de acordo com osparâmetros dadeliberação cib 62/2012(%)</t>
-  </si>
-  <si>
-    <t>percentual dedisponibilidade demedicamentos principaisnas farmácias deunidades públicas desaúde(%)</t>
-  </si>
-  <si>
-    <t>número de atendimentosambulatoriais ehospitalares realizadospelas unidadesgerenciadas pelas oss(unidade)</t>
-  </si>
-  <si>
-    <t>número de atendimentosambulatoriais ehospitalares realizadospor serviços contratados /conveniados sob gestãoestadual(unidade)</t>
-  </si>
-  <si>
-    <t>número de entidadesfilantrópicas beneficiadas(unidade)</t>
-  </si>
-  <si>
-    <t>coef.  de mensuração dedesempenho dainfraestrutura p/funcionamento doshospitais construídos porppp(unidade)</t>
-  </si>
-  <si>
-    <t>número de doses devacinas aplicadas(unidade)</t>
-  </si>
-  <si>
-    <t>percentual deestabelecimentos demaior potencial de riscosanitário monitoradospelos serviços devigilância sanitáriaestadual(%)</t>
-  </si>
-  <si>
-    <t>percentual de análisespara vigilância da águapara consumo humanodentro dos padrões depotabilidade(%)</t>
-  </si>
-  <si>
-    <t>percentual de exameslaboratoriais de média ealta complexidade paraações de vigilância emsaúde(%)</t>
-  </si>
-  <si>
-    <t>número de casos dedoenças de notificaçãocompulsória imediatanotificados(unidade)</t>
-  </si>
-  <si>
-    <t>número de assessoriasfornecidas aos municípiospara vigilância e controlede vetores e hospedeirosintermediários(unidade)</t>
-  </si>
-  <si>
-    <t>número de casos novosde câncer registrados norhc/sp(unidade)</t>
-  </si>
-  <si>
-    <t>proporção de municípioscom plano de açõesestratégicas para oenfrentamento dasdoenças crônicas nãotransmissíveis(%)</t>
-  </si>
-  <si>
-    <t>número de projetos depesquisas científicas emsaúde aprovadas pelocomitê de ética empesquisa da sucen-superintendência decontroles e endemias,fosp-fundação oncocentrode são paulo e ccd(unidade)</t>
-  </si>
-  <si>
-    <t>número de pesquisas deinovação tecnológicadesenvolvidas pelosnúcleos de inovaçãotecnológica (nit)(unidade)</t>
-  </si>
-  <si>
-    <t>número de transaçõesrealizadas no aplicativohora marcada(unidade)</t>
-  </si>
-  <si>
-    <t>número de interconsultasrealizadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de cidadãos comhistórico clínico digital(unidade)</t>
-  </si>
-  <si>
-    <t>número de bolsas deconcentrados dehemácias processadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de doses devacinas produzidas eentregues(unidade)</t>
-  </si>
-  <si>
-    <t>número de frascosampolas de sorosentregues(unidade)</t>
-  </si>
-  <si>
-    <t>número de unidadesfarmacotécnicasentregues pela furp(unidade)</t>
-  </si>
-  <si>
-    <t>número de pacientesparticipantes de pesquisaatendidos com terapiacelular(unidade)</t>
-  </si>
-  <si>
-    <t>número de unidadesfarmacotécnicasentregues ematendimento a demandada ses/sp(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de reuniões dopleno e das comissões doconselho estadual desaúde realizadas(%)</t>
-  </si>
-  <si>
-    <t>número de unidadesbásicas de saúde (ubs) ecentros de atençãopsicossocial (caps)construídos e/oureformados(unidade)</t>
-  </si>
-  <si>
-    <t>número de casos deanálise com formulaçãode proposta de plano deintervenção emprocessos estratégicos(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de metrosquadrados reformados ouampliados(m2)</t>
-  </si>
-  <si>
-    <t>número de mobiliários eequipamentos médicoshospitalares adquiridos(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de construçãodo novo centro dereferência da saúde damulher através deparceria público privada(%)</t>
-  </si>
-  <si>
-    <t>número de bolsas paracursos de especialização“lato sensu” ofertadas aoano(unidade)</t>
-  </si>
-  <si>
-    <t>número de bolsas deresidência médicafinanciadas pelo estadopor ano(unidade)</t>
-  </si>
-  <si>
-    <t>número de trabalhadoresdo sistema único desaúde (sus) capacitados(unidade)</t>
-  </si>
-  <si>
-    <t>número de profissionaiscapacitados emconhecimentos técnico-científicos em saúde pormeio de capacitaçãooferecida pelo instituto desaúde(unidade)</t>
-  </si>
-  <si>
-    <t>diárias pagas para açõesde reinserção socialvinculadas à secretariaestadual da saúde(unidade)</t>
-  </si>
-  <si>
-    <t>número de vagasdisponibilizadas emserviços de acolhimentoinstitucional(unidade)</t>
-  </si>
-  <si>
-    <t>vagas disponíveis paraacolhimento institucionalpara autonomia ereintegração social(unidade)</t>
-  </si>
-  <si>
-    <t>número de equipamentossocioassistenciais querealizam ações deprevenção(%)</t>
-  </si>
-  <si>
-    <t>atividades de apoiorealizadas nosecossistemas deinovação paulistas(unidade)</t>
-  </si>
-  <si>
-    <t>número de artesãoscadastrados atendidos(unidade)</t>
-  </si>
-  <si>
-    <t>construção eimplementação do planode desenvolvimentoeconômico(unidade)</t>
-  </si>
-  <si>
-    <t>número de startups deimpacto apoiadas peloprograma(unidade)</t>
-  </si>
-  <si>
-    <t>número de atividades deapoio a inovaçãodesenvolvidas(unidade)</t>
-  </si>
-  <si>
-    <t>número de empresasparticipantes das açõesinformacionais desensibilização(unidade)</t>
-  </si>
-  <si>
-    <t>número de termos deconfidencialidade (ndas)assinados que indicamintenção de investimento(unidade)</t>
-  </si>
-  <si>
-    <t>empresas capacitadaspara oempreendedorismo(unidade)</t>
-  </si>
-  <si>
-    <t>número de créditosconcedidos pelo banco dopovo paulista(unidade)</t>
-  </si>
-  <si>
-    <t>fases do citi com projetoestruturado entregue(unidade)</t>
-  </si>
-  <si>
-    <t>projetos de inovaçãoselecionados parareceber recursos dofuncet(unidade)</t>
-  </si>
-  <si>
-    <t>número de documentostécnicos emitidos(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade delaboratóriosmodernizados(unidade)</t>
-  </si>
-  <si>
-    <t>número de matrículas noensino médio do centropaula souza(unidade)</t>
-  </si>
-  <si>
-    <t>número de matrículas noensino técnico oferecidopelo governo do estadode são paulo(unidade)</t>
-  </si>
-  <si>
-    <t>número de matrículas noensino superiortecnológico do centropaula souza(unidade)</t>
-  </si>
-  <si>
-    <t>número de certificadosemitidos paraprofissionais do centropaula souza capacitados(unidade)</t>
-  </si>
-  <si>
-    <t>número de matrículas nonovotec integradooferecido pelo governo doestado de são paulo(unidade)</t>
-  </si>
-  <si>
-    <t>número de matrículas naformação inicial eeducação continuada(unidade)</t>
-  </si>
-  <si>
-    <t>número de processosanalisados(unidade)</t>
-  </si>
-  <si>
-    <t>adequação da estruturafísica das universidades efaculdades públicas(m2)</t>
-  </si>
-  <si>
-    <t>visitantes em exposiçõese mostras do acervo(unidade)</t>
-  </si>
-  <si>
-    <t>número de alunosmatriculados nagraduação/ano(unidade)</t>
-  </si>
-  <si>
-    <t>alunos matriculados noensino de pós-graduação(unidade)</t>
-  </si>
-  <si>
-    <t>alunos matriculados naextensão universitária eem serviços ácomunidade(unidade)</t>
-  </si>
-  <si>
-    <t>refeições servidas(unidade)</t>
-  </si>
-  <si>
-    <t>alunos atendidos combolsas, programas eauxílios parapermanência estudantil(unidade)</t>
-  </si>
-  <si>
-    <t>média anual depublicações indexadaspor docente(unidade)</t>
-  </si>
-  <si>
-    <t>bolsas para pesquisa(unidade)</t>
-  </si>
-  <si>
-    <t>alunos participantes emcompetições deconhecimento apoiadaspela ação(unidade)</t>
-  </si>
-  <si>
-    <t>alunos matriculados noensino superior público adistância esemipresencial(unidade)</t>
-  </si>
-  <si>
-    <t>acesso a informaçõescientíficas e tecnológicas(unidade)</t>
-  </si>
-  <si>
-    <t>razão entre o númeroprojetos de pesquisa delongo prazo e o total deprojetos de pesquisa parao avanço doconhecimento(unidade)</t>
-  </si>
-  <si>
-    <t>projetos de pesquisa parainovação(unidade)</t>
-  </si>
-  <si>
-    <t>razão entre as bolsas deestágio de pesquisa noexterior e as bolsas nopaís(unidade)</t>
-  </si>
-  <si>
-    <t>número projetos depesquisa em temasestratégicos vigentes noano(unidade)</t>
-  </si>
-  <si>
-    <t>projetos de equipamentomultiusuário e reservatécnica institucional(unidade)</t>
-  </si>
-  <si>
-    <t>número de vagasofertadas paraintermediação de mão deobra com empresas(unidade)</t>
-  </si>
-  <si>
-    <t>vagas ofertadas nosprogramas dequalificação profissional(unidade)</t>
-  </si>
-  <si>
-    <t>número de bolsas auxíliocom qualificaçãoprofissional(unidade)</t>
-  </si>
-  <si>
-    <t>número de empresascertificadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de vagasoferecidas no programanovotec (parcial)(unidade)</t>
+    <t>no de alunos com jornada escolar de 7 horas ou mais(unidade)</t>
+  </si>
+  <si>
+    <t>número de alunos que receberam os materiais impressos ou digitais de apoio à implementação do currículo(unidade)</t>
+  </si>
+  <si>
+    <t>número de alunos participantes em projetos de enriquecimento curricular(unidade)</t>
+  </si>
+  <si>
+    <t>número de alunos público-alvo da educação especial incluidos na rede regular(unidade)</t>
+  </si>
+  <si>
+    <t>matrículas de educação de jovens e adultos e públicos específicos (unidade)</t>
+  </si>
+  <si>
+    <t>percentual de vagas ofertadas para capacitação da rede estadual(%)</t>
+  </si>
+  <si>
+    <t>percentual de alunos que realizaram a avaliação de sistema no total das séries em que se realizaram as provas na rede estadual(%)</t>
+  </si>
+  <si>
+    <t>número de matrículas em ensino técnico e/ou profissionalizante (unidade)</t>
+  </si>
+  <si>
+    <t>matrículas no ensino fundamental e médio da rede estadual(unidade)</t>
+  </si>
+  <si>
+    <t>número de alunos atendidos pelo serviço de alimentação escolar (unidade)</t>
+  </si>
+  <si>
+    <t>percentual de alunos da rede estadual transportados(%)</t>
+  </si>
+  <si>
+    <t>número de intervenções de infraestrutura física nos prédios da rede estadual de ensino (unidade)</t>
+  </si>
+  <si>
+    <t>percentual de escolas atendidas com reposição de material permanente e para consumo para apoio à aprendizagem(%)</t>
+  </si>
+  <si>
+    <t>percentual de professores que cumprem toda a sua jornada em uma mesma escola estadual(%)</t>
+  </si>
+  <si>
+    <t>número de obras conveniadas em andamento(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de processos priorizados e mapeados (%)</t>
+  </si>
+  <si>
+    <t>número de atendimentos ambulatoriais e hospitalares  realizados pelos outros hospitais  da adm indir(unidade)</t>
+  </si>
+  <si>
+    <t>número de atendimentos ambulatoriais e hospitalares  realizados pela administração direta e indireta(unidade)</t>
+  </si>
+  <si>
+    <t>número de municípios beneficiados com apoio técnico e financeiro para atenção básica(unidade)</t>
+  </si>
+  <si>
+    <t>número de atendimentos realizados pela rede lucy montoro(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de municípios sede de unidade prisional com equipe completa de saúde de acordo com os parâmetros da deliberação cib 62/2012 (%)</t>
+  </si>
+  <si>
+    <t>percentual de disponibilidade de medicamentos principais nas farmácias de unidades públicas de saúde(%)</t>
+  </si>
+  <si>
+    <t>número de atendimentos ambulatoriais e hospitalares realizados pelas unidades gerenciadas pelas oss (unidade)</t>
+  </si>
+  <si>
+    <t>número de atendimentos ambulatoriais e hospitalares realizados por serviços contratados / conveniados sob gestão estadual(unidade)</t>
+  </si>
+  <si>
+    <t>número de entidades filantrópicas beneficiadas (unidade)</t>
+  </si>
+  <si>
+    <t>coef.  de mensuração de desempenho da infraestrutura p/ funcionamento dos hospitais construídos por ppp(unidade)</t>
+  </si>
+  <si>
+    <t>número de doses de vacinas aplicadas (unidade)</t>
+  </si>
+  <si>
+    <t>percentual de estabelecimentos de maior potencial de risco sanitário monitorados pelos serviços de vigilância sanitária estadual(%)</t>
+  </si>
+  <si>
+    <t>percentual de análises para vigilância da água para consumo humano dentro dos padrões de potabilidade(%)</t>
+  </si>
+  <si>
+    <t>percentual de exames laboratoriais de média e alta complexidade para ações de vigilância em saúde(%)</t>
+  </si>
+  <si>
+    <t>número de casos de doenças de notificação compulsória imediata notificados(unidade)</t>
+  </si>
+  <si>
+    <t>número de assessorias fornecidas aos municípios para vigilância e controle de vetores e hospedeiros intermediários(unidade)</t>
+  </si>
+  <si>
+    <t>número de casos novos de câncer registrados no rhc/sp(unidade)</t>
+  </si>
+  <si>
+    <t>proporção de municípios com plano de ações estratégicas para o enfrentamento das doenças crônicas não transmissíveis(%)</t>
+  </si>
+  <si>
+    <t>número de projetos de pesquisas científicas em saúde aprovadas pelo comitê de ética em pesquisa da sucen- superintendência de controles e endemias, fosp-fundação oncocentro de são paulo e ccd (unidade)</t>
+  </si>
+  <si>
+    <t>número de pesquisas de inovação tecnológica desenvolvidas pelos núcleos de inovação tecnológica (nit)(unidade)</t>
+  </si>
+  <si>
+    <t>número de transações realizadas no aplicativo hora marcada(unidade)</t>
+  </si>
+  <si>
+    <t>número de interconsultas realizadas(unidade)</t>
+  </si>
+  <si>
+    <t>número de cidadãos com histórico clínico digital (unidade)</t>
+  </si>
+  <si>
+    <t>número de bolsas de concentrados de hemácias processadas (unidade)</t>
+  </si>
+  <si>
+    <t>número de doses de vacinas produzidas e entregues(unidade)</t>
+  </si>
+  <si>
+    <t>número de frascos ampolas de soros entregues(unidade)</t>
+  </si>
+  <si>
+    <t>número de unidades farmacotécnicas entregues pela furp (unidade)</t>
+  </si>
+  <si>
+    <t>número de pacientes participantes de pesquisa atendidos com terapia celular(unidade)</t>
+  </si>
+  <si>
+    <t>número de unidades farmacotécnicas entregues em atendimento a demanda da ses/sp(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de reuniões do pleno e das comissões do conselho estadual de saúde realizadas(%)</t>
+  </si>
+  <si>
+    <t>número de unidades básicas de saúde (ubs) e centros de atenção psicossocial (caps) construídos e/ou reformados(unidade)</t>
+  </si>
+  <si>
+    <t>número de casos de análise com formulação de proposta de plano de intervenção em processos estratégicos (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de metros quadrados reformados ou ampliados(m2)</t>
+  </si>
+  <si>
+    <t>número de mobiliários e equipamentos médicos hospitalares adquiridos (unidade)</t>
+  </si>
+  <si>
+    <t>percentual de construção do novo centro de referência da saúde da mulher através de parceria público privada (%)</t>
+  </si>
+  <si>
+    <t>número de bolsas para cursos de especialização “lato sensu” ofertadas ao ano(unidade)</t>
+  </si>
+  <si>
+    <t>número de bolsas de residência médica financiadas pelo estado por ano(unidade)</t>
+  </si>
+  <si>
+    <t>número de trabalhadores do sistema único de saúde (sus) capacitados (unidade)</t>
+  </si>
+  <si>
+    <t>número de profissionais capacitados em conhecimentos técnico- científicos em saúde por meio de capacitação oferecida pelo instituto de saúde(unidade)</t>
+  </si>
+  <si>
+    <t>diárias pagas para ações de reinserção social vinculadas à secretaria estadual da saúde (unidade)</t>
+  </si>
+  <si>
+    <t>número de vagas disponibilizadas em serviços de acolhimento institucional(unidade)</t>
+  </si>
+  <si>
+    <t>vagas disponíveis para acolhimento institucional para autonomia e reintegração social (unidade)</t>
+  </si>
+  <si>
+    <t>número de equipamentos socioassistenciais que realizam ações de prevenção(%)</t>
+  </si>
+  <si>
+    <t>atividades de apoio realizadas nos ecossistemas de inovação paulistas (unidade)</t>
+  </si>
+  <si>
+    <t>número de artesãos cadastrados atendidos (unidade)</t>
+  </si>
+  <si>
+    <t>construção e implementação do plano de desenvolvimento econômico(unidade)</t>
+  </si>
+  <si>
+    <t>número de startups de impacto apoiadas pelo programa(unidade)</t>
+  </si>
+  <si>
+    <t>número de atividades de apoio a inovação desenvolvidas(unidade)</t>
+  </si>
+  <si>
+    <t>número de empresas participantes das ações informacionais de sensibilização(unidade)</t>
+  </si>
+  <si>
+    <t>número de termos de confidencialidade (ndas) assinados que indicam intenção de investimento (unidade)</t>
+  </si>
+  <si>
+    <t>empresas capacitadas para o empreendedorismo (unidade)</t>
+  </si>
+  <si>
+    <t>número de créditos concedidos pelo banco do povo paulista(unidade)</t>
+  </si>
+  <si>
+    <t>fases do citi com projeto estruturado entregue (unidade)</t>
+  </si>
+  <si>
+    <t>projetos de inovação selecionados para receber recursos do funcet(unidade)</t>
+  </si>
+  <si>
+    <t>número de documentos técnicos emitidos (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de laboratórios modernizados(unidade)</t>
+  </si>
+  <si>
+    <t>número de matrículas no ensino médio do centro paula souza(unidade)</t>
+  </si>
+  <si>
+    <t>número de matrículas no ensino técnico oferecido pelo governo do estado de são paulo(unidade)</t>
+  </si>
+  <si>
+    <t>número de matrículas no ensino superior tecnológico do centro paula souza(unidade)</t>
+  </si>
+  <si>
+    <t>número de certificados emitidos para profissionais do centro paula souza capacitados (unidade)</t>
+  </si>
+  <si>
+    <t>número de matrículas no novotec integrado oferecido pelo governo do estado de são paulo (unidade)</t>
+  </si>
+  <si>
+    <t>número de matrículas na formação inicial e educação continuada (unidade)</t>
+  </si>
+  <si>
+    <t>número de processos analisados(unidade)</t>
+  </si>
+  <si>
+    <t>adequação da estrutura física das universidades e faculdades públicas(m2)</t>
+  </si>
+  <si>
+    <t>visitantes em exposições e mostras do acervo (unidade)</t>
+  </si>
+  <si>
+    <t>número de alunos matriculados na graduação/ano(unidade)</t>
+  </si>
+  <si>
+    <t>alunos matriculados no ensino de pós-graduação (unidade)</t>
+  </si>
+  <si>
+    <t>alunos matriculados na extensão universitária e em serviços á comunidade(unidade)</t>
+  </si>
+  <si>
+    <t>refeições servidas (unidade)</t>
+  </si>
+  <si>
+    <t>alunos atendidos com bolsas, programas e auxílios para permanência estudantil (unidade)</t>
+  </si>
+  <si>
+    <t>média anual de publicações indexadas por docente(unidade)</t>
+  </si>
+  <si>
+    <t>bolsas para pesquisa (unidade)</t>
+  </si>
+  <si>
+    <t>alunos participantes em competições de conhecimento apoiadas pela ação(unidade)</t>
+  </si>
+  <si>
+    <t>alunos matriculados no ensino superior público a distância e semipresencial(unidade)</t>
+  </si>
+  <si>
+    <t>acesso a informações científicas e tecnológicas (unidade)</t>
+  </si>
+  <si>
+    <t>razão entre o número projetos de pesquisa de longo prazo e o total de projetos de pesquisa para o avanço do conhecimento(unidade)</t>
+  </si>
+  <si>
+    <t>projetos de pesquisa para inovação(unidade)</t>
+  </si>
+  <si>
+    <t>razão entre as bolsas de estágio de pesquisa no exterior e as bolsas no país(unidade)</t>
+  </si>
+  <si>
+    <t>número projetos de pesquisa em temas estratégicos vigentes no ano(unidade)</t>
+  </si>
+  <si>
+    <t>projetos de equipamento multiusuário e reserva técnica institucional (unidade)</t>
+  </si>
+  <si>
+    <t>número de vagas ofertadas para intermediação de mão de obra com empresas (unidade)</t>
+  </si>
+  <si>
+    <t>vagas ofertadas nos programas de qualificação profissional (unidade)</t>
+  </si>
+  <si>
+    <t>número de bolsas auxílio com qualificação profissional(unidade)</t>
+  </si>
+  <si>
+    <t>número de empresas certificadas(unidade)</t>
+  </si>
+  <si>
+    <t>número de vagas oferecidas no programa novotec (parcial)(unidade)</t>
   </si>
   <si>
     <t>publico atendido(unidade)</t>
   </si>
   <si>
-    <t>número de participantesnas atividades deaperfeiçoamento /capacitação(unidade)</t>
-  </si>
-  <si>
-    <t>municípios atendidos(unidade)</t>
-  </si>
-  <si>
-    <t>pessoas atendidas(unidade)</t>
-  </si>
-  <si>
-    <t>horas de transmissãotvcultura, tv ra-tim-bum(canal fechado) e rádioscultura am e fm(h)</t>
-  </si>
-  <si>
-    <t>projetos/obras emandamento(unidade)</t>
-  </si>
-  <si>
-    <t>número de projetos emandamento(unidade)</t>
-  </si>
-  <si>
-    <t>número de relatóriospublicados dos resultadosdos contratos de gestão(unidade)</t>
-  </si>
-  <si>
-    <t>número de visitantes nosmuseus da secretaria decultura e economiacriativa(unidade)</t>
-  </si>
-  <si>
-    <t>intervenções analisadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de produtosentregues(unidade)</t>
-  </si>
-  <si>
-    <t>número de projetosaprovados(unidade)</t>
-  </si>
-  <si>
-    <t>número defrequentadores dasatividades realizadas pelomemorial da américalatina(unidade)</t>
-  </si>
-  <si>
-    <t>bolsa de pesquisaconcedida(unidade)</t>
-  </si>
-  <si>
-    <t>obras de arte/literáriasrestauradas(%)</t>
-  </si>
-  <si>
-    <t>número de propriedadesavaliadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de fiscalizaçõesde defesa vegetal edefesa animal(unidade)</t>
-  </si>
-  <si>
-    <t>número de animaissusceptíveis à febreaftosa inspecionados evistoriados(unidade)</t>
-  </si>
-  <si>
-    <t>número de fiscalizaçõesem estabelecimentos deprodução eprocessamento dealimentos(unidade)</t>
-  </si>
-  <si>
-    <t>número de atendimentosrealizados(unidade)</t>
-  </si>
-  <si>
-    <t>número de certificadosconcedidos(unidade)</t>
-  </si>
-  <si>
-    <t>número de canais criadose/ou modernizado(unidade)</t>
-  </si>
-  <si>
-    <t>número de municípiosconveniados paradesenvolvimento local eregional dosagronegócios(unidade)</t>
-  </si>
-  <si>
-    <t>número de pesquisas emandamento(unidade)</t>
-  </si>
-  <si>
-    <t>quilometros de estradasmapeadas e codificadas(km)</t>
-  </si>
-  <si>
-    <t>número de operações decrédito viabilizadas comrecursos do feap(unidade)</t>
-  </si>
-  <si>
-    <t>número de subvençõesconcedidas aosprodutores rurais comrecursos do feap(unidade)</t>
-  </si>
-  <si>
-    <t>número de capacitaçõesrealizadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de análiseslaboratoriais realizadas(unidade)</t>
-  </si>
-  <si>
-    <t>receita total dacomercialização deinsumos.(R$)</t>
-  </si>
-  <si>
-    <t>número de unidadesmodernizadas(unidade)</t>
-  </si>
-  <si>
-    <t>estradas recuperadas etrafegáveis(km)</t>
-  </si>
-  <si>
-    <t>número de atendimentosem assistência técnica eextensão rural eorganizações rurais(unidade)</t>
-  </si>
-  <si>
-    <t>número de propriedadescom protocolos de boaspráticas agropecuárias -pbpa aplicados(unidade)</t>
-  </si>
-  <si>
-    <t>número de propriedadesbeneficiadas por projetos(unidade)</t>
-  </si>
-  <si>
-    <t>número de produtoresassistidos ao ano(unidade)</t>
-  </si>
-  <si>
-    <t>número de propriedadesassistidas com práticasde manejo paraconservação de solo,água e biodiversidade(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de conclusãodos estudos paradesestatização dosaeroportos(%)</t>
-  </si>
-  <si>
-    <t>percentual de conclusãodos estudos paradesestatização dastravessias litorâneas(%)</t>
-  </si>
-  <si>
-    <t>percentual de obras emelhorias executadas noporto de são sebastião(%)</t>
-  </si>
-  <si>
-    <t>percentual de sinaisnáuticos em condiçõesoperacionais na hidroviatietê-paraná(%)</t>
-  </si>
-  <si>
-    <t>percentual de avanço-físico do programa deinvestimento deampliação e melhorias namalha hidroviária(%)</t>
-  </si>
-  <si>
-    <t>volume de cargasmovimentadas no portode são sebastião por ano(t)</t>
-  </si>
-  <si>
-    <t>número de equipamentosinstalados(unidade)</t>
-  </si>
-  <si>
-    <t>número de atendimentosrealizados ao ano(unidade)</t>
-  </si>
-  <si>
-    <t>número de ocorrênciaspoliciais atendidas ao ano(unidade)</t>
-  </si>
-  <si>
-    <t>número de veículos compeso fiscalizados(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de execuçãodos contratos deconservação(%)</t>
-  </si>
-  <si>
-    <t>extensão em kmpavimentados/recuperados(km)</t>
-  </si>
-  <si>
-    <t>extensão de estradasvicinais pavimentas/recuperadas(km)</t>
-  </si>
-  <si>
-    <t>extensão de rodoviasestaduais duplicadas,implantadas erecuperadas(km)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico de execução deobras no período(%)</t>
-  </si>
-  <si>
-    <t>número de terminaisreformados e/ouconstruídos(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de execuçãodo empreendimento novatamoios - contornos(%)</t>
-  </si>
-  <si>
-    <t>percentual de execuçãodo contrato da ppptamoios(%)</t>
-  </si>
-  <si>
-    <t>número de aeroportosoperados e mantidos pelodepartamento aeroviáriodo estado de são paulo(daesp)(unidade)</t>
-  </si>
-  <si>
-    <t>número de aeroportosreformados e ampliados(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de instalaçõese embarcaçõesmodernizadas(%)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico das obras dorodoanel trecho norte noperíodo(%)</t>
-  </si>
-  <si>
-    <t>número de municípiosatendidos pelaregionalização(unidade)</t>
-  </si>
-  <si>
-    <t>número de convêniosfirmados com municípiospara implantação doprocon municipalconveniado(unidade)</t>
-  </si>
-  <si>
-    <t>número de atendimentosao consumidor(unidade)</t>
-  </si>
-  <si>
-    <t>número de atosfiscalizatórios realizados(unidade)</t>
-  </si>
-  <si>
-    <t>número de açõeseducativas realizadas(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de laudosexpedidos de perícias demedicina legal ao ano(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de laudospericiais de dnaexpedidos ao ano(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de ações deeducação continuadapara servidores e peritos(unidade)</t>
-  </si>
-  <si>
-    <t>número de verificaçõesperiódicas deinstrumentos de pesar emedir ao ano(unidade)</t>
-  </si>
-  <si>
-    <t>número de fiscalizaçõesde produtos préembalados ao ano(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade deadolescentes/jovensatendidos no mês(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade anual deatendimentos clínicos,saúde mental,odontológicos,enfermagem epsicológicos(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade anual deatendimentos em atençãointegral à educaçãoformal, formaçãoprofissional básica, arte ecultura e educação física(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de obras/adequações estruturaisrealizadas(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de reformas econservações: hidráulica,elétrica, etc(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade mensal deadolescentes/jovensatendidos via ppp(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade deadolescentes/jovensatendidos pelaintervenção proposta(unidade)</t>
-  </si>
-  <si>
-    <t>número de atividades departicipação social(unidade)</t>
-  </si>
-  <si>
-    <t>número de pessoasparticipantes emcapacitações realizadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de interessesdifusos reparados(unidade)</t>
-  </si>
-  <si>
-    <t>média mensal deatendimentos feitos pelocravi(unidade)</t>
-  </si>
-  <si>
-    <t>média mensal deatendimentos presenciais(unidade)</t>
-  </si>
-  <si>
-    <t>número de pessoasatendidas por ano(unidade)</t>
-  </si>
-  <si>
-    <t>média mensal deatendimentos peloscentros de integração dacidadania(unidade)</t>
-  </si>
-  <si>
-    <t>número de pastastécnicas (material queviabiliza a licitação daobra) emitidas(unidade)</t>
-  </si>
-  <si>
-    <t>número de indenizaçõespagas(unidade)</t>
-  </si>
-  <si>
-    <t>número de vítimasatendidas(unidade)</t>
-  </si>
-  <si>
-    <t>número de convêniosassinados(unidade)</t>
-  </si>
-  <si>
-    <t>número de períciasnatureza cível pagas(unidade)</t>
-  </si>
-  <si>
-    <t>número de equipamentose serviços voltados àampliação do acesso àjustiça entregues(unidade)</t>
-  </si>
-  <si>
-    <t>número de unidadesimobiliárias cadastradas(unidade)</t>
-  </si>
-  <si>
-    <t>número de atendimentosàs famílias emassentamentos equilombos(unidade)</t>
-  </si>
-  <si>
-    <t>construções e reformas(unidade)</t>
-  </si>
-  <si>
-    <t>documentos emitidos(unidade)</t>
-  </si>
-  <si>
-    <t>número de custodiadosatendidos(unidade)</t>
-  </si>
-  <si>
-    <t>número de registroseletrônicos realizadospelos cidadãos(unidade)</t>
-  </si>
-  <si>
-    <t>servidores formados,capacitados,aperfeiçoados eespecializados(unidade)</t>
-  </si>
-  <si>
-    <t>municípios acima de50.000 habitantes com apresença do corpo debombeiros(%)</t>
-  </si>
-  <si>
-    <t>atendimentosemergenciais em relaçãoao total de solicitaçõesrecebidas(%)</t>
-  </si>
-  <si>
-    <t>capacitaçõesoperacionais realizadaspor bombeiro militar aoano(%)</t>
-  </si>
-  <si>
-    <t>edificações comcertificado de licença docorpo de bombeiros(c.l.c.b.) fiscalizadas aomês(%)</t>
-  </si>
-  <si>
-    <t>número de construções,reformas e ampliações(unidade)</t>
-  </si>
-  <si>
-    <t>número de laudosexpedidos(unidade)</t>
-  </si>
-  <si>
-    <t>número de profissionaisqualificados(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de consultasrealizadas (prontosocorro, ambulatórios eclínicas)(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade deatendimentos deassistência jurídicafuncional realizados(unidade)</t>
-  </si>
-  <si>
-    <t>número de projetos de tiimplantados(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de câmerasfixas devideomonitorização ecâmeras instaladas emdrones em operação pelapmesp(unidade)</t>
-  </si>
-  <si>
-    <t>número de equipamentosadquiridos(unidade)</t>
-  </si>
-  <si>
-    <t>equipamentos deproteção respiratóriasubstituídos(unidade)</t>
-  </si>
-  <si>
-    <t>número de equipamentosdestinados à atividade fim(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade dearmamento adquirido(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de ligaçõesatendidas pelo disquedenúncia no ano(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de quartéisconstruídos e reformados(unidade)</t>
-  </si>
-  <si>
-    <t>número de atendimentosrealizados pela pm(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de policiaismilitares formados ecapacitados(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade deatendimentos de saúderealizados(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de ações decomunicação institucional(unidade)</t>
-  </si>
-  <si>
-    <t>arrecadação de impostos(R$ bilhões)</t>
-  </si>
-  <si>
-    <t>percentual de execuçãode auditorias planejadas(%)</t>
-  </si>
-  <si>
-    <t>dívida consolidada líquidasobre a receita correntelíquida (dcl/rcl)(%)</t>
-  </si>
-  <si>
-    <t>número de  repassesfinanceiros realizados(unidade)</t>
-  </si>
-  <si>
-    <t>número de operações desecuritização realizadas(unidade)</t>
-  </si>
-  <si>
-    <t>desembolsos dadesenvolve sp paramunicípios paulistas(R$)</t>
-  </si>
-  <si>
-    <t>total de micro e pequenasempresas atendidas peladesenvolve(unidade)</t>
-  </si>
-  <si>
-    <t>desembolsos dadesenvolve sp parainovação em empresas(R$)</t>
-  </si>
-  <si>
-    <t>beneficiários pagos(unidade)</t>
-  </si>
-  <si>
-    <t>cumprimento docronograma de atividadesrelacionadas aodesenvolvimento dosistema rh-folha(%)</t>
-  </si>
-  <si>
-    <t>número de processos deavaliação decompetências técnicasconcluídos(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de períciasmédicas, laudos epareceres(unidade)</t>
-  </si>
-  <si>
-    <t>percentual médio de itensefetivamente negociadosna bec/sp no mês(%)</t>
-  </si>
-  <si>
-    <t>número de projetosanalisados(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de vagasaproveitadas(unidade)</t>
-  </si>
-  <si>
-    <t>índice de execução dosplanos de trabalho (iept)(%)</t>
-  </si>
-  <si>
-    <t>número de cidadãosconscientizados(unidade)</t>
-  </si>
-  <si>
-    <t>número de subprojetosprofisco concluídos(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de estudosconcluídos(unidade)</t>
-  </si>
-  <si>
-    <t>tempo dedicado àsagendas conjuntas comos órgãos setoriais(h)</t>
-  </si>
-  <si>
-    <t>tempo médio de analisede movimentaçõesorçamentárias(dia)</t>
-  </si>
-  <si>
-    <t>número de avaliações dedesempenho dosprogramas realizadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de estudosrealizados(unidade)</t>
-  </si>
-  <si>
-    <t>número de audiênciaspúblicas realizadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de subsídioshabitacionais concedidos(unidade)</t>
-  </si>
-  <si>
-    <t>número de benefícioshabitacionais concedidosàs famílias(unidade)</t>
-  </si>
-  <si>
-    <t>número de domicíliosbeneficiados por apoio àregularização(unidade)</t>
-  </si>
-  <si>
-    <t>número de domicíliosbeneficiados porregularização emconjuntos e núcleoshabitacionais da cdhu(unidade)</t>
-  </si>
-  <si>
-    <t>número de unidadeshabitacionais em canteiropara provisão demoradias(unidade)</t>
-  </si>
-  <si>
-    <t>número de domicíliosbeneficiados porurbanização(unidade)</t>
-  </si>
-  <si>
-    <t>número de unidadeshabitacionais em canteiropara reassentamentohabitacional(unidade)</t>
-  </si>
-  <si>
-    <t>número de domicíliosbeneficiados pormelhorias habitacionais eurbanas(unidade)</t>
-  </si>
-  <si>
-    <t>número de domicíliosbeneficiados porurbanização ereassentamentohabitacional nas áreas deinteresse do litoralpaulista(unidade)</t>
-  </si>
-  <si>
-    <t>número de amostras deágua de poço coletadasna rede demonitoramento dequalidade(unidade)</t>
-  </si>
-  <si>
-    <t>número de documentosemitidos(unidade)</t>
-  </si>
-  <si>
-    <t>número dos projetosfinanciados pelo fecop(unidade)</t>
-  </si>
-  <si>
-    <t>número dos projetosfinanciados pelo feprac(unidade)</t>
-  </si>
-  <si>
-    <t>número de processos delicenciamento ambientalcom avaliação de impactoambiental encerrados(unidade)</t>
-  </si>
-  <si>
-    <t>percentual deatendimento(%)</t>
-  </si>
-  <si>
-    <t>número de novosdocumentos firmados(unidade)</t>
-  </si>
-  <si>
-    <t>número de ações defiscalização(unidade)</t>
-  </si>
-  <si>
-    <t>número de participações(unidade)</t>
-  </si>
-  <si>
-    <t>número de visitantes dosparques urbanos(unidade)</t>
-  </si>
-  <si>
-    <t>número de projetos paraações educativasexecutados por ano(unidade)</t>
-  </si>
-  <si>
-    <t>número de parceriasfirmadas com municípiose organizações dasociedade civil(unidade)</t>
-  </si>
-  <si>
-    <t>número de visitantes nosparques em áreas devárzeas(unidade)</t>
-  </si>
-  <si>
-    <t>número de ações deprevenção, fiscalização emonitoramento ambiental(unidade)</t>
-  </si>
-  <si>
-    <t>índice de gestão da fauna(%)</t>
-  </si>
-  <si>
-    <t>percentual de serviços eequipamentosdisponibilizados(%)</t>
-  </si>
-  <si>
-    <t>percentual de execuçãodos contratos de psa(%)</t>
-  </si>
-  <si>
-    <t>áreas de pressão comações relacionadas aosplanos de monitoramentoe fiscalização ambientalintegrada de ocupaçõesirregulares(unidade)</t>
-  </si>
-  <si>
-    <t>número de autos deinfração consolidados noatendimento ambiental,recursos julgados,vistorias realizadas paraacompanhamento dareparação de danos emultas convertidas emserviços ambientais(unidade)</t>
-  </si>
-  <si>
-    <t>número de instrumentosdesenvolvidos por políticapública(unidade)</t>
-  </si>
-  <si>
-    <t>número de novasinformações incorporadasao datageo(unidade)</t>
-  </si>
-  <si>
-    <t>número de municípios daregião metropolitana desão paulo, baixadasantista e litoral nortecom mapeamento deriscos de desastres(unidade)</t>
-  </si>
-  <si>
-    <t>avaliações de risco dedesastres geodinâmicos(unidade)</t>
-  </si>
-  <si>
-    <t>ações e projetos emáguas subterrâneas(unidade)</t>
-  </si>
-  <si>
-    <t>número de contratoscelebrados com o fehidroconsolidando asmodalidades financiadas(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade decapacitações (processosformativos)(unidade)</t>
-  </si>
-  <si>
-    <t>percentual dedesenvolvimento deplataforma para subsidiara implantação desoluções tecnológicaspara o tratamento deresíduos sólidos noestado(%)</t>
-  </si>
-  <si>
-    <t>instrumentos de gestão egerenciamento deresíduos previstos noplano entregues(%)</t>
-  </si>
-  <si>
-    <t>número de inspeções ematerros(unidade)</t>
-  </si>
-  <si>
-    <t>número de públicoatendido ao ano(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de unidadesde conservaçãobeneficiárias dedestinações decompensação ambientale contempladas comprojetos estratégicos(%)</t>
-  </si>
-  <si>
-    <t>área total de unidades deconservação e outrasáreas protegidas geridase com ações de proteçãoe conservação(ha)</t>
-  </si>
-  <si>
-    <t>número de produtos eserviços técnico-científicos realizados(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de áreasbeneficiadas pelas açõesde conclusão doprograma(%)</t>
-  </si>
-  <si>
-    <t>número de animaismantidos pelo zoológicode são paulo(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de materialretirado(m3/ano)</t>
-  </si>
-  <si>
-    <t>número de obras eserviços em andamento(unidade)</t>
-  </si>
-  <si>
-    <t>numero de obras/serviçosem andamento(unidade)</t>
-  </si>
-  <si>
-    <t>percentual executado doprojeto renasce tietê(%)</t>
-  </si>
-  <si>
-    <t>volume de materialremovido dos piscinões(m3)</t>
-  </si>
-  <si>
-    <t>volume desassoreado decursos d'água(m3)</t>
-  </si>
-  <si>
-    <t>percentual executado dasobras das barragenspedreira e duas pontes(%)</t>
-  </si>
-  <si>
-    <t>número de instrumentos(elaborados/revisados/implementados)entregues(unidade)</t>
-  </si>
-  <si>
-    <t>montante financeiroalavancado pelaequalização dos juros(R$)</t>
-  </si>
-  <si>
-    <t>número de ligaçõesintradomiciliaresreembolsadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de convêniosvigentes(unidade)</t>
-  </si>
-  <si>
-    <t>número de projetosfinanciados e concluídos(unidade)</t>
-  </si>
-  <si>
-    <t>número de convênioscelebrados para projetossustentáveis do setor desaneamento(unidade)</t>
-  </si>
-  <si>
-    <t>número de novasligações de água(unidade)</t>
-  </si>
-  <si>
-    <t>número de novasligações de esgotos(unidade)</t>
-  </si>
-  <si>
-    <t>índice de economiasconectadas ao tratamentode esgoto(%)</t>
-  </si>
-  <si>
-    <t>publicaçõesdisponibilizadas no portalde informações do sigrh(www.sigrh.sp.gov.br)(unidade)</t>
-  </si>
-  <si>
-    <t>contratos assinados(unidade)</t>
-  </si>
-  <si>
-    <t>número de outorgas dedireito de uso expedidas(unidade)</t>
-  </si>
-  <si>
-    <t>total de postoshidrometereológicosimplantados(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de projetoscontratados(unidade)</t>
-  </si>
-  <si>
-    <t>novos projetostermelétricos a gásnatural em são paulo(unidade)</t>
-  </si>
-  <si>
-    <t>municípios orientados apartir do sistema deinformações minerais(sim) por ano(unidade)</t>
-  </si>
-  <si>
-    <t>índice de disponibilidadede geração de energiaelétrica(%)</t>
-  </si>
-  <si>
-    <t>aquisições, construções einstalações de imóveis(unidade)</t>
-  </si>
-  <si>
-    <t>conjuntos informatizados(unidade)</t>
-  </si>
-  <si>
-    <t>procuradorias de justiça,promotorias de justiça egrupos de atuaçãoespecial(unidade)</t>
-  </si>
-  <si>
-    <t>concurso de ingresso emrealização(unidade)</t>
-  </si>
-  <si>
-    <t>cursos ministrados(unidade)</t>
+    <t>número de participantes nas atividades de aperfeiçoamento / capacitação(unidade)</t>
+  </si>
+  <si>
+    <t>municípios atendidos (unidade)</t>
+  </si>
+  <si>
+    <t>pessoas atendidas (unidade)</t>
+  </si>
+  <si>
+    <t>horas de transmissão tvcultura, tv ra-tim-bum (canal fechado) e rádios cultura am e fm(h)</t>
+  </si>
+  <si>
+    <t>projetos/obras em andamento(unidade)</t>
+  </si>
+  <si>
+    <t>número de projetos em andamento(unidade)</t>
+  </si>
+  <si>
+    <t>número de relatórios publicados dos resultados dos contratos de gestão (unidade)</t>
+  </si>
+  <si>
+    <t>número de visitantes nos museus da secretaria de cultura e economia criativa(unidade)</t>
+  </si>
+  <si>
+    <t>intervenções analisadas (unidade)</t>
+  </si>
+  <si>
+    <t>número de produtos entregues(unidade)</t>
+  </si>
+  <si>
+    <t>número de projetos aprovados(unidade)</t>
+  </si>
+  <si>
+    <t>número de frequentadores das atividades realizadas pelo memorial da américa latina(unidade)</t>
+  </si>
+  <si>
+    <t>bolsa de pesquisa concedida(unidade)</t>
+  </si>
+  <si>
+    <t>obras de arte/literárias restauradas(%)</t>
+  </si>
+  <si>
+    <t>número de propriedades avaliadas(unidade)</t>
+  </si>
+  <si>
+    <t>número de fiscalizações de defesa vegetal e defesa animal(unidade)</t>
+  </si>
+  <si>
+    <t>número de animais susceptíveis à febre aftosa inspecionados e vistoriados(unidade)</t>
+  </si>
+  <si>
+    <t>número de fiscalizações em estabelecimentos de produção e processamento de alimentos(unidade)</t>
+  </si>
+  <si>
+    <t>número de atendimentos realizados(unidade)</t>
+  </si>
+  <si>
+    <t>número de certificados concedidos(unidade)</t>
+  </si>
+  <si>
+    <t>número de canais criados e/ou modernizado (unidade)</t>
+  </si>
+  <si>
+    <t>número de municípios conveniados para desenvolvimento local e regional dos agronegócios(unidade)</t>
+  </si>
+  <si>
+    <t>número de pesquisas em andamento(unidade)</t>
+  </si>
+  <si>
+    <t>quilometros de estradas mapeadas e codificadas (km)</t>
+  </si>
+  <si>
+    <t>número de operações de crédito viabilizadas com recursos do feap (unidade)</t>
+  </si>
+  <si>
+    <t>número de subvenções concedidas aos produtores rurais com recursos do feap (unidade)</t>
+  </si>
+  <si>
+    <t>número de capacitações realizadas(unidade)</t>
+  </si>
+  <si>
+    <t>número de análises laboratoriais realizadas (unidade)</t>
+  </si>
+  <si>
+    <t>receita total da comercialização de insumos.(R$)</t>
+  </si>
+  <si>
+    <t>número de unidades modernizadas(unidade)</t>
+  </si>
+  <si>
+    <t>estradas recuperadas e trafegáveis(km)</t>
+  </si>
+  <si>
+    <t>número de atendimentos em assistência técnica e extensão rural e organizações rurais (unidade)</t>
+  </si>
+  <si>
+    <t>número de propriedades com protocolos de boas práticas agropecuárias - pbpa aplicados(unidade)</t>
+  </si>
+  <si>
+    <t>número de propriedades beneficiadas por projetos (unidade)</t>
+  </si>
+  <si>
+    <t>número de produtores assistidos ao ano (unidade)</t>
+  </si>
+  <si>
+    <t>número de propriedades assistidas com práticas de manejo para conservação de solo, água e biodiversidade (unidade)</t>
+  </si>
+  <si>
+    <t>percentual de conclusão dos estudos para desestatização dos aeroportos(%)</t>
+  </si>
+  <si>
+    <t>percentual de conclusão dos estudos para desestatização das travessias litorâneas(%)</t>
+  </si>
+  <si>
+    <t>percentual de obras e melhorias executadas no porto de são sebastião (%)</t>
+  </si>
+  <si>
+    <t>percentual de sinais náuticos em condições operacionais na hidrovia tietê-paraná(%)</t>
+  </si>
+  <si>
+    <t>percentual de avanço- físico do programa de investimento de ampliação e melhorias na malha hidroviária(%)</t>
+  </si>
+  <si>
+    <t>volume de cargas movimentadas no porto de são sebastião por ano (t)</t>
+  </si>
+  <si>
+    <t>número de equipamentos instalados(unidade)</t>
+  </si>
+  <si>
+    <t>número de atendimentos realizados ao ano (unidade)</t>
+  </si>
+  <si>
+    <t>número de ocorrências policiais atendidas ao ano (unidade)</t>
+  </si>
+  <si>
+    <t>número de veículos com peso fiscalizados (unidade)</t>
+  </si>
+  <si>
+    <t>percentual de execução dos contratos de conservação(%)</t>
+  </si>
+  <si>
+    <t>extensão em km pavimentados/ recuperados(km)</t>
+  </si>
+  <si>
+    <t>extensão de estradas vicinais pavimentas/ recuperadas(km)</t>
+  </si>
+  <si>
+    <t>extensão de rodovias estaduais duplicadas, implantadas e recuperadas(km)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico de execução de obras no período(%)</t>
+  </si>
+  <si>
+    <t>número de terminais reformados e/ou construídos(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de execução do empreendimento nova tamoios - contornos(%)</t>
+  </si>
+  <si>
+    <t>percentual de execução do contrato da ppp tamoios(%)</t>
+  </si>
+  <si>
+    <t>número de aeroportos operados e mantidos pelo departamento aeroviário do estado de são paulo (daesp)(unidade)</t>
+  </si>
+  <si>
+    <t>número de aeroportos reformados e ampliados (unidade)</t>
+  </si>
+  <si>
+    <t>percentual de instalações e embarcações modernizadas(%)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico das obras do rodoanel trecho norte no período(%)</t>
+  </si>
+  <si>
+    <t>número de municípios atendidos pela regionalização(unidade)</t>
+  </si>
+  <si>
+    <t>número de convênios firmados com municípios para implantação do procon municipal conveniado(unidade)</t>
+  </si>
+  <si>
+    <t>número de atendimentos ao consumidor(unidade)</t>
+  </si>
+  <si>
+    <t>número de atos fiscalizatórios realizados (unidade)</t>
+  </si>
+  <si>
+    <t>número de ações educativas realizadas (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de laudos expedidos de perícias de medicina legal ao ano (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de laudos periciais de dna expedidos ao ano (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de ações de educação continuada para servidores e peritos (unidade)</t>
+  </si>
+  <si>
+    <t>número de verificações periódicas de instrumentos de pesar e medir ao ano(unidade)</t>
+  </si>
+  <si>
+    <t>número de fiscalizações de produtos pré embalados ao ano (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de adolescentes/jovens atendidos no mês (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade anual de atendimentos clínicos, saúde mental, odontológicos, enfermagem e psicológicos(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade anual de atendimentos em atenção integral à educação formal, formação profissional básica, arte e cultura e educação física (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de obras/ adequações estruturais realizadas(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de reformas e conservações: hidráulica, elétrica, etc(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade mensal de adolescentes/jovens atendidos via ppp (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de adolescentes/jovens atendidos pela intervenção proposta (unidade)</t>
+  </si>
+  <si>
+    <t>número de atividades de participação social (unidade)</t>
+  </si>
+  <si>
+    <t>número de pessoas participantes em capacitações realizadas (unidade)</t>
+  </si>
+  <si>
+    <t>número de interesses difusos reparados (unidade)</t>
+  </si>
+  <si>
+    <t>média mensal de atendimentos feitos pelo cravi(unidade)</t>
+  </si>
+  <si>
+    <t>média mensal de atendimentos presenciais (unidade)</t>
+  </si>
+  <si>
+    <t>número de pessoas atendidas por ano (unidade)</t>
+  </si>
+  <si>
+    <t>média mensal de atendimentos pelos centros de integração da cidadania(unidade)</t>
+  </si>
+  <si>
+    <t>número de pastas técnicas (material que viabiliza a licitação da obra) emitidas(unidade)</t>
+  </si>
+  <si>
+    <t>número de indenizações pagas(unidade)</t>
+  </si>
+  <si>
+    <t>número de vítimas atendidas(unidade)</t>
+  </si>
+  <si>
+    <t>número de convênios assinados(unidade)</t>
+  </si>
+  <si>
+    <t>número de perícias natureza cível pagas (unidade)</t>
+  </si>
+  <si>
+    <t>número de equipamentos e serviços voltados à ampliação do acesso à justiça entregues (unidade)</t>
+  </si>
+  <si>
+    <t>número de unidades imobiliárias cadastradas (unidade)</t>
+  </si>
+  <si>
+    <t>número de atendimentos às famílias em assentamentos e quilombos(unidade)</t>
+  </si>
+  <si>
+    <t>construções e reformas (unidade)</t>
+  </si>
+  <si>
+    <t>documentos emitidos (unidade)</t>
+  </si>
+  <si>
+    <t>número de custodiados atendidos(unidade)</t>
+  </si>
+  <si>
+    <t>número de registros eletrônicos realizados pelos cidadãos(unidade)</t>
+  </si>
+  <si>
+    <t>servidores formados, capacitados, aperfeiçoados e especializados(unidade)</t>
+  </si>
+  <si>
+    <t>municípios acima de 50.000 habitantes com a presença do corpo de bombeiros(%)</t>
+  </si>
+  <si>
+    <t>atendimentos emergenciais em relação ao total de solicitações recebidas(%)</t>
+  </si>
+  <si>
+    <t>capacitações operacionais realizadas por bombeiro militar ao ano(%)</t>
+  </si>
+  <si>
+    <t>edificações com certificado de licença do corpo de bombeiros (c.l.c.b.) fiscalizadas ao mês(%)</t>
+  </si>
+  <si>
+    <t>número de construções, reformas e ampliações (unidade)</t>
+  </si>
+  <si>
+    <t>número de laudos expedidos(unidade)</t>
+  </si>
+  <si>
+    <t>número de profissionais qualificados(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de consultas realizadas (pronto socorro, ambulatórios e clínicas)(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de atendimentos de assistência jurídica funcional realizados (unidade)</t>
+  </si>
+  <si>
+    <t>número de projetos de ti implantados(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de câmeras fixas de videomonitorização e câmeras instaladas em drones em operação pela pmesp(unidade)</t>
+  </si>
+  <si>
+    <t>número de equipamentos adquiridos(unidade)</t>
+  </si>
+  <si>
+    <t>equipamentos de proteção respiratória substituídos(unidade)</t>
+  </si>
+  <si>
+    <t>número de equipamentos destinados à atividade fim (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de armamento adquirido (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de ligações atendidas pelo disque denúncia no ano(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de quartéis construídos e reformados (unidade)</t>
+  </si>
+  <si>
+    <t>número de atendimentos realizados pela pm (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de policiais militares formados e capacitados(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de atendimentos de saúde realizados(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de ações de comunicação institucional (unidade)</t>
+  </si>
+  <si>
+    <t>arrecadação de impostos (R$ bilhões)</t>
+  </si>
+  <si>
+    <t>percentual de execução de auditorias planejadas (%)</t>
+  </si>
+  <si>
+    <t>dívida consolidada líquida sobre a receita corrente líquida (dcl/rcl)(%)</t>
+  </si>
+  <si>
+    <t>número de  repasses financeiros realizados (unidade)</t>
+  </si>
+  <si>
+    <t>número de operações de securitização realizadas (unidade)</t>
+  </si>
+  <si>
+    <t>desembolsos da desenvolve sp para municípios paulistas(R$)</t>
+  </si>
+  <si>
+    <t>total de micro e pequenas empresas atendidas pela desenvolve(unidade)</t>
+  </si>
+  <si>
+    <t>desembolsos da desenvolve sp para inovação em empresas(R $)</t>
+  </si>
+  <si>
+    <t>beneficiários pagos (unidade)</t>
+  </si>
+  <si>
+    <t>cumprimento do cronograma de atividades relacionadas ao desenvolvimento do sistema rh-folha(%)</t>
+  </si>
+  <si>
+    <t>número de processos de avaliação de competências técnicas concluídos(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de perícias médicas, laudos e pareceres(unidade)</t>
+  </si>
+  <si>
+    <t>percentual médio de itens efetivamente negociados na bec/sp no mês(%)</t>
+  </si>
+  <si>
+    <t>número de projetos analisados(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de vagas aproveitadas(unidade)</t>
+  </si>
+  <si>
+    <t>índice de execução dos planos de trabalho (iept) (%)</t>
+  </si>
+  <si>
+    <t>número de cidadãos conscientizados(unidade)</t>
+  </si>
+  <si>
+    <t>número de subprojetos profisco concluídos (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de estudos concluídos(unidade)</t>
+  </si>
+  <si>
+    <t>tempo dedicado às agendas conjuntas com os órgãos setoriais(h)</t>
+  </si>
+  <si>
+    <t>tempo médio de analise de movimentações orçamentárias(dia)</t>
+  </si>
+  <si>
+    <t>número de avaliações de desempenho dos programas realizadas (unidade)</t>
+  </si>
+  <si>
+    <t>número de estudos realizados(unidade)</t>
+  </si>
+  <si>
+    <t>número de audiências públicas realizadas (unidade)</t>
+  </si>
+  <si>
+    <t>número de subsídios habitacionais concedidos (unidade)</t>
+  </si>
+  <si>
+    <t>número de benefícios habitacionais concedidos às famílias(unidade)</t>
+  </si>
+  <si>
+    <t>número de domicílios beneficiados por apoio à regularização(unidade)</t>
+  </si>
+  <si>
+    <t>número de domicílios beneficiados por regularização em conjuntos e núcleos habitacionais da cdhu (unidade)</t>
+  </si>
+  <si>
+    <t>número de unidades habitacionais em canteiro para provisão de moradias(unidade)</t>
+  </si>
+  <si>
+    <t>número de domicílios beneficiados por urbanização(unidade)</t>
+  </si>
+  <si>
+    <t>número de unidades habitacionais em canteiro para reassentamento habitacional(unidade)</t>
+  </si>
+  <si>
+    <t>número de domicílios beneficiados por melhorias habitacionais e urbanas(unidade)</t>
+  </si>
+  <si>
+    <t>número de domicílios beneficiados por urbanização e reassentamento habitacional nas áreas de interesse do litoral paulista(unidade)</t>
+  </si>
+  <si>
+    <t>número de amostras de água de poço coletadas na rede de monitoramento de qualidade(unidade)</t>
+  </si>
+  <si>
+    <t>número de documentos emitidos(unidade)</t>
+  </si>
+  <si>
+    <t>número dos projetos financiados pelo fecop (unidade)</t>
+  </si>
+  <si>
+    <t>número dos projetos financiados pelo feprac (unidade)</t>
+  </si>
+  <si>
+    <t>número de processos de licenciamento ambiental com avaliação de impacto ambiental encerrados (unidade)</t>
+  </si>
+  <si>
+    <t>percentual de atendimento(%)</t>
+  </si>
+  <si>
+    <t>número de novos documentos firmados (unidade)</t>
+  </si>
+  <si>
+    <t>número de ações de fiscalização(unidade)</t>
+  </si>
+  <si>
+    <t>número de participações (unidade)</t>
+  </si>
+  <si>
+    <t>número de visitantes dos parques urbanos (unidade)</t>
+  </si>
+  <si>
+    <t>número de projetos para ações educativas executados por ano (unidade)</t>
+  </si>
+  <si>
+    <t>número de parcerias firmadas com municípios e organizações da sociedade civil(unidade)</t>
+  </si>
+  <si>
+    <t>número de visitantes nos parques em áreas de várzeas(unidade)</t>
+  </si>
+  <si>
+    <t>número de ações de prevenção, fiscalização e monitoramento ambiental (unidade)</t>
+  </si>
+  <si>
+    <t>índice de gestão da fauna (%)</t>
+  </si>
+  <si>
+    <t>percentual de serviços e equipamentos disponibilizados(%)</t>
+  </si>
+  <si>
+    <t>percentual de execução dos contratos de psa(%)</t>
+  </si>
+  <si>
+    <t>áreas de pressão com ações relacionadas aos planos de monitoramento e fiscalização ambiental integrada de ocupações irregulares(unidade)</t>
+  </si>
+  <si>
+    <t>número de autos de infração consolidados no atendimento ambiental, recursos julgados, vistorias realizadas para acompanhamento da reparação de danos e multas convertidas em serviços ambientais (unidade)</t>
+  </si>
+  <si>
+    <t>número de instrumentos desenvolvidos por política pública(unidade)</t>
+  </si>
+  <si>
+    <t>número de novas informações incorporadas ao datageo(unidade)</t>
+  </si>
+  <si>
+    <t>número de municípios da região metropolitana de são paulo, baixada santista e litoral norte com mapeamento de riscos de desastres (unidade)</t>
+  </si>
+  <si>
+    <t>avaliações de risco de desastres geodinâmicos (unidade)</t>
+  </si>
+  <si>
+    <t>ações e projetos em águas subterrâneas (unidade)</t>
+  </si>
+  <si>
+    <t>número de contratos celebrados com o fehidro consolidando as modalidades financiadas (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de capacitações (processos formativos)(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de desenvolvimento de plataforma para subsidiar a implantação de soluções tecnológicas para o tratamento de resíduos sólidos no estado(%)</t>
+  </si>
+  <si>
+    <t>instrumentos de gestão e gerenciamento de resíduos previstos no plano entregues(%)</t>
+  </si>
+  <si>
+    <t>número de inspeções em aterros(unidade)</t>
+  </si>
+  <si>
+    <t>número de público atendido ao ano(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de unidades de conservação beneficiárias de destinações de compensação ambiental e contempladas com projetos estratégicos(%)</t>
+  </si>
+  <si>
+    <t>área total de unidades de conservação e outras áreas protegidas geridas e com ações de proteção e conservação(ha)</t>
+  </si>
+  <si>
+    <t>número de produtos e serviços técnico- científicos realizados (unidade)</t>
+  </si>
+  <si>
+    <t>percentual de áreas beneficiadas pelas ações de conclusão do programa(%)</t>
+  </si>
+  <si>
+    <t>número de animais mantidos pelo zoológico de são paulo(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de material retirado(m3/ano)</t>
+  </si>
+  <si>
+    <t>número de obras e serviços em andamento (unidade)</t>
+  </si>
+  <si>
+    <t>numero de obras/serviços em andamento(unidade)</t>
+  </si>
+  <si>
+    <t>percentual executado do projeto renasce tietê(%)</t>
+  </si>
+  <si>
+    <t>volume de material removido dos piscinões (m3)</t>
+  </si>
+  <si>
+    <t>volume desassoreado de cursos d'água(m3)</t>
+  </si>
+  <si>
+    <t>percentual executado das obras das barragens pedreira e duas pontes (%)</t>
+  </si>
+  <si>
+    <t>número de instrumentos (elaborados/revisados/ implementados)entregues (unidade)</t>
+  </si>
+  <si>
+    <t>montante financeiro alavancado pela equalização dos juros(R$)</t>
+  </si>
+  <si>
+    <t>número de ligações intradomiciliares reembolsadas(unidade)</t>
+  </si>
+  <si>
+    <t>número de convênios vigentes(unidade)</t>
+  </si>
+  <si>
+    <t>número de projetos financiados e concluídos (unidade)</t>
+  </si>
+  <si>
+    <t>número de convênios celebrados para projetos sustentáveis do setor de saneamento(unidade)</t>
+  </si>
+  <si>
+    <t>número de novas ligações de água (unidade)</t>
+  </si>
+  <si>
+    <t>número de novas ligações de esgotos (unidade)</t>
+  </si>
+  <si>
+    <t>índice de economias conectadas ao tratamento de esgoto(%)</t>
+  </si>
+  <si>
+    <t>publicações disponibilizadas no portal de informações do sigrh (www.sigrh.sp.gov.br) (unidade)</t>
+  </si>
+  <si>
+    <t>contratos assinados (unidade)</t>
+  </si>
+  <si>
+    <t>número de outorgas de direito de uso expedidas (unidade)</t>
+  </si>
+  <si>
+    <t>total de postos hidrometereológicos implantados(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de projetos contratados(unidade)</t>
+  </si>
+  <si>
+    <t>novos projetos termelétricos a gás natural em são paulo (unidade)</t>
+  </si>
+  <si>
+    <t>municípios orientados a partir do sistema de informações minerais (sim) por ano(unidade)</t>
+  </si>
+  <si>
+    <t>índice de disponibilidade de geração de energia elétrica(%)</t>
+  </si>
+  <si>
+    <t>aquisições, construções e instalações de imóveis (unidade)</t>
+  </si>
+  <si>
+    <t>conjuntos informatizados (unidade)</t>
+  </si>
+  <si>
+    <t>procuradorias de justiça, promotorias de justiça e grupos de atuação especial(unidade)</t>
+  </si>
+  <si>
+    <t>concurso de ingresso em realização(unidade)</t>
+  </si>
+  <si>
+    <t>cursos ministrados (unidade)</t>
   </si>
   <si>
     <t>iniciativas(unidade)</t>
   </si>
   <si>
-    <t>número de convêniosfirmados com prefeiturasmunicipais(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de adesão dasregiões administrativasao sem papel(%)</t>
-  </si>
-  <si>
-    <t>número de contratos definanciamento  firmadoscom os municípios(unidade)</t>
-  </si>
-  <si>
-    <t>número de unidadesregionais integradasinstaladas(unidade)</t>
-  </si>
-  <si>
-    <t>número de projetosaprovados pelosconselhos dedesenvolvimento damacrometrópole paulista(unidade)</t>
-  </si>
-  <si>
-    <t>número de eventosrealizados, objetivando aimplementação dos pduis(unidade)</t>
-  </si>
-  <si>
-    <t>número de convêniosfirmados com prefeiturasmunicipais e entidades(unidade)</t>
-  </si>
-  <si>
-    <t>publicações realizadas edisponibilizadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de serviços deproteção social básica(unidade)</t>
-  </si>
-  <si>
-    <t>número de serviços deproteção social de médiacomplexidade(unidade)</t>
-  </si>
-  <si>
-    <t>número de benefícios dosprogramas detransferência de rendaestadual(unidade)</t>
-  </si>
-  <si>
-    <t>número de açõesimplementadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de serviços deproteção social especialde alta complexidade(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de refeiçõesservidas(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de leitedistribuído(litros)</t>
-  </si>
-  <si>
-    <t>número de situaçõesinadequadas apontadasno sistema estadual(sigsuas)(unidade)</t>
-  </si>
-  <si>
-    <t>carga horária decapacitação efetuada(h)</t>
-  </si>
-  <si>
-    <t>percentual de realizaçãodos contratos defornecimento - linha 9(%)</t>
-  </si>
-  <si>
-    <t>percentual de realizaçãodos contratos defornecimento(%)</t>
-  </si>
-  <si>
-    <t>número de contratosvigentes(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de realizaçãodos contratos defornecimento - linha 11(%)</t>
-  </si>
-  <si>
-    <t>percentual de realizaçãodos contratos defornecimento - linhas 7 e12(%)</t>
-  </si>
-  <si>
-    <t>número de contratosrelacionados ao sistemametropolitano e ações decomunicação social erelações institucionaisdesenvolvidos(unidade)</t>
-  </si>
-  <si>
-    <t>corredores, brt e vltimplantados(km)</t>
-  </si>
-  <si>
-    <t>número de estudos eprojetos de gestão eplanejamento executados(unidade)</t>
-  </si>
-  <si>
-    <t>número de passageirostransportados por anoutilizando o benefício dagratuidade - idosos de 60a 64 anos(unidade)</t>
-  </si>
-  <si>
-    <t>número de passageirostransportados por anoutilizando o benefício dagratuidade - estudantesde baixa renda(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de projetos,estudos e pesquisaselaborados(%)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico do empreendimentoredimensionado(%)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico do empreendimento- linha 13(%)</t>
-  </si>
-  <si>
-    <t>percentual de realizaçãofísica das intervenções(%)</t>
-  </si>
-  <si>
-    <t>número de passageirostransportados - média pordia útil(unidade)</t>
-  </si>
-  <si>
-    <t>número de passageirosidosos e outrostransportadosgratuitamente por ano(unidade)</t>
-  </si>
-  <si>
-    <t>número de passageirosestudantes comtransporte subsidiado porano(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico do empreendimento(%)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico das obras civis esistemas da linha 5 lilás(%)</t>
-  </si>
-  <si>
-    <t>percentual de projetos eestudos elaborados(%)</t>
-  </si>
-  <si>
-    <t>número de fachadas deportas de plataformainstaladas ecomissionadas nasestações(unidade)</t>
-  </si>
-  <si>
-    <t>número de fachadas deportas de plataformainstaladas ecomissionadas nasestações da linha 2 -verde(unidade)</t>
-  </si>
-  <si>
-    <t>número de passageirostransportados no sistemametroviário por ano(linhas sob gestão dometrô - l1, l2 e l3)(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico do empreendimentoda linha 4 amarela(%)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico do empreendimentoda linha 17 ouro(%)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico do empreendimentoda linha 2 verde noperíodo(%)</t>
-  </si>
-  <si>
-    <t>número de fachadas deportas de plataformainstaladas ecomissionadas nasestações da linha 3-vermelha(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico do empreendimentoda linha 15 prata(%)</t>
-  </si>
-  <si>
-    <t>número de passageirosidosos transportadosgratuitamente por ano(unidade)</t>
-  </si>
-  <si>
-    <t>número de usuáriosatendidos no período(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico de modernização eexpansão da efcj(%)</t>
-  </si>
-  <si>
-    <t>número de estações dalinha 4-amarelaconcedidas e fiscalizadas(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico das obras na linha6-laranja(%)</t>
-  </si>
-  <si>
-    <t>número de passageiroscom transportesubsidiado no simbaixada santista(unidade)</t>
-  </si>
-  <si>
-    <t>número de estações dalinha 5-lilás concedidas efiscalizadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de estações dalinha 15-prata concedidase finalizadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de estações daslinhas 8 e 9 concedidas efiscalizadas(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico da obra daimplantação do tic(%)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico das obras noparque capivari(%)</t>
-  </si>
-  <si>
-    <t>quantidade de estaçõesmodernizadas(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de sessõesrealizadas porteleaudiência criminal(%)</t>
-  </si>
-  <si>
-    <t>percentual de avançofísico da obra(%)</t>
-  </si>
-  <si>
-    <t>percentual de unidadesprisionais com equipemínima de saúde(%)</t>
-  </si>
-  <si>
-    <t>percentual deimplementação do projetode modernização doparque tecnológico(%)</t>
-  </si>
-  <si>
-    <t>número de unidadesprisionais conservadas.(unidade)</t>
-  </si>
-  <si>
-    <t>numero de unidadeprisional com gestãocompartilhada(unidade)</t>
-  </si>
-  <si>
-    <t>número de ações eeventos realizados parapromoção daempregabilidade(unidade)</t>
-  </si>
-  <si>
-    <t>número de alunos emcursos de ensinofundamental, médio eprofissionalizante(unidade)</t>
-  </si>
-  <si>
-    <t>número de relatóriosproduzidos em visitastécnicas(unidade)</t>
-  </si>
-  <si>
-    <t>número dedeslocamentos realizadospara confecção de laudoscriminológicos(unidade)</t>
-  </si>
-  <si>
-    <t>número de atendimentosjurídicos relacionados aesclarecimentos àspessoas privadas deliberdade(unidade)</t>
-  </si>
-  <si>
-    <t>número de visitastécnicas realizadas àsunidades da sap eentidades parceiras(unidade)</t>
-  </si>
-  <si>
-    <t>número de presos doregime semiabertocapacitados(unidade)</t>
-  </si>
-  <si>
-    <t>celebração de acordosjudiciais e termos deajustamento de conduta(unidade)</t>
-  </si>
-  <si>
-    <t>manifestações técnicasproduzidas(unidade)</t>
-  </si>
-  <si>
-    <t>total de arrecadação dadívida ativa(R$ bilhões)</t>
-  </si>
-  <si>
-    <t>procedimentosdisciplinares presididos(unidade)</t>
-  </si>
-  <si>
-    <t>equipamentos adquiridos(unidade)</t>
-  </si>
-  <si>
-    <t>número de certificadosexpedidos(unidade)</t>
-  </si>
-  <si>
-    <t>número de atletasparticipantes nos demaiseventos competitivosestabelecidos nocalendário oficial dacoordenadoria deesportes(unidade)</t>
-  </si>
-  <si>
-    <t>centro de treinamento(unidade)</t>
-  </si>
-  <si>
-    <t>eventos de extra-calendário apoiados pelasecretaria de esportes(unidade)</t>
-  </si>
-  <si>
-    <t>atletas beneficiados comconcessão da bolsatalento esportivo(unidade)</t>
-  </si>
-  <si>
-    <t>jovens empreendedoresque receberamcertificados(unidade)</t>
-  </si>
-  <si>
-    <t>número de encontrospresenciais para adiscussão de políticaspara a juventude(unidade)</t>
-  </si>
-  <si>
-    <t>reforma e obrasrealizadas(unidade)</t>
-  </si>
-  <si>
-    <t>numero de convêniosfirmados(unidade)</t>
-  </si>
-  <si>
-    <t>kits de academia ao arlivre(unidade)</t>
-  </si>
-  <si>
-    <t>numero de materiaisesportivos  distribuidos(unidade)</t>
-  </si>
-  <si>
-    <t>número de postos deatendimento dadefensoria pública(unidade)</t>
-  </si>
-  <si>
-    <t>número total deatendimentos indiretosrealizados(unidade)</t>
-  </si>
-  <si>
-    <t>número de materiais dedivulgação produzidospela defensoria pública(unidade)</t>
-  </si>
-  <si>
-    <t>número de execuçõesdos programas decapacitação viareembolso(unidade)</t>
-  </si>
-  <si>
-    <t>percentual deequipamentos deinformática dentro doprazo de garantia(%)</t>
-  </si>
-  <si>
-    <t>número de atividades deeducação em direitos(unidade)</t>
-  </si>
-  <si>
-    <t>número de acessos aossistemas remotos eautomatizados deinformação(unidade)</t>
-  </si>
-  <si>
-    <t>número de municípiosatendidos comequipamentos adaptadose/ou serviços deacessibilidade(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de atletas dotime sp medalhistas(ouro, prata e bronze) emtodas as competições(%)</t>
-  </si>
-  <si>
-    <t>número de atletasparticipantes dostreinamentos(unidade)</t>
-  </si>
-  <si>
-    <t>número de atendimentosrealizados às pessoascom deficiência efamiliares(unidade)</t>
-  </si>
-  <si>
-    <t>número de visitantes ásexposições(unidade)</t>
-  </si>
-  <si>
-    <t>relatórios de pesquisa demercado e planorealizados(unidade)</t>
-  </si>
-  <si>
-    <t>no funcionárioscapacitados(%)</t>
-  </si>
-  <si>
-    <t>pessoas qualificadas(unidade)</t>
-  </si>
-  <si>
-    <t>ações de promoção edivulgação dos destinosturísticos paulista(unidade)</t>
-  </si>
-  <si>
-    <t>taxa de municípios-estância conveniados(%)</t>
-  </si>
-  <si>
-    <t>número de instrumentosde capacitaçãodisponibilizados(unidade)</t>
-  </si>
-  <si>
-    <t>número de itens de ajudahumanitária(unidade)</t>
-  </si>
-  <si>
-    <t>número de instrumentosde apoio(unidade)</t>
-  </si>
-  <si>
-    <t>número de instrumentosde comunicação de risco(unidade)</t>
-  </si>
-  <si>
-    <t>número de projetossociais realizados(unidade)</t>
-  </si>
-  <si>
-    <t>número de entidadesatendidas pelas doaçõesde bens servíveis(unidade)</t>
-  </si>
-  <si>
-    <t>número de vagas dequalificação profissionalofertadas(unidade)</t>
-  </si>
-  <si>
-    <t>número total de praças dacidadania implantadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de relatórios epublicações produzidas(unidade)</t>
-  </si>
-  <si>
-    <t>número de procedimentosconcluídos(unidade)</t>
-  </si>
-  <si>
-    <t>número de atendimentosaos órgãos do sistema dearquivos do estado desão paulo e àsadministraçõesmunicipais(unidade)</t>
-  </si>
-  <si>
-    <t>número de operaçõestécnicas realizadas nosdocumentos do acervocustodiado(unidade)</t>
-  </si>
-  <si>
-    <t>número de requisitosdesenvolvidos parasistema de produção egestão de documentosdigitais - programa spsem papel(unidade)</t>
-  </si>
-  <si>
-    <t>número de veículosfiscalizados nos terminaisrodoviários e nasrodovias.(unidade)</t>
-  </si>
-  <si>
-    <t>número de contratos deconcessão de rodoviasgeridos(unidade)</t>
-  </si>
-  <si>
-    <t>número de contratos deconcessões deaeroportos geridos(unidade)</t>
-  </si>
-  <si>
-    <t>número de contratos deconcessões(unidade)</t>
-  </si>
-  <si>
-    <t>número de fiscalizações,relatórios e trabalhostécnicos realizados,conforme contratos demetas celebradosanualmente com a aneel(unidade)</t>
-  </si>
-  <si>
-    <t>número de fiscalizações eações regulatórias dosaneamento básico(unidade)</t>
-  </si>
-  <si>
-    <t>número de documentosgerados, a partir dasações de regulação,controle e fiscalizaçãodos serviços dedistribuição de gáscanalizado(unidade)</t>
-  </si>
-  <si>
-    <t>prazo de entrega dositens da agendaregulatória da diretoria deregulação econômicofinanceira e mercados(drefm)(%)</t>
-  </si>
-  <si>
-    <t>número de documentostécnicos que compõem asmodelagens dos projetosde ppp e de concessões(unidade)</t>
-  </si>
-  <si>
-    <t>número de acessos aoportal de parcerias com o3o setor(unidade)</t>
-  </si>
-  <si>
-    <t>disseminação deinformações  atualizadassobre óbitos causadospor acidentes de trânsito(unidade)</t>
-  </si>
-  <si>
-    <t>número de convêniosfirmados com municípiospara execução de açõesde segurança viária(unidade)</t>
-  </si>
-  <si>
-    <t>porcentagem de km derodovias com plano deinvestimento desegurança rodoviáriafinalizado(%)</t>
-  </si>
-  <si>
-    <t>número de profissionaisda educação formados natemática “educação notrânsito”(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de execuçãodo plano de investimentos(%)</t>
-  </si>
-  <si>
-    <t>percentual deatendimentos eletrônicossobre o total dosrespectivos atendimentos(%)</t>
-  </si>
-  <si>
-    <t>número de normasestratégicas de ticestabelecidas(unidade)</t>
-  </si>
-  <si>
-    <t>número de usuários doacessa sp(unidade)</t>
-  </si>
-  <si>
-    <t>percentual de adesão aosem papel(%)</t>
-  </si>
-  <si>
-    <t>número de sistemasgerados pela fundaçãoseade(unidade)</t>
-  </si>
-  <si>
-    <t>número de estudos eanálises sobre políticaspúblicas elaborados(unidade)</t>
-  </si>
-  <si>
-    <t>número de mapasproduzidos(unidade)</t>
-  </si>
-  <si>
-    <t>número de informaçõestécnicas produzidas(unidade)</t>
-  </si>
-  <si>
-    <t>número de documentosgeográficos ecartográficosdisponibilizados.(unidade)</t>
-  </si>
-  <si>
-    <t>número de infraestruturade dados espaciaisimplantados(unidade)</t>
-  </si>
-  <si>
-    <t>número de programas eserviços públicosapoiados(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade deatendimentos realizadosno hspe(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade deatendimentos realizadosnos credenciados(unidade)</t>
-  </si>
-  <si>
-    <t>quantidade de programaspara prevenção dedoenças, proteção epromoção de saúde(unidade)</t>
-  </si>
-  <si>
-    <t>número de profissionaisda saúde emaprendizado/formação nohospital do servidorpúblico estadual(unidade)</t>
-  </si>
-  <si>
-    <t>número de documentosde trânsito emitidos(unidade)</t>
-  </si>
-  <si>
-    <t>número de contratosfirmados de prestação deserviço de administraçãode pátios(unidade)</t>
-  </si>
-  <si>
-    <t>numero de iniciativas deeducação para o transitopromovidas(unidade)</t>
-  </si>
-  <si>
-    <t>número de ações decomunicação realizadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de ações decomunicação de utilidadepública realizadas(unidade)</t>
-  </si>
-  <si>
-    <t>número de parcerias ecooperação internacionalformalizadas(unidade)</t>
-  </si>
-  <si>
-    <t>4818 - DESENVOLVIMENTO DERECURSOS HUMANOS</t>
-  </si>
-  <si>
-    <t>4508 - DIVULGAÇÃO DOSTRABALHOS LEGISLATIVOS</t>
-  </si>
-  <si>
-    <t>6320 - ESTUDOS EPESQUISAS PARA SUBSIDIARATIVIDADES POLÍTICAS</t>
-  </si>
-  <si>
-    <t>4817 - FUNCIONAMENTO DOPROCESSO LEGISLATIVO</t>
-  </si>
-  <si>
-    <t>1215 - EXPANSÃO EADEQUAÇÃO DASINSTALAÇÕES DO PALÁCIO 9DE JULHO</t>
-  </si>
-  <si>
-    <t>4820 - DESENVOLVIMENTO DESISTEMAS DE INFORMAÇÃO</t>
-  </si>
-  <si>
-    <t>5701 - GERENCIAMENTO DERECURSOS DE TECNOLOGIADA INFORMAÇÃO ECOMUNICAÇÃO</t>
-  </si>
-  <si>
-    <t>6275 - PUBLICIDADEINSTITUCIONAL DAASSEMBLEIA LEGISLATIVA DOESTADO DE SÃO PAULO</t>
-  </si>
-  <si>
-    <t>1361 - PLANO DEINVESTIMENTOS DOTRIBUNAL DE CONTAS</t>
-  </si>
-  <si>
-    <t>4821 - CONTROLE EFISCALIZAÇÃO FINANCEIRA EORÇAMENTÁRIA</t>
-  </si>
-  <si>
-    <t>6304 - PLANO DECAPACITAÇÃO DESERVIDORES DO TCE/SP</t>
-  </si>
-  <si>
-    <t>1941 - INFRAESTRUTURA DEPRÉDIOS JUDICIAIS</t>
+    <t>número de convênios firmados com prefeituras municipais(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de adesão das regiões administrativas ao sem papel(%)</t>
+  </si>
+  <si>
+    <t>número de contratos de financiamento  firmados com os municípios (unidade)</t>
+  </si>
+  <si>
+    <t>número de unidades regionais integradas instaladas(unidade)</t>
+  </si>
+  <si>
+    <t>número de projetos aprovados pelos conselhos de desenvolvimento da macrometrópole paulista (unidade)</t>
+  </si>
+  <si>
+    <t>número de eventos realizados, objetivando a implementação dos pduis (unidade)</t>
+  </si>
+  <si>
+    <t>número de convênios firmados com prefeituras municipais e entidades (unidade)</t>
+  </si>
+  <si>
+    <t>publicações realizadas e disponibilizadas(unidade)</t>
+  </si>
+  <si>
+    <t>número de serviços de proteção social básica (unidade)</t>
+  </si>
+  <si>
+    <t>número de serviços de proteção social de média complexidade(unidade)</t>
+  </si>
+  <si>
+    <t>número de benefícios dos programas de transferência de renda estadual(unidade)</t>
+  </si>
+  <si>
+    <t>número de ações implementadas(unidade)</t>
+  </si>
+  <si>
+    <t>número de serviços de proteção social especial de alta complexidade (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de refeições servidas(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de leite distribuído(litros)</t>
+  </si>
+  <si>
+    <t>número de situações inadequadas apontadas no sistema estadual (sigsuas)(unidade)</t>
+  </si>
+  <si>
+    <t>carga horária de capacitação efetuada(h)</t>
+  </si>
+  <si>
+    <t>percentual de realização dos contratos de fornecimento - linha 9(%)</t>
+  </si>
+  <si>
+    <t>percentual de realização dos contratos de fornecimento(%)</t>
+  </si>
+  <si>
+    <t>número de contratos vigentes(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de realização dos contratos de fornecimento - linha 11 (%)</t>
+  </si>
+  <si>
+    <t>percentual de realização dos contratos de fornecimento - linhas 7 e 12(%)</t>
+  </si>
+  <si>
+    <t>número de contratos relacionados ao sistema metropolitano e ações de comunicação social e relações institucionais desenvolvidos(unidade)</t>
+  </si>
+  <si>
+    <t>corredores, brt e vlt implantados(km)</t>
+  </si>
+  <si>
+    <t>número de estudos e projetos de gestão e planejamento executados (unidade)</t>
+  </si>
+  <si>
+    <t>número de passageiros transportados por ano utilizando o benefício da gratuidade - idosos de 60 a 64 anos(unidade)</t>
+  </si>
+  <si>
+    <t>número de passageiros transportados por ano utilizando o benefício da gratuidade - estudantes de baixa renda(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de projetos, estudos e pesquisas elaborados(%)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico do empreendimento redimensionado(%)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico do empreendimento - linha 13(%)</t>
+  </si>
+  <si>
+    <t>percentual de realização física das intervenções (%)</t>
+  </si>
+  <si>
+    <t>número de passageiros transportados - média por dia útil(unidade)</t>
+  </si>
+  <si>
+    <t>número de passageiros idosos e outros transportados gratuitamente por ano (unidade)</t>
+  </si>
+  <si>
+    <t>número de passageiros estudantes com transporte subsidiado por ano(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico do empreendimento (%)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico das obras civis e sistemas da linha 5 lilás (%)</t>
+  </si>
+  <si>
+    <t>percentual de projetos e estudos elaborados(%)</t>
+  </si>
+  <si>
+    <t>número de fachadas de portas de plataforma instaladas e comissionadas nas estações(unidade)</t>
+  </si>
+  <si>
+    <t>número de fachadas de portas de plataforma instaladas e comissionadas nas estações da linha 2 - verde(unidade)</t>
+  </si>
+  <si>
+    <t>número de passageiros transportados no sistema metroviário por ano (linhas sob gestão do metrô - l1, l2 e l3) (unidade)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico do empreendimento da linha 4 amarela(%)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico do empreendimento da linha 17 ouro(%)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico do empreendimento da linha 2 verde no período(%)</t>
+  </si>
+  <si>
+    <t>número de fachadas de portas de plataforma instaladas e comissionadas nas estações da linha 3- vermelha(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico do empreendimento da linha 15 prata(%)</t>
+  </si>
+  <si>
+    <t>número de passageiros idosos transportados gratuitamente por ano (unidade)</t>
+  </si>
+  <si>
+    <t>número de usuários atendidos no período (unidade)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico de modernização e expansão da efcj(%)</t>
+  </si>
+  <si>
+    <t>número de estações da linha 4-amarela concedidas e fiscalizadas (unidade)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico das obras na linha 6-laranja(%)</t>
+  </si>
+  <si>
+    <t>número de passageiros com transporte subsidiado no sim baixada santista(unidade)</t>
+  </si>
+  <si>
+    <t>número de estações da linha 5-lilás concedidas e fiscalizadas(unidade)</t>
+  </si>
+  <si>
+    <t>número de estações da linha 15-prata concedidas e finalizadas(unidade)</t>
+  </si>
+  <si>
+    <t>número de estações das linhas 8 e 9 concedidas e fiscalizadas(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico da obra da implantação do tic(%)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico das obras no parque capivari(%)</t>
+  </si>
+  <si>
+    <t>quantidade de estações modernizadas(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de sessões realizadas por teleaudiência criminal(%)</t>
+  </si>
+  <si>
+    <t>percentual de avanço físico da obra(%)</t>
+  </si>
+  <si>
+    <t>percentual de unidades prisionais com equipe mínima de saúde(%)</t>
+  </si>
+  <si>
+    <t>percentual de implementação do projeto de modernização do parque tecnológico(%)</t>
+  </si>
+  <si>
+    <t>número de unidades prisionais conservadas. (unidade)</t>
+  </si>
+  <si>
+    <t>numero de unidade prisional com gestão compartilhada(unidade)</t>
+  </si>
+  <si>
+    <t>número de ações e eventos realizados para promoção da empregabilidade(unidade)</t>
+  </si>
+  <si>
+    <t>número de alunos em cursos de ensino fundamental, médio e profissionalizante (unidade)</t>
+  </si>
+  <si>
+    <t>número de relatórios produzidos em visitas técnicas(unidade)</t>
+  </si>
+  <si>
+    <t>número de deslocamentos realizados para confecção de laudos criminológicos(unidade)</t>
+  </si>
+  <si>
+    <t>número de atendimentos jurídicos relacionados a esclarecimentos às pessoas privadas de liberdade(unidade)</t>
+  </si>
+  <si>
+    <t>número de visitas técnicas realizadas às unidades da sap e entidades parceiras (unidade)</t>
+  </si>
+  <si>
+    <t>número de presos do regime semiaberto capacitados(unidade)</t>
+  </si>
+  <si>
+    <t>celebração de acordos judiciais e termos de ajustamento de conduta (unidade)</t>
+  </si>
+  <si>
+    <t>manifestações técnicas produzidas(unidade)</t>
+  </si>
+  <si>
+    <t>total de arrecadação da dívida ativa(R$ bilhões)</t>
+  </si>
+  <si>
+    <t>procedimentos disciplinares presididos (unidade)</t>
+  </si>
+  <si>
+    <t>equipamentos adquiridos (unidade)</t>
+  </si>
+  <si>
+    <t>número de certificados expedidos(unidade)</t>
+  </si>
+  <si>
+    <t>número de atletas participantes nos demais eventos competitivos estabelecidos no calendário oficial da coordenadoria de esportes(unidade)</t>
+  </si>
+  <si>
+    <t>centro de treinamento (unidade)</t>
+  </si>
+  <si>
+    <t>eventos de extra- calendário apoiados pela secretaria de esportes (unidade)</t>
+  </si>
+  <si>
+    <t>atletas beneficiados com concessão da bolsa talento esportivo(unidade)</t>
+  </si>
+  <si>
+    <t>jovens empreendedores que receberam certificados(unidade)</t>
+  </si>
+  <si>
+    <t>número de encontros presenciais para a discussão de políticas para a juventude (unidade)</t>
+  </si>
+  <si>
+    <t>reforma e obras realizadas(unidade)</t>
+  </si>
+  <si>
+    <t>numero de convênios firmados(unidade)</t>
+  </si>
+  <si>
+    <t>kits de academia ao ar livre(unidade)</t>
+  </si>
+  <si>
+    <t>numero de materiais esportivos  distribuidos (unidade)</t>
+  </si>
+  <si>
+    <t>número de postos de atendimento da defensoria pública (unidade)</t>
+  </si>
+  <si>
+    <t>número total de atendimentos indiretos realizados(unidade)</t>
+  </si>
+  <si>
+    <t>número de materiais de divulgação produzidos pela defensoria pública (unidade)</t>
+  </si>
+  <si>
+    <t>número de execuções dos programas de capacitação via reembolso(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de equipamentos de informática dentro do prazo de garantia(%)</t>
+  </si>
+  <si>
+    <t>número de atividades de educação em direitos (unidade)</t>
+  </si>
+  <si>
+    <t>número de acessos aos sistemas remotos e automatizados de informação(unidade)</t>
+  </si>
+  <si>
+    <t>número de municípios atendidos com equipamentos adaptados e/ou serviços de acessibilidade(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de atletas do time sp medalhistas (ouro, prata e bronze) em todas as competições(%)</t>
+  </si>
+  <si>
+    <t>número de atletas participantes dos treinamentos(unidade)</t>
+  </si>
+  <si>
+    <t>número de atendimentos realizados às pessoas com deficiência e familiares(unidade)</t>
+  </si>
+  <si>
+    <t>número de visitantes ás exposições(unidade)</t>
+  </si>
+  <si>
+    <t>relatórios de pesquisa de mercado e plano realizados(unidade)</t>
+  </si>
+  <si>
+    <t>no funcionários capacitados(%)</t>
+  </si>
+  <si>
+    <t>pessoas qualificadas (unidade)</t>
+  </si>
+  <si>
+    <t>ações de promoção e divulgação dos destinos turísticos paulista (unidade)</t>
+  </si>
+  <si>
+    <t>taxa de municípios- estância conveniados(%)</t>
+  </si>
+  <si>
+    <t>número de instrumentos de capacitação disponibilizados(unidade)</t>
+  </si>
+  <si>
+    <t>número de itens de ajuda humanitária(unidade)</t>
+  </si>
+  <si>
+    <t>número de instrumentos de apoio(unidade)</t>
+  </si>
+  <si>
+    <t>número de instrumentos de comunicação de risco (unidade)</t>
+  </si>
+  <si>
+    <t>número de projetos sociais realizados (unidade)</t>
+  </si>
+  <si>
+    <t>número de entidades atendidas pelas doações de bens servíveis (unidade)</t>
+  </si>
+  <si>
+    <t>número de vagas de qualificação profissional ofertadas(unidade)</t>
+  </si>
+  <si>
+    <t>número total de praças da cidadania implantadas (unidade)</t>
+  </si>
+  <si>
+    <t>número de relatórios e publicações produzidas (unidade)</t>
+  </si>
+  <si>
+    <t>número de procedimentos concluídos(unidade)</t>
+  </si>
+  <si>
+    <t>número de atendimentos aos órgãos do sistema de arquivos do estado de são paulo e às administrações municipais(unidade)</t>
+  </si>
+  <si>
+    <t>número de operações técnicas realizadas nos documentos do acervo custodiado(unidade)</t>
+  </si>
+  <si>
+    <t>número de requisitos desenvolvidos para sistema de produção e gestão de documentos digitais - programa sp sem papel(unidade)</t>
+  </si>
+  <si>
+    <t>número de veículos fiscalizados nos terminais rodoviários e nas rodovias.(unidade)</t>
+  </si>
+  <si>
+    <t>número de contratos de concessão de rodovias geridos(unidade)</t>
+  </si>
+  <si>
+    <t>número de contratos de concessões de aeroportos geridos (unidade)</t>
+  </si>
+  <si>
+    <t>número de contratos de concessões(unidade)</t>
+  </si>
+  <si>
+    <t>número de fiscalizações, relatórios e trabalhos técnicos realizados, conforme contratos de metas celebrados anualmente com a aneel (unidade)</t>
+  </si>
+  <si>
+    <t>número de fiscalizações e ações regulatórias do saneamento básico (unidade)</t>
+  </si>
+  <si>
+    <t>número de documentos gerados, a partir das ações de regulação, controle e fiscalização dos serviços de distribuição de gás canalizado(unidade)</t>
+  </si>
+  <si>
+    <t>prazo de entrega dos itens da agenda regulatória da diretoria de regulação econômico financeira e mercados (drefm)(%)</t>
+  </si>
+  <si>
+    <t>número de documentos técnicos que compõem as modelagens dos projetos de ppp e de concessões (unidade)</t>
+  </si>
+  <si>
+    <t>número de acessos ao portal de parcerias com o 3o setor(unidade)</t>
+  </si>
+  <si>
+    <t>disseminação de informações  atualizadas sobre óbitos causados por acidentes de trânsito (unidade)</t>
+  </si>
+  <si>
+    <t>número de convênios firmados com municípios para execução de ações de segurança viária (unidade)</t>
+  </si>
+  <si>
+    <t>porcentagem de km de rodovias com plano de investimento de segurança rodoviária finalizado(%)</t>
+  </si>
+  <si>
+    <t>número de profissionais da educação formados na temática “educação no trânsito”(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de execução do plano de investimentos (%)</t>
+  </si>
+  <si>
+    <t>percentual de atendimentos eletrônicos sobre o total dos respectivos atendimentos (%)</t>
+  </si>
+  <si>
+    <t>número de normas estratégicas de tic estabelecidas(unidade)</t>
+  </si>
+  <si>
+    <t>número de usuários do acessa sp(unidade)</t>
+  </si>
+  <si>
+    <t>percentual de adesão ao sem papel(%)</t>
+  </si>
+  <si>
+    <t>número de sistemas gerados pela fundação seade(unidade)</t>
+  </si>
+  <si>
+    <t>número de estudos e análises sobre políticas públicas elaborados (unidade)</t>
+  </si>
+  <si>
+    <t>número de mapas produzidos(unidade)</t>
+  </si>
+  <si>
+    <t>número de informações técnicas produzidas (unidade)</t>
+  </si>
+  <si>
+    <t>número de documentos geográficos e cartográficos disponibilizados.(unidade)</t>
+  </si>
+  <si>
+    <t>número de infraestrutura de dados espaciais implantados(unidade)</t>
+  </si>
+  <si>
+    <t>número de programas e serviços públicos apoiados(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de atendimentos realizados no hspe(unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de atendimentos realizados nos credenciados (unidade)</t>
+  </si>
+  <si>
+    <t>quantidade de programas para prevenção de doenças, proteção e promoção de saúde (unidade)</t>
+  </si>
+  <si>
+    <t>número de profissionais da saúde em aprendizado/formação no hospital do servidor público estadual(unidade)</t>
+  </si>
+  <si>
+    <t>número de documentos de trânsito emitidos (unidade)</t>
+  </si>
+  <si>
+    <t>número de contratos firmados de prestação de serviço de administração de pátios(unidade)</t>
+  </si>
+  <si>
+    <t>numero de iniciativas de educação para o transito promovidas(unidade)</t>
+  </si>
+  <si>
+    <t>número de ações de comunicação realizadas (unidade)</t>
+  </si>
+  <si>
+    <t>número de ações de comunicação de utilidade pública realizadas (unidade)</t>
+  </si>
+  <si>
+    <t>número de parcerias e cooperação internacional formalizadas(unidade)</t>
+  </si>
+  <si>
+    <t>4818 - DESENVOLVIMENTO DE RECURSOS HUMANOS</t>
+  </si>
+  <si>
+    <t>4508 - DIVULGAÇÃO DOS TRABALHOS LEGISLATIVOS</t>
+  </si>
+  <si>
+    <t>6320 - ESTUDOS E PESQUISAS PARA SUBSIDIAR ATIVIDADES POLÍTICAS</t>
+  </si>
+  <si>
+    <t>4817 - FUNCIONAMENTO DO PROCESSO LEGISLATIVO</t>
+  </si>
+  <si>
+    <t>1215 - EXPANSÃO E ADEQUAÇÃO DAS INSTALAÇÕES DO PALÁCIO 9 DE JULHO</t>
+  </si>
+  <si>
+    <t>4820 - DESENVOLVIMENTO DE SISTEMAS DE INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>5701 - GERENCIAMENTO DE RECURSOS DE TECNOLOGIA DA INFORMAÇÃO E COMUNICAÇÃO</t>
+  </si>
+  <si>
+    <t>6275 - PUBLICIDADE INSTITUCIONAL DA ASSEMBLEIA LEGISLATIVA DO ESTADO DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>1361 - PLANO DE INVESTIMENTOS DO TRIBUNAL DE CONTAS</t>
+  </si>
+  <si>
+    <t>4821 - CONTROLE E FISCALIZAÇÃO FINANCEIRA E ORÇAMENTÁRIA</t>
+  </si>
+  <si>
+    <t>6304 - PLANO DE CAPACITAÇÃO DE SERVIDORES DO TCE/SP</t>
+  </si>
+  <si>
+    <t>1941 - INFRAESTRUTURA DE PRÉDIOS JUDICIAIS</t>
   </si>
   <si>
     <t>4567 - DILIGÊNCIAS JUDICIAIS</t>
   </si>
   <si>
-    <t>4822 - FUNCIONAMENTO DAESCOLA PAULISTA DAMAGISTRATURA</t>
-  </si>
-  <si>
-    <t>4826 - DISTRIBUIÇÃO DAJUSTIÇA</t>
-  </si>
-  <si>
-    <t>4827 - DESENVOLVIMENTO,IMPLEMENTAÇÃO EMANUTENÇÃO DE SISTEMASDE INFORMAÇÃO</t>
-  </si>
-  <si>
-    <t>6020 - COMUNICAÇÃOINSTITUCIONAL</t>
-  </si>
-  <si>
-    <t>6164 - FUNCIONAMENTO DACORREGEDORIA GERAL DAJUSTIÇA</t>
-  </si>
-  <si>
-    <t>4832 - DISTRIBUIÇÃO DEJUSTIÇA MILITAR</t>
-  </si>
-  <si>
-    <t>6136 - IMPLEMENTAÇÃO DAEDUCAÇÃO INTEGRAL NAREDE ESTADUAL</t>
-  </si>
-  <si>
-    <t>6168 - PROVISÃO DEMATERIAIS DIDÁTICOS E DEAPOIO PEDAGÓGICO EMVERSÃO IMPRESSA/DIGITAL</t>
-  </si>
-  <si>
-    <t>6208 - RECURSOSEDUCACIONAIS, CURSOS EINICIATIVAS PEDAGÓGICASANDRAGÓGICAS DIGITAIS</t>
-  </si>
-  <si>
-    <t>6169 - VIABILIZAÇÃO DECURSOS DE IDIOMAS,ATIVIDADESCOMPLEMENTARES EESCOLA ABERTA</t>
-  </si>
-  <si>
-    <t>5156 - ATENDIMENTOESPECIALIZADO A ALUNOSDA EDUCAÇÃO BÁSICA</t>
-  </si>
-  <si>
-    <t>5745 - ATENDIMENTO AJOVENS E ADULTOS NAEDUCAÇÃO BÁSICA - EJA EPÚBLICOS ESPECÍFICOS</t>
-  </si>
-  <si>
-    <t>6175 - FORMAÇÃO DOSPROFISSIONAIS DAEDUCAÇÃO: REDESESTADUAL E  MUNICIPAL</t>
-  </si>
-  <si>
-    <t>6177 - MONITORAMENTO,MELHORIA E AVALIAÇÃO DOSRESULTADOS EDUCACIONAIS</t>
-  </si>
-  <si>
-    <t>6343 - FLEXIBILIZAÇÃOCURRICULAR DO ENSINOMÉDIO</t>
-  </si>
-  <si>
-    <t>5160 - DESENVOLVIMENTO EGESTÃO DO ENSINOFUNDAMENTAL-SERVIDORES-FUNDEB</t>
-  </si>
-  <si>
-    <t>5161 - DESENVOLVIMENTO EGESTÃO DO ENS.FUNDAMENTAL-PROFISSIONAIS DOMAGISTÉRIO-FUNDEB</t>
-  </si>
-  <si>
-    <t>5757 - DESENVOLVIMENTO EGESTÃO DO ENSINO MÉDIO-PROFISSIONAIS DOMAGISTÉRIO-FUNDEB</t>
-  </si>
-  <si>
-    <t>5759 - DESENVOLVIMENTO EGESTÃO DO ENSINO MÉDIO-SERVIDORES-FUNDEB</t>
-  </si>
-  <si>
-    <t>6172 - FORNECIMENTO DEALIMENTAÇÃO ESCOLAR AOSALUNOS DA EDUCAÇÃOBÁSICA</t>
-  </si>
-  <si>
-    <t>5740 - TRANSPORTE DEALUNOS DA EDUCAÇÃOBÁSICA</t>
-  </si>
-  <si>
-    <t>2494 - MELHORIAS,MANUTENÇÃO E AMPLIAÇÃODA REDE FÍSICA ESCOLAR</t>
-  </si>
-  <si>
-    <t>6174 - OPERAÇÃO DA REDEDE ENSINO BÁSICO</t>
-  </si>
-  <si>
-    <t>6290 - SELEÇÃO,PROMOÇÃO,PROGRESSÃO EEVOLUÇÃO DOSPROFISSIONAIS/SERVIDORESDA EDUCAÇÃO</t>
-  </si>
-  <si>
-    <t>5810 - AÇÃO COOPERATIVAESTADO-MUNICÍPIO PARACONSTRUÇÕES OUAMPLIAÇÕES ESCOLARES</t>
-  </si>
-  <si>
-    <t>6291 - IMPLEMENTAÇÃO DECONFORMIDADE NA GESTÃODA SECRETARIA DAEDUCAÇÃO</t>
-  </si>
-  <si>
-    <t>5274 - ASSISTÊNCIA MÉDICA,HOSPITALAR EAMBULATORIAL</t>
-  </si>
-  <si>
-    <t>5276 - PROCEDIMENTOS ALTACOMPLEXIDADE NAS ÁREASANOMALIAS CRANIOFACIAIS/DEFIC.AUDITIVA</t>
-  </si>
-  <si>
-    <t>4850 - ATENDIMENTOAMBULATORIAL EHOSPITALAR NA REDEPRÓPRIA DO ESTADO</t>
-  </si>
-  <si>
-    <t>6269 - APOIO À ATENÇÃOBÁSICA DE COMPETÊNCIAMUNICIPAL</t>
-  </si>
-  <si>
-    <t>6214 - REDE DEREABILITAÇÃO LUCYMONTORO</t>
-  </si>
-  <si>
-    <t>6165 - ATENDIMENTODESCENTRALIZADO EMATENÇÃO À SAÚDE DAPOPULAÇÃO PRISIONAL</t>
-  </si>
-  <si>
-    <t>6117 - ASSISTÊNCIAFARMACÊUTICAESPECIALIZADA</t>
-  </si>
-  <si>
-    <t>4852 - ATENDIMENTO AMBUL.E HOSPITALAR EM UNIDADESGERENCIADAS PORORGANIZAÇÕES SOCIAIS</t>
-  </si>
-  <si>
-    <t>5532 - ATENDIMENTOAMBULATORIAL EHOSPITALAR EM UNIDADESCONTRATADAS/CONVENIADAS</t>
-  </si>
-  <si>
-    <t>6213 - APOIO À ATENÇÃOBÁSICA DE SAÚDE -MUNICÍPIOS E ENTIDADESFILANTRÓPICAS</t>
-  </si>
-  <si>
-    <t>6221 - SANTAS CASASSUSTENTÁVEIS</t>
-  </si>
-  <si>
-    <t>6273 - DESENVOLVIMENTO DEAÇÕES DE SAÚDEDECORRENTES DE EMENDASPARLAMENTARES</t>
-  </si>
-  <si>
-    <t>6276 - SUPORTE ÀOPERACIONALIZAÇÃO DAGESTÃO DOS HOSPITAIS EMPARCERIA PÚBLICO PRIVADA</t>
-  </si>
-  <si>
-    <t>4124 - IMUNIZAÇÃO DAPOPULAÇÃO HUMANA</t>
-  </si>
-  <si>
-    <t>4127 - CONTROLE EVIGILÂNCIA SANITÁRIA</t>
+    <t>4822 - FUNCIONAMENTO DA ESCOLA PAULISTA DA MAGISTRATURA</t>
+  </si>
+  <si>
+    <t>4826 - DISTRIBUIÇÃO DA JUSTIÇA</t>
+  </si>
+  <si>
+    <t>4827 - DESENVOLVIMENTO, IMPLEMENTAÇÃO E MANUTENÇÃO DE SISTEMAS DE INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>6020 - COMUNICAÇÃO INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t>6164 - FUNCIONAMENTO DA CORREGEDORIA GERAL DA JUSTIÇA</t>
+  </si>
+  <si>
+    <t>4832 - DISTRIBUIÇÃO DE JUSTIÇA MILITAR</t>
+  </si>
+  <si>
+    <t>6136 - IMPLEMENTAÇÃO DA EDUCAÇÃO INTEGRAL NA REDE ESTADUAL</t>
+  </si>
+  <si>
+    <t>6168 - PROVISÃO DE MATERIAIS DIDÁTICOS E DE APOIO PEDAGÓGICO EM VERSÃO IMPRESSA/DIGITAL</t>
+  </si>
+  <si>
+    <t>6208 - RECURSOS EDUCACIONAIS, CURSOS E INICIATIVAS PEDAGÓGICAS ANDRAGÓGICAS DIGITAIS</t>
+  </si>
+  <si>
+    <t>6169 - VIABILIZAÇÃO DE CURSOS DE IDIOMAS, ATIVIDADES COMPLEMENTARES E ESCOLA ABERTA</t>
+  </si>
+  <si>
+    <t>5156 - ATENDIMENTO ESPECIALIZADO A ALUNOS DA EDUCAÇÃO BÁSICA</t>
+  </si>
+  <si>
+    <t>5745 - ATENDIMENTO A JOVENS E ADULTOS NA EDUCAÇÃO BÁSICA - EJA E PÚBLICOS ESPECÍFICOS</t>
+  </si>
+  <si>
+    <t>6175 - FORMAÇÃO DOS PROFISSIONAIS DA EDUCAÇÃO: REDES ESTADUAL E  MUNICIPAL</t>
+  </si>
+  <si>
+    <t>6177 - MONITORAMENTO, MELHORIA E AVALIAÇÃO DOS RESULTADOS EDUCACIONAIS</t>
+  </si>
+  <si>
+    <t>6343 - FLEXIBILIZAÇÃO CURRICULAR DO ENSINO MÉDIO</t>
+  </si>
+  <si>
+    <t>5160 - DESENVOLVIMENTO E GESTÃO DO ENSINO FUNDAMENTAL-SERVIDORES- FUNDEB</t>
+  </si>
+  <si>
+    <t>5161 - DESENVOLVIMENTO E GESTÃO DO ENS. FUNDAMENTAL- PROFISSIONAIS DO MAGISTÉRIO-FUNDEB</t>
+  </si>
+  <si>
+    <t>5757 - DESENVOLVIMENTO E GESTÃO DO ENSINO MÉDIO- PROFISSIONAIS DO MAGISTÉRIO-FUNDEB</t>
+  </si>
+  <si>
+    <t>5759 - DESENVOLVIMENTO E GESTÃO DO ENSINO MÉDIO- SERVIDORES-FUNDEB</t>
+  </si>
+  <si>
+    <t>6172 - FORNECIMENTO DE ALIMENTAÇÃO ESCOLAR AOS ALUNOS DA EDUCAÇÃO BÁSICA</t>
+  </si>
+  <si>
+    <t>5740 - TRANSPORTE DE ALUNOS DA EDUCAÇÃO BÁSICA</t>
+  </si>
+  <si>
+    <t>2494 - MELHORIAS, MANUTENÇÃO E AMPLIAÇÃO DA REDE FÍSICA ESCOLAR</t>
+  </si>
+  <si>
+    <t>6174 - OPERAÇÃO DA REDE DE ENSINO BÁSICO</t>
+  </si>
+  <si>
+    <t>6290 - SELEÇÃO, PROMOÇÃO,PROGRESSÃO E EVOLUÇÃO DOS PROFISSIONAIS/SERVIDORES DA EDUCAÇÃO</t>
+  </si>
+  <si>
+    <t>5810 - AÇÃO COOPERATIVA ESTADO-MUNICÍPIO PARA CONSTRUÇÕES OU AMPLIAÇÕES ESCOLARES</t>
+  </si>
+  <si>
+    <t>6291 - IMPLEMENTAÇÃO DE CONFORMIDADE NA GESTÃO DA SECRETARIA DA EDUCAÇÃO</t>
+  </si>
+  <si>
+    <t>5274 - ASSISTÊNCIA MÉDICA, HOSPITALAR E AMBULATORIAL</t>
+  </si>
+  <si>
+    <t>5276 - PROCEDIMENTOS ALTA COMPLEXIDADE NAS ÁREAS ANOMALIAS CRANIOFACIAIS/ DEFIC.AUDITIVA</t>
+  </si>
+  <si>
+    <t>4850 - ATENDIMENTO AMBULATORIAL E HOSPITALAR NA REDE PRÓPRIA DO ESTADO</t>
+  </si>
+  <si>
+    <t>6269 - APOIO À ATENÇÃO BÁSICA DE COMPETÊNCIA MUNICIPAL</t>
+  </si>
+  <si>
+    <t>6214 - REDE DE REABILITAÇÃO LUCY MONTORO</t>
+  </si>
+  <si>
+    <t>6165 - ATENDIMENTO DESCENTRALIZADO EM ATENÇÃO À SAÚDE DA POPULAÇÃO PRISIONAL</t>
+  </si>
+  <si>
+    <t>6117 - ASSISTÊNCIA FARMACÊUTICA ESPECIALIZADA</t>
+  </si>
+  <si>
+    <t>4852 - ATENDIMENTO AMBUL. E HOSPITALAR EM UNIDADES GERENCIADAS POR ORGANIZAÇÕES SOCIAIS</t>
+  </si>
+  <si>
+    <t>5532 - ATENDIMENTO AMBULATORIAL E HOSPITALAR EM UNIDADES CONTRATADAS/ CONVENIADAS</t>
+  </si>
+  <si>
+    <t>6213 - APOIO À ATENÇÃO BÁSICA DE SAÚDE - MUNICÍPIOS E ENTIDADES FILANTRÓPICAS</t>
+  </si>
+  <si>
+    <t>6221 - SANTAS CASAS SUSTENTÁVEIS</t>
+  </si>
+  <si>
+    <t>6273 - DESENVOLVIMENTO DE AÇÕES DE SAÚDE DECORRENTES DE EMENDAS PARLAMENTARES</t>
+  </si>
+  <si>
+    <t>6276 - SUPORTE À OPERACIONALIZAÇÃO DA GESTÃO DOS HOSPITAIS EM PARCERIA PÚBLICO PRIVADA</t>
+  </si>
+  <si>
+    <t>4124 - IMUNIZAÇÃO DA POPULAÇÃO HUMANA</t>
+  </si>
+  <si>
+    <t>4127 - CONTROLE E VIGILÂNCIA SANITÁRIA</t>
   </si>
   <si>
     <t>6244 - VIGILÂNCIA AMBIENTAL</t>
   </si>
   <si>
-    <t>4138 - EXAMES DELABORATÓRIO DE INTERESSEÀ SAÚDE PÚBLICA</t>
-  </si>
-  <si>
-    <t>4722 - VIGILÂNCIAEPIDEMIOLÓGICA</t>
-  </si>
-  <si>
-    <t>4839 - CONTROLE DEDOENÇAS TRANSMITIDASPOR VETORES EHOSPEDEIROSINTERMEDIÁRIOS</t>
-  </si>
-  <si>
-    <t>4865 - ANÁLISE DE DADOS -EPIDEMIOLOGIA EINFORMAÇÃO EM CÂNCER</t>
-  </si>
-  <si>
-    <t>6350 - ANÁLISE DE DADOS -DOENÇAS CRÔNICAS NÃOTRANSMISSÍVEIS</t>
-  </si>
-  <si>
-    <t>4856 - PROJETOS DEPESQUISAS CIENTÍFICAS EMSAÚDE.</t>
-  </si>
-  <si>
-    <t>5807 - INOVAÇÃOTECNOLÓGICA DEPRODUTOS E PROCESSOS</t>
-  </si>
-  <si>
-    <t>2602 - AGENDAMENTO DECONSULTAS MÉDICAS,EXAMES E PROCEDIMENTOSCLÍNICOS - HORA MARCADA</t>
-  </si>
-  <si>
-    <t>2603 - ATENDIMENTO MÉDICOVIRTUAL - TELEMEDICINA</t>
-  </si>
-  <si>
-    <t>2604 - HISTÓRIA CLÍNICADIGITAL</t>
-  </si>
-  <si>
-    <t>4192 - ATENDIMENTOHEMOTERÁPICO</t>
-  </si>
-  <si>
-    <t>4869 - PRODUÇÃO DEVACINAS</t>
+    <t>4138 - EXAMES DE LABORATÓRIO DE INTERESSE À SAÚDE PÚBLICA</t>
+  </si>
+  <si>
+    <t>4722 - VIGILÂNCIA EPIDEMIOLÓGICA</t>
+  </si>
+  <si>
+    <t>4839 - CONTROLE DE DOENÇAS TRANSMITIDAS POR VETORES E HOSPEDEIROS INTERMEDIÁRIOS</t>
+  </si>
+  <si>
+    <t>4865 - ANÁLISE DE DADOS - EPIDEMIOLOGIA E INFORMAÇÃO EM CÂNCER</t>
+  </si>
+  <si>
+    <t>6350 - ANÁLISE DE DADOS - DOENÇAS CRÔNICAS NÃO TRANSMISSÍVEIS</t>
+  </si>
+  <si>
+    <t>4856 - PROJETOS DE PESQUISAS CIENTÍFICAS EM SAÚDE.</t>
+  </si>
+  <si>
+    <t>5807 - INOVAÇÃO TECNOLÓGICA DE PRODUTOS E PROCESSOS</t>
+  </si>
+  <si>
+    <t>2602 - AGENDAMENTO DE CONSULTAS MÉDICAS, EXAMES E PROCEDIMENTOS CLÍNICOS - HORA MARCADA</t>
+  </si>
+  <si>
+    <t>2603 - ATENDIMENTO MÉDICO VIRTUAL - TELEMEDICINA</t>
+  </si>
+  <si>
+    <t>2604 - HISTÓRIA CLÍNICA DIGITAL</t>
+  </si>
+  <si>
+    <t>4192 - ATENDIMENTO HEMOTERÁPICO</t>
+  </si>
+  <si>
+    <t>4869 - PRODUÇÃO DE VACINAS</t>
   </si>
   <si>
     <t>6119 - PRODUÇÃO DE SOROS</t>
   </si>
   <si>
-    <t>4838 - FABRICAÇÃO EDISTRIBUIÇÃO DEMEDICAMENTOS</t>
-  </si>
-  <si>
-    <t>6353 - CÉLULASMESENQUIMAISPRODUZIDAS.</t>
-  </si>
-  <si>
-    <t>6265 - UNIDADESFARMACOTECNICASENTREGUES PELA IFAMERICA BRASILIENSE.</t>
-  </si>
-  <si>
-    <t>5801 - FUNCIONAMENTO DOCONSELHO ESTADUAL DESAÚDE</t>
-  </si>
-  <si>
-    <t>2472 - SAÚDE EM AÇÃO-PROJETO APOIADO PELOBANCO INTERAMERICANO DEDESENVOLVIMENTO- BID</t>
-  </si>
-  <si>
-    <t>2605 - FERRAMENTA DIGITALPARA NEGÓCIOS EM SAÚDE -BIG DATA SAÚDE</t>
-  </si>
-  <si>
-    <t>1377 - REFORMAS EAMPLIAÇÃO EM ÁREASFÍSICAS DAS UNIDADES DAADM DIRETA E INDIRETA</t>
-  </si>
-  <si>
-    <t>2449 - APARELHAMENTO/EQUIPAMENTOS NASUNIDADES DA ADM. DIRETA EINDIRETA</t>
-  </si>
-  <si>
-    <t>2530 - APOIO À PARCERIAPÚBLICO–PRIVADA P/CONSTR.CTRO REF. DASAÚDE DA MULHER</t>
-  </si>
-  <si>
-    <t>4862 - PROGRAMA DEBOLSAS PARA CURSOS DEESPECIALIZAÇÃO "LATOSENSU".</t>
+    <t>4838 - FABRICAÇÃO E DISTRIBUIÇÃO DE MEDICAMENTOS</t>
+  </si>
+  <si>
+    <t>6353 - CÉLULAS MESENQUIMAIS PRODUZIDAS.</t>
+  </si>
+  <si>
+    <t>6265 - UNIDADES FARMACOTECNICAS ENTREGUES PELA IF AMERICA BRASILIENSE.</t>
+  </si>
+  <si>
+    <t>5801 - FUNCIONAMENTO DO CONSELHO ESTADUAL DE SAÚDE</t>
+  </si>
+  <si>
+    <t>2472 - SAÚDE EM AÇÃO- PROJETO APOIADO PELO BANCO INTERAMERICANO DE DESENVOLVIMENTO- BID</t>
+  </si>
+  <si>
+    <t>2605 - FERRAMENTA DIGITAL PARA NEGÓCIOS EM SAÚDE - BIG DATA SAÚDE</t>
+  </si>
+  <si>
+    <t>1377 - REFORMAS E AMPLIAÇÃO EM ÁREAS FÍSICAS DAS UNIDADES DA ADM DIRETA E INDIRETA</t>
+  </si>
+  <si>
+    <t>2449 - APARELHAMENTO/ EQUIPAMENTOS NAS UNIDADES DA ADM. DIRETA E INDIRETA</t>
+  </si>
+  <si>
+    <t>2530 - APOIO À PARCERIA PÚBLICO–PRIVADA P/ CONSTR.CTRO REF. DA SAÚDE DA MULHER</t>
+  </si>
+  <si>
+    <t>4862 - PROGRAMA DE BOLSAS PARA CURSOS DE ESPECIALIZAÇÃO "LATO SENSU".</t>
   </si>
   <si>
     <t>4863 - RESIDÊNCIA MÉDICA</t>
   </si>
   <si>
-    <t>6121 - CAPACITAÇÕESTÉCNICAS EADMINISTRATIVAS</t>
-  </si>
-  <si>
-    <t>5805 - DIFUSÃO DOCONHECIMENTO</t>
-  </si>
-  <si>
-    <t>6184 - PROGRAMA ESTADUALDE SAÚDE DEENFRENTAMENTO AO CRACK- "RECOMEÇO"</t>
-  </si>
-  <si>
-    <t>6186 - OPERACIONALIZAÇÃOE IMPLANTAÇÃO DEUNIDADES  DE ACOLHIMENTOINSTITUCIONAL.</t>
-  </si>
-  <si>
-    <t>6196 - ACOLHIMENTOINSTITUCIONAL PARAREINTEGRAÇÃO SOCIAL EAUTONOMIA</t>
-  </si>
-  <si>
-    <t>6333 - PREVENÇÃO AO USO EABUSO DE DROGAS</t>
-  </si>
-  <si>
-    <t>5204 - PROMOÇÃO DOSISTEMA PAULISTA DEAMBIENTES PROMOTORESDE INOVAÇÃO - SPAI</t>
-  </si>
-  <si>
-    <t>6337 - APRIMORAMENTO DAPOLÍTICA ESTADUAL DETRABALHO ARTESANAL NASCOMUNIDADES- SUTACO</t>
-  </si>
-  <si>
-    <t>5992 - FORMULAÇÃO DOPLANO DEDESENVOLVIMENTO ECON./FOMENTO DE POLOS DEDESENVOLVIMENTO</t>
-  </si>
-  <si>
-    <t>6338 - FORTALECIMENTO EAPRIMORAMENTO DAPOLÍTICA DE ARRANJOSPRODUTIVOS LOCAIS</t>
-  </si>
-  <si>
-    <t>6339 - PROMOÇAO,ADOÇÃODE SOLUÇÕES INOVADORASPARA GOVERNO E APOIARNEGÓCIOS DE IMPACTO</t>
-  </si>
-  <si>
-    <t>6340 - APOIO AOS SETORESESTRATÉGICOS DE CIÊNCIA,TECNOLOGIA E INOVAÇÃO</t>
-  </si>
-  <si>
-    <t>6341 - FACILITAÇÃO DOCOMÉRCIO EXTERIOR -FACILITA SP</t>
-  </si>
-  <si>
-    <t>5848 - ASSISTÊNCIA E APOIOAO INVESTIDOR</t>
-  </si>
-  <si>
-    <t>5285 - APOIO AOEMPREENDEDOR -EMPREENDA SP</t>
-  </si>
-  <si>
-    <t>4225 - BANCO DO POVOPAULISTA</t>
-  </si>
-  <si>
-    <t>2600 - ESTRUTURAÇÃO  DOPLANEJAMENTO EIMPLEMENTAÇÃO DODISTRITO DE INOVAÇÃO "CITI"</t>
-  </si>
-  <si>
-    <t>1929 - CONCESSÃO DERECURSOS FINANCEIROSPARA CIÊNCIA, TECNOLOGIAE INOVAÇÃO - FUNCET</t>
-  </si>
-  <si>
-    <t>5840 - PESQUISA,DESENVOLVIMENTOTECNOLÓGICO, INOVAÇÃO EDIFUSÃO DECONHECIMENTOS.</t>
-  </si>
-  <si>
-    <t>2111 - MODERNIZAÇÃOLABORATORIAL PARA P,D&amp;I ESERVIÇOS TECNOLÓGICOS</t>
-  </si>
-  <si>
-    <t>5852 - DESENVOLVIMENTODO ENSINO MÉDIO - CENTROPAULA SOUZA</t>
-  </si>
-  <si>
-    <t>5292 - DESENVOLVIMENTO DAEDUCAÇÃO PROFISSIONALTÉCNICA</t>
-  </si>
-  <si>
-    <t>5290 - DESENVOLVIMENTO DAEDUCAÇÃO PROFISSIONALTECNOLÓGICA</t>
-  </si>
-  <si>
-    <t>5620 - CAPACITAÇÃO DOPESSOAL DOCENTE ETÉCNICO ADMINISTRATIVO</t>
-  </si>
-  <si>
-    <t>6289 - DESENVOLVIMENTODO NOVOTEC INTEGRADO</t>
-  </si>
-  <si>
-    <t>5845 - FORMAÇÃO INICIAL EEDUCAÇÃO CONTINUADA</t>
-  </si>
-  <si>
-    <t>6132 - INTEGRAÇÃO DO VIARÁPIDA EMPRESA NAREDESIM</t>
-  </si>
-  <si>
-    <t>1151 - ADEQUAÇÃO DAESTRUTURA FÍSICA DASUNIVERSIDADES PÚBLICAS</t>
-  </si>
-  <si>
-    <t>5297 - ATIVIDADES EMMUSEUS</t>
-  </si>
-  <si>
-    <t>5304 - ENSINO DEGRADUAÇÃO NASUNIVERSIDADES ESTADUAIS</t>
-  </si>
-  <si>
-    <t>5305 - ENSINO DE PÓS-GRADUAÇÃO E PESQUISANAS UNIVERSIDADES EFACULDADES ESTADUAIS</t>
-  </si>
-  <si>
-    <t>5306 - EXTENSÃOUNIVERSITÁRIA, DIFUSÃOCULTURAL E PRESTAÇÃO DESERVIÇOS À COMUNIDADE</t>
-  </si>
-  <si>
-    <t>5312 - RESTAURANTESUNIVERSITÁRIOS</t>
-  </si>
-  <si>
-    <t>5787 - PERMANÊNCIAESTUDANTIL</t>
-  </si>
-  <si>
-    <t>2607 - PESQUISA,DESENVOLVIMENTO EINOVAÇÃO</t>
-  </si>
-  <si>
-    <t>4402 - BOLSAS DE ESTUDOSPARA PESQUISA EDESENVOLVIMENTO NASFACULDADES PÚBLICAS DOESP</t>
-  </si>
-  <si>
-    <t>2606 - ATRAÇÃO E ESTÍMULODE GRANDES TALENTOS NOENSINO SUPERIOR DE SÃOPAULO</t>
-  </si>
-  <si>
-    <t>6137 - PROMOÇÃO EEXPANSÃO DO ENSINOSUPERIOR A DISTÂNCIA ESEMIPRESENCIAL</t>
-  </si>
-  <si>
-    <t>6285 - DIVULGAÇÃO EDIFUSÃO DOS RESULTADOSDE PESQUISA</t>
-  </si>
-  <si>
-    <t>5286 - PESQUISA PARA OAVANÇO DO CONHECIMENTO</t>
-  </si>
-  <si>
-    <t>4699 - PROJETOS DEPESQUISA PARA INOVAÇÃOEM PARCERIA COMEMPRESAS</t>
-  </si>
-  <si>
-    <t>4688 - FORMAÇÃO DERECURSOS HUMANOS</t>
-  </si>
-  <si>
-    <t>6348 - PESQUISA EM TEMASESTRATÉGICOS</t>
-  </si>
-  <si>
-    <t>6347 - INFRAESTRUTURA DEPESQUISA</t>
-  </si>
-  <si>
-    <t>5044 - INTERMEDIAÇÃO DEMÃO DE OBRA</t>
+    <t>6121 - CAPACITAÇÕES TÉCNICAS E ADMINISTRATIVAS</t>
+  </si>
+  <si>
+    <t>5805 - DIFUSÃO DO CONHECIMENTO</t>
+  </si>
+  <si>
+    <t>6184 - PROGRAMA ESTADUAL DE SAÚDE DE ENFRENTAMENTO AO CRACK - "RECOMEÇO"</t>
+  </si>
+  <si>
+    <t>6186 - OPERACIONALIZAÇÃO E IMPLANTAÇÃO DE UNIDADES  DE ACOLHIMENTO INSTITUCIONAL.</t>
+  </si>
+  <si>
+    <t>6196 - ACOLHIMENTO INSTITUCIONAL PARA REINTEGRAÇÃO SOCIAL E AUTONOMIA</t>
+  </si>
+  <si>
+    <t>6333 - PREVENÇÃO AO USO E ABUSO DE DROGAS</t>
+  </si>
+  <si>
+    <t>5204 - PROMOÇÃO DO SISTEMA PAULISTA DE AMBIENTES PROMOTORES DE INOVAÇÃO - SPAI</t>
+  </si>
+  <si>
+    <t>6337 - APRIMORAMENTO DA POLÍTICA ESTADUAL DE TRABALHO ARTESANAL NAS COMUNIDADES- SUTACO</t>
+  </si>
+  <si>
+    <t>5992 - FORMULAÇÃO DO PLANO DE DESENVOLVIMENTO ECON./ FOMENTO DE POLOS DE DESENVOLVIMENTO</t>
+  </si>
+  <si>
+    <t>6338 - FORTALECIMENTO E APRIMORAMENTO DA POLÍTICA DE ARRANJOS PRODUTIVOS LOCAIS</t>
+  </si>
+  <si>
+    <t>6339 - PROMOÇAO,ADOÇÃO DE SOLUÇÕES INOVADORAS PARA GOVERNO E APOIAR NEGÓCIOS DE IMPACTO</t>
+  </si>
+  <si>
+    <t>6340 - APOIO AOS SETORES ESTRATÉGICOS DE CIÊNCIA, TECNOLOGIA E INOVAÇÃO</t>
+  </si>
+  <si>
+    <t>6341 - FACILITAÇÃO DO COMÉRCIO EXTERIOR - FACILITA SP</t>
+  </si>
+  <si>
+    <t>5848 - ASSISTÊNCIA E APOIO AO INVESTIDOR</t>
+  </si>
+  <si>
+    <t>5285 - APOIO AO EMPREENDEDOR - EMPREENDA SP</t>
+  </si>
+  <si>
+    <t>4225 - BANCO DO POVO PAULISTA</t>
+  </si>
+  <si>
+    <t>2600 - ESTRUTURAÇÃO  DO PLANEJAMENTO E IMPLEMENTAÇÃO DO DISTRITO DE INOVAÇÃO "CITI"</t>
+  </si>
+  <si>
+    <t>1929 - CONCESSÃO DE RECURSOS FINANCEIROS PARA CIÊNCIA, TECNOLOGIA E INOVAÇÃO - FUNCET</t>
+  </si>
+  <si>
+    <t>5840 - PESQUISA, DESENVOLVIMENTO TECNOLÓGICO, INOVAÇÃO E DIFUSÃO DE CONHECIMENTOS.</t>
+  </si>
+  <si>
+    <t>2111 - MODERNIZAÇÃO LABORATORIAL PARA P,D&amp;I E SERVIÇOS TECNOLÓGICOS</t>
+  </si>
+  <si>
+    <t>5852 - DESENVOLVIMENTO DO ENSINO MÉDIO - CENTRO PAULA SOUZA</t>
+  </si>
+  <si>
+    <t>5292 - DESENVOLVIMENTO DA EDUCAÇÃO PROFISSIONAL TÉCNICA</t>
+  </si>
+  <si>
+    <t>5290 - DESENVOLVIMENTO DA EDUCAÇÃO PROFISSIONAL TECNOLÓGICA</t>
+  </si>
+  <si>
+    <t>5620 - CAPACITAÇÃO DO PESSOAL DOCENTE E TÉCNICO ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>6289 - DESENVOLVIMENTO DO NOVOTEC INTEGRADO</t>
+  </si>
+  <si>
+    <t>5845 - FORMAÇÃO INICIAL E EDUCAÇÃO CONTINUADA</t>
+  </si>
+  <si>
+    <t>6132 - INTEGRAÇÃO DO VIA RÁPIDA EMPRESA NA REDESIM</t>
+  </si>
+  <si>
+    <t>1151 - ADEQUAÇÃO DA ESTRUTURA FÍSICA DAS UNIVERSIDADES PÚBLICAS</t>
+  </si>
+  <si>
+    <t>5297 - ATIVIDADES EM MUSEUS</t>
+  </si>
+  <si>
+    <t>5304 - ENSINO DE GRADUAÇÃO NAS UNIVERSIDADES ESTADUAIS</t>
+  </si>
+  <si>
+    <t>5305 - ENSINO DE PÓS- GRADUAÇÃO E PESQUISA NAS UNIVERSIDADES E FACULDADES ESTADUAIS</t>
+  </si>
+  <si>
+    <t>5306 - EXTENSÃO UNIVERSITÁRIA, DIFUSÃO CULTURAL E PRESTAÇÃO DE SERVIÇOS À COMUNIDADE</t>
+  </si>
+  <si>
+    <t>5312 - RESTAURANTES UNIVERSITÁRIOS</t>
+  </si>
+  <si>
+    <t>5787 - PERMANÊNCIA ESTUDANTIL</t>
+  </si>
+  <si>
+    <t>2607 - PESQUISA, DESENVOLVIMENTO E INOVAÇÃO</t>
+  </si>
+  <si>
+    <t>4402 - BOLSAS DE ESTUDOS PARA PESQUISA E DESENVOLVIMENTO NAS FACULDADES PÚBLICAS DO ESP</t>
+  </si>
+  <si>
+    <t>2606 - ATRAÇÃO E ESTÍMULO DE GRANDES TALENTOS NO ENSINO SUPERIOR DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>6137 - PROMOÇÃO E EXPANSÃO DO ENSINO SUPERIOR A DISTÂNCIA E SEMIPRESENCIAL</t>
+  </si>
+  <si>
+    <t>6285 - DIVULGAÇÃO E DIFUSÃO DOS RESULTADOS DE PESQUISA</t>
+  </si>
+  <si>
+    <t>5286 - PESQUISA PARA O AVANÇO DO CONHECIMENTO</t>
+  </si>
+  <si>
+    <t>4699 - PROJETOS DE PESQUISA PARA INOVAÇÃO EM PARCERIA COM EMPRESAS</t>
+  </si>
+  <si>
+    <t>4688 - FORMAÇÃO DE RECURSOS HUMANOS</t>
+  </si>
+  <si>
+    <t>6348 - PESQUISA EM TEMAS ESTRATÉGICOS</t>
+  </si>
+  <si>
+    <t>6347 - INFRAESTRUTURA DE PESQUISA</t>
+  </si>
+  <si>
+    <t>5044 - INTERMEDIAÇÃO DE MÃO DE OBRA</t>
   </si>
   <si>
     <t>6344 - NOVOTEC APRENDIZ</t>
   </si>
   <si>
-    <t>4230 - PROGRAMA DEQUALIFICAÇÃOPROFISSIONAL - PQP</t>
+    <t>4230 - PROGRAMA DE QUALIFICAÇÃO PROFISSIONAL - PQP</t>
   </si>
   <si>
     <t>6126 - VIA RÁPIDA EMPREGO</t>
@@ -3670,316 +3670,316 @@
     <t>6345 - TIMES DO EMPREGO</t>
   </si>
   <si>
-    <t>6109 - FRENTES DETRABALHO</t>
-  </si>
-  <si>
-    <t>4227 - TRABALHO DECENTE ESELO DA DIVERSIDADE</t>
-  </si>
-  <si>
-    <t>6346 - NOVOTEC -QUALIFICAÇÃOPROFISSIONAL PARAESTUDANTES DO E.M. DAREDE ESTADUAL</t>
-  </si>
-  <si>
-    <t>6211 - CORPOS ESTÁVEIS EEQUIPAMENTOS DE DIFUSÃOCULTURAL</t>
-  </si>
-  <si>
-    <t>6307 - FORMAÇÃOCONTINUADA, A DISTÂNCIAOU PRESENCIAL EPROGRAMAS DE RESIDÊNCIA</t>
-  </si>
-  <si>
-    <t>5706 - DESENVOLVIMENTOSETORIAL, ESTUDOS DEIMPACTO SÓCIO ECONÔMICOE DESBUROCRAZIZAÇÃO</t>
-  </si>
-  <si>
-    <t>5709 - AÇÕES DECIRCULAÇÃO DEESPETÁCULOS E CONTEÚDO,COM AMPLIAÇÃO DE ACESSO.</t>
-  </si>
-  <si>
-    <t>5460 - PRODUÇÃO ETRANSMISSÃO DAS RÁDIOS,TVS E NOVAS MÍDIAS</t>
-  </si>
-  <si>
-    <t>2499 - IMPLANTAÇÃO EMODERNIZAÇÃO DOSEQUIPAMENTOS CULTURAIS</t>
-  </si>
-  <si>
-    <t>5727 -ADMINISTRAÇÃO EFORTALECIMENTOINSTITUCIONAL DASECRETARIA DA CULTURA</t>
-  </si>
-  <si>
-    <t>6369 - MONITORAMENTO,AVALIAÇÃO E PESQUISAAÇÕES CULTURAIS NOÂMBITO DO ESTADO DE SP</t>
-  </si>
-  <si>
-    <t>5732 - GESTÃO DEPATRIMÔNIO MUSEOLÓGICO</t>
-  </si>
-  <si>
-    <t>5737 - RECONHECIMENTO EPRESERVAÇÃO</t>
-  </si>
-  <si>
-    <t>5738 - FORMAÇÃO, DIFUSÃO EPARCERIAS</t>
-  </si>
-  <si>
-    <t>1986 - PROAC - PROGRAMADE AÇÃO CULTURAL-EDITAIS</t>
-  </si>
-  <si>
-    <t>4043 - PROMOÇÃO DEATIVIDADES CULTURAIS</t>
-  </si>
-  <si>
-    <t>5790 - CÁTEDRA MEMORIALDA AMÉRICA LATINA</t>
-  </si>
-  <si>
-    <t>5791 - CENTRO BRASILEIRODE ESTUDOS DA AMÉRICALATINA</t>
-  </si>
-  <si>
-    <t>2587 - PRESERVAÇÃO DOPATRIMÔNIO CULTURALLATINO-AMERICANO.</t>
-  </si>
-  <si>
-    <t>4458 - PREVENÇÃO E GESTÃODE RISCO SANITÁRIO</t>
-  </si>
-  <si>
-    <t>6325 - VIGILÂNCIA EINSPEÇÃO SANITÁRIA</t>
-  </si>
-  <si>
-    <t>2595 - RETIRADA DAVACINAÇÃO CONTRA FEBREAFTOSA - SP ÁREA LIVRE SEMVACINAÇÃO DE FEBRE</t>
-  </si>
-  <si>
-    <t>4457 - FISCALIZAÇÃO DAINOCUIDADE DAS CADEIASPRODUTIVAS</t>
-  </si>
-  <si>
-    <t>4783 - AÇÕES INTEGRADASDE EDUCAÇÃO ALIMENTAR</t>
-  </si>
-  <si>
-    <t>6324 - CERTIFICAÇÃO DEPRODUTOS DE ORIGEMPAULISTA</t>
-  </si>
-  <si>
-    <t>6326 - CONSOLIDAÇÃO DOSSISTEMASAGROALIMENTARES</t>
-  </si>
-  <si>
-    <t>4770 - PARCERIA ESTADOMUNICÍPIO PARA ODESENVOLVIMENTO RURALLOCAL E REGIONAL</t>
-  </si>
-  <si>
-    <t>5925 - GERAÇÃO DECONHECIMENTO ETECNOLOGIAS PARAINOVAÇÃO NOAGRONEGÓCIO</t>
+    <t>6109 - FRENTES DE TRABALHO</t>
+  </si>
+  <si>
+    <t>4227 - TRABALHO DECENTE E SELO DA DIVERSIDADE</t>
+  </si>
+  <si>
+    <t>6346 - NOVOTEC - QUALIFICAÇÃO PROFISSIONAL PARA ESTUDANTES DO E.M. DA REDE ESTADUAL</t>
+  </si>
+  <si>
+    <t>6211 - CORPOS ESTÁVEIS E EQUIPAMENTOS DE DIFUSÃO CULTURAL</t>
+  </si>
+  <si>
+    <t>6307 - FORMAÇÃO CONTINUADA, A DISTÂNCIA OU PRESENCIAL E PROGRAMAS DE RESIDÊNCIA</t>
+  </si>
+  <si>
+    <t>5706 - DESENVOLVIMENTO SETORIAL, ESTUDOS DE IMPACTO SÓCIO ECONÔMICO E DESBUROCRAZIZAÇÃO</t>
+  </si>
+  <si>
+    <t>5709 - AÇÕES DE CIRCULAÇÃO DE ESPETÁCULOS E CONTEÚDO, COM AMPLIAÇÃO DE ACESSO.</t>
+  </si>
+  <si>
+    <t>5460 - PRODUÇÃO E TRANSMISSÃO DAS RÁDIOS, TVS E NOVAS MÍDIAS</t>
+  </si>
+  <si>
+    <t>2499 - IMPLANTAÇÃO E MODERNIZAÇÃO DOS EQUIPAMENTOS CULTURAIS</t>
+  </si>
+  <si>
+    <t>5727 - ADMINISTRAÇÃO E FORTALECIMENTO INSTITUCIONAL DA SECRETARIA DA CULTURA</t>
+  </si>
+  <si>
+    <t>6369 - MONITORAMENTO, AVALIAÇÃO E PESQUISA AÇÕES CULTURAIS NO ÂMBITO DO ESTADO DE SP</t>
+  </si>
+  <si>
+    <t>5732 - GESTÃO DE PATRIMÔNIO MUSEOLÓGICO</t>
+  </si>
+  <si>
+    <t>5737 - RECONHECIMENTO E PRESERVAÇÃO</t>
+  </si>
+  <si>
+    <t>5738 - FORMAÇÃO, DIFUSÃO E PARCERIAS</t>
+  </si>
+  <si>
+    <t>1986 - PROAC - PROGRAMA DE AÇÃO CULTURAL-EDITAIS</t>
+  </si>
+  <si>
+    <t>4043 - PROMOÇÃO DE ATIVIDADES CULTURAIS</t>
+  </si>
+  <si>
+    <t>5790 - CÁTEDRA MEMORIAL DA AMÉRICA LATINA</t>
+  </si>
+  <si>
+    <t>5791 - CENTRO BRASILEIRO DE ESTUDOS DA AMÉRICA LATINA</t>
+  </si>
+  <si>
+    <t>2587 - PRESERVAÇÃO DO PATRIMÔNIO CULTURAL LATINO-AMERICANO.</t>
+  </si>
+  <si>
+    <t>4458 - PREVENÇÃO E GESTÃO DE RISCO SANITÁRIO</t>
+  </si>
+  <si>
+    <t>6325 - VIGILÂNCIA E INSPEÇÃO SANITÁRIA</t>
+  </si>
+  <si>
+    <t>2595 - RETIRADA DA VACINAÇÃO CONTRA FEBRE AFTOSA - SP ÁREA LIVRE SEM VACINAÇÃO DE FEBRE</t>
+  </si>
+  <si>
+    <t>4457 - FISCALIZAÇÃO DA INOCUIDADE DAS CADEIAS PRODUTIVAS</t>
+  </si>
+  <si>
+    <t>4783 - AÇÕES INTEGRADAS DE EDUCAÇÃO ALIMENTAR</t>
+  </si>
+  <si>
+    <t>6324 - CERTIFICAÇÃO DE PRODUTOS DE ORIGEM PAULISTA</t>
+  </si>
+  <si>
+    <t>6326 - CONSOLIDAÇÃO DOS SISTEMAS AGROALIMENTARES</t>
+  </si>
+  <si>
+    <t>4770 - PARCERIA ESTADO MUNICÍPIO PARA O DESENVOLVIMENTO RURAL LOCAL E REGIONAL</t>
+  </si>
+  <si>
+    <t>5925 - GERAÇÃO DE CONHECIMENTO E TECNOLOGIAS PARA INOVAÇÃO NO AGRONEGÓCIO</t>
   </si>
   <si>
     <t>2613 - ROTAS RURAIS</t>
   </si>
   <si>
-    <t>1407 - CRÉDITO RURAL PARAEXPANSÃO E INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>1327 - SUBVENÇÕES AOSPRODUTORES RURAIS</t>
-  </si>
-  <si>
-    <t>4891 - TRANSFERÊNCIA DECONHECIMENTO ETECNOLOGIAS PARAINOVAÇÃO NOAGRONEGÓCIO</t>
-  </si>
-  <si>
-    <t>4872 - ANÁLISESLABORATORIAIS PARA ODESENVOLVIMENTOSUSTENTÁVEL</t>
-  </si>
-  <si>
-    <t>4435 - ABASTECIMENTOESTRATÉGICO DESEMENTES, MUDAS EMATRIZES</t>
-  </si>
-  <si>
-    <t>4874 - INSUMOSTECNOLÓGICOSESTRATÉGICOS</t>
-  </si>
-  <si>
-    <t>2611 - MODERNIZAÇÃO DAINFRAESTRUTURA DASECRETARIA DEAGRICULTURA EABASTECIMENTO</t>
+    <t>1407 - CRÉDITO RURAL PARA EXPANSÃO E INVESTIMENTO</t>
+  </si>
+  <si>
+    <t>1327 - SUBVENÇÕES AOS PRODUTORES RURAIS</t>
+  </si>
+  <si>
+    <t>4891 - TRANSFERÊNCIA DE CONHECIMENTO E TECNOLOGIAS PARA INOVAÇÃO NO AGRONEGÓCIO</t>
+  </si>
+  <si>
+    <t>4872 - ANÁLISES LABORATORIAIS PARA O DESENVOLVIMENTO SUSTENTÁVEL</t>
+  </si>
+  <si>
+    <t>4435 - ABASTECIMENTO ESTRATÉGICO DE SEMENTES, MUDAS E MATRIZES</t>
+  </si>
+  <si>
+    <t>4874 - INSUMOS TECNOLÓGICOS ESTRATÉGICOS</t>
+  </si>
+  <si>
+    <t>2611 - MODERNIZAÇÃO DA INFRAESTRUTURA DA SECRETARIA DE AGRICULTURA E ABASTECIMENTO</t>
   </si>
   <si>
     <t>1195 - MELHOR CAMINHO</t>
   </si>
   <si>
-    <t>4453 - ASSISTÊNCIA TÉCNICA,EXTENSÃO RURAL E APOIO AORG.RURAIS P/AGRICUL.SUSTENTÁVEL</t>
-  </si>
-  <si>
-    <t>4437 - ACOMPANHAMENTO DEPROPRIEDADES RURAIS VIAPROG.BOAS PRÁTICASAGROPECUÁRIAS-PBPA</t>
-  </si>
-  <si>
-    <t>6329 - INCENTIVO ÀSUSTENTABILIDADE DECADEIAS PRODUTIVAS</t>
-  </si>
-  <si>
-    <t>6354 - ESTÍMULO ÀAGROECOLOGIA E ÀPRODUÇÃO ORGÂNICA</t>
-  </si>
-  <si>
-    <t>2610 - CONSERVAÇÃO DESOLO, ÁGUA EBIODIVERSIDADE</t>
-  </si>
-  <si>
-    <t>6077 - ADEQUAÇÃOAMBIENTAL DE IMOVEISRURAIS (PRA)</t>
-  </si>
-  <si>
-    <t>6328 - FISCALIZAÇÃO DE USOE CONSERVAÇÃO DE SOLOAGRÍCOLA</t>
-  </si>
-  <si>
-    <t>2585 - DESESTATIZAÇÃO DOSAEROPORTOS</t>
-  </si>
-  <si>
-    <t>2589 - DESESTATIZAR ASTRAVESSIAS LITORÂNEAS</t>
-  </si>
-  <si>
-    <t>1423 - MODERNIZAÇÃO EAMPLIAÇÃO DO PORTO DESÃO SEBASTIÃO</t>
-  </si>
-  <si>
-    <t>5873 - OPERAÇÃO EMANUTENÇÃO DO SISTEMAHIDROVIÁRIO</t>
-  </si>
-  <si>
-    <t>1291 - IMPLANTAÇÃO DEMELHORIAS  E DE NOVOSTRECHOS PARA EXTENSÃONA HTP</t>
-  </si>
-  <si>
-    <t>6266 - OPERAÇÃO DO PORTODE SÃO SEBASTIÃO</t>
-  </si>
-  <si>
-    <t>1413 - MODERNIZAÇÃO /MONITORAÇÃO DE RODOVIASESTADUAIS</t>
-  </si>
-  <si>
-    <t>4903 - OPERAÇÃO ESEGURANÇA DA MALHARODOVIÁRIA</t>
-  </si>
-  <si>
-    <t>4900 - POLICIAMENTO NASRODOVIAS SOB JURISDIÇÃODO DER</t>
-  </si>
-  <si>
-    <t>4901 - IMPLANTAÇÃO EOPERAÇÃO DE POSTOS DEPESAGEM NAS RODOVIASESTADUAIS</t>
-  </si>
-  <si>
-    <t>4907 - CONSERVAÇÃO,SINALIZAÇÃO E DEMAISELEMENTOS DE SEGURANÇAEM RODOVIAS - DER</t>
-  </si>
-  <si>
-    <t>4904 - PATRULHARODOVIÁRIA</t>
+    <t>4453 - ASSISTÊNCIA TÉCNICA, EXTENSÃO RURAL E APOIO A ORG.RURAIS P/ AGRICUL.SUSTENTÁVEL</t>
+  </si>
+  <si>
+    <t>4437 - ACOMPANHAMENTO DE PROPRIEDADES RURAIS VIA PROG.BOAS PRÁTICAS AGROPECUÁRIAS-PBPA</t>
+  </si>
+  <si>
+    <t>6329 - INCENTIVO À SUSTENTABILIDADE DE CADEIAS PRODUTIVAS</t>
+  </si>
+  <si>
+    <t>6354 - ESTÍMULO À AGROECOLOGIA E À PRODUÇÃO ORGÂNICA</t>
+  </si>
+  <si>
+    <t>2610 - CONSERVAÇÃO DE SOLO, ÁGUA E BIODIVERSIDADE</t>
+  </si>
+  <si>
+    <t>6077 - ADEQUAÇÃO AMBIENTAL DE IMOVEIS RURAIS (PRA)</t>
+  </si>
+  <si>
+    <t>6328 - FISCALIZAÇÃO DE USO E CONSERVAÇÃO DE SOLO AGRÍCOLA</t>
+  </si>
+  <si>
+    <t>2585 - DESESTATIZAÇÃO DOS AEROPORTOS</t>
+  </si>
+  <si>
+    <t>2589 - DESESTATIZAR AS TRAVESSIAS LITORÂNEAS</t>
+  </si>
+  <si>
+    <t>1423 - MODERNIZAÇÃO E AMPLIAÇÃO DO PORTO DE SÃO SEBASTIÃO</t>
+  </si>
+  <si>
+    <t>5873 - OPERAÇÃO E MANUTENÇÃO DO SISTEMA HIDROVIÁRIO</t>
+  </si>
+  <si>
+    <t>1291 - IMPLANTAÇÃO DE MELHORIAS  E DE NOVOS TRECHOS PARA EXTENSÃO NA HTP</t>
+  </si>
+  <si>
+    <t>6266 - OPERAÇÃO DO PORTO DE SÃO SEBASTIÃO</t>
+  </si>
+  <si>
+    <t>1413 - MODERNIZAÇÃO / MONITORAÇÃO DE RODOVIAS ESTADUAIS</t>
+  </si>
+  <si>
+    <t>4903 - OPERAÇÃO E SEGURANÇA DA MALHA RODOVIÁRIA</t>
+  </si>
+  <si>
+    <t>4900 - POLICIAMENTO NAS RODOVIAS SOB JURISDIÇÃO DO DER</t>
+  </si>
+  <si>
+    <t>4901 - IMPLANTAÇÃO E OPERAÇÃO DE POSTOS DE PESAGEM NAS RODOVIAS ESTADUAIS</t>
+  </si>
+  <si>
+    <t>4907 - CONSERVAÇÃO, SINALIZAÇÃO E DEMAIS ELEMENTOS DE SEGURANÇA EM RODOVIAS - DER</t>
+  </si>
+  <si>
+    <t>4904 - PATRULHA RODOVIÁRIA</t>
   </si>
   <si>
     <t>1114 - ESTRADAS VICINAIS</t>
   </si>
   <si>
-    <t>1418 - DUPLICAÇÃO,IMPLANTAÇÃO ERECUPERAÇÃO DERODOVIAS ESTADUAIS</t>
-  </si>
-  <si>
-    <t>2392 - TRANSPORTE,LOGÍSTICA E MEIO AMBIENTE- BIRD</t>
-  </si>
-  <si>
-    <t>2477 - INVESTIMENTORODOVIÁRIO DO ESTADO DESÃO PAULO - BID</t>
-  </si>
-  <si>
-    <t>2478 - LOGÍSTICA ETRANSPORTES DO ESTADODE SÃO PAULO - MIGA</t>
-  </si>
-  <si>
-    <t>2510 - INVESTIMENTORODOVIÁRIO DO ESTADO DESÃO PAULO - BID FASE II</t>
-  </si>
-  <si>
-    <t>1970 - IMPLANTAÇÃO ETRANSPOSIÇÃO DERODOVIAS - CONVÊNIO DER/DERSA</t>
-  </si>
-  <si>
-    <t>2097 - TERMINAISRODOVIÁRIOS</t>
-  </si>
-  <si>
-    <t>2497 - NOVA TAMOIOS -CONTORNOS</t>
-  </si>
-  <si>
-    <t>2505 - APOIO À PARCERIAPÚBLICO-PRIVADA PARARODOVIA DOS TAMOIOS-TRECHO SERRA</t>
-  </si>
-  <si>
-    <t>4914 - MANUTENÇÃOADEQUADA DAINFRAESTRUTURAAEROPORTUÁRIA DO ESTADO</t>
-  </si>
-  <si>
-    <t>1110 - IMPLANTAÇÃO,AMPLIAÇÃO EMODERNIZAÇÃO DOSAEROPORTOS DE SÃO PAULO</t>
-  </si>
-  <si>
-    <t>1421 - MELHORIA DASCONDIÇÕES DE OPERAÇÃO EINSTALAÇÕES DASTRAVESSIAS LITORÂNEAS</t>
-  </si>
-  <si>
-    <t>2283 - EXECUÇÃO DAS OBRASDO RODOANEL - TRECHONORTE</t>
-  </si>
-  <si>
-    <t>6349 - REGIONALIZAÇÃO DOSSERVIÇOS DE PROTEÇÃO EDEFESA DO CONSUMIDOR</t>
-  </si>
-  <si>
-    <t>4161 - ATENDIMENTOMUNICIPAL AO CONSUMIDORMEDIANTE A CELEBRAÇÃODE CONVÊNIOS.</t>
-  </si>
-  <si>
-    <t>5486 - PROCESSAMENTO DEDEMANDAS DOSCONSUMIDORES</t>
-  </si>
-  <si>
-    <t>5488 - ATOSFISCALIZATÓRIOS</t>
-  </si>
-  <si>
-    <t>6045 - EDUCAÇÃO PARA OCONSUMO</t>
-  </si>
-  <si>
-    <t>5641 - PERÍCIAS NA ÁREA DEMEDICINA LEGAL</t>
-  </si>
-  <si>
-    <t>4135 - PERÍCIAS DEINVESTIGAÇÃO DE VÍNCULOGENÉTICO (DNA)</t>
-  </si>
-  <si>
-    <t>6114 - EDUCAÇÃOCONTINUADA</t>
-  </si>
-  <si>
-    <t>5669 - FISCALIZAÇÃO ECONTROLE METROLÓGICO</t>
-  </si>
-  <si>
-    <t>6302 - FISCALIZAÇÃO DEPRODUTOS PRÉ-EMBALADOS</t>
-  </si>
-  <si>
-    <t>5907 - EXECUÇÃO DASMEDIDAS SOCIOEDUCATIVASDE INTERNAÇÃO,SEMILIBERDADE ECAUTELARES</t>
-  </si>
-  <si>
-    <t>5906 - ATENÇÃO BÁSICA ÀSAÚDE DO ADOLESCENTE/JOVEM EM MEDIDASOCIOEDUCATIVA ECAUTELAR</t>
-  </si>
-  <si>
-    <t>5905 - ATENÇÃO INTEGRAL ÀEDUCAÇÃO DOADOLESCENTE/JOVEM EMMEDIDA SOCIOED. ECAUTELAR</t>
-  </si>
-  <si>
-    <t>2208 - CONSTRUÇÃO EAMPLIAÇÃO DOS CENTROSSOCIOEDUCATIVOS.</t>
-  </si>
-  <si>
-    <t>2570 -  REFORMAS EADEQUAÇÕES DE IMÓVEIS DASEDE E DOS CENTROSSOCIOEDUCATIVOS</t>
-  </si>
-  <si>
-    <t>2583 - EXECUÇÃO DEMEDIDAS SOCIOEDUCATIVASEM PARCERIA PÚBLICOPRIVADA.</t>
-  </si>
-  <si>
-    <t>2582 - IMPACTO SOCIAL NOPÓS-MEDIDASOCIOEDUCATIVA</t>
-  </si>
-  <si>
-    <t>4213 - MONITORAMENTO DEPOLÍTICAS PÚBLICAS EMDIREITOS HUMANOS</t>
-  </si>
-  <si>
-    <t>5901 - EDUCAÇÃO EMDIREITOS HUMANOS ECIDADANIA</t>
-  </si>
-  <si>
-    <t>5995 - GESTÃO DO FUNDO DEINTERESSES DIFUSOS</t>
-  </si>
-  <si>
-    <t>6202 - GESTÃO EAPRIMORAMENTO DOCENTRO DE APOIO À VÍTIMA</t>
-  </si>
-  <si>
-    <t>6204 - PROTEÇÃO ACRIANÇAS E ADOLESCENTESAMEAÇADOS DE MORTE</t>
-  </si>
-  <si>
-    <t>6198 - PROTEÇÃO À VÍTIMA EÀ TESTEMUNHA AMEAÇADA-PROVITA</t>
-  </si>
-  <si>
-    <t>4151 - GESTÃO EAPRIMORAMENTO DOSCENTROS DE INTEGRAÇÃODA CIDADANIA</t>
-  </si>
-  <si>
-    <t>1430 - CONSTRUÇÃO,AMPLIAÇÃO E REFORMA DEFÓRUNS</t>
-  </si>
-  <si>
-    <t>5616 - PAGAMENTO DEINDENIZAÇÕES A EX-PRESOSPOLÍTICOS</t>
-  </si>
-  <si>
-    <t>4987 - PROTEÇÃO POLICIAL AVÍTIMAS E TESTEMUNHAS</t>
-  </si>
-  <si>
-    <t>1930 - FINANCIAMENTO PROJ.DES. ECONÔMICO E SOCIALDO PONTAL DOPARANAPANEMA-FUNDESPAR</t>
+    <t>1418 - DUPLICAÇÃO, IMPLANTAÇÃO E RECUPERAÇÃO DE RODOVIAS ESTADUAIS</t>
+  </si>
+  <si>
+    <t>2392 - TRANSPORTE, LOGÍSTICA E MEIO AMBIENTE - BIRD</t>
+  </si>
+  <si>
+    <t>2477 - INVESTIMENTO RODOVIÁRIO DO ESTADO DE SÃO PAULO - BID</t>
+  </si>
+  <si>
+    <t>2478 - LOGÍSTICA E TRANSPORTES DO ESTADO DE SÃO PAULO - MIGA</t>
+  </si>
+  <si>
+    <t>2510 - INVESTIMENTO RODOVIÁRIO DO ESTADO DE SÃO PAULO - BID FASE II</t>
+  </si>
+  <si>
+    <t>1970 - IMPLANTAÇÃO E TRANSPOSIÇÃO DE RODOVIAS - CONVÊNIO DER/ DERSA</t>
+  </si>
+  <si>
+    <t>2097 - TERMINAIS RODOVIÁRIOS</t>
+  </si>
+  <si>
+    <t>2497 - NOVA TAMOIOS - CONTORNOS</t>
+  </si>
+  <si>
+    <t>2505 - APOIO À PARCERIA PÚBLICO-PRIVADA PARA RODOVIA DOS TAMOIOS- TRECHO SERRA</t>
+  </si>
+  <si>
+    <t>4914 - MANUTENÇÃO ADEQUADA DA INFRAESTRUTURA AEROPORTUÁRIA DO ESTADO</t>
+  </si>
+  <si>
+    <t>1110 - IMPLANTAÇÃO, AMPLIAÇÃO E MODERNIZAÇÃO DOS AEROPORTOS DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>1421 - MELHORIA DAS CONDIÇÕES DE OPERAÇÃO E INSTALAÇÕES DAS TRAVESSIAS LITORÂNEAS</t>
+  </si>
+  <si>
+    <t>2283 - EXECUÇÃO DAS OBRAS DO RODOANEL - TRECHO NORTE</t>
+  </si>
+  <si>
+    <t>6349 - REGIONALIZAÇÃO DOS SERVIÇOS DE PROTEÇÃO E DEFESA DO CONSUMIDOR</t>
+  </si>
+  <si>
+    <t>4161 - ATENDIMENTO MUNICIPAL AO CONSUMIDOR MEDIANTE A CELEBRAÇÃO DE CONVÊNIOS.</t>
+  </si>
+  <si>
+    <t>5486 - PROCESSAMENTO DE DEMANDAS DOS CONSUMIDORES</t>
+  </si>
+  <si>
+    <t>5488 - ATOS FISCALIZATÓRIOS</t>
+  </si>
+  <si>
+    <t>6045 - EDUCAÇÃO PARA O CONSUMO</t>
+  </si>
+  <si>
+    <t>5641 - PERÍCIAS NA ÁREA DE MEDICINA LEGAL</t>
+  </si>
+  <si>
+    <t>4135 - PERÍCIAS DE INVESTIGAÇÃO DE VÍNCULO GENÉTICO (DNA)</t>
+  </si>
+  <si>
+    <t>6114 - EDUCAÇÃO CONTINUADA</t>
+  </si>
+  <si>
+    <t>5669 - FISCALIZAÇÃO E CONTROLE METROLÓGICO</t>
+  </si>
+  <si>
+    <t>6302 - FISCALIZAÇÃO DE PRODUTOS PRÉ-EMBALADOS</t>
+  </si>
+  <si>
+    <t>5907 - EXECUÇÃO DAS MEDIDAS SOCIOEDUCATIVAS DE INTERNAÇÃO, SEMILIBERDADE E CAUTELARES</t>
+  </si>
+  <si>
+    <t>5906 - ATENÇÃO BÁSICA À SAÚDE DO ADOLESCENTE/ JOVEM EM MEDIDA SOCIOEDUCATIVA E CAUTELAR</t>
+  </si>
+  <si>
+    <t>5905 - ATENÇÃO INTEGRAL À EDUCAÇÃO DO ADOLESCENTE/JOVEM EM MEDIDA SOCIOED. E CAUTELAR</t>
+  </si>
+  <si>
+    <t>2208 - CONSTRUÇÃO E AMPLIAÇÃO DOS CENTROS SOCIOEDUCATIVOS.</t>
+  </si>
+  <si>
+    <t>2570 -  REFORMAS E ADEQUAÇÕES DE IMÓVEIS DA SEDE E DOS CENTROS SOCIOEDUCATIVOS</t>
+  </si>
+  <si>
+    <t>2583 - EXECUÇÃO DE MEDIDAS SOCIOEDUCATIVAS EM PARCERIA PÚBLICO PRIVADA.</t>
+  </si>
+  <si>
+    <t>2582 - IMPACTO SOCIAL NO PÓS-MEDIDA SOCIOEDUCATIVA</t>
+  </si>
+  <si>
+    <t>4213 - MONITORAMENTO DE POLÍTICAS PÚBLICAS EM DIREITOS HUMANOS</t>
+  </si>
+  <si>
+    <t>5901 - EDUCAÇÃO EM DIREITOS HUMANOS E CIDADANIA</t>
+  </si>
+  <si>
+    <t>5995 - GESTÃO DO FUNDO DE INTERESSES DIFUSOS</t>
+  </si>
+  <si>
+    <t>6202 - GESTÃO E APRIMORAMENTO DO CENTRO DE APOIO À VÍTIMA</t>
+  </si>
+  <si>
+    <t>6204 - PROTEÇÃO A CRIANÇAS E ADOLESCENTES AMEAÇADOS DE MORTE</t>
+  </si>
+  <si>
+    <t>6198 - PROTEÇÃO À VÍTIMA E À TESTEMUNHA AMEAÇADA- PROVITA</t>
+  </si>
+  <si>
+    <t>4151 - GESTÃO E APRIMORAMENTO DOS CENTROS DE INTEGRAÇÃO DA CIDADANIA</t>
+  </si>
+  <si>
+    <t>1430 - CONSTRUÇÃO, AMPLIAÇÃO E REFORMA DE FÓRUNS</t>
+  </si>
+  <si>
+    <t>5616 - PAGAMENTO DE INDENIZAÇÕES A EX-PRESOS POLÍTICOS</t>
+  </si>
+  <si>
+    <t>4987 - PROTEÇÃO POLICIAL A VÍTIMAS E TESTEMUNHAS</t>
+  </si>
+  <si>
+    <t>1930 - FINANCIAMENTO PROJ. DES. ECONÔMICO E SOCIAL DO PONTAL DO PARANAPANEMA-FUNDESPAR</t>
   </si>
   <si>
     <t>6274 - PERÍCIAS JUDICIAIS.</t>
   </si>
   <si>
-    <t>2584 - IMPLANTAÇÃO DEEQUIPAMENTOS E SERVIÇOSPARA AMPLIAÇÃO DOACESSO À JUSTIÇA</t>
-  </si>
-  <si>
-    <t>4959 - REGULARIZAÇÃOFUNDIÁRIA URBANA E RURAL</t>
-  </si>
-  <si>
-    <t>4960 - FOMENTO DAAGRICULTURA FAMILIAR NOSASSENTAMENTOS EQUILOMBOS-BALCÃO DENEGÓCIOS</t>
-  </si>
-  <si>
-    <t>1133 - CONSTRUÇÃO EREADEQUAÇÃO DEINSTALAÇÕES FÍSICAS</t>
-  </si>
-  <si>
-    <t>4195 - IDENTIFICAÇÃO CIVIL ECRIMINAL</t>
+    <t>2584 - IMPLANTAÇÃO DE EQUIPAMENTOS E SERVIÇOS PARA AMPLIAÇÃO DO ACESSO À JUSTIÇA</t>
+  </si>
+  <si>
+    <t>4959 - REGULARIZAÇÃO FUNDIÁRIA URBANA E RURAL</t>
+  </si>
+  <si>
+    <t>4960 - FOMENTO DA AGRICULTURA FAMILIAR NOS ASSENTAMENTOS E QUILOMBOS-BALCÃO DE NEGÓCIOS</t>
+  </si>
+  <si>
+    <t>1133 - CONSTRUÇÃO E READEQUAÇÃO DE INSTALAÇÕES FÍSICAS</t>
+  </si>
+  <si>
+    <t>4195 - IDENTIFICAÇÃO CIVIL E CRIMINAL</t>
   </si>
   <si>
     <t>4988 - CUSTÓDIA DE PRESOS</t>
@@ -3988,322 +3988,322 @@
     <t>4989 - POLÍCIA JUDICIÁRIA</t>
   </si>
   <si>
-    <t>5427 - SELEÇÃO, FORMAÇÃO,CAPACITAÇÃO EAPERFEIÇOAMENTO DOSPOLICIAIS CIVIS</t>
-  </si>
-  <si>
-    <t>1054 - CONSTRUÇÃO EREADEQUAÇÃO DEINSTALAÇÕES FÍSICAS</t>
+    <t>5427 - SELEÇÃO, FORMAÇÃO, CAPACITAÇÃO E APERFEIÇOAMENTO DOS POLICIAIS CIVIS</t>
+  </si>
+  <si>
+    <t>1054 - CONSTRUÇÃO E READEQUAÇÃO DE INSTALAÇÕES FÍSICAS</t>
   </si>
   <si>
     <t>4998 - COMBATE A INCÊNDIO</t>
   </si>
   <si>
-    <t>4999 - PROTEÇÃO ABANHISTAS</t>
-  </si>
-  <si>
-    <t>5000 - SALVAMENTO ERESGATE</t>
-  </si>
-  <si>
-    <t>5705 - FORMAÇÃO ECAPACITAÇÃO DEPROFISSIONAIS</t>
-  </si>
-  <si>
-    <t>6061 - PREVENÇÃO DERISCOS - EDUCAÇÃOPÚBLICA</t>
-  </si>
-  <si>
-    <t>1293 - CONSTRUÇÃO EREADEQUAÇÃO DEINSTALAÇÕES FÍSICAS</t>
-  </si>
-  <si>
-    <t>4178 - PERÍCIASCRIMINALÍSTICAS E MÉDICO-LEGAIS</t>
-  </si>
-  <si>
-    <t>6064 - FORMAÇÃO EATUALIZAÇÃO DOSSERVIDORES DA POLÍCIATÉCNICO-CIENTÍFICA</t>
-  </si>
-  <si>
-    <t>4784 - ASSISTÊNCIA MÉDICAAMBULATORIAL EHOSPITALAR, COMOBSTETRÍCIA</t>
-  </si>
-  <si>
-    <t>6298 - ASSISTÊNCIA JURÍDICAFUNCIONAL PRESTADA APOLICIAIS MILITARES</t>
+    <t>4999 - PROTEÇÃO A BANHISTAS</t>
+  </si>
+  <si>
+    <t>5000 - SALVAMENTO E RESGATE</t>
+  </si>
+  <si>
+    <t>5705 - FORMAÇÃO E CAPACITAÇÃO DE PROFISSIONAIS</t>
+  </si>
+  <si>
+    <t>6061 - PREVENÇÃO DE RISCOS - EDUCAÇÃO PÚBLICA</t>
+  </si>
+  <si>
+    <t>1293 - CONSTRUÇÃO E READEQUAÇÃO DE INSTALAÇÕES FÍSICAS</t>
+  </si>
+  <si>
+    <t>4178 - PERÍCIAS CRIMINALÍSTICAS E MÉDICO- LEGAIS</t>
+  </si>
+  <si>
+    <t>6064 - FORMAÇÃO E ATUALIZAÇÃO DOS SERVIDORES DA POLÍCIA TÉCNICO-CIENTÍFICA</t>
+  </si>
+  <si>
+    <t>4784 - ASSISTÊNCIA MÉDICA AMBULATORIAL E HOSPITALAR, COM OBSTETRÍCIA</t>
+  </si>
+  <si>
+    <t>6298 - ASSISTÊNCIA JURÍDICA FUNCIONAL PRESTADA A POLICIAIS MILITARES</t>
   </si>
   <si>
     <t>5642 - INTELIGÊNCIA POLICIAL</t>
   </si>
   <si>
-    <t>6058 -VIDEOMONITORAMENTOPOLICIAL OSTENSIVO</t>
-  </si>
-  <si>
-    <t>6296 - APARELHAMENTO EMODERNIZAÇÃO CONTÍNUADOS EQUIPAMENTOS DAPOLÍCIA CIVIL</t>
-  </si>
-  <si>
-    <t>6295 - APARELHAMENTO EMODERNIZAÇÃO CONTÍNUADOS EQUIPAMENTOS DOCORPO DE BOMBEIROS</t>
-  </si>
-  <si>
-    <t>6294 - APARELHAMENTO EMODERNIZ. CONTÍNUA DOSEQUIPAMENTOS POLÍCIATÉCNICO-CIENTÍFICA</t>
-  </si>
-  <si>
-    <t>6293 - APARELHAMENTO EMODERNIZAÇÃO CONTÍNUADOS EQUIPAMENTOS DAPOLÍCIA MILITAR</t>
-  </si>
-  <si>
-    <t>6297 - OPERAÇÕESINTEGRADAS DA POLÍCIA /CICC -CENTRO INTEGRADODE COMANDO E CONTROLE</t>
-  </si>
-  <si>
-    <t>1090 - CONSTRUÇÃO EREFORMA DE QUARTÉIS</t>
-  </si>
-  <si>
-    <t>4993 - POLICIA OSTENSIVA EPREVENTIVA</t>
-  </si>
-  <si>
-    <t>4995 - FORMAÇÃO ECAPACITAÇÃO DO POLICIALMILITAR</t>
-  </si>
-  <si>
-    <t>5001 - ATENDIMENTO ASAÚDE DO POLICIAL MILITAR</t>
-  </si>
-  <si>
-    <t>6066 - COMUNICAÇÃO SOCIALDA POLÍCIA MILITAR</t>
-  </si>
-  <si>
-    <t>5021 - OPERAÇÃOTRIBUTÁRIA</t>
-  </si>
-  <si>
-    <t>5599 - AUDITORIAS NASUNIDADES DAADMINISTRAÇÃO DIRETA EINDIRETA</t>
-  </si>
-  <si>
-    <t>5022 - ADMINISTRAÇÃOFINANCEIRA</t>
-  </si>
-  <si>
-    <t>1191 - REPASSE DERECURSOS AO FUNDO DEDESENVOLVIMENTO DO VALEDO RIBEIRA</t>
-  </si>
-  <si>
-    <t>1211 - REPASSE DERECURSOS AO BANCO DOPOVO</t>
-  </si>
-  <si>
-    <t>1212 - REPASSE DERECURSOS AO FUNDO DEAVAL</t>
-  </si>
-  <si>
-    <t>5997 - OPERAÇÕES DESECURITIZAÇÃO DE DIREITOSCREDITÓRIOS</t>
-  </si>
-  <si>
-    <t>6332 - FINANCIAMENTO DEMUNICÍPIOS PAULISTAS</t>
-  </si>
-  <si>
-    <t>1991 - EQUALIZAÇÃO DETAXAS DE JUROS DEFINANCIAMENTOSINCENTIVADOS NO ÂMBITODO ESTADO</t>
-  </si>
-  <si>
-    <t>6331 - DESEMBOLSO PARAMICRO E PEQUENASEMPRESAS</t>
-  </si>
-  <si>
-    <t>6330 - CONCESSÃO DECRÉDITO PARA PROJETOS DEINOVAÇÃO</t>
-  </si>
-  <si>
-    <t>5753 - GESTÃO DOSBENEFÍCIOSPREVIDENCIÁRIOS</t>
-  </si>
-  <si>
-    <t>5884 - INTEGRAÇÃO,OPERAÇÃO E SUPORTE ÀGESTÃO DOS ÓRGÃOS DERECURSOS HUMANOS</t>
-  </si>
-  <si>
-    <t>6042 - AVALIAÇÃO DEPESSOAL</t>
-  </si>
-  <si>
-    <t>5971 - REALIZAÇÃO DEPERÍCIAS MÉDICAS</t>
-  </si>
-  <si>
-    <t>5601 - GESTÃO DO SISTEMABOLSA ELETRÔNICA DECOMPRAS - BEC/SP</t>
-  </si>
-  <si>
-    <t>2262 - APOIO ÀIMPLEMENTAÇÃO DEPROJETOS DE PPPS –PROJETOS ANALISADOS</t>
-  </si>
-  <si>
-    <t>5357 - CAPACITAÇÃO EMGESTÃO PÚBLICA E GESTÃOPARA RESULTADOS</t>
-  </si>
-  <si>
-    <t>6032 - GESTÃO PARARESULTADOS</t>
-  </si>
-  <si>
-    <t>4499 - EVENTOS DECAPACITAÇÃO E DECONSCIENTIZAÇÃO FISCAL</t>
-  </si>
-  <si>
-    <t>2290 - GESTÃO FISCAL EINTEGRAÇÃO DOS FISCOS NOBRASIL  - PROFISCO   SP</t>
-  </si>
-  <si>
-    <t>2599 - APOIO TÉCNICO AOPROGRAMA ESTADUAL DEDESESTATIZAÇÃO</t>
-  </si>
-  <si>
-    <t>6237 - GESTÃO DO PLANOPLURIANUAL</t>
-  </si>
-  <si>
-    <t>4485 - GESTÃO DOPROCESSO ORÇAMENTÁRIODO ESTADO</t>
-  </si>
-  <si>
-    <t>4483 - EXECUÇÃO DEPROCESSOS AVALIATIVOS DEPROGRAMASGOVERNAMENTAIS</t>
-  </si>
-  <si>
-    <t>6236 - SUBSÍDIOS TÉCNICOSEM PLANEJAMENTO EORÇAMENTO</t>
-  </si>
-  <si>
-    <t>6308 - FOMENTO ÀPARTICIPAÇÃO SOCIAL EMPLANEJAMENTO</t>
-  </si>
-  <si>
-    <t>2277 - AÇÕES DO FUNDOGARANTIDOR HABITACIONAL-FGH</t>
-  </si>
-  <si>
-    <t>2486 - SUBSÍDIO PARACRÉDITO IMOBILIÁRIO E PARAOUTRAS AÇÕES DE HIS</t>
-  </si>
-  <si>
-    <t>2492 - PARCERIA PÚBLICOPRIVADA - PPPHABITACIONAL</t>
+    <t>6058 - VIDEOMONITORAMENTO POLICIAL OSTENSIVO</t>
+  </si>
+  <si>
+    <t>6296 - APARELHAMENTO E MODERNIZAÇÃO CONTÍNUA DOS EQUIPAMENTOS DA POLÍCIA CIVIL</t>
+  </si>
+  <si>
+    <t>6295 - APARELHAMENTO E MODERNIZAÇÃO CONTÍNUA DOS EQUIPAMENTOS DO CORPO DE BOMBEIROS</t>
+  </si>
+  <si>
+    <t>6294 - APARELHAMENTO E MODERNIZ. CONTÍNUA DOS EQUIPAMENTOS POLÍCIA TÉCNICO-CIENTÍFICA</t>
+  </si>
+  <si>
+    <t>6293 - APARELHAMENTO E MODERNIZAÇÃO CONTÍNUA DOS EQUIPAMENTOS DA POLÍCIA MILITAR</t>
+  </si>
+  <si>
+    <t>6297 - OPERAÇÕES INTEGRADAS DA POLÍCIA / CICC -CENTRO INTEGRADO DE COMANDO E CONTROLE</t>
+  </si>
+  <si>
+    <t>1090 - CONSTRUÇÃO E REFORMA DE QUARTÉIS</t>
+  </si>
+  <si>
+    <t>4993 - POLICIA OSTENSIVA E PREVENTIVA</t>
+  </si>
+  <si>
+    <t>4995 - FORMAÇÃO E CAPACITAÇÃO DO POLICIAL MILITAR</t>
+  </si>
+  <si>
+    <t>5001 - ATENDIMENTO A SAÚDE DO POLICIAL MILITAR</t>
+  </si>
+  <si>
+    <t>6066 - COMUNICAÇÃO SOCIAL DA POLÍCIA MILITAR</t>
+  </si>
+  <si>
+    <t>5021 - OPERAÇÃO TRIBUTÁRIA</t>
+  </si>
+  <si>
+    <t>5599 - AUDITORIAS NAS UNIDADES DA ADMINISTRAÇÃO DIRETA E INDIRETA</t>
+  </si>
+  <si>
+    <t>5022 - ADMINISTRAÇÃO FINANCEIRA</t>
+  </si>
+  <si>
+    <t>1191 - REPASSE DE RECURSOS AO FUNDO DE DESENVOLVIMENTO DO VALE DO RIBEIRA</t>
+  </si>
+  <si>
+    <t>1211 - REPASSE DE RECURSOS AO BANCO DO POVO</t>
+  </si>
+  <si>
+    <t>1212 - REPASSE DE RECURSOS AO FUNDO DE AVAL</t>
+  </si>
+  <si>
+    <t>5997 - OPERAÇÕES DE SECURITIZAÇÃO DE DIREITOS CREDITÓRIOS</t>
+  </si>
+  <si>
+    <t>6332 - FINANCIAMENTO DE MUNICÍPIOS PAULISTAS</t>
+  </si>
+  <si>
+    <t>1991 - EQUALIZAÇÃO DE TAXAS DE JUROS DE FINANCIAMENTOS INCENTIVADOS NO ÂMBITO DO ESTADO</t>
+  </si>
+  <si>
+    <t>6331 - DESEMBOLSO PARA MICRO E PEQUENAS EMPRESAS</t>
+  </si>
+  <si>
+    <t>6330 - CONCESSÃO DE CRÉDITO PARA PROJETOS DE INOVAÇÃO</t>
+  </si>
+  <si>
+    <t>5753 - GESTÃO DOS BENEFÍCIOS PREVIDENCIÁRIOS</t>
+  </si>
+  <si>
+    <t>5884 - INTEGRAÇÃO, OPERAÇÃO E SUPORTE À GESTÃO DOS ÓRGÃOS DE RECURSOS HUMANOS</t>
+  </si>
+  <si>
+    <t>6042 - AVALIAÇÃO DE PESSOAL</t>
+  </si>
+  <si>
+    <t>5971 - REALIZAÇÃO DE PERÍCIAS MÉDICAS</t>
+  </si>
+  <si>
+    <t>5601 - GESTÃO DO SISTEMA BOLSA ELETRÔNICA DE COMPRAS - BEC/SP</t>
+  </si>
+  <si>
+    <t>2262 - APOIO À IMPLEMENTAÇÃO DE PROJETOS DE PPPS – PROJETOS ANALISADOS</t>
+  </si>
+  <si>
+    <t>5357 - CAPACITAÇÃO EM GESTÃO PÚBLICA E GESTÃO PARA RESULTADOS</t>
+  </si>
+  <si>
+    <t>6032 - GESTÃO PARA RESULTADOS</t>
+  </si>
+  <si>
+    <t>4499 - EVENTOS DE CAPACITAÇÃO E DE CONSCIENTIZAÇÃO FISCAL</t>
+  </si>
+  <si>
+    <t>2290 - GESTÃO FISCAL E INTEGRAÇÃO DOS FISCOS NO BRASIL  - PROFISCO   SP</t>
+  </si>
+  <si>
+    <t>2599 - APOIO TÉCNICO AO PROGRAMA ESTADUAL DE DESESTATIZAÇÃO</t>
+  </si>
+  <si>
+    <t>6237 - GESTÃO DO PLANO PLURIANUAL</t>
+  </si>
+  <si>
+    <t>4485 - GESTÃO DO PROCESSO ORÇAMENTÁRIO DO ESTADO</t>
+  </si>
+  <si>
+    <t>4483 - EXECUÇÃO DE PROCESSOS AVALIATIVOS DE PROGRAMAS GOVERNAMENTAIS</t>
+  </si>
+  <si>
+    <t>6236 - SUBSÍDIOS TÉCNICOS EM PLANEJAMENTO E ORÇAMENTO</t>
+  </si>
+  <si>
+    <t>6308 - FOMENTO À PARTICIPAÇÃO SOCIAL EM PLANEJAMENTO</t>
+  </si>
+  <si>
+    <t>2277 - AÇÕES DO FUNDO GARANTIDOR HABITACIONAL- FGH</t>
+  </si>
+  <si>
+    <t>2486 - SUBSÍDIO PARA CRÉDITO IMOBILIÁRIO E PARA OUTRAS AÇÕES DE HIS</t>
+  </si>
+  <si>
+    <t>2492 - PARCERIA PÚBLICO PRIVADA - PPP HABITACIONAL</t>
   </si>
   <si>
     <t>2503 - APOIO HABITACIONAL</t>
   </si>
   <si>
-    <t>5702 - APOIO ÀREGULARIZAÇÃO FUNDIÁRIA</t>
-  </si>
-  <si>
-    <t>5703 - REGULARIZAÇÃOFUNDIÁRIA DE CONJUNTOS ENÚCLEOS HABITACIONAIS</t>
-  </si>
-  <si>
-    <t>2006 - PROVISÃO DEMORADIAS PARA DEMANDAGERAL</t>
-  </si>
-  <si>
-    <t>2005 - URBANIZAÇÃO DEASSENTAMENTOSPRECÁRIOS</t>
-  </si>
-  <si>
-    <t>2004 - REASSENTAMENTOHABITACIONAL</t>
-  </si>
-  <si>
-    <t>5057 - MELHORIASHABITACIONAIS E URBANAS</t>
-  </si>
-  <si>
-    <t>2432 - HABITAÇÃO PARALITORAL SUSTENTÁVEL</t>
-  </si>
-  <si>
-    <t>5065 - MEDIÇÃO DAQUALIDADE DAS ÁGUAS E DOAR</t>
-  </si>
-  <si>
-    <t>5071 - LICENCIAMENTO DEBAIXO IMPACTO AMBIENTAL</t>
-  </si>
-  <si>
-    <t>1359 - APOIO A PROJETOS DEMELHORIA DE MEIOAMBIENTE.</t>
-  </si>
-  <si>
-    <t>2311 - APOIO À INVESTIG EREMEDIAÇÃO DE ÁREASCONTAMIN</t>
-  </si>
-  <si>
-    <t>6299 - LICENCIAMENTO DEALTO IMPACTO AMBIENTAL</t>
-  </si>
-  <si>
-    <t>6364 - AÇÕES EMEMERGÊNCIAS QUÍMICAS</t>
-  </si>
-  <si>
-    <t>2622 - CONTRAPARTIDASAMBIENTAIS E CONVÊNIOS</t>
-  </si>
-  <si>
-    <t>6357 - FISCALIZAÇÃO DEVEÍCULOS DIESEL</t>
-  </si>
-  <si>
-    <t>6247 - CAPACITAÇÃO EDIFUSÃO DO CONHECIMENTOAMBIENTAL - ESCOLASUPERIOR DA CETESB</t>
-  </si>
-  <si>
-    <t>5677 - GESTÃO DE PARQUESURBANOS</t>
-  </si>
-  <si>
-    <t>6050 - EDUCAÇÃO AMBIENTALINTEGRADA E PARTICIPATIVANA GESTÃO AMBIENTALPÚBLICA</t>
-  </si>
-  <si>
-    <t>2565 - IMPLEMENTAÇÃO DAPOLÍTICA ESTADUAL DEDEFESA DOS ANIMAISDOMÉSTICOS</t>
-  </si>
-  <si>
-    <t>4029 - MANUTENÇÃO ECONSERVAÇÃO DE PARQUES</t>
-  </si>
-  <si>
-    <t>6233 - PROTEÇÃO EFISCALIZAÇAO AMBIENTAL</t>
-  </si>
-  <si>
-    <t>6073 - GESTÃO ECONSERVAÇÃO INTEGRADADA FAUNA SILVESTRE</t>
-  </si>
-  <si>
-    <t>2353 - SUSTENTABILIDADEAMBIENTAL - MICROBACIAS</t>
-  </si>
-  <si>
-    <t>2539 - CONEXÃO MATAATLÂNTICA - GEF/BID</t>
-  </si>
-  <si>
-    <t>2483 - GESTÃO AMBIENTALINTEGRADO PARADESENVOLVIMENTOSUSTENTÁVEL DO LITORALPAULISTA</t>
-  </si>
-  <si>
-    <t>6303 - ESTRUTURAÇÃO EGESTÃO DA FISCALIZAÇÃO ECONCILIAÇÃO AMBIENTAL</t>
-  </si>
-  <si>
-    <t>6056 - APOIO À FORMULAÇÃOE À GESTÃO DE POLÍTICASPÚBLICAS</t>
-  </si>
-  <si>
-    <t>4640 - GERENCIAMENTO EDIFUSÃO DE INFORMAÇÕESPARA PLANEJAMENTOAMBIENTAL</t>
-  </si>
-  <si>
-    <t>2463 - INTEGRAÇÃO DAGESTÃO AMBIENTAL EGESTÃO DE RISCOS - BIRD</t>
-  </si>
-  <si>
-    <t>4302 - AVALIAÇÃO EMAPEAMENTO DE ÁREAS DERISCO</t>
-  </si>
-  <si>
-    <t>5960 - FORTALECIMENTO DAPROTEÇÃO E GESTÃO DEÁGUAS SUBTERRÂNEAS</t>
-  </si>
-  <si>
-    <t>6187 - DESENVOLVIMENTO DEAÇÕES EM INFRAESTRUTURAE MEIO AMBIENTE COMRECURSOS FEHIDRO</t>
-  </si>
-  <si>
-    <t>2017 - MUNICÍPIO VERDEAZUL- PROTOCOLO DE CONDUTAAMBIENTAL</t>
-  </si>
-  <si>
-    <t>6358 - SOLUÇÕES REGIONAISE NOVAS ROTASTECNOLÓGICAS PARAGESTÃO DE RESÍDUOSSÓLIDOS</t>
-  </si>
-  <si>
-    <t>6365 - IMPLEMENTAÇÃO DOPLANO ESTADUAL DERESIDUOS SOLIDOS</t>
-  </si>
-  <si>
-    <t>6355 - INSPEÇÃO DEATERROS</t>
-  </si>
-  <si>
-    <t>5716 - GESTÃO DO JARDIMBOTÂNICO E ÁREASPROTEGIDAS</t>
-  </si>
-  <si>
-    <t>6180 - COMPENSAÇÃOAMBIENTAL</t>
-  </si>
-  <si>
-    <t>5063 - GESTÃO DE UNIDADESDE CONSERVAÇÃO</t>
-  </si>
-  <si>
-    <t>4311 - PESQUISA, INOVAÇÃOE CAPACITAÇÃO EMGEODIVERSIDADE EBIODIVERSIDADE</t>
-  </si>
-  <si>
-    <t>2315 - PROGRAMA DE RECUP.SOCIOAMBIENTAL DA SERRADO MAR E E MOSAICOS DAMATA ATLÂNTICA</t>
-  </si>
-  <si>
-    <t>5315 - GESTÃO DO PARQUEZOOLÓGICO</t>
+    <t>5702 - APOIO À REGULARIZAÇÃO FUNDIÁRIA</t>
+  </si>
+  <si>
+    <t>5703 - REGULARIZAÇÃO FUNDIÁRIA DE CONJUNTOS E NÚCLEOS HABITACIONAIS</t>
+  </si>
+  <si>
+    <t>2006 - PROVISÃO DE MORADIAS PARA DEMANDA GERAL</t>
+  </si>
+  <si>
+    <t>2005 - URBANIZAÇÃO DE ASSENTAMENTOS PRECÁRIOS</t>
+  </si>
+  <si>
+    <t>2004 - REASSENTAMENTO HABITACIONAL</t>
+  </si>
+  <si>
+    <t>5057 - MELHORIAS HABITACIONAIS E URBANAS</t>
+  </si>
+  <si>
+    <t>2432 - HABITAÇÃO PARA LITORAL SUSTENTÁVEL</t>
+  </si>
+  <si>
+    <t>5065 - MEDIÇÃO DA QUALIDADE DAS ÁGUAS E DO AR</t>
+  </si>
+  <si>
+    <t>5071 - LICENCIAMENTO DE BAIXO IMPACTO AMBIENTAL</t>
+  </si>
+  <si>
+    <t>1359 - APOIO A PROJETOS DE MELHORIA DE MEIO AMBIENTE.</t>
+  </si>
+  <si>
+    <t>2311 - APOIO À INVESTIG E REMEDIAÇÃO DE ÁREAS CONTAMIN</t>
+  </si>
+  <si>
+    <t>6299 - LICENCIAMENTO DE ALTO IMPACTO AMBIENTAL</t>
+  </si>
+  <si>
+    <t>6364 - AÇÕES EM EMERGÊNCIAS QUÍMICAS</t>
+  </si>
+  <si>
+    <t>2622 - CONTRAPARTIDAS AMBIENTAIS E CONVÊNIOS</t>
+  </si>
+  <si>
+    <t>6357 - FISCALIZAÇÃO DE VEÍCULOS DIESEL</t>
+  </si>
+  <si>
+    <t>6247 - CAPACITAÇÃO E DIFUSÃO DO CONHECIMENTO AMBIENTAL - ESCOLA SUPERIOR DA CETESB</t>
+  </si>
+  <si>
+    <t>5677 - GESTÃO DE PARQUES URBANOS</t>
+  </si>
+  <si>
+    <t>6050 - EDUCAÇÃO AMBIENTAL INTEGRADA E PARTICIPATIVA NA GESTÃO AMBIENTAL PÚBLICA</t>
+  </si>
+  <si>
+    <t>2565 - IMPLEMENTAÇÃO DA POLÍTICA ESTADUAL DE DEFESA DOS ANIMAIS DOMÉSTICOS</t>
+  </si>
+  <si>
+    <t>4029 - MANUTENÇÃO E CONSERVAÇÃO DE PARQUES</t>
+  </si>
+  <si>
+    <t>6233 - PROTEÇÃO E FISCALIZAÇAO AMBIENTAL</t>
+  </si>
+  <si>
+    <t>6073 - GESTÃO E CONSERVAÇÃO INTEGRADA DA FAUNA SILVESTRE</t>
+  </si>
+  <si>
+    <t>2353 - SUSTENTABILIDADE AMBIENTAL - MICROBACIAS</t>
+  </si>
+  <si>
+    <t>2539 - CONEXÃO MATA ATLÂNTICA - GEF/BID</t>
+  </si>
+  <si>
+    <t>2483 - GESTÃO AMBIENTAL INTEGRADO PARA DESENVOLVIMENTO SUSTENTÁVEL DO LITORAL PAULISTA</t>
+  </si>
+  <si>
+    <t>6303 - ESTRUTURAÇÃO E GESTÃO DA FISCALIZAÇÃO E CONCILIAÇÃO AMBIENTAL</t>
+  </si>
+  <si>
+    <t>6056 - APOIO À FORMULAÇÃO E À GESTÃO DE POLÍTICAS PÚBLICAS</t>
+  </si>
+  <si>
+    <t>4640 - GERENCIAMENTO E DIFUSÃO DE INFORMAÇÕES PARA PLANEJAMENTO AMBIENTAL</t>
+  </si>
+  <si>
+    <t>2463 - INTEGRAÇÃO DA GESTÃO AMBIENTAL E GESTÃO DE RISCOS - BIRD</t>
+  </si>
+  <si>
+    <t>4302 - AVALIAÇÃO E MAPEAMENTO DE ÁREAS DE RISCO</t>
+  </si>
+  <si>
+    <t>5960 - FORTALECIMENTO DA PROTEÇÃO E GESTÃO DE ÁGUAS SUBTERRÂNEAS</t>
+  </si>
+  <si>
+    <t>6187 - DESENVOLVIMENTO DE AÇÕES EM INFRAESTRUTURA E MEIO AMBIENTE COM RECURSOS FEHIDRO</t>
+  </si>
+  <si>
+    <t>2017 - MUNICÍPIO VERDEAZUL - PROTOCOLO DE CONDUTA AMBIENTAL</t>
+  </si>
+  <si>
+    <t>6358 - SOLUÇÕES REGIONAIS E NOVAS ROTAS TECNOLÓGICAS PARA GESTÃO DE RESÍDUOS SÓLIDOS</t>
+  </si>
+  <si>
+    <t>6365 - IMPLEMENTAÇÃO DO PLANO ESTADUAL DE RESIDUOS SOLIDOS</t>
+  </si>
+  <si>
+    <t>6355 - INSPEÇÃO DE ATERROS</t>
+  </si>
+  <si>
+    <t>5716 - GESTÃO DO JARDIM BOTÂNICO E ÁREAS PROTEGIDAS</t>
+  </si>
+  <si>
+    <t>6180 - COMPENSAÇÃO AMBIENTAL</t>
+  </si>
+  <si>
+    <t>5063 - GESTÃO DE UNIDADES DE CONSERVAÇÃO</t>
+  </si>
+  <si>
+    <t>4311 - PESQUISA, INOVAÇÃO E CAPACITAÇÃO EM GEODIVERSIDADE E BIODIVERSIDADE</t>
+  </si>
+  <si>
+    <t>2315 - PROGRAMA DE RECUP. SOCIOAMBIENTAL DA SERRA DO MAR E E MOSAICOS DA MATA ATLÂNTICA</t>
+  </si>
+  <si>
+    <t>5315 - GESTÃO DO PARQUE ZOOLÓGICO</t>
   </si>
   <si>
     <t>2355 - NOVO RIO PINHEIROS</t>
   </si>
   <si>
-    <t>1021 - IMPLANTAÇÃO DESISTEMAS DE DRENAGEM ECOMBATE A ENCHENTES</t>
-  </si>
-  <si>
-    <t>2500 - IMPLANTAÇÃO DOSISTEMA DEMACRODRENAGEM DO RIOBAQUIRIVU-GUAÇU</t>
-  </si>
-  <si>
-    <t>6306 - APOIO A MUNICÍPIOSEM INTERVENÇÕES NOSETOR DE RECURSOSHÍDRICOS</t>
+    <t>1021 - IMPLANTAÇÃO DE SISTEMAS DE DRENAGEM E COMBATE A ENCHENTES</t>
+  </si>
+  <si>
+    <t>2500 - IMPLANTAÇÃO DO SISTEMA DE MACRODRENAGEM DO RIO BAQUIRIVU-GUAÇU</t>
+  </si>
+  <si>
+    <t>6306 - APOIO A MUNICÍPIOS EM INTERVENÇÕES NO SETOR DE RECURSOS HÍDRICOS</t>
   </si>
   <si>
     <t>2301 - RENASCE TIETÊ</t>
   </si>
   <si>
-    <t>4033 - MANUTENÇÃO/OPERAÇÃO DE ESTRUTURASHIDRÁULICAS DE SISTEMASDE DRENAGEM E RETENÇÃO</t>
-  </si>
-  <si>
-    <t>6157 - PRESERVAÇÃO EMANUTENÇÃO DO RIO TIETÊ</t>
-  </si>
-  <si>
-    <t>2534 - IMPLANTAÇÃO DOSISTEMA ADUTOR REGIONALE DAS BARRAGENS DUASPONTES E PEDREIRA</t>
-  </si>
-  <si>
-    <t>2144 - SISESP- SISTEMAINTEGRADO DESANEAMENTO DO ESTADO DESÃO PAULO</t>
+    <t>4033 - MANUTENÇÃO/ OPERAÇÃO DE ESTRUTURAS HIDRÁULICAS DE SISTEMAS DE DRENAGEM E RETENÇÃO</t>
+  </si>
+  <si>
+    <t>6157 - PRESERVAÇÃO E MANUTENÇÃO DO RIO TIETÊ</t>
+  </si>
+  <si>
+    <t>2534 - IMPLANTAÇÃO DO SISTEMA ADUTOR REGIONAL E DAS BARRAGENS DUAS PONTES E PEDREIRA</t>
+  </si>
+  <si>
+    <t>2144 - SISESP- SISTEMA INTEGRADO DE SANEAMENTO DO ESTADO DE SÃO PAULO</t>
   </si>
   <si>
     <t>1597 - ÁGUA LIMPA</t>
@@ -4318,670 +4318,670 @@
     <t>2145 - SANEBASE</t>
   </si>
   <si>
-    <t>1154 - FESAN- FUNDOESTADUAL DE SANEAMENTO</t>
-  </si>
-  <si>
-    <t>2618 - INFRAESTRUTURASUSTENTÁVEL</t>
-  </si>
-  <si>
-    <t>1602 - ABASTECIMENTO DEÁGUA</t>
+    <t>1154 - FESAN- FUNDO ESTADUAL DE SANEAMENTO</t>
+  </si>
+  <si>
+    <t>2618 - INFRAESTRUTURA SUSTENTÁVEL</t>
+  </si>
+  <si>
+    <t>1602 - ABASTECIMENTO DE ÁGUA</t>
   </si>
   <si>
     <t>2147 - COLETA DE ESGOTOS</t>
   </si>
   <si>
-    <t>1603 - TRATAMENTO DOSESGOTOS COLETADOS</t>
-  </si>
-  <si>
-    <t>5946 - SUPORTE AO SIGRH EIMPLEMENTAÇÃO DOSINSTRUMENTOS DA POL.REC.HÍDRICOS</t>
-  </si>
-  <si>
-    <t>1153 - GESTÃO DO FUNDOESTADUAL DE RECURSOSHÍDRICOS-FEHIDRO</t>
-  </si>
-  <si>
-    <t>2468 - FINANCIAMENTO DEAÇÕES NA UGRHI SOROCABAE MÉDIO TIETÊ-REC.COBRANÇA USO DA ÁGUA</t>
-  </si>
-  <si>
-    <t>2469 - FINANCIAMENTO DEAÇÕES NA UGRHIPIRACICABA/CAPIVARI/JUNDIAÍ-REC. COB. USOÁGUA</t>
-  </si>
-  <si>
-    <t>2485 - FINANCIAMENTO DEAÇÕES NA UGRHI BAIXOTIETÊ-RECURSOS DECOBRANÇA DO USO DA ÁGUA</t>
-  </si>
-  <si>
-    <t>2513 - FINANCIAMENTO DEAÇÕES NA UGRHI BAIXOPARDO GRANDE-REC.COBRANÇA DO USO DA ÁGUA</t>
-  </si>
-  <si>
-    <t>2514 - FINANCIAMENTO DEAÇÕES NA UGRHI MOGIGUAÇU-RECURSOS DECOBRANÇA DO USO DA ÁGUA</t>
-  </si>
-  <si>
-    <t>2515 - FINANCIAMENTO DEAÇÕES NA UGRHI DO PARDO-RECURSOS DE COBRANÇADO USO DA ÁGUA</t>
-  </si>
-  <si>
-    <t>2516 - FINANCIAMENTO DEAÇÕES NA UGRHI RIBEIRA DEIGUAPE E LITORAL SUL-REC.COB USO ÁGUA</t>
-  </si>
-  <si>
-    <t>2517 - FINANCIAMENTO DEAÇÕES NA UGRHI SERRA DAMANTIQUEIRA-REC.COBRANÇA USO DA ÁGUA</t>
-  </si>
-  <si>
-    <t>2518 - FINANCIAMENTO DEAÇÕES NA UGRHI SAPUCAÍ-MIRIM/GRANDE-REC.COBRANÇA USO DA ÁGUA</t>
-  </si>
-  <si>
-    <t>2519 - FINANCIAMENTO DEAÇÕES NA UGRHI TIETÊBATALHA-RECURSOSCOBRANÇA DO USO DA ÁGUA</t>
-  </si>
-  <si>
-    <t>2520 - FINANCIAMENTO DEAÇÕES NA UGRHI TIETÊJACARÉ-RECURSOS DECOBRANÇA DO USO DA ÁGUA</t>
-  </si>
-  <si>
-    <t>2558 - FINANCIAMENTO DEAÇÕES NA UGRHI PONTAL DOPARANAPANEMA C/ REC.COBR. USO DE ÁGUA</t>
-  </si>
-  <si>
-    <t>2559 - FINANCIAMENTO DEAÇÕES NAS UGRHI AGUAPEÍE PEIXE C/REC. DE COBR. DOUSO DE ÁGUA</t>
-  </si>
-  <si>
-    <t>2560 - FINANCIAMENTO DEAÇÕES NA UGRHI MÉDIOPARANAPANEMA C/REC.DECOBRANÇA USO DE ÁGUA</t>
-  </si>
-  <si>
-    <t>2561 - FINANCIAMENTO DEAÇÕES NA UGRHI TURVOGRANDE C/RECUR. DECOBRANÇA DO USO DA ÁGUA</t>
-  </si>
-  <si>
-    <t>2575 - FINANC. AÇÕES NAUGRHI ALPA C/REC. DECOBRANÇA DO USO DA ÁGUA</t>
-  </si>
-  <si>
-    <t>2576 - FINANC. AÇÕES NAUGRHI SÃO JOSÉ DOSDOURADOS C/REC. DECOBRANÇA DO USO DA ÁGUA</t>
-  </si>
-  <si>
-    <t>2577 - FINANC. AÇÕES NAUGRHI LITORAL NORTE C/REC. DE COBRANÇA DO USODA ÁGUA</t>
-  </si>
-  <si>
-    <t>1624 - GESTÃO DOSRECURSOS HÍDRICOS</t>
-  </si>
-  <si>
-    <t>5416 - MONITORAMENTO DOSRECURSOS HÍDRICOS</t>
-  </si>
-  <si>
-    <t>5859 - GESTÃO DOFORNECIMENTO DE ENERGIAELÉTRICA</t>
-  </si>
-  <si>
-    <t>6097 - DESENVOLVIMENTO DEFONTES DE ENERGIARENOVÁVEL</t>
-  </si>
-  <si>
-    <t>6095 - PROMOÇÃO DAINDUSTRIA ESTADUAL DEPETRÓLEO E GÁS</t>
-  </si>
-  <si>
-    <t>5403 - PLANEJAMENTO EINCREMENTO DA PRODUÇÃOMINERAL</t>
-  </si>
-  <si>
-    <t>2263 - MANUTENÇÃO DOFUNCIONAMENTO DASUNIDADES GERADORAS DEENERGIA ELÉTRICA-EMAE</t>
-  </si>
-  <si>
-    <t>1222 - MINISTÉRIO PÚBLICO -AQUISIÇÕES, OBRAS EINSTALAÇÕES</t>
-  </si>
-  <si>
-    <t>4614 - MANUTENÇÃO DATECNOLOGIA DAINFORMAÇÃO DO MINISTÉRIOPÚBLICO</t>
-  </si>
-  <si>
-    <t>1233 - AVANÇO DATECNOLOGIA DAINFORMAÇÃO DO MINISTÉRIOPÚBLICO</t>
-  </si>
-  <si>
-    <t>4595 - DEFESA DOSINTERESSES SOCIAIS</t>
-  </si>
-  <si>
-    <t>4609 - INGRESSO À CARREIRADO MINISTÉRIO PÚBLICO</t>
-  </si>
-  <si>
-    <t>4610 - CENTRO DE ESTUDOSE APERFEIÇOAMENTO</t>
-  </si>
-  <si>
-    <t>4615 - APERFEIÇOAMENTODAS ATIVIDADES DOMINISTÉRIO PÚBLICO</t>
-  </si>
-  <si>
-    <t>4477 - ARTICULAÇÃOMUNICIPAL, CONSÓRCIOS EPARCERIAS COM MUNICÍPIOS</t>
-  </si>
-  <si>
-    <t>5516 -  DESENV. EIMPLANT.DE PROC. ADM.E DECOMUN. EM WORKFLOW - "SÃO PAULO SEM PAPEL"</t>
-  </si>
-  <si>
-    <t>2571 - CONCESSÃO DEFINANCIAMENTO  AMUNICÍPIOS NO PROGRAMA"FROTA NOVA MUNICÍPIOS"</t>
-  </si>
-  <si>
-    <t>2617 - IMPLANTAÇÃO DOPROJETO CANAL DIRETO SP+PERTO</t>
-  </si>
-  <si>
-    <t>1107 - PROJETOS DO FUNDODE DESENVOLVIMENTOMETROPOLITANO DABAIXADA SANTISTA</t>
-  </si>
-  <si>
-    <t>1815 - PROJETOS DO FUNDOMETROPOLITANO DEFINANCIAMENTO EINVESTIMENTO</t>
-  </si>
-  <si>
-    <t>1885 - PROJETOS DO FUNDODE DESENVOLVIMENTO DAREGIÃO METROPOLITANA DECAMPINAS</t>
-  </si>
-  <si>
-    <t>2482 - PROJETOS DO FUNDODE DESENV.METROP. VALEDO PARAIBA E LITORALNORTE - FUNDOVALE</t>
-  </si>
-  <si>
-    <t>2512 - PROJETOS DO FUNDODE DESENVOLVIMENTO DAREGIÃO METROPOLITANA DESOROCABA</t>
-  </si>
-  <si>
-    <t>6083 - ESTRATÉGIAS DEDESENVOLVIMENTOSUSTENTÁVEL PARA AMACROMETRÓPOLE</t>
-  </si>
-  <si>
-    <t>2272 - DESENVOLVIMENTO DEAÇÕES DECORRENTES DEEMENDAS PARLAMENTARES,EXCETO SAÚDE</t>
-  </si>
-  <si>
-    <t>5076 - VIGILÂNCIASOCIOASSISTENCIAL</t>
-  </si>
-  <si>
-    <t>6359 - PROTEÇÃO SOCIALBÁSICA</t>
-  </si>
-  <si>
-    <t>6360 - PROTEÇÃO SOCIALESPECIAL DE MÉDIACOMPLEXIDADE</t>
-  </si>
-  <si>
-    <t>6334 - GESTÃO EOPERACIONALIZAÇÃO DOSPROGRAMAS DETRANSFERÊNCIA DE RENDA</t>
-  </si>
-  <si>
-    <t>6363 - INCLUSÃO SOCIALPRODUTIVA</t>
-  </si>
-  <si>
-    <t>6367 - MELHORIA DASCONDIÇÕES DE VIDA DAPOPULAÇÃO EM SITUAÇÃODE VULNERABILIDADE</t>
-  </si>
-  <si>
-    <t>6361 - PROTEÇÃO SOCIAL DEALTA COMPLEXIDADE</t>
-  </si>
-  <si>
-    <t>6001 - BOM PRATO E OUTROSMODELOS DERESTAURANTES POPULARES</t>
-  </si>
-  <si>
-    <t>6000 - VIVA LEITE E OUTROSMODELOS DE DISTRIBUIÇÃODE ALIMENTOS</t>
-  </si>
-  <si>
-    <t>1825 - REVITALIZAÇÃO DAREDE EXECUTORA</t>
-  </si>
-  <si>
-    <t>6362 - CAPACITAÇÃO DEGESTORES E ATORESSOCIAIS</t>
-  </si>
-  <si>
-    <t>2296 - MODERNIZAÇÃO DOSISTEMAMETROFERROVIÁRIOMETROPOLITANO - BID</t>
-  </si>
-  <si>
-    <t>2464 - MODERNIZAÇÃO DOMATERIAL RODANTE DOSISTEMA METROPOLITANODE TRANSPORTE</t>
-  </si>
-  <si>
-    <t>2588 - AQUISIÇÃO DE TRENSNO SISTEMAMETROFERROVIÁRIO</t>
-  </si>
-  <si>
-    <t>4288 - PLANEJAMENTO,GESTÃO E EXECUÇÃO DEAÇÕES DO SISTEMA DETRANSPORTEMETROPOLITANO</t>
-  </si>
-  <si>
-    <t>2297 - MODERNIZAÇÃO DOMATERIAL RODANTE-SISTEMA FERROVIÁRIOMETROPOLITANO BIRD</t>
-  </si>
-  <si>
-    <t>2298 - MODERNIZAÇÃO DOSSISTEMAS METROVIÁRIO EFERROVIÁRIO - BIRD/JBIC</t>
-  </si>
-  <si>
-    <t>4286 - MONITORAMENTO DAQUALIDADE E DOS CUSTOSDOS SERVIÇOS DETRANSPORTEMETROPOLITANO</t>
-  </si>
-  <si>
-    <t>5089 - COMUNICAÇÃO EARTICULAÇÃOINSTITUCIONAL SOBRETRANSPORTESMETROPOLITANOS</t>
-  </si>
-  <si>
-    <t>1469 - IMPLANTAÇÃO DOSISTEMA INTEGRADOMETROPOLITANO - SIM DABAIXADA SANTISTA</t>
-  </si>
-  <si>
-    <t>1938 - CORREDOR VEREADORBILÉO SOARES -ESTRUTURAÇÃO DOTRANSPORTE NA RM DECAMPINAS</t>
-  </si>
-  <si>
-    <t>1939 - CORREDORGUARULHOS-SP -ESTRUTURAÇÃO DOTRANSPORTE NA REGIÃONORDESTE DA RMSP</t>
-  </si>
-  <si>
-    <t>2287 - CORREDORMETROPOLITANO ITAPEVI-SP- ESTRUTURAÇÃO TRANSP.NA REGIÃO OESTE DA RMSP</t>
+    <t>1603 - TRATAMENTO DOS ESGOTOS COLETADOS</t>
+  </si>
+  <si>
+    <t>5946 - SUPORTE AO SIGRH E IMPLEMENTAÇÃO DOS INSTRUMENTOS DA POL.REC. HÍDRICOS</t>
+  </si>
+  <si>
+    <t>1153 - GESTÃO DO FUNDO ESTADUAL DE RECURSOS HÍDRICOS-FEHIDRO</t>
+  </si>
+  <si>
+    <t>2468 - FINANCIAMENTO DE AÇÕES NA UGRHI SOROCABA E MÉDIO TIETÊ-REC. COBRANÇA USO DA ÁGUA</t>
+  </si>
+  <si>
+    <t>2469 - FINANCIAMENTO DE AÇÕES NA UGRHI PIRACICABA/CAPIVARI/ JUNDIAÍ-REC. COB. USO ÁGUA</t>
+  </si>
+  <si>
+    <t>2485 - FINANCIAMENTO DE AÇÕES NA UGRHI BAIXO TIETÊ-RECURSOS DE COBRANÇA DO USO DA ÁGUA</t>
+  </si>
+  <si>
+    <t>2513 - FINANCIAMENTO DE AÇÕES NA UGRHI BAIXO PARDO GRANDE-REC. COBRANÇA DO USO DA ÁGUA</t>
+  </si>
+  <si>
+    <t>2514 - FINANCIAMENTO DE AÇÕES NA UGRHI MOGI GUAÇU-RECURSOS DE COBRANÇA DO USO DA ÁGUA</t>
+  </si>
+  <si>
+    <t>2515 - FINANCIAMENTO DE AÇÕES NA UGRHI DO PARDO- RECURSOS DE COBRANÇA DO USO DA ÁGUA</t>
+  </si>
+  <si>
+    <t>2516 - FINANCIAMENTO DE AÇÕES NA UGRHI RIBEIRA DE IGUAPE E LITORAL SUL- REC.COB USO ÁGUA</t>
+  </si>
+  <si>
+    <t>2517 - FINANCIAMENTO DE AÇÕES NA UGRHI SERRA DA MANTIQUEIRA-REC. COBRANÇA USO DA ÁGUA</t>
+  </si>
+  <si>
+    <t>2518 - FINANCIAMENTO DE AÇÕES NA UGRHI SAPUCAÍ- MIRIM/GRANDE-REC. COBRANÇA USO DA ÁGUA</t>
+  </si>
+  <si>
+    <t>2519 - FINANCIAMENTO DE AÇÕES NA UGRHI TIETÊ BATALHA-RECURSOS COBRANÇA DO USO DA ÁGUA</t>
+  </si>
+  <si>
+    <t>2520 - FINANCIAMENTO DE AÇÕES NA UGRHI TIETÊ JACARÉ-RECURSOS DE COBRANÇA DO USO DA ÁGUA</t>
+  </si>
+  <si>
+    <t>2558 - FINANCIAMENTO DE AÇÕES NA UGRHI PONTAL DO PARANAPANEMA C/ REC. COBR. USO DE ÁGUA</t>
+  </si>
+  <si>
+    <t>2559 - FINANCIAMENTO DE AÇÕES NAS UGRHI AGUAPEÍ E PEIXE C/REC. DE COBR. DO USO DE ÁGUA</t>
+  </si>
+  <si>
+    <t>2560 - FINANCIAMENTO DE AÇÕES NA UGRHI MÉDIO PARANAPANEMA C/REC.DE COBRANÇA USO DE ÁGUA</t>
+  </si>
+  <si>
+    <t>2561 - FINANCIAMENTO DE AÇÕES NA UGRHI TURVO GRANDE C/RECUR. DE COBRANÇA DO USO DA ÁGUA</t>
+  </si>
+  <si>
+    <t>2575 - FINANC. AÇÕES NA UGRHI ALPA C/REC. DE COBRANÇA DO USO DA ÁGUA</t>
+  </si>
+  <si>
+    <t>2576 - FINANC. AÇÕES NA UGRHI SÃO JOSÉ DOS DOURADOS C/REC. DE COBRANÇA DO USO DA ÁGUA</t>
+  </si>
+  <si>
+    <t>2577 - FINANC. AÇÕES NA UGRHI LITORAL NORTE C/ REC. DE COBRANÇA DO USO DA ÁGUA</t>
+  </si>
+  <si>
+    <t>1624 - GESTÃO DOS RECURSOS HÍDRICOS</t>
+  </si>
+  <si>
+    <t>5416 - MONITORAMENTO DOS RECURSOS HÍDRICOS</t>
+  </si>
+  <si>
+    <t>5859 - GESTÃO DO FORNECIMENTO DE ENERGIA ELÉTRICA</t>
+  </si>
+  <si>
+    <t>6097 - DESENVOLVIMENTO DE FONTES DE ENERGIA RENOVÁVEL</t>
+  </si>
+  <si>
+    <t>6095 - PROMOÇÃO DA INDUSTRIA ESTADUAL DE PETRÓLEO E GÁS</t>
+  </si>
+  <si>
+    <t>5403 - PLANEJAMENTO E INCREMENTO DA PRODUÇÃO MINERAL</t>
+  </si>
+  <si>
+    <t>2263 - MANUTENÇÃO DO FUNCIONAMENTO DAS UNIDADES GERADORAS DE ENERGIA ELÉTRICA-EMAE</t>
+  </si>
+  <si>
+    <t>1222 - MINISTÉRIO PÚBLICO - AQUISIÇÕES, OBRAS E INSTALAÇÕES</t>
+  </si>
+  <si>
+    <t>4614 - MANUTENÇÃO DA TECNOLOGIA DA INFORMAÇÃO DO MINISTÉRIO PÚBLICO</t>
+  </si>
+  <si>
+    <t>1233 - AVANÇO DA TECNOLOGIA DA INFORMAÇÃO DO MINISTÉRIO PÚBLICO</t>
+  </si>
+  <si>
+    <t>4595 - DEFESA DOS INTERESSES SOCIAIS</t>
+  </si>
+  <si>
+    <t>4609 - INGRESSO À CARREIRA DO MINISTÉRIO PÚBLICO</t>
+  </si>
+  <si>
+    <t>4610 - CENTRO DE ESTUDOS E APERFEIÇOAMENTO</t>
+  </si>
+  <si>
+    <t>4615 - APERFEIÇOAMENTO DAS ATIVIDADES DO MINISTÉRIO PÚBLICO</t>
+  </si>
+  <si>
+    <t>4477 - ARTICULAÇÃO MUNICIPAL, CONSÓRCIOS E PARCERIAS COM MUNICÍPIOS</t>
+  </si>
+  <si>
+    <t>5516 -  DESENV. E IMPLANT.DE PROC. ADM.E DE COMUN. EM WORKFLOW - " SÃO PAULO SEM PAPEL"</t>
+  </si>
+  <si>
+    <t>2571 - CONCESSÃO DE FINANCIAMENTO  A MUNICÍPIOS NO PROGRAMA "FROTA NOVA MUNICÍPIOS"</t>
+  </si>
+  <si>
+    <t>2617 - IMPLANTAÇÃO DO PROJETO CANAL DIRETO SP +PERTO</t>
+  </si>
+  <si>
+    <t>1107 - PROJETOS DO FUNDO DE DESENVOLVIMENTO METROPOLITANO DA BAIXADA SANTISTA</t>
+  </si>
+  <si>
+    <t>1815 - PROJETOS DO FUNDO METROPOLITANO DE FINANCIAMENTO E INVESTIMENTO</t>
+  </si>
+  <si>
+    <t>1885 - PROJETOS DO FUNDO DE DESENVOLVIMENTO DA REGIÃO METROPOLITANA DE CAMPINAS</t>
+  </si>
+  <si>
+    <t>2482 - PROJETOS DO FUNDO DE DESENV.METROP. VALE DO PARAIBA E LITORAL NORTE - FUNDOVALE</t>
+  </si>
+  <si>
+    <t>2512 - PROJETOS DO FUNDO DE DESENVOLVIMENTO DA REGIÃO METROPOLITANA DE SOROCABA</t>
+  </si>
+  <si>
+    <t>6083 - ESTRATÉGIAS DE DESENVOLVIMENTO SUSTENTÁVEL PARA A MACROMETRÓPOLE</t>
+  </si>
+  <si>
+    <t>2272 - DESENVOLVIMENTO DE AÇÕES DECORRENTES DE EMENDAS PARLAMENTARES, EXCETO SAÚDE</t>
+  </si>
+  <si>
+    <t>5076 - VIGILÂNCIA SOCIOASSISTENCIAL</t>
+  </si>
+  <si>
+    <t>6359 - PROTEÇÃO SOCIAL BÁSICA</t>
+  </si>
+  <si>
+    <t>6360 - PROTEÇÃO SOCIAL ESPECIAL DE MÉDIA COMPLEXIDADE</t>
+  </si>
+  <si>
+    <t>6334 - GESTÃO E OPERACIONALIZAÇÃO DOS PROGRAMAS DE TRANSFERÊNCIA DE RENDA</t>
+  </si>
+  <si>
+    <t>6363 - INCLUSÃO SOCIAL PRODUTIVA</t>
+  </si>
+  <si>
+    <t>6367 - MELHORIA DAS CONDIÇÕES DE VIDA DA POPULAÇÃO EM SITUAÇÃO DE VULNERABILIDADE</t>
+  </si>
+  <si>
+    <t>6361 - PROTEÇÃO SOCIAL DE ALTA COMPLEXIDADE</t>
+  </si>
+  <si>
+    <t>6001 - BOM PRATO E OUTROS MODELOS DE RESTAURANTES POPULARES</t>
+  </si>
+  <si>
+    <t>6000 - VIVA LEITE E OUTROS MODELOS DE DISTRIBUIÇÃO DE ALIMENTOS</t>
+  </si>
+  <si>
+    <t>1825 - REVITALIZAÇÃO DA REDE EXECUTORA</t>
+  </si>
+  <si>
+    <t>6362 - CAPACITAÇÃO DE GESTORES E ATORES SOCIAIS</t>
+  </si>
+  <si>
+    <t>2296 - MODERNIZAÇÃO DO SISTEMA METROFERROVIÁRIO METROPOLITANO - BID</t>
+  </si>
+  <si>
+    <t>2464 - MODERNIZAÇÃO DO MATERIAL RODANTE DO SISTEMA METROPOLITANO DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t>2588 - AQUISIÇÃO DE TRENS NO SISTEMA METROFERROVIÁRIO</t>
+  </si>
+  <si>
+    <t>4288 - PLANEJAMENTO, GESTÃO E EXECUÇÃO DE AÇÕES DO SISTEMA DE TRANSPORTE METROPOLITANO</t>
+  </si>
+  <si>
+    <t>2297 - MODERNIZAÇÃO DO MATERIAL RODANTE- SISTEMA FERROVIÁRIO METROPOLITANO BIRD</t>
+  </si>
+  <si>
+    <t>2298 - MODERNIZAÇÃO DOS SISTEMAS METROVIÁRIO E FERROVIÁRIO - BIRD/JBIC</t>
+  </si>
+  <si>
+    <t>4286 - MONITORAMENTO DA QUALIDADE E DOS CUSTOS DOS SERVIÇOS DE TRANSPORTE METROPOLITANO</t>
+  </si>
+  <si>
+    <t>5089 - COMUNICAÇÃO E ARTICULAÇÃO INSTITUCIONAL SOBRE TRANSPORTES METROPOLITANOS</t>
+  </si>
+  <si>
+    <t>1469 - IMPLANTAÇÃO DO SISTEMA INTEGRADO METROPOLITANO - SIM DA BAIXADA SANTISTA</t>
+  </si>
+  <si>
+    <t>1938 - CORREDOR VEREADOR BILÉO SOARES - ESTRUTURAÇÃO DO TRANSPORTE NA RM DE CAMPINAS</t>
+  </si>
+  <si>
+    <t>1939 - CORREDOR GUARULHOS-SP - ESTRUTURAÇÃO DO TRANSPORTE NA REGIÃO NORDESTE DA RMSP</t>
+  </si>
+  <si>
+    <t>2287 - CORREDOR METROPOLITANO ITAPEVI-SP - ESTRUTURAÇÃO TRANSP. NA REGIÃO OESTE DA RMSP</t>
   </si>
   <si>
     <t>2616 - BRT METROPOLITANO</t>
   </si>
   <si>
-    <t>1486 - SISTEMAS DE BAIXA EMÉDIA CAPACIDADE -EXPANSÃO NAS REGIÕESMETROPOLITANAS</t>
-  </si>
-  <si>
-    <t>1827 - TRANSPORTE PÚBLICOMETROPOLITANO VINCULADOÀ EMTU-GESTÃOCORPORATIVA</t>
-  </si>
-  <si>
-    <t>1876 - PROGRAMACONEXÕESMETROPOLITANAS</t>
-  </si>
-  <si>
-    <t>1967 - REDUÇÃO DEPOLUIÇÃO EDESENVOLVIMENTO DETECNOLOGIAS</t>
-  </si>
-  <si>
-    <t>2540 - ESTRUTURAÇÃO DOTRANSPORTE NAS REGIÕESMETROPOLITANAS</t>
-  </si>
-  <si>
-    <t>6272 - TRANSPORTEMETROPOLITANO-RESSARCIMENTO DEGRATUIDADES-SÊNIORPAULISTA 60-64 ANOS</t>
-  </si>
-  <si>
-    <t>6271 - TRANSPORTEMETROPOLITANO -RESSARCIMENTO DEPASSAGEIROS ESTUDANTESDE BAIXA RENDA</t>
-  </si>
-  <si>
-    <t>2091 - ESTUDOS, PROJETOS EPESQUISAS VOLTADOS AOAPRIMORAMENTO DOSSERVIÇOS DE TRANSPOR</t>
-  </si>
-  <si>
-    <t>2323 - EXTENSÃO DA LINHA 9- ESMERALDA ATÉ VARGINHA</t>
-  </si>
-  <si>
-    <t>2331 - IMPLANTAÇÃO DALINHA 13 JADE</t>
-  </si>
-  <si>
-    <t>2092 - MODERNIZAÇÃO DALINHA 7 - RUBI DA CPTM</t>
-  </si>
-  <si>
-    <t>2173 - MODERNIZAÇÃO DALINHA 12 - SAFIRA DA CPTM</t>
-  </si>
-  <si>
-    <t>4627 - OPERAÇÃO DACOMPANHIA PAULISTA DETRENS METROPOLITANOS</t>
-  </si>
-  <si>
-    <t>9011 - LINHAS FERROVIÁRIAS- RESSARCIMENTO DEGRATUIDADES AOSPASSAGEIROS</t>
-  </si>
-  <si>
-    <t>9010 - LINHAS FERROVIÁRIAS- RESSARCIMENTO DESUBSÍDIO AOS PASSAGEIROSESTUDANTES</t>
-  </si>
-  <si>
-    <t>2593 - EXTENSÃO DA LINHA 13- JADE</t>
+    <t>1486 - SISTEMAS DE BAIXA E MÉDIA CAPACIDADE - EXPANSÃO NAS REGIÕES METROPOLITANAS</t>
+  </si>
+  <si>
+    <t>1827 - TRANSPORTE PÚBLICO METROPOLITANO VINCULADO À EMTU-GESTÃO CORPORATIVA</t>
+  </si>
+  <si>
+    <t>1876 - PROGRAMA CONEXÕES METROPOLITANAS</t>
+  </si>
+  <si>
+    <t>1967 - REDUÇÃO DE POLUIÇÃO E DESENVOLVIMENTO DE TECNOLOGIAS</t>
+  </si>
+  <si>
+    <t>2540 - ESTRUTURAÇÃO DO TRANSPORTE NAS REGIÕES METROPOLITANAS</t>
+  </si>
+  <si>
+    <t>6272 - TRANSPORTE METROPOLITANO- RESSARCIMENTO DE GRATUIDADES-SÊNIOR PAULISTA 60-64 ANOS</t>
+  </si>
+  <si>
+    <t>6271 - TRANSPORTE METROPOLITANO - RESSARCIMENTO DE PASSAGEIROS ESTUDANTES DE BAIXA RENDA</t>
+  </si>
+  <si>
+    <t>2091 - ESTUDOS, PROJETOS E PESQUISAS VOLTADOS AO APRIMORAMENTO DOS SERVIÇOS DE TRANSPOR</t>
+  </si>
+  <si>
+    <t>2323 - EXTENSÃO DA LINHA 9 - ESMERALDA ATÉ VARGINHA</t>
+  </si>
+  <si>
+    <t>2331 - IMPLANTAÇÃO DA LINHA 13 JADE</t>
+  </si>
+  <si>
+    <t>2092 - MODERNIZAÇÃO DA LINHA 7 - RUBI DA CPTM</t>
+  </si>
+  <si>
+    <t>2173 - MODERNIZAÇÃO DA LINHA 12 - SAFIRA DA CPTM</t>
+  </si>
+  <si>
+    <t>4627 - OPERAÇÃO DA COMPANHIA PAULISTA DE TRENS METROPOLITANOS</t>
+  </si>
+  <si>
+    <t>9011 - LINHAS FERROVIÁRIAS - RESSARCIMENTO DE GRATUIDADES AOS PASSAGEIROS</t>
+  </si>
+  <si>
+    <t>9010 - LINHAS FERROVIÁRIAS - RESSARCIMENTO DE SUBSÍDIO AOS PASSAGEIROS ESTUDANTES</t>
+  </si>
+  <si>
+    <t>2593 - EXTENSÃO DA LINHA 13 - JADE</t>
   </si>
   <si>
     <t>1483 - LINHA 5-LILÁS</t>
   </si>
   <si>
-    <t>1491 - ELABORAÇÃO DEPROJETOS PARA EXPANSÃODA REDE METROVIÁRIA</t>
-  </si>
-  <si>
-    <t>2131 - LINHA 1-AZUL:RECAPACITAÇÃO EMODERNIZAÇÃO</t>
-  </si>
-  <si>
-    <t>2132 - LINHA 2-VERDE:RECAPACITAÇÃO EMODERNIZAÇÃO</t>
-  </si>
-  <si>
-    <t>2171 - OPERAÇÃO DASLINHAS METROVIÁRIAS</t>
-  </si>
-  <si>
-    <t>2134 - LINHA 4-AMARELA: VILASÔNIA-LUZ (FASE II)</t>
-  </si>
-  <si>
-    <t>2282 - LINHA 17-OURO:JABAQUARA - SÃO PAULO-MORUMBI</t>
-  </si>
-  <si>
-    <t>2288 - LINHA 2-VERDE: VILAPRUDENTE - DUTRA</t>
-  </si>
-  <si>
-    <t>2133 - LINHA 3-VERMELHA:RECAPACITAÇÃO EMODERNIZAÇÃO</t>
-  </si>
-  <si>
-    <t>2289 - LINHA 15-PRATA:IPIRANGA - HOSP. CIDADETIRADENTES</t>
-  </si>
-  <si>
-    <t>4624 - LINHAS METROVIÁRIAS- RESSARCIMENTO DEGRATUIDADES AOSPASSAGEIROS</t>
-  </si>
-  <si>
-    <t>5565 - LINHAS METROVIÁRIAS- RESSARCIMENTO DESUBSÍDIO AOS PASSAGEIROSESTUDANTES</t>
-  </si>
-  <si>
-    <t>2586 -  LINHA 19-CELESTE -ANHANGABAU-BOSQUE MAIA</t>
-  </si>
-  <si>
-    <t>5819 - OPERAÇÃO DAESTRADA DE FERRO CAMPOSDO JORDÃO</t>
-  </si>
-  <si>
-    <t>2338 - MODERNIZAÇÃO EEXPANSÃO DO COMPLEXOTURÍSTICO DA EFCJ</t>
-  </si>
-  <si>
-    <t>2544 - APOIO À PPPOPERAÇÃO DA LINHA 4 -AMARELA</t>
-  </si>
-  <si>
-    <t>2475 - CONCESSÃO DA LINHA6 - LARANJA DE BRASILÂNDIAA SÃO JOAQUIM</t>
-  </si>
-  <si>
-    <t>2484 - APOIO À PPPOPERAÇÃO DO VLT SIMBAIXADA SANTISTA</t>
-  </si>
-  <si>
-    <t>2556 - CONCESSÃO DA LINHA5–LILÁS</t>
-  </si>
-  <si>
-    <t>2578 - CONCESSÃO DA LINHA15 - PRATA</t>
-  </si>
-  <si>
-    <t>2620 - APOIO À CONCESSÃODAS LINHAS 8 E 9</t>
-  </si>
-  <si>
-    <t>2621 - PPP PARAIMPLANTAÇÃO DO TREMINTER CIDADES - TIC</t>
-  </si>
-  <si>
-    <t>2619 - CONCESSÃO DOPARQUE CAPIVARI</t>
-  </si>
-  <si>
-    <t>2615 - APOIO À CONCESSÃODA LINHA 7</t>
-  </si>
-  <si>
-    <t>6139 - GESTÃO HUMANA ESEGURA DA CUSTÓDIA</t>
-  </si>
-  <si>
-    <t>2470 - EXPANSÃO DAINFRAESTRUTURA DE APOIOA CUSTÓDIA E AREINTEGRAÇÃO</t>
-  </si>
-  <si>
-    <t>6141 - PROVISÃO DESERVIÇOS DENECESSIDADES MATERIAISBÁSICAS AOS CUSTODIADOS</t>
-  </si>
-  <si>
-    <t>6142 - PROVISÃO DESERVIÇOS DE ATENÇÃO ÀSAÚDE</t>
-  </si>
-  <si>
-    <t>6146 - SUPORTEADMINISTRATIVO EM APOIO ÀCUSTÓDIA E REINTEGRAÇÃO</t>
-  </si>
-  <si>
-    <t>6167 -CONSERVAÇÃO,MODERNIZAÇÃO,MANUTENÇÃO,REPAROSDAS SEDES E UNIDADESPRISIONAIS.</t>
-  </si>
-  <si>
-    <t>6300 - GESTÃOCOMPARTILHADA NAOPERAÇÃO DE UNIDADEPENITENCIÁRIA</t>
-  </si>
-  <si>
-    <t>6144 - PROVISÃO DE POSTOSDE TRABALHO</t>
-  </si>
-  <si>
-    <t>6143 - FORMAÇÃOEDUCACIONAL EPROFISSIONAL</t>
-  </si>
-  <si>
-    <t>6140 - ASSISTÊNCIA AOEGRESSO E À FAMÍLIA</t>
-  </si>
-  <si>
-    <t>6166 - PROMOÇÃO DAREINTEGRAÇÃO SOCIAL ACUSTODIADOS E FAMILIARES</t>
-  </si>
-  <si>
-    <t>6145 - ASSISTÊNCIA LEGALAOS CUSTODIADOS ESERVIÇOS DE APOIO ÀREINTEGRAÇÃO SOCIAL</t>
-  </si>
-  <si>
-    <t>6147 - PROMOÇÃO DAAPLICAÇÃO DE PENAS  EMEDIDAS ALTERNATIVAS ÀPRISÃO</t>
-  </si>
-  <si>
-    <t>6301 - PROVISÃO DE CURSOSDE QUALIFICAÇÃO A PRESOSDO REGIME SEMIABERTO</t>
+    <t>1491 - ELABORAÇÃO DE PROJETOS PARA EXPANSÃO DA REDE METROVIÁRIA</t>
+  </si>
+  <si>
+    <t>2131 - LINHA 1-AZUL: RECAPACITAÇÃO E MODERNIZAÇÃO</t>
+  </si>
+  <si>
+    <t>2132 - LINHA 2-VERDE: RECAPACITAÇÃO E MODERNIZAÇÃO</t>
+  </si>
+  <si>
+    <t>2171 - OPERAÇÃO DAS LINHAS METROVIÁRIAS</t>
+  </si>
+  <si>
+    <t>2134 - LINHA 4-AMARELA: VILA SÔNIA-LUZ (FASE II)</t>
+  </si>
+  <si>
+    <t>2282 - LINHA 17-OURO: JABAQUARA - SÃO PAULO- MORUMBI</t>
+  </si>
+  <si>
+    <t>2288 - LINHA 2-VERDE: VILA PRUDENTE - DUTRA</t>
+  </si>
+  <si>
+    <t>2133 - LINHA 3-VERMELHA: RECAPACITAÇÃO E MODERNIZAÇÃO</t>
+  </si>
+  <si>
+    <t>2289 - LINHA 15-PRATA: IPIRANGA - HOSP. CIDADE TIRADENTES</t>
+  </si>
+  <si>
+    <t>4624 - LINHAS METROVIÁRIAS - RESSARCIMENTO DE GRATUIDADES AOS PASSAGEIROS</t>
+  </si>
+  <si>
+    <t>5565 - LINHAS METROVIÁRIAS - RESSARCIMENTO DE SUBSÍDIO AOS PASSAGEIROS ESTUDANTES</t>
+  </si>
+  <si>
+    <t>2586 -  LINHA 19-CELESTE - ANHANGABAU-BOSQUE MAIA</t>
+  </si>
+  <si>
+    <t>5819 - OPERAÇÃO DA ESTRADA DE FERRO CAMPOS DO JORDÃO</t>
+  </si>
+  <si>
+    <t>2338 - MODERNIZAÇÃO E EXPANSÃO DO COMPLEXO TURÍSTICO DA EFCJ</t>
+  </si>
+  <si>
+    <t>2544 - APOIO À PPP OPERAÇÃO DA LINHA 4 - AMARELA</t>
+  </si>
+  <si>
+    <t>2475 - CONCESSÃO DA LINHA 6 - LARANJA DE BRASILÂNDIA A SÃO JOAQUIM</t>
+  </si>
+  <si>
+    <t>2484 - APOIO À PPP OPERAÇÃO DO VLT SIM BAIXADA SANTISTA</t>
+  </si>
+  <si>
+    <t>2556 - CONCESSÃO DA LINHA 5–LILÁS</t>
+  </si>
+  <si>
+    <t>2578 - CONCESSÃO DA LINHA 15 - PRATA</t>
+  </si>
+  <si>
+    <t>2620 - APOIO À CONCESSÃO DAS LINHAS 8 E 9</t>
+  </si>
+  <si>
+    <t>2621 - PPP PARA IMPLANTAÇÃO DO TREM INTER CIDADES - TIC</t>
+  </si>
+  <si>
+    <t>2619 - CONCESSÃO DO PARQUE CAPIVARI</t>
+  </si>
+  <si>
+    <t>2615 - APOIO À CONCESSÃO DA LINHA 7</t>
+  </si>
+  <si>
+    <t>6139 - GESTÃO HUMANA E SEGURA DA CUSTÓDIA</t>
+  </si>
+  <si>
+    <t>2470 - EXPANSÃO DA INFRAESTRUTURA DE APOIO A CUSTÓDIA E A REINTEGRAÇÃO</t>
+  </si>
+  <si>
+    <t>6141 - PROVISÃO DE SERVIÇOS DE NECESSIDADES MATERIAIS BÁSICAS AOS CUSTODIADOS</t>
+  </si>
+  <si>
+    <t>6142 - PROVISÃO DE SERVIÇOS DE ATENÇÃO À SAÚDE</t>
+  </si>
+  <si>
+    <t>6146 - SUPORTE ADMINISTRATIVO EM APOIO À CUSTÓDIA E REINTEGRAÇÃO</t>
+  </si>
+  <si>
+    <t>6167 - CONSERVAÇÃO,MODERNIZAÇ ÃO,MANUTENÇÃO,REPAROS DAS SEDES E UNIDADES PRISIONAIS.</t>
+  </si>
+  <si>
+    <t>6300 - GESTÃO COMPARTILHADA NA OPERAÇÃO DE UNIDADE PENITENCIÁRIA</t>
+  </si>
+  <si>
+    <t>6144 - PROVISÃO DE POSTOS DE TRABALHO</t>
+  </si>
+  <si>
+    <t>6143 - FORMAÇÃO EDUCACIONAL E PROFISSIONAL</t>
+  </si>
+  <si>
+    <t>6140 - ASSISTÊNCIA AO EGRESSO E À FAMÍLIA</t>
+  </si>
+  <si>
+    <t>6166 - PROMOÇÃO DA REINTEGRAÇÃO SOCIAL A CUSTODIADOS E FAMILIARES</t>
+  </si>
+  <si>
+    <t>6145 - ASSISTÊNCIA LEGAL AOS CUSTODIADOS E SERVIÇOS DE APOIO À REINTEGRAÇÃO SOCIAL</t>
+  </si>
+  <si>
+    <t>6147 - PROMOÇÃO DA APLICAÇÃO DE PENAS  E MEDIDAS ALTERNATIVAS À PRISÃO</t>
+  </si>
+  <si>
+    <t>6301 - PROVISÃO DE CURSOS DE QUALIFICAÇÃO A PRESOS DO REGIME SEMIABERTO</t>
   </si>
   <si>
     <t>6194 - CONTENCIOSO GERAL</t>
   </si>
   <si>
-    <t>5832 - MAPEAMENTO DEÁREAS DE INTERESSE DOESTADO</t>
-  </si>
-  <si>
-    <t>6193 - CONTENCIOSOTRIBUTÁRIO-FISCAL</t>
-  </si>
-  <si>
-    <t>5841 - CONSULTORIA EASSESSORIA JURÍDICA</t>
-  </si>
-  <si>
-    <t>5892 - MANUTENÇÃO EMODERNIZAÇÃOTECNOLÓGICA</t>
-  </si>
-  <si>
-    <t>5836 - APRIMORAMENTO,FORMAÇÃO CONTINUADA EDIFUSÃO DO CONHECIMENTOJURÍDICO</t>
-  </si>
-  <si>
-    <t>5131 - REALIZAÇÃO E APOIOAOS EVENTOS DE CARÁTERCOMPETITIVO</t>
-  </si>
-  <si>
-    <t>5116 - CENTRO DE  INICIAÇÃOE TREINAMENTO ESPORTIVO</t>
-  </si>
-  <si>
-    <t>5124 - PARTICIPAÇÃO DEPESSOAS EM EVENTOS DELAZER</t>
-  </si>
-  <si>
-    <t>6028 - ATLETASBENEFICIADOS COM BOLSATALENTO ESPORTIVO</t>
-  </si>
-  <si>
-    <t>5868 - APOIO A EVENTOS DECONSCIENTIZAÇÃO EENGAJAMENTO DO PÚBLICODE 15 A 29 ANOS</t>
-  </si>
-  <si>
-    <t>6368 - ENCONTROS PARADISCUSSÃO DE POLITICASPARA JUVENTUDE</t>
-  </si>
-  <si>
-    <t>6321 - REFORMAS E/OUOBRAS REALIZADAS PELASECRETARIA</t>
-  </si>
-  <si>
-    <t>1040 - APOIO AOSMUNICÍPIOS PARAREALIZAÇÃO DE OBRAS EMEQUIPAMENTOS ESPORTIVOS</t>
-  </si>
-  <si>
-    <t>4072 - DISTRIBUIÇÃO DE KITSDE ACADEMIA AO AR LIVRE</t>
-  </si>
-  <si>
-    <t>6322 - DISTRIBUIÇÃO DEMATERIAIS ESPORTIVOS</t>
-  </si>
-  <si>
-    <t>5798 - GESTÃO DADEFENSORIA PÚBLICA DOESTADO DE SÃO PAULO</t>
-  </si>
-  <si>
-    <t>5796 - PRESTAÇÃO DEASSISTÊNCIA JURÍDICASUPLEMENTAR</t>
-  </si>
-  <si>
-    <t>5795 - AÇÕES DECOMUNICAÇÃOINSTITUCIONAL</t>
-  </si>
-  <si>
-    <t>5797 - CAPACITAÇÃO DEDEFENSORES, SERVIDORESE ESTAGIÁRIOS</t>
-  </si>
-  <si>
-    <t>5799 - GESTÃO EMODERNIZAÇÃO DOSSERVIÇOS DE TECNOLOGIADA INFORMAÇÃO DADEFENSORIA</t>
-  </si>
-  <si>
-    <t>6023 - PROMOÇÃO E DIFUSÃODO CONHECIMENTOJURÍDICO À POPULAÇÃO</t>
-  </si>
-  <si>
-    <t>6288 - PRESTAÇÃO DEINFORMAÇÕES EORIENTAÇÕES REMOTAS</t>
-  </si>
-  <si>
-    <t>5963 - FORMULAÇÃO EIMPLEMENTAÇÃO DEPROGRAMAS E PROJETOSPARA A PESSOA COMDEFICIÊNCIA</t>
-  </si>
-  <si>
-    <t>6252 - FOMENTO DEATIVIDADESPARADESPORTIVAS DE ALTORENDIMENTO</t>
-  </si>
-  <si>
-    <t>6253 - GESTÃO DO CENTRODE TREINAMENTOPARAOLÍMPICO BRASILEIRO</t>
-  </si>
-  <si>
-    <t>6249 - PROMOÇÃO DOSDIREITOS DIFUSOS DAPESSOA COM DEFICIÊNCIA</t>
-  </si>
-  <si>
-    <t>6352 - DIVULGAÇÃO DOACERVO HISTÓRICO ECULTURAL DOS DIREITOS DAPESSOA COM DEFICIÊNCIA</t>
-  </si>
-  <si>
-    <t>6311 - PLANEJAMENTO DOTURISMO</t>
-  </si>
-  <si>
-    <t>6248 - APRIMORAMENTO DAGESTÃO INTERNA DOTURISMO</t>
-  </si>
-  <si>
-    <t>6316 - DESENVOLVIMENTODOS DESTINOS PAULISTA</t>
-  </si>
-  <si>
-    <t>6059 - PROMOÇÃO DOTURISMO</t>
-  </si>
-  <si>
-    <t>4102 - APOIO AOSMUNICÍPIOS TURÍSTICOS -ESTÂNCIAS</t>
-  </si>
-  <si>
-    <t>6195 - APOIO AOSMUNICÍPIOS DE INTERESSETURÍSTICOS-MIT</t>
-  </si>
-  <si>
-    <t>6220 - GERENCIAMENTO DEPROJETOS DOS MUNICÍPIOS-ESTÂNCIAS E DE INTERESSETURÍSTICO</t>
-  </si>
-  <si>
-    <t>5533 - ADMINISTRAÇÃO DOPATRIMÔNIO IMOBILIÁRIO</t>
-  </si>
-  <si>
-    <t>5348 - PREPARAÇÃO PARA ODESASTRE.</t>
-  </si>
-  <si>
-    <t>4418 - ASSISTÊNCIAHUMANITÁRIA.</t>
-  </si>
-  <si>
-    <t>1152 - SUPORTE À GESTÃODE DEFESA CIVIL.</t>
-  </si>
-  <si>
-    <t>6319 - PERCEBENDO ORISCO.</t>
+    <t>5832 - MAPEAMENTO DE ÁREAS DE INTERESSE DO ESTADO</t>
+  </si>
+  <si>
+    <t>6193 - CONTENCIOSO TRIBUTÁRIO-FISCAL</t>
+  </si>
+  <si>
+    <t>5841 - CONSULTORIA E ASSESSORIA JURÍDICA</t>
+  </si>
+  <si>
+    <t>5892 - MANUTENÇÃO E MODERNIZAÇÃO TECNOLÓGICA</t>
+  </si>
+  <si>
+    <t>5836 - APRIMORAMENTO, FORMAÇÃO CONTINUADA E DIFUSÃO DO CONHECIMENTO JURÍDICO</t>
+  </si>
+  <si>
+    <t>5131 - REALIZAÇÃO E APOIO AOS EVENTOS DE CARÁTER COMPETITIVO</t>
+  </si>
+  <si>
+    <t>5116 - CENTRO DE  INICIAÇÃO E TREINAMENTO ESPORTIVO</t>
+  </si>
+  <si>
+    <t>5124 - PARTICIPAÇÃO DE PESSOAS EM EVENTOS DE LAZER</t>
+  </si>
+  <si>
+    <t>6028 - ATLETAS BENEFICIADOS COM BOLSA TALENTO ESPORTIVO</t>
+  </si>
+  <si>
+    <t>5868 - APOIO A EVENTOS DE CONSCIENTIZAÇÃO E ENGAJAMENTO DO PÚBLICO DE 15 A 29 ANOS</t>
+  </si>
+  <si>
+    <t>6368 - ENCONTROS PARA DISCUSSÃO DE POLITICAS PARA JUVENTUDE</t>
+  </si>
+  <si>
+    <t>6321 - REFORMAS E/OU OBRAS REALIZADAS PELA SECRETARIA</t>
+  </si>
+  <si>
+    <t>1040 - APOIO AOS MUNICÍPIOS PARA REALIZAÇÃO DE OBRAS EM EQUIPAMENTOS ESPORTIVOS</t>
+  </si>
+  <si>
+    <t>4072 - DISTRIBUIÇÃO DE KITS DE ACADEMIA AO AR LIVRE</t>
+  </si>
+  <si>
+    <t>6322 - DISTRIBUIÇÃO DE MATERIAIS ESPORTIVOS</t>
+  </si>
+  <si>
+    <t>5798 - GESTÃO DA DEFENSORIA PÚBLICA DO ESTADO DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>5796 - PRESTAÇÃO DE ASSISTÊNCIA JURÍDICA SUPLEMENTAR</t>
+  </si>
+  <si>
+    <t>5795 - AÇÕES DE COMUNICAÇÃO INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t>5797 - CAPACITAÇÃO DE DEFENSORES, SERVIDORES E ESTAGIÁRIOS</t>
+  </si>
+  <si>
+    <t>5799 - GESTÃO E MODERNIZAÇÃO DOS SERVIÇOS DE TECNOLOGIA DA INFORMAÇÃO DA DEFENSORIA</t>
+  </si>
+  <si>
+    <t>6023 - PROMOÇÃO E DIFUSÃO DO CONHECIMENTO JURÍDICO À POPULAÇÃO</t>
+  </si>
+  <si>
+    <t>6288 - PRESTAÇÃO DE INFORMAÇÕES E ORIENTAÇÕES REMOTAS</t>
+  </si>
+  <si>
+    <t>5963 - FORMULAÇÃO E IMPLEMENTAÇÃO DE PROGRAMAS E PROJETOS PARA A PESSOA COM DEFICIÊNCIA</t>
+  </si>
+  <si>
+    <t>6252 - FOMENTO DE ATIVIDADES PARADESPORTIVAS DE ALTO RENDIMENTO</t>
+  </si>
+  <si>
+    <t>6253 - GESTÃO DO CENTRO DE TREINAMENTO PARAOLÍMPICO BRASILEIRO</t>
+  </si>
+  <si>
+    <t>6249 - PROMOÇÃO DOS DIREITOS DIFUSOS DA PESSOA COM DEFICIÊNCIA</t>
+  </si>
+  <si>
+    <t>6352 - DIVULGAÇÃO DO ACERVO HISTÓRICO E CULTURAL DOS DIREITOS DA PESSOA COM DEFICIÊNCIA</t>
+  </si>
+  <si>
+    <t>6311 - PLANEJAMENTO DO TURISMO</t>
+  </si>
+  <si>
+    <t>6248 - APRIMORAMENTO DA GESTÃO INTERNA DO TURISMO</t>
+  </si>
+  <si>
+    <t>6316 - DESENVOLVIMENTO DOS DESTINOS PAULISTA</t>
+  </si>
+  <si>
+    <t>6059 - PROMOÇÃO DO TURISMO</t>
+  </si>
+  <si>
+    <t>4102 - APOIO AOS MUNICÍPIOS TURÍSTICOS - ESTÂNCIAS</t>
+  </si>
+  <si>
+    <t>6195 - APOIO AOS MUNICÍPIOS DE INTERESSE TURÍSTICOS-MIT</t>
+  </si>
+  <si>
+    <t>6220 - GERENCIAMENTO DE PROJETOS DOS MUNICÍPIOS- ESTÂNCIAS E DE INTERESSE TURÍSTICO</t>
+  </si>
+  <si>
+    <t>5533 - ADMINISTRAÇÃO DO PATRIMÔNIO IMOBILIÁRIO</t>
+  </si>
+  <si>
+    <t>5348 - PREPARAÇÃO PARA O DESASTRE.</t>
+  </si>
+  <si>
+    <t>4418 - ASSISTÊNCIA HUMANITÁRIA.</t>
+  </si>
+  <si>
+    <t>1152 - SUPORTE À GESTÃO DE DEFESA CIVIL.</t>
+  </si>
+  <si>
+    <t>6319 - PERCEBENDO O RISCO.</t>
   </si>
   <si>
     <t>2313 - REDE DE AÇÃO SOCIAL</t>
   </si>
   <si>
-    <t>4328 - DISTRIBUIÇÃO DEBENS SERVÍVEIS AENTIDADESGOVERNAMENTAIS E NÃOGOVERNAMENTAIS</t>
-  </si>
-  <si>
-    <t>5331 - CAPACITAÇÃO PARAATIVIDADES GERADORAS DERENDA</t>
-  </si>
-  <si>
-    <t>2592 - IMPLANTAÇÃO DASPRAÇAS DA CIDADANIA NOESTADO DE SÃO PAULO</t>
-  </si>
-  <si>
-    <t>2591 - CRIAÇÃO EIMPLEMENTAÇÃO DOOBSERVATÓRIO SOCIAL DOFUSSP</t>
-  </si>
-  <si>
-    <t>6372 - CORREIÇÃO DEPROCEDIMENTOS</t>
-  </si>
-  <si>
-    <t>5724 - GESTÃO DOCUMENTALE ACESSO À INFORMAÇÃOPÚBLICA</t>
-  </si>
-  <si>
-    <t>5725 - TRATAMENTO,PRESERVAÇÃO EDISPONIBILIZAÇÃO DOACERVO CUSTODIADO</t>
-  </si>
-  <si>
-    <t>6310 - POLÍTICA DEARQUIVOS E TECNOLOGIA DAINFORMAÇÃO</t>
-  </si>
-  <si>
-    <t>4912 - REGULAÇÃO EFISCALIZAÇÃO DOSSERVIÇOS DE TRANSPORTESCOLETIVOS DEPASSAGEIROS</t>
-  </si>
-  <si>
-    <t>4913 - REGULAÇÃO EFISCALIZAÇÃO DASCONCESSÕES RODOVIÁRIAS</t>
-  </si>
-  <si>
-    <t>6264 - REGULAÇÃO EFISCALIZAÇÃO DASCONCESSÕES DEAEROPORTOS</t>
-  </si>
-  <si>
-    <t>6314 - REGULAÇÃO EFISCALIZAÇÃO DOS NOVOSMODAIS DE TRANSPORTE.</t>
-  </si>
-  <si>
-    <t>5755 - FISCALIZAÇÃO DOSSERVIÇOS DE ENERGIAELÉTRICA</t>
-  </si>
-  <si>
-    <t>5794 - REGULAÇÃO EFISCALIZAÇÃO DOSSERVIÇOS PÚBLICOS DESANEAMENTO BÁSICO</t>
-  </si>
-  <si>
-    <t>5872 - REGULAÇÃO,CONTROLE E FISCALIZAÇÃODOS SERVIÇOS DE DISTRIB.DE GÁS CANALIZADO</t>
-  </si>
-  <si>
-    <t>6268 - CUMPRIMENTO DASATIVIDADES DE REGULAÇÃOECONÔMICO-FINANCEIRA EMERCADOS</t>
-  </si>
-  <si>
-    <t>5637 - APOIO TÉCNICO EINSTITUCIONAL ÀS PPPS, ÀSCONCESSÕES E A OUTRASPARCERIAS</t>
-  </si>
-  <si>
-    <t>6318 - DISPONIBILIZAÇÃO DOPORTAL DE PARCERIAS COMO TERCEIRO SETOR</t>
-  </si>
-  <si>
-    <t>6373 - ORGANIZAÇÃO EDISSEMINAÇÃO INF. REF.ÓBITOS CAUSADOS PORACIDENTES DE TRÂNSITO</t>
-  </si>
-  <si>
-    <t>6270 - APOIO TÉCNICO EFINANCEIRO AOS MUNICÍPIOSPARA AÇÕES DE SEGURANÇAVIÁRIA.</t>
-  </si>
-  <si>
-    <t>2567 - PLANOS DEINVESTIMENTO DESEGURANÇA RODOVIÁRIA(PISR)</t>
-  </si>
-  <si>
-    <t>6292 - IMPLEMENTAÇÃO DEAÇÕES PARA A EDUCAÇÃONO TRÂNSITO</t>
-  </si>
-  <si>
-    <t>2178 - ATUALIZAÇÃO EMANUTENÇÃO DAINFRAESTRUTURA DE TIC</t>
-  </si>
-  <si>
-    <t>5372 - GESTÃO E EVOLUÇÃODO POUPATEMPO</t>
-  </si>
-  <si>
-    <t>6223 - MELHORIA DA GESTÃOPÚBLICA E DOS SERVIÇOS AOCIDADÃO POR MEIO DATECNOLOGIA-TIC</t>
-  </si>
-  <si>
-    <t>5636 - GESTÃO DO ACESSASP</t>
-  </si>
-  <si>
-    <t>2590 - DESENVOLVIMENTO EIMPLEMENTAÇÃO DOPROJETO “SEM PAPEL”</t>
-  </si>
-  <si>
-    <t>5940 - PRODUÇÃO EDISSEMINAÇÃO DEINFORMAÇÕES</t>
-  </si>
-  <si>
-    <t>6240 - PRODUÇÃO DEESTUDOS E ANÁLISES</t>
-  </si>
-  <si>
-    <t>5509 - PLANO CARTOGRÁFICODO ESTADO DE SÃO PAULO</t>
+    <t>4328 - DISTRIBUIÇÃO DE BENS SERVÍVEIS A ENTIDADES GOVERNAMENTAIS E NÃO GOVERNAMENTAIS</t>
+  </si>
+  <si>
+    <t>5331 - CAPACITAÇÃO PARA ATIVIDADES GERADORAS DE RENDA</t>
+  </si>
+  <si>
+    <t>2592 - IMPLANTAÇÃO DAS PRAÇAS DA CIDADANIA NO ESTADO DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>2591 - CRIAÇÃO E IMPLEMENTAÇÃO DO OBSERVATÓRIO SOCIAL DO FUSSP</t>
+  </si>
+  <si>
+    <t>6372 - CORREIÇÃO DE PROCEDIMENTOS</t>
+  </si>
+  <si>
+    <t>5724 - GESTÃO DOCUMENTAL E ACESSO À INFORMAÇÃO PÚBLICA</t>
+  </si>
+  <si>
+    <t>5725 - TRATAMENTO, PRESERVAÇÃO E DISPONIBILIZAÇÃO DO ACERVO CUSTODIADO</t>
+  </si>
+  <si>
+    <t>6310 - POLÍTICA DE ARQUIVOS E TECNOLOGIA DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>4912 - REGULAÇÃO E FISCALIZAÇÃO DOS SERVIÇOS DE TRANSPORTES COLETIVOS DE PASSAGEIROS</t>
+  </si>
+  <si>
+    <t>4913 - REGULAÇÃO E FISCALIZAÇÃO DAS CONCESSÕES RODOVIÁRIAS</t>
+  </si>
+  <si>
+    <t>6264 - REGULAÇÃO E FISCALIZAÇÃO DAS CONCESSÕES DE AEROPORTOS</t>
+  </si>
+  <si>
+    <t>6314 - REGULAÇÃO E FISCALIZAÇÃO DOS NOVOS MODAIS DE TRANSPORTE.</t>
+  </si>
+  <si>
+    <t>5755 - FISCALIZAÇÃO DOS SERVIÇOS DE ENERGIA ELÉTRICA</t>
+  </si>
+  <si>
+    <t>5794 - REGULAÇÃO E FISCALIZAÇÃO DOS SERVIÇOS PÚBLICOS DE SANEAMENTO BÁSICO</t>
+  </si>
+  <si>
+    <t>5872 - REGULAÇÃO, CONTROLE E FISCALIZAÇÃO DOS SERVIÇOS DE DISTRIB. DE GÁS CANALIZADO</t>
+  </si>
+  <si>
+    <t>6268 - CUMPRIMENTO DAS ATIVIDADES DE REGULAÇÃO ECONÔMICO-FINANCEIRA E MERCADOS</t>
+  </si>
+  <si>
+    <t>5637 - APOIO TÉCNICO E INSTITUCIONAL ÀS PPPS, ÀS CONCESSÕES E A OUTRAS PARCERIAS</t>
+  </si>
+  <si>
+    <t>6318 - DISPONIBILIZAÇÃO DO PORTAL DE PARCERIAS COM O TERCEIRO SETOR</t>
+  </si>
+  <si>
+    <t>6373 - ORGANIZAÇÃO E DISSEMINAÇÃO INF. REF. ÓBITOS CAUSADOS POR ACIDENTES DE TRÂNSITO</t>
+  </si>
+  <si>
+    <t>6270 - APOIO TÉCNICO E FINANCEIRO AOS MUNICÍPIOS PARA AÇÕES DE SEGURANÇA VIÁRIA.</t>
+  </si>
+  <si>
+    <t>2567 - PLANOS DE INVESTIMENTO DE SEGURANÇA RODOVIÁRIA (PISR)</t>
+  </si>
+  <si>
+    <t>6292 - IMPLEMENTAÇÃO DE AÇÕES PARA A EDUCAÇÃO NO TRÂNSITO</t>
+  </si>
+  <si>
+    <t>2178 - ATUALIZAÇÃO E MANUTENÇÃO DA INFRAESTRUTURA DE TIC</t>
+  </si>
+  <si>
+    <t>5372 - GESTÃO E EVOLUÇÃO DO POUPATEMPO</t>
+  </si>
+  <si>
+    <t>6223 - MELHORIA DA GESTÃO PÚBLICA E DOS SERVIÇOS AO CIDADÃO POR MEIO DA TECNOLOGIA-TIC</t>
+  </si>
+  <si>
+    <t>5636 - GESTÃO DO ACESSA SP</t>
+  </si>
+  <si>
+    <t>2590 - DESENVOLVIMENTO E IMPLEMENTAÇÃO DO PROJETO “SEM PAPEL”</t>
+  </si>
+  <si>
+    <t>5940 - PRODUÇÃO E DISSEMINAÇÃO DE INFORMAÇÕES</t>
+  </si>
+  <si>
+    <t>6240 - PRODUÇÃO DE ESTUDOS E ANÁLISES</t>
+  </si>
+  <si>
+    <t>5509 - PLANO CARTOGRÁFICO DO ESTADO DE SÃO PAULO</t>
   </si>
   <si>
     <t>6242 - GESTÃO TERRITORIAL</t>
   </si>
   <si>
-    <t>5510 - GESTÃO DOCUMENTAL,DA INFORMAÇÃO E DOCONHECIMENTOGEOGRÁFICO ECARTOGRÁFICO</t>
-  </si>
-  <si>
-    <t>6228 - REFORÇO DAS BASESDO PLANEJAMENTO E MONIT.PARA O DESENV. DAMACROMETRÓPOLE</t>
-  </si>
-  <si>
-    <t>6305 - PRODUÇÃO DEINFORMAÇÕES E ANÁLISESPARA APOIO AOSPROGRAMAS E SERVIÇOSPÚBLICOS</t>
-  </si>
-  <si>
-    <t>4860 - ASSISTÊNCIA MÉDICO-HOSPITALAR PRÓPRIA - HSPE</t>
-  </si>
-  <si>
-    <t>6239 - ASSISTÊNCIA À SAÚDENA REDE CONTRATADA</t>
-  </si>
-  <si>
-    <t>6048 - PROMOÇÃO EPROTEÇÃO À SAÚDE DOUSUÁRIO DO IAMSPE</t>
-  </si>
-  <si>
-    <t>6044 - DESENVOLVIMENTO DEENSINO E PESQUISA</t>
-  </si>
-  <si>
-    <t>4990 - SERVIÇOS DETRÂNSITO</t>
-  </si>
-  <si>
-    <t>6255 - ADMINISTRAÇÃO DEPÁTIOS E LEILÕES</t>
-  </si>
-  <si>
-    <t>4991 - EDUCAÇÃO EFISCALIZAÇÃO PARA OTRÂNSITO</t>
-  </si>
-  <si>
-    <t>5359 - PUBLICIDADEINSTITUCIONAL</t>
-  </si>
-  <si>
-    <t>5576 - PUBLICIDADE DEUTILIDADE PÚBLICA</t>
-  </si>
-  <si>
-    <t>6313 - ARTICULAÇÃO DEPARCERIAS INTERNACIONAIS</t>
-  </si>
-  <si>
-    <t>01000 - ASSEMBLEIALEGISLATIVA</t>
-  </si>
-  <si>
-    <t>02000 - TRIBUNAL DECONTAS</t>
-  </si>
-  <si>
-    <t>03000 - TRIBUNAL  DEJUSTIÇA</t>
-  </si>
-  <si>
-    <t>06000 - TRIB. JUSTIÇAMILITAR</t>
+    <t>5510 - GESTÃO DOCUMENTAL, DA INFORMAÇÃO E DO CONHECIMENTO GEOGRÁFICO E CARTOGRÁFICO</t>
+  </si>
+  <si>
+    <t>6228 - REFORÇO DAS BASES DO PLANEJAMENTO E MONIT. PARA O DESENV. DA MACROMETRÓPOLE</t>
+  </si>
+  <si>
+    <t>6305 - PRODUÇÃO DE INFORMAÇÕES E ANÁLISES PARA APOIO AOS PROGRAMAS E SERVIÇOS PÚBLICOS</t>
+  </si>
+  <si>
+    <t>4860 - ASSISTÊNCIA MÉDICO- HOSPITALAR PRÓPRIA - HSPE</t>
+  </si>
+  <si>
+    <t>6239 - ASSISTÊNCIA À SAÚDE NA REDE CONTRATADA</t>
+  </si>
+  <si>
+    <t>6048 - PROMOÇÃO E PROTEÇÃO À SAÚDE DO USUÁRIO DO IAMSPE</t>
+  </si>
+  <si>
+    <t>6044 - DESENVOLVIMENTO DE ENSINO E PESQUISA</t>
+  </si>
+  <si>
+    <t>4990 - SERVIÇOS DE TRÂNSITO</t>
+  </si>
+  <si>
+    <t>6255 - ADMINISTRAÇÃO DE PÁTIOS E LEILÕES</t>
+  </si>
+  <si>
+    <t>4991 - EDUCAÇÃO E FISCALIZAÇÃO PARA O TRÂNSITO</t>
+  </si>
+  <si>
+    <t>5359 - PUBLICIDADE INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t>5576 - PUBLICIDADE DE UTILIDADE PÚBLICA</t>
+  </si>
+  <si>
+    <t>6313 - ARTICULAÇÃO DE PARCERIAS INTERNACIONAIS</t>
+  </si>
+  <si>
+    <t>01000 - ASSEMBLEIA LEGISLATIVA</t>
+  </si>
+  <si>
+    <t>02000 - TRIBUNAL DE CONTAS</t>
+  </si>
+  <si>
+    <t>03000 - TRIBUNAL  DE JUSTIÇA</t>
+  </si>
+  <si>
+    <t>06000 - TRIB. JUSTIÇA MILITAR</t>
   </si>
   <si>
     <t>08000 - EDUCAÇÃO</t>
   </si>
   <si>
-    <t>10000 -DESENVOLVIMENTOECONÔMICO</t>
+    <t>10000 - DESENVOLVIMENTO ECONÔMICO</t>
   </si>
   <si>
     <t>09000 - SAÚDE</t>
   </si>
   <si>
-    <t>35000 -DESENVOLVIMENTOSOCIAL</t>
-  </si>
-  <si>
-    <t>12000 - CULTURA EECONOMIA CRIATIVA</t>
+    <t>35000 - DESENVOLVIMENTO SOCIAL</t>
+  </si>
+  <si>
+    <t>12000 - CULTURA E ECONOMIA CRIATIVA</t>
   </si>
   <si>
     <t>13000 - AGRICULTURA</t>
@@ -4990,43 +4990,43 @@
     <t>16000 - TRANSPORTES</t>
   </si>
   <si>
-    <t>17000 - JUSTIÇA ECIDADANIA</t>
-  </si>
-  <si>
-    <t>18000 - SEGURANÇAPÚBLICA</t>
-  </si>
-  <si>
-    <t>20000 -  FAZENDA EPLANEJAMENTO</t>
+    <t>17000 - JUSTIÇA E CIDADANIA</t>
+  </si>
+  <si>
+    <t>18000 - SEGURANÇA PÚBLICA</t>
+  </si>
+  <si>
+    <t>20000 -  FAZENDA E PLANEJAMENTO</t>
   </si>
   <si>
     <t>25000 - HABITAÇÃO</t>
   </si>
   <si>
-    <t>26000 - INFRAEST. EMEIO AMBIENTE</t>
-  </si>
-  <si>
-    <t>27000 - MINISTÉRIOPÚBLICO</t>
-  </si>
-  <si>
-    <t>29000 -DESENVOLVIMENTOREGIONAL</t>
-  </si>
-  <si>
-    <t>37000 - TRANSPORTESMETROPOLITANOS</t>
-  </si>
-  <si>
-    <t>38000 - ADM.PENITENCIÁRIA</t>
-  </si>
-  <si>
-    <t>40000 - PROCURADORIAGERAL</t>
+    <t>26000 - INFRAEST. E MEIO AMBIENTE</t>
+  </si>
+  <si>
+    <t>27000 - MINISTÉRIO PÚBLICO</t>
+  </si>
+  <si>
+    <t>29000 - DESENVOLVIMENTO REGIONAL</t>
+  </si>
+  <si>
+    <t>37000 - TRANSPORTES METROPOLITANOS</t>
+  </si>
+  <si>
+    <t>38000 - ADM. PENITENCIÁRIA</t>
+  </si>
+  <si>
+    <t>40000 - PROCURADORIA GERAL</t>
   </si>
   <si>
     <t>41000 - ESPORTES</t>
   </si>
   <si>
-    <t>42000 - DEFENSORIAPÚBLICA</t>
-  </si>
-  <si>
-    <t>47000 - DIREITOSPESSOA COMDEFICIÊNCIA</t>
+    <t>42000 - DEFENSORIA PÚBLICA</t>
+  </si>
+  <si>
+    <t>47000 - DIREITOS PESSOA COM DEFICIÊNCIA</t>
   </si>
   <si>
     <t>50000 - TURISMO</t>
@@ -5035,7 +5035,7 @@
     <t>51000 - GOVERNO</t>
   </si>
   <si>
-    <t>52000 - SEC. ESP. DERELAÇÕESINTERNACIONAIS</t>
+    <t>52000 - SEC. ESP. DE RELAÇÕES INTERNACIONAIS</t>
   </si>
 </sst>
 </file>
